--- a/batch_papers_summary.xlsx
+++ b/batch_papers_summary.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A comprehensive literature review of the integrated flexible job shop scheduling problems (I-FJSP) and its extensions, analyzing 140 related articles, presenting mathematical models, and explaining five different integration models with qualitative analyses.</t>
+          <t>A comprehensive and detailed survey is conducted by analyzing 140 publications on the I-FJSP. The research framework includes material collection, descriptive analysis, category selection, and material evaluation.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>To present a comprehensive literature review of the integrated flexible job shop scheduling problems (I-FJSP) and its extensions, analyze current development trends, and identify research challenges and directions.</t>
+          <t>The main objectives of this study are to review and analyze the literature on integrated flexible job shop scheduling problems, identify research gaps, and highlight future research directions, particularly in the context of Industry 4.0.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>This paper addresses the integrated flexible job shop scheduling problems (I-FJSP), which have gained attention due to the advent of Industry 4.0. The authors conducted a thorough literature review, analyzing 140 articles related to I-FJSP, highlighting the need for integrated optimization to enhance practical applications in modern manufacturing environments. The paper begins by outlining the mathematical models associated with FJSP and presents an overview framework for understanding the complexities involved. It categorizes the existing literature into five distinct integration models, each accompanied by qualitative analyses that elucidate their respective characteristics and applications. The authors also discuss the challenges faced in the current research landscape, emphasizing the necessity for innovative solutions that leverage advancements in data analysis and technology, such as cyber-physical systems and the Internet of Things. The findings indicate that while significant progress has been made, there remains a gap in comprehensive reviews specifically targeting I-FJSP, with only a handful of existing literature reviews. The paper concludes by suggesting future research directions that could bridge these gaps, ultimately aiming to foster collaboration between academic researchers and industry practitioners in the context of Industry 4.0. This work is significant as it not only consolidates existing knowledge but also sets the stage for future explorations in the field, particularly in developing more sophisticated scheduling algorithms that can handle the complexities of modern manufacturing systems.</t>
+          <t>This paper provides a thorough survey of integrated flexible job shop scheduling problems (I-FJSP), outlining their evolution in the context of Industry 4.0. The necessity of this review stems from the increasing complexity and integration of scheduling tasks in modern manufacturing environments. The authors compiled an extensive literature review of 140 articles covering various aspects of I-FJSP, highlighting key methodologies, models, and challenges faced by researchers. The integration models explored include those focusing on process planning, production planning, maintenance planning, transportation planning, and assembly planning. The review reveals that existing methodologies often operate in isolation and emphasizes the need for a more robust integration of scheduling processes. There is a specific call for addressing research gaps, particularly in areas that combine I-FJSP with advancements in technology such as AI and IoT. Future directions proposed include the development of comprehensive models that can handle dynamic environments and uncertainties, along with the integration of advanced data collection and analysis methods to improve decision-making in real-time. The paper concludes that the evolution towards Industry 4.0 necessitates a shift in research focus to more holistic and adaptable scheduling solutions that can cater to the intricacies of modern industrial requirements.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,21 +513,43 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:23</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>No-Wait Job Shop Scheduling Using a Population-Based Iterated Greedy Algorithm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>When no-wait constraint holds in job shops, a job has to be processed with no waiting time from the first to the last operation, and the start time of a job is greatly restricted. Using key elements of the iterated greedy algorithm, this paper proposes a population-based iterated greedy (PBIG) algorithm for finding high-quality schedules in no-wait job shops. Firstly, the Nawaz-Enscore-Ham (NEH) heuristic used for flow shop is extended in no-wait job shops, and an initialization scheme based on the NEH heuristic is developed to generate start solutions with a certain quality and diversity. Secondly, the iterated greedy procedure is introduced based on the destruction and construction perturbator and the insert-based local search. Furthermore, a population-based co-evolutionary scheme is presented by imposing the iterated greedy procedure in parallel and hybridizing both the left timetabling and inverse left timetabling methods. Computational results based on well-known benchmark instances show that the proposed algorithm outperforms two existing metaheuristics by a significant margin.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Population-based iterated greedy (PBIG) algorithm utilizing a co-evolutionary scheme, incorporating a destruction and construction perturbator and an insertion-based local search, as well as the Nawaz-Enscore-Ham (NEH) heuristic for initialization.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>To develop an effective algorithm for solving the no-wait job shop scheduling problem (NWJSP) and to demonstrate its effectiveness through computational experiments comparing with existing metaheuristics.</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>['no-wait', 'job shop', 'local search', 'iterated greedy', 'metaheuristics']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>The no-wait job shop scheduling problem (NWJSP) imposes significant operational constraints where jobs must be processed without any waiting time between operations. This paper tackles the complexity of NWJSP, which is classified as NP-hard, by proposing a novel population-based iterated greedy (PBIG) algorithm, enhancing the iterated greedy framework by integrating co-evolutionary strategies. The main contributions of this research include an extension of the widely recognized Nawaz-Enscore-Ham (NEH) heuristic adapted for NWJSP to ensure high-quality initial solutions and a sophisticated initialization scheme aimed at generating diverse starting points for the algorithm.
+The PBIG operates through a structured procedural framework that consists of a three-phase iterated greedy process: first using a destruction and construction approach to create candidate solutions, followed by a localized insertion-based improvement phase, to refine the solutions iteratively. This algorithm exploits population dynamics by processing multiple solutions concurrently, applying co-evolutionary strategies that enhance the algorithmic diversity and convergence speed. Moreover, it combines various timetabling methods, notably the left and inverse left timetabling techniques, which are shown to significantly improve performance metrics.
+The computational analysis involved executing the PBIG against established benchmarks and comparing its efficacy against two competing metaheuristics. The results indicate that PBIG not only provides superior schedule quality but also achieves this with greater computational efficiency, substantiating its practicality for industrial applications that face the no-wait constraints typical in sectors like steel-making, pharmaceuticals, and food production. The findings importantly underscore the capabilities of the PBIG framework in engaging with complex scheduling challenges, which promise further insights and advancements in scheduling methodologies in future research.</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>undefined series for scimag 5 - Anna’s Archive.pdf</t>
@@ -535,7 +557,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -547,17 +569,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scheduling is an important tool for a manufacturing system, where it can have a major impact on the productivity of a production process. In order to find an optimal solution to scheduling problems it gives rise to complex combinatorial optimization problems. Unfortunately, most of them fall into the class of NP-hard combinatorial problems. In this paper, we focus on the design of multiobjective evolutionary algorithms (MOEAs) to solve a variety of scheduling problems. Firstly, we introduce fitness assignment mechanism and performance measures for solving multiple objective optimization problems, and introduce evolutionary representations and hybrid evolutionary operations especially for the scheduling problems. Then we apply these EAs to the different types of scheduling problems, included job shop scheduling problem (JSP), flexible JSP, Automatic Guided Vehicle (AGV) dispatching in flexible manufacturing system (FMS), and integrated process planning and scheduling (IPPS). Through a variety of numerical experiments, we demonstrate the effectiveness of these Hybrid EAs (HEAs) in the widely applications of manufacturing scheduling problems. This paper also summarizes a classification of scheduling problems, and illustrates the design way of EAs for the different types of scheduling problems. It is useful to guide how to design an effective EA for the practical manufacturing scheduling problems. As known, these practical scheduling problems are very complex, and almost is a combination of different typical scheduling problems.</t>
+          <t>Scheduling is an important tool for a manufacturing system, where it can have a major impact on the productivity of a production process. In order to find an optimal solution to scheduling problems it gives rise to complex combinatorial optimization problems. Unfortunately, most of them fall into the class of NP-hard combinatorial problems. In this paper, we focus on the design of multiobjective evolutionary algorithms (MOEAs) to solve a variety of scheduling problems. Firstly, we introduce fitness assignment mechanism and performance measures for solving multiple objective optimization problems, and introduce evolutionary representations and hybrid evolutionary operations especially for the scheduling problems. Then we apply these EAs to the different types of scheduling problems, included job shop scheduling problem (JSP), flexible JSP, Automatic Guided Vehicle (AGV) dispatching in flexible manufacturing system (FMS), and integrated process planning and scheduling (IPPS). Through a variety of numerical experiments, we demonstrate the effectiveness of these Hybrid EAs (HEAs) in the widely applications of manufacturing scheduling problems. This paper also summarizes a classification of scheduling problems, and illustrates the design way of EAs for the different types of scheduling problems. It is useful to guide how to design an effective EA for the practical manufacturing scheduling problems.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The paper introduces a multiobjective evolutionary algorithm (MOEA) design focusing on fitness assignment mechanisms, performance measures, evolutionary representations, and hybrid evolutionary operations tailored for various scheduling problems.</t>
+          <t>The paper discusses the design of multiobjective evolutionary algorithms (MOEAs) and their application to various scheduling problems in manufacturing systems. It introduces fitness assignment mechanisms, performance measures, evolutionary representations, and hybrid evolutionary operations tailored for specific scheduling scenarios.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>To survey and summarize the state-of-the-art in multiobjective evolutionary algorithms (MOEAs) for manufacturing scheduling problems, and to provide guidance on designing effective EAs for practical applications.</t>
+          <t>The objective of this study is to summarize and evaluate the design approaches of multiobjective evolutionary algorithms (MOEAs) for different manufacturing scheduling problems while highlighting their effectiveness and applicability in real-world scenarios.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,7 +589,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>This paper presents a comprehensive survey of multiobjective evolutionary algorithms (MOEAs) applied to manufacturing scheduling problems, which are known to be NP-hard and complex. The authors, Mitsuo Gen and Lin Lin, emphasize the importance of scheduling in manufacturing systems, as it significantly affects productivity. The paper begins by discussing the challenges posed by combinatorial optimization problems in scheduling and the necessity for effective solutions. The authors introduce various components of MOEAs, including fitness assignment mechanisms and performance measures tailored for multiobjective optimization. They explore evolutionary representations and hybrid evolutionary operations specifically designed for scheduling tasks. The paper categorizes different types of scheduling problems, such as job shop scheduling (JSP), flexible JSP, Automatic Guided Vehicle (AGV) dispatching in flexible manufacturing systems (FMS), and integrated process planning and scheduling (IPPS). Through numerical experiments, the authors demonstrate the effectiveness of hybrid evolutionary algorithms (HEAs) in addressing these scheduling challenges. The paper serves as a guide for researchers and practitioners in designing effective EAs for complex manufacturing scheduling problems, highlighting the need for specialized algorithms that cater to the unique characteristics of each scheduling scenario. The findings underscore the significance of MOEAs in improving scheduling efficiency and productivity in manufacturing environments, paving the way for future research in this domain.</t>
+          <t>This paper presents a comprehensive survey focused on multiobjective evolutionary algorithms (MOEAs) specifically applied to various manufacturing scheduling problems, which are critical for optimizing productivity in manufacturing systems. Due to the inherent complexity of scheduling tasks, many problems in this domain are classified as NP-hard combinatorial optimization challenges. The authors classify manufacturing scheduling problems into groups such as job shop scheduling (JSP), flexible JSP (FJSP), AGV dispatching in flexible manufacturing systems (FMS), and integrated process planning and scheduling (IPPS). They systematically introduce a fitness assignment mechanism and performance measures tailored for multiobjective optimization. Through numerical simulations, the effectiveness of hybrid evolutionary algorithms (HEAs) is empirically demonstrated. The paper emphasizes the significance of MOEAs in transforming complex scheduling tasks into manageable solutions, providing an essential guide for designing effective algorithms conducive to real-world applications in manufacturing contexts. The research also delves into the design considerations necessary for addressing the unique constraints and requirements of various scheduling scenarios, facilitating a better understanding of how MOEAs can be deployed to improve production efficiency through sophisticated algorithmic strategies.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -577,21 +599,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>An Effective Hybrid Imperialist Competitive Algorithm and Tabu Search for an Extended Flexible Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>An extended version of the flexible job shop problem is tackled in this work. The investigated extension of the classical flexible job shop problem allows the precedences between the operations to be given by an arbitrary directed acyclic graph instead of a linear order. The problem consists of designating the operations to the machines and sequencing them in compliance with the supplied precedences. The goal in the present work is the minimization of the makespan. In order to produce reasonable outcomes in acceptable time, a hybrid imperialist competitive algorithm and tabu search is proposed to solve the problem. Numerical experiments assess the efficiency of the proposed method and compare it with well-known scheduling algorithms.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A hybrid imperialist competitive algorithm and tabu search (ICA+TS) is proposed to find 'good enough' solutions in an acceptable time for large-sized problem instances. The method combines the global search of ICA with the local search capabilities of tabu search to balance exploration and exploitation.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The objective is to contribute to the development of metaheuristic techniques that produce reasonable results in acceptable time for the extended flexible job shop scheduling problem, particularly when operations have to comply with arbitrary directed acyclic graph precedences.</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>['Flexible job shop scheduling', 'imperialist competitive algorithm', 'tabu search', 'parallel operations']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>This paper addresses the extended flexible job shop scheduling problem (EFJSP), which allows operations to be sequenced according to arbitrary directed acyclic graphs instead of traditional linear precedence, complicating the scheduling landscape significantly. The authors propose a hybrid approach combining the Imperialist Competitive Algorithm (ICA) with Tabu Search (TS) to efficiently minimize makespan in complex scenarios. This novel ICA+TS method utilizes a robust representation scheme and a modified graph traversal technique to effectively explore and manage parallel operations within jobs, ensuring compliance with given precedence constraints. A series of experiments were conducted on 50 problem instances to evaluate the effectiveness of the proposed method against existing scheduling algorithms. Results demonstrated that the ICA+TS method not only produced high-quality solutions but did so within acceptable time frames, significantly benefiting practical scenarios in industries where sophisticated job scheduling is critical, such as manufacturing and project management. The work paves the way for future research into more advanced metaheuristic approaches for NP-hard scheduling problems, emphasizing the importance of hybrid techniques that leverage strengths from multiple algorithmic paradigms.</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>An effective hybrid imperialist competitive algorithm and tabu search for an extended flexible job shop scheduling problem - Anna’s Archive.pdf</t>
@@ -599,21 +641,42 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The Shifting Bottleneck Procedure for Job Shop Scheduling</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>We describe an approximation method for solving the minimum makespan problem of job shop scheduling. It sequences the machines one by one, successively, taking each time the machine identified as a bottleneck among the machines not yet sequenced. Every time after a new machine is sequenced, all previously established sequences are locally reoptimized. Both the bottleneck identification and the local reoptimization procedures are based on repeatedly solving certain one-machine scheduling problems. Besides this straight version of the Shifting Bottleneck Procedure, we have also implemented a version that applies the procedure to the nodes of a partial search tree. Computational testing shows that our approach yields consistently better results than other procedures discussed in the literature. A high point of our computational testing occurred when the enumerative version of the Shifting Bottleneck Procedure found in a little over five minutes an optimal schedule to a notorious ten machines/ten jobs problem on which many algorithms have been run for hours without finding an optimal solution.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>We sequence the machines one at a time, consecutively. In order to do this, for each machine not yet sequenced we solve to optimality a one-machine scheduling problem that is a relaxation of the original problem, and use the outcome both to rank the machines and to sequence the machine with highest rank. Every time a new machine has been sequenced, we reoptimize the sequence of each critical machine that is susceptible to improvement by again solving a one-machine problem.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>To provide an effective approximation method for solving the minimum makespan problem in job shop scheduling, improving upon existing scheduling methods.</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>['PRODUCTION SCHEDULING', 'JOB SHOP', 'DETERMINISTIC']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The paper addresses the challenging problem of job shop scheduling, specifically focusing on minimizing the makespan, which is the total time required to complete a set of jobs on machines with prescribed sequences. Job shop scheduling is a well-known NP-complete problem, making exact solutions infeasible for larger instances. The authors propose the Shifting Bottleneck Procedure, which sequences machines iteratively, where in each iteration a bottleneck machine is identified and sequenced optimally followed by local reoptimization of the sequences of previously sequenced machines. The method relies on solving simpler one-machine scheduling problems to determine the order of machines based on their impact on the overall makespan. A key innovation of this approach is its ability to continuously reoptimize schedules, which often leads to improved outcomes compared to traditional priority-based heuristics.
+In computational experiments, the authors demonstrated the effectiveness of their method, notably achieving optimal schedules for notoriously complex problems involving ten jobs and ten machines within minutes – a task that other algorithms have struggled with for much longer durations without success. The methodology uses a directed acyclic graph representation for scheduling and implements an O(n) algorithm for finding the longest path, which is crucial for determining critical paths in the scheduling process. With the proposed relaxation and reevaluation strategy, the Shifting Bottleneck Procedure serves as a viable alternative to conventional scheduling practices, showcasing its capability to yield superior scheduling efficiencies and providing avenues for further research into optimization techniques for job shop scheduling in industrial applications.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>mnsc_34_3_391 -- e1f0d256b5dc844cf6df4d2e02155212 -- Anna’s Archive.pdf</t>
@@ -621,7 +684,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -633,17 +696,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>This paper focuses on a classic optimization problem in operations research, the flexible job shop scheduling problem (FJSP), to discuss the method to deal with uncertainty in a manufacturing system. Condition based maintenance (CBM), a kind of preventive maintenance, is suggested to reduce unavailability of machines. An inserting algorithm (IA) is applied, in which firstly a pre-schedule is obtained through heuristic algorithm and then maintenance tasks are inserted into the pre-schedule scheme. It is encouraging that a new better solution for an instance in benchmark of FJSP is obtained in this research. Moreover, factually SSA used in literature for solving normal FJSPPM (FJSP with PM) is not suitable for the dynamic FJSPPM. Through application in the benchmark of normal FJSPPM, it is found that although IA obtains inferior results compared to SSA used in literature, it performs much better in executing speed. Different to traditional scheduling of FJSP, uncertainty of machines is taken into account, which increases the complexity of the problem. A comparative study of three heuristics is carried out, the integrated GA, ACO and ABC. In the comparative study, we find that GA performs best in the three heuristic algorithms.</t>
+          <t>This paper focuses on a classic optimization problem in operations research, the flexible job shop scheduling problem (FJSP), to discuss the method to deal with uncertainty in a manufacturing system.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An inserting algorithm (IA) is proposed to solve the dynamic scheduling problem. The solution procedure of FJSPPM is decomposed into two stages: stage 1 to solve FJSP for a pre-schedule scheme; stage 2 to insert PM tasks to the pre-schedule solution with an inserting algorithm (IA). For solving FJSP, three heuristic algorithms are applied to obtain the best solution: genetic algorithm (GA), ant colony optimization algorithm (ACO), and artificial bee colony algorithm (ABC).</t>
+          <t>An inserting algorithm (IA) is proposed to enhance pre-scheduling by integrating maintenance tasks into the schedule created by various heuristic algorithms (integrated GA, ACO, and ABC).</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>To address the flexible job shop scheduling problem (FJSP) considering condition based maintenance (CBM) to reduce machine unavailability and to compare the performance of different heuristic algorithms in solving this problem.</t>
+          <t>To solve the dynamic flexible job shop scheduling problem (DFJSPPM) considering condition based maintenance (CBM) and to evaluate the performance of different heuristic algorithms in this context.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +716,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem (FJSP), a complex optimization challenge in manufacturing systems, particularly under conditions of machine unavailability. The authors propose a novel approach that incorporates condition based maintenance (CBM) to enhance machine reliability and operational efficiency. The main contribution is the development of an inserting algorithm (IA) that integrates maintenance tasks into a pre-scheduled framework, contrasting with traditional simultaneous scheduling algorithms that do not account for real-time maintenance needs. The study reveals that while the IA may yield inferior results in terms of solution quality compared to the simultaneous scheduling algorithm (SSA), it significantly outperforms SSA in execution speed, making it a viable option for dynamic scheduling scenarios. The research further includes a comparative analysis of three heuristic algorithms: genetic algorithm (GA), ant colony optimization (ACO), and artificial bee colony (ABC). The findings indicate that GA consistently delivers superior performance among the tested heuristics. The methodology involves a two-stage solution process: first, generating a pre-schedule using one of the heuristics, and second, inserting maintenance tasks into this schedule using the IA. The mathematical model developed incorporates constraints for both job scheduling and maintenance tasks, ensuring that the scheduling remains feasible while minimizing makespan. The results demonstrate the effectiveness of the proposed approach in addressing the complexities introduced by machine unavailability, highlighting its practical implications for manufacturing operations. Future work may explore further refinements to the IA and the integration of additional maintenance strategies to enhance scheduling efficiency in more complex environments.</t>
+          <t>This research addresses the Flexible Job Shop Scheduling Problem (FJSP) under the impact of Condition Based Maintenance (CBM), emphasizing the uncertainty caused by machine unavailability in manufacturing systems. The problem is characterized as NP-complete, and traditional methods of scheduling do not adequately address real-time uncertainties. The authors introduce an Inserting Algorithm (IA) that aims to integrate maintenance tasks into a pre-scheduled framework using heuristic algorithms. Specifically, the study conducts a comparative analysis of three heuristic optimization methods: Genetic Algorithm (GA), Ant Colony Optimization (ACO), and Artificial Bee Colony (ABC). The research findings reveal that GA outperforms the other methods in generating optimal schedules while maintaining efficient execution speed, particularly in dynamic scenarios. The proposed IA, while yielding inferior solutions compared to the traditional Simultaneous Scheduling Algorithm (SSA), is noted for its superior speed, allowing for easier integration with existing Enterprise Resource Planning (ERP) systems. Empirical results were validated against benchmarks from Neale and Cameron (1979), demonstrating the effectiveness of the new algorithm and highlighting areas for future research, including enhancements to IA and better heuristic methods for scheduling with maintenance activities. Overall, the work provides significant insights for practitioners and researchers in the field of production management who seek to improve the reliability and efficiency of manufacturing operations under uncertainty, paving the way for future studies on resilient scheduling methods in complex environments.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -663,7 +726,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -675,17 +738,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Today, customer centricity becomes the key success factor for the manufacturing companies in gaining sustainable competitive advantage. In this regard, they need advanced production planning and control (PPC) techniques to be more customer focused. This study aims to integrate customer relationship management (CRM) and PPC approaches in order to use manufacturing resources of job shops more effectively in satisfying customers. To this aim, a simulated annealing based simulation optimization approach is proposed. To confirm the viability of the proposed approach, it is applied to a realistic job shop system. In order to accelerate the flow of production, product type based lot splitting is applied. In the scheduling phase, dynamic scheduling is implemented by machine-based dispatching rules. Multiple customer segments with different importance weights, and their expectations and penalties on order completion rate on due date, tardiness and earliness are considered. The aim of the proposed approach is to make near optimal policy decisions regarding the machine-based dispatching rules and number of equal sublots for the products. In this regard, four well-known dispatching rules and five modified versions of these rules which are proposed in this study are employed. Computational experiments are performed by using different dominance relationships between the customer segments, inter-arrival times and level of due date allowance factor. Results of the experiments reveal that integration of CRM and PPC approaches in job shop systems provides more effective use of resources in satisfying customers, and that the proposed approach can easily be implemented in practice.</t>
+          <t>Today, customer centricity becomes the key success factor for manufacturing companies in gaining sustainable competitive advantage. In this regard, they need advanced production planning and control (PPC) techniques to be more customer focused. This study aims to integrate customer relationship management (CRM) and PPC approaches in order to use manufacturing resources of job shops more effectively in satisfying customers. To this aim, a simulated annealing based simulation optimization approach is proposed. To confirm the viability of the proposed approach, it is applied to a realistic job shop system. In order to accelerate the flow of production, product type based lot splitting is applied. In the scheduling phase, dynamic scheduling is implemented by machine-based dispatching rules. Multiple customer segments with different importance weights, and their expectations and penalties on order completion rate on due date, tardiness and earliness are considered. The aim of the proposed approach is to make near-optimal policy decisions regarding the machine-based dispatching rules and number of equal sublots for the products. In this regard, four well-known dispatching rules and five modified versions of these rules which are proposed in this study are employed. Computational experiments are performed by using different dominance relationships between the customer segments, inter-arrival times and level of due date allowance factor. Results of the experiments reveal that integration of CRM and PPC approaches in job shop systems provides more effective use of resources in satisfying customers, and that the proposed approach can easily be implemented in practice.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A simulated annealing based simulation optimization approach is proposed to integrate customer relationship management (CRM) and production planning and control (PPC) approaches.</t>
+          <t>A simulated annealing based simulation optimization approach is proposed to integrate customer relationship management (CRM) and production planning and control (PPC) techniques in job shop environments. The method involves applying product type-based lot splitting and machine-based dispatching rules to enhance production flow and prioritize customer satisfaction based on their expectations and penalties for tardiness, earliness, and order completion.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>To integrate customer relationship management (CRM) and production planning and control (PPC) approaches to use manufacturing resources of job shops more effectively in satisfying customers.</t>
+          <t>To integrate customer relationship management (CRM) and production planning and control (PPC) approaches in job shops for effective utilization of manufacturing resources to satisfy diverse customer demands and expectations.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,7 +758,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>This paper addresses the increasing importance of customer centricity in manufacturing, particularly in job shop environments where customer demands are diverse and complex. The authors propose a novel approach that integrates customer relationship management (CRM) with production planning and control (PPC) to enhance resource utilization and customer satisfaction. The methodology employs a simulated annealing-based simulation optimization technique, which is applied to a realistic job shop system to validate its effectiveness. Key components of the approach include product type-based lot splitting to improve production flow and dynamic scheduling using machine-based dispatching rules. The study considers multiple customer segments, each with distinct importance weights and expectations regarding order completion rates, tardiness, and earliness. The proposed framework aims to derive near-optimal policy decisions concerning dispatching rules and the number of equal sublots for products. The authors conduct computational experiments to analyze the impact of various factors, such as customer segment dominance relationships and due date allowance levels, on performance outcomes. The results indicate that the integration of CRM and PPC significantly enhances resource efficiency and customer satisfaction in job shop settings. This research contributes to the field by providing a practical solution that can be readily implemented in manufacturing environments, emphasizing the need for a customer-focused approach in production planning. Future implications suggest further exploration of CRM-PPC integration in different manufacturing contexts and the potential for adapting the proposed methods to accommodate evolving customer expectations and market dynamics.</t>
+          <t>This paper addresses the importance of customer-centricity in manufacturing, specifically in job shop environments, where fulfilling diverse customer demands and expectations is crucial for maintaining competitive advantage. The research integrates customer relationship management (CRM) with production planning and control (PPC) techniques to propose a simulated annealing-based simulation optimization approach. The proposed method includes product type-based lot splitting and machine-based dynamic dispatching rules to effectively manage varying customer segments with different priorities and performance expectations. The computational framework is tested on a realistic job shop system comprising three product types and multiple customer segments. Results indicate that the combination of CRM and PPC leads to improved resource utilization and enhanced customer satisfaction, confirmed through a series of computational experiments. The optimization process is driven by minimizing the mean weighted deviations from customer expectations concerning order completion rates and due dates, with the findings demonstrating significant improvements over traditional methods. Key contributions of the study include the introduction of modified dispatching rules focusing on customer priorities, which are adaptable to the real-time dynamics of job shop environments. Furthermore, the study sets the foundation for future research to explore the interplay between quality parameters and customer satisfaction, aiming to refine manufacturing strategies in line with evolving customer needs. Overall, it underscores the practicality of integrating CRM and PPC within job shop systems, presenting a scalable approach for real-world manufacturing applications.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -705,7 +768,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -722,12 +785,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>An improved ant system algorithm for the Vehicle Routing Problem (VRP) with one central depot and identical vehicles, utilizing an adaptive memory and local heuristic functions to construct solutions.</t>
+          <t>An improved ant system algorithm utilizing a local heuristic approach and an adaptive memory to solve the Vehicle Routing Problem.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>To present an improved ant system algorithm for the Vehicle Routing Problem and to compare its performance with other metaheuristic approaches.</t>
+          <t>To present an improved Ant System for the Vehicle Routing Problem (VRP) and evaluate its performance against established metaheuristic methods.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -737,7 +800,9 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The paper addresses the Vehicle Routing Problem (VRP), a significant combinatorial optimization challenge in distribution management, where the goal is to determine optimal routes for a fleet of vehicles to service a set of customers from a central depot. The authors propose an enhanced Ant System algorithm that builds upon the original Ant System framework, which mimics the foraging behavior of ants to find optimal paths through pheromone trails. The proposed algorithm incorporates two main phases: the construction of vehicle routes and the pheromone trail update. In the construction phase, artificial ants select customers to visit based on a probability distribution influenced by pheromone intensity and a local heuristic function, which considers the distance to the customers. The authors introduce a parametrical savings function to enhance the visibility measure, which helps in selecting customers more effectively. The trail update mechanism is refined to allow only the best-performing ants to contribute to pheromone updates, thus emphasizing high-quality solutions. The algorithm is tested on fourteen benchmark problems, demonstrating its effectiveness in producing competitive results compared to five other established metaheuristic methods, including tabu search and simulated annealing. The computational experiments reveal that the improved Ant System algorithm not only reduces computation time but also enhances solution quality, particularly when candidate lists are employed to limit the selection of customers to the most promising ones. The findings suggest that the proposed method is a viable option for solving VRPs, with implications for practical applications in logistics and transportation management. Future work may explore further enhancements to the algorithm and its application to more complex variants of the VRP.</t>
+          <t>This paper introduces an enhanced Ant System algorithm aimed at addressing the Vehicle Routing Problem (VRP) characterized by a single central depot and homogeneous vehicles. The methodology emphasizes the interaction of artificial ants which emulate behaviors observed in natural ant colonies during their search for food. The improved algorithm takes advantage of local heuristic functions and adaptive memory (akin to pheromone trails), facilitating the construction of competitive solutions. The authors applied their algorithm to fourteen benchmark problems, focusing on both randomly generated and clustered customer distributions. The comparative evaluation included five other established metaheuristics, such as tabu search and simulated annealing.
+Key contributions include meticulous description of the construction of vehicle routes, which involves probabilistic customer selection based on previous iterations and heuristic desirability. The model incorporates a trail update rule where updates are contingent on the quality of solutions produced by the best-ranked ants, thus refining the pheromone trails that guide future solutions. The computational results demonstrate the algorithm's competitiveness, although it could not improve upon the best-known solutions for the tested problems. Comparative results indicated that while tabu search methods yielded better solutions in general, the improved Ant System provided a valid alternative with notable improvements in solution quality and execution time.
+Future research directions proposed include the exploration of different parameter settings, incorporation of VRP-specific local search methods, and potential parallel implementation of the algorithm. The findings substantiate the efficacy of the improved Ant System, suggesting promising avenues for further advancements in solving the VRP and related combinatorial optimization problems.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -747,7 +812,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -764,12 +829,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Knowledge-Based Ant Colony Optimization (KBACO) algorithm, which integrates Ant Colony Optimization (ACO) with a knowledge model to guide heuristic searching.</t>
+          <t>Knowledge-Based Ant Colony Optimization (KBACO) algorithm integrates ACO model with a knowledge model that learns from previous optimization iterations, guiding current searches using effective knowledge to enhance performance.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>To develop an effective algorithm for solving the Flexible Job Shop Scheduling Problem (FJSSP) by integrating knowledge-based strategies with Ant Colony Optimization.</t>
+          <t>To develop an effective scheduling solution for the Flexible Job Shop Scheduling Problem using a Knowledge-Based Ant Colony Optimization algorithm that outperforms existing methods.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -779,7 +844,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The paper addresses the Flexible Job Shop Scheduling Problem (FJSSP), a complex combinatorial optimization challenge that extends the traditional Job Shop Scheduling Problem (JSSP) by allowing operations to be processed on multiple machines. The authors propose a novel algorithm called Knowledge-Based Ant Colony Optimization (KBACO), which combines the strengths of Ant Colony Optimization (ACO) with a knowledge model that learns from previous optimization efforts. This integration aims to enhance the search for optimal scheduling solutions by utilizing learned knowledge to guide the heuristic search process. The KBACO algorithm operates through a structured framework that includes initializing genotypic knowledge, constructing feasible solutions using ACO, and updating knowledge based on optimization results. The performance of the KBACO algorithm was rigorously evaluated against a variety of benchmark instances, demonstrating its superiority over existing methods in terms of schedule quality. The results indicate that KBACO not only improves the efficiency of the scheduling process but also provides a robust framework for future research in optimization problems. The significance of this work lies in its potential applications in manufacturing systems where flexible scheduling is crucial for meeting dynamic market demands. Future implications include further refinement of the algorithm and exploration of its applicability to other complex scheduling scenarios.</t>
+          <t>The paper addresses the Flexible Job Shop Scheduling Problem (FJSSP), which is a complex combinatorial optimization challenge crucial for modern manufacturing environments requiring flexibility. The authors propose a novel algorithm, Knowledge-Based Ant Colony Optimization (KBACO), which synergizes Ant Colony Optimization (ACO) with a knowledge model to enhance the scheduling process. The knowledge model accumulates heuristic information from previous optimization iterations to inform decision-making during the search for optimal schedules. This dual-pronged approach enhances the algorithm's efficiency and effectiveness compared to traditional methods. The methodology involves initializing knowledge matrices that capture operation-to-machine assignment probabilities and processing priorities based on previous best solutions, thereby informing the algorithm's search strategy. KBACO constructs schedules by iteratively assigning operations to machines based on learned knowledge and optimizing through selective heuristics. Experimental results across various benchmark instances demonstrate that KBACO consistently delivers superior schedule quality, with improvements in makespan compared to several leading approaches, particularly in randomly generated and literature-sourced cases. These promising findings indicate significant practical applications for flexible manufacturing scheduling. The authors suggest future enhancements of the KBACO algorithm could include more sophisticated learning mechanisms and extensions to multi-objective scheduling scenarios, indicating the algorithm’s potential for further exploration and adaptation in operational research.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -789,7 +854,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -809,7 +874,9 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>This paper, authored by Stephen C. Graves and published in 1981 in the journal Operations Research, provides a comprehensive review of production scheduling. The review addresses the complexities and challenges associated with scheduling in manufacturing and production environments. It discusses various scheduling techniques, models, and algorithms that have been developed to optimize production processes. The paper highlights the importance of effective scheduling in improving operational efficiency, reducing lead times, and enhancing overall productivity. Key contributions of the paper include a detailed analysis of existing literature on production scheduling, identification of gaps in current research, and suggestions for future research directions. The methodology employed in the review involves a systematic examination of scheduling models and their applications in real-world scenarios. The findings underscore the significance of integrating advanced scheduling techniques with modern manufacturing practices to achieve better outcomes. The paper serves as a foundational reference for researchers and practitioners in the field of operations research and production management, emphasizing the need for ongoing innovation in scheduling methodologies to meet the evolving demands of the industry.</t>
+          <t>In this paper, Stephen C. Graves presents a comprehensive review of production scheduling literature up to 1981. The work addresses the critical aspects of scheduling in manufacturing systems, which is essential for optimizing production efficiency and resource allocation. The review covers various scheduling algorithms, models, and methodologies that the field has adopted over the years. It categorizes scheduling problems, such as job-shop scheduling, flow-shop scheduling, and project scheduling, providing insights into their complexity and the algorithms proposed to solve them.
+Graves highlights key contributions from past research, including heuristics, exact algorithms, and various performance metrics used to evaluate scheduling effectiveness. The paper emphasizes the significance of balancing computational efficiency with scheduling accuracy, leading to practical implications for real-world manufacturing environments. It also discusses the limitations of existing models and suggests directions for future research, including the integration of advanced technologies such as artificial intelligence and machine learning into scheduling practices.
+Furthermore, Graves suggests that addressing uncertainties in production processes is vital for developing more resilient scheduling models. The significance of this review lies not only in summarizing past achievements but also in setting a foundation for future exploration in production scheduling, encouraging researchers to develop more sophisticated models that could handle complex, real-world scenarios.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -819,7 +886,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-19 22:15:24</t>
+          <t>2025-08-20 01:39:59</t>
         </is>
       </c>
     </row>
@@ -836,12 +903,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>An inverse model and adaptive neighborhood search based cooperative optimizer (IMANS) is proposed to solve the EEDFJSP. The algorithm utilizes an inverse model to predict decision variables and employs adaptive local search operators to enhance search efficiency. The cooperative search framework combines these elements to generate offspring solutions effectively.</t>
+          <t>An inverse model and adaptive neighborhood search based cooperative optimizer (IMANS) facilitates EEDFJSP by utilizing an inverse model to predict decision variables, combined with an adaptive strategy for local search operators. This includes initialization strategies for scheduling, cooperative search operators, and energy saving strategies to enhance convergence and solution quality.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>To address the large-scale energy-efficient distributed flexible job shop scheduling problem (EEDFJSP) by minimizing makespan and total energy consumption (TEC) through a novel optimization algorithm that integrates an inverse model with adaptive neighborhood search.</t>
+          <t>To address the large-scale EEDFJSP efficiently and propose an effective cooperative optimizer that integrates inverse modeling and adaptive local search methodologies based on multi-objective optimization principles.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,7 +918,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The paper addresses the energy-efficient distributed flexible job shop scheduling problem (EEDFJSP), which has gained attention due to the increasing complexity of scheduling in distributed manufacturing environments. Traditional approaches often overlook the large-scale nature of EEDFJSP, which involves multiple factories, machines, and jobs, leading to challenges in decision-making. The authors propose a novel algorithm, IMANS, which integrates an inverse model with adaptive neighborhood search techniques to optimize two objectives: makespan and total energy consumption (TEC). The inverse model is utilized to predict decision variables effectively, enhancing the algorithm's convergence speed and solution quality. The cooperative search framework allows for the integration of traditional local search operators, improving the overall search process. The proposed method is rigorously tested against six state-of-the-art multi-objective optimization algorithms, including MOEA/D and NSGA-II, demonstrating superior performance in terms of solution quality and computational efficiency. The experimental results indicate that IMANS not only reduces makespan and energy consumption but also adapts dynamically to the problem's characteristics, making it a significant contribution to the field of job shop scheduling. The findings suggest that future research could explore further enhancements to the algorithm and its application to other complex scheduling problems, potentially leading to more sustainable manufacturing practices.</t>
+          <t>The paper tackles the energy-efficient distributed flexible job shop scheduling problem (EEDFJSP), emphasizing the growing need for environmental sustainability in manufacturing through energy efficiency. The authors highlight that traditional methods inadequately address the complexity and scale of decision variables in EEDFJSP. They propose a novel algorithm called IMANS, which combines inverse modeling and adaptive neighborhood search techniques to optimize two objective metrics: makespan and total energy consumption (TEC). The study's methodology involves applying the inverse model to generate meaningful offspring for scheduling tasks and utilizing adaptive local search strategies that adjust based on performance feedback. This results in improved convergence rates and solution diversity. The researchers conduct extensive experiments comparing IMANS against existing state-of-the-art algorithms, demonstrating not only better performance in achieving lower makespan and TEC but also highlighting the algorithm's ability to efficiently manage computational resources. Significant results indicate that IMANS consistently outperforms alternatives across varied experimental scenarios, showcasing its robustness. The research's practical implications encourage enterprises to adopt such advanced scheduling methodologies to meet green manufacturing targets, while future work will explore enhancements, including heterogeneous factory settings and other algorithmic approaches. Overall, the findings advance the field of job shop scheduling by introducing a more effective optimization framework that responds to contemporary challenges in manufacturing and energy conservation.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -861,21 +928,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A Discrete Grey Wolf Optimizer for Solving Flexible Job Shop Scheduling Problem with Lot-streaming</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A flexible job shop scheduling problem with lot-streaming (LSFJSP) is studied in this work. Lot-streaming means dividing all jobs in an order into several independent sublots and each sublot contains a certain number of jobs from the order. A discrete grey wolf optimizer (DGWO) is proposed for solving LSEJSP. In the algorithm, an encoding method with two strings including task string and sublot string is designed based on the characteristics of LSFJSP. And a positive decoding method combined with the rules of first come first served (FCFS) and shortest process time (SPT) is developed to reduce the solution space. Several strategies including population guide mechanism, critical task local search, and wolf random walk are adopted in the DGWO to make the algorithm suitable to solve LSFJSP. The results of computational experiments on 120 instances show that the DGWO is a competitive algorithm for LSFJSP.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A discrete grey wolf optimizer (DGWO) is proposed for solving the flexible job shop scheduling problem with lot-streaming (LSFJSP). The method includes a two-layer encoding scheme and several optimization strategies such as population guide mechanism, critical task local search, and random walk.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>To study a flexible job shop scheduling problem with lot-streaming (LSFJSP) and develop an effective algorithm to find optimal scheduling strategies.</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>['Flexible job shop scheduling', 'Lot-streaming', 'Grey wolf optimizer']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>This paper addresses the flexible job shop scheduling problem with lot-streaming (LSFJSP), a problem that has garnered attention due to the increasing complexity in manufacturing environments that aim for mass customization. The authors propose a Discrete Grey Wolf Optimizer (DGWO) tailored to LSFJSP, which uniquely incorporates an encoding method with task and sublot strings designed to align with LSFJSP's distinct characteristics. The proposed DGWO enhances traditional GWO with mechanisms to improve search efficiency, including an advanced decoding method merging first come first served (FCFS) and shortest processing time (SPT) rules to minimize makespan while effectively partitioning jobs into equal-sized sublots across varying operations. The algorithm's computational experiments involved 120 instances across different parameters, showing DGWO's competitive performance against traditional genetic algorithms (GA) and particle swarm optimization (PSO). Results indicated DGWO achieved the best optimization in all categories, demonstrating its efficacy in balancing exploration and exploitation throughout the solution space. Furthermore, the introduction of a population guidance mechanism improved robustness, mitigating premature convergence often experienced in evolutionary strategies. This research contributes significantly to the field by presenting a novel approach to a complex scheduling problem, providing insights into the applicability of swarm-based optimizers to manufacturing challenges, and setting a foundation for future explorations in LSFJSP and similar optimization problems.</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>A Discrete Grey Wolf Optimizer for Solving Flexible Job Shop Scheduling Problem with Lot-streaming - Anna’s Archive.pdf</t>
@@ -883,21 +970,42 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Evolutionary tabu search for flexible due-date satisfaction in fuzzy job shop scheduling</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>We consider the job shop scheduling problem with fuzzy sets modelling uncertain durations and flexible due dates. With the goal of maximising due-date satisfaction under uncertainty, we first give a new measure of overall due-date satisfaction in this setting. Then, we define a neighbourhood structure for local search, analyse its theoretical properties and provide a neighbour-estimation procedure. Additionally, a tabu search procedure using the neighbourhood is combined with a genetic algorithm, so the resulting memetic algorithm, guided by the defined due-date satisfaction measure, is run on a set of benchmarks. The obtained results illustrate the potential of our proposal.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>We propose a hybrid evolutionary tabu search method to optimise due-date satisfaction.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>To maximise due-date satisfaction under uncertainty in job shop scheduling problems using fuzzy sets.</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>['Scheduling', 'Fuzzy Sets', 'Metaheuristics', 'Due dates', 'Tabu search']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>This paper addresses the job shop scheduling problem, specifically under conditions of uncertainty associated with task durations and flexible due dates. Traditional scheduling techniques often presume static conditions; however, in real-world applications, these variables can fluctuate, necessitating more adaptable approaches. The authors introduce a novel measure for determining the overall due-date satisfaction when using fuzzy sets, which effectively encapsulate the uncertain nature of scheduling environments. The hybrid methodology developed incorporates a tabu search integrated with a genetic algorithm, forming a memetic algorithm that leverages both global and local search strategies. Theoretical analysis of the local search component adds a solid foundation to the proposed method, ensuring robustness.
+Experimental results demonstrate the method's efficacy on benchmark problem sets, revealing significant improvements in due-date satisfaction compared to conventional approaches. Through careful selection of algorithm parameters and rigorous performance metrics, the study illustrates the effectiveness of the developed framework. This research not only contributes a new algorithm to the field but also enhances the existing decision-making processes surrounding job shop scheduling. By framing due-date satisfaction in a fuzzy context, the findings extend the applicability of fuzzy logic in operations research, potentially guiding future research directions toward more intricate, real-world applications where uncertainty cannot be ignored. The study underscores the importance of flexible scheduling in competitive environments where meeting delivery commitments can substantially impact customer satisfaction and operational efficiency. Thus, this work is crucial for industries reliant on dynamic scheduling environments, providing a pathway to optimize their operations while managing uncertainty.</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>Evolutionary tabu search for flexible due-date satisfaction in fuzzy job shop scheduling - Anna’s Archive.pdf</t>
@@ -905,7 +1013,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -917,17 +1025,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Recently, the companies reduce the manufacturing costs and increase capacity efficiency in the competitive environment. Therefore, to balance workstation loading, the hybrid production system is necessary, so that, the flexible job shop system is the most common production system, and there are parallel machines in each workstation. In this study, the due window and the sequential dependent setup time of jobs are considered. To satisfy the customers’ requirement, and reduce the cost of the storage costs at the same time, the sum of the earliness and tardiness costs is the objective. In this study, to improve the traditional ant colony system, we developed the two pheromone ant colony optimization (2PH-ACO) to approach the flexible job shop scheduling problem. Computational results indicate that 2PH-ACO performs better than ACO in terms of sum of earliness and tardiness time.</t>
+          <t>This study presents a new approach to flexible job shop scheduling that incorporates due windows and sequential dependent setup times. The objective is to minimize the sum of earliness and tardiness costs, thereby improving efficiency in manufacturing environments. We introduce the two pheromone ant colony optimization (2PH-ACO) method, which enhances the traditional ant colony optimization (ACO) algorithm and achieves better performance in scheduling problems, as indicated by computational results demonstrating improved outcomes in earliness and tardiness time compared to ACO.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Two pheromone ant colony optimization (2PH-ACO)</t>
+          <t>The proposed method is a two-pheromone ant colony optimization algorithm (2PH-ACO) that modifies the traditional ACO by introducing a second pheromone group to improve search efficiency for scheduling problems. This involves updating pheromones based on the quality of solutions found and employing a state transition rule that includes considerations of both processing times and desirability.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>To develop a scheduling method that minimizes the sum of earliness and tardiness costs in a flexible job shop environment with due windows and sequential dependent setup times.</t>
+          <t>The primary objective of the research is to develop an effective scheduling method for flexible job shop environments that minimizes the costs associated with earliness and tardiness while addressing the complexities introduced by due windows and setup times.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -937,7 +1045,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>This paper addresses the flexible job shop scheduling problem, which is critical for manufacturing efficiency and cost reduction in competitive environments. The authors propose a novel algorithm called two-pheromone ant colony optimization (2PH-ACO) to enhance traditional ant colony optimization (ACO) methods. The scheduling problem considered involves parallel machines at each workstation, due windows for jobs, and sequential dependent setup times, which complicate the scheduling process. The objective is to minimize the total costs associated with earliness and tardiness of job completions, which directly impacts customer satisfaction and inventory costs. The study highlights the limitations of existing optimal solution methods, which, while accurate, are often impractical due to their time-consuming nature. In contrast, meta-heuristic approaches like ACO offer flexibility but can yield unstable solutions. The proposed 2PH-ACO algorithm introduces a second pheromone trail to improve the decision-making process of artificial ants, allowing for a more efficient exploration of the solution space. The authors conducted extensive computational experiments, comparing the performance of 2PH-ACO against traditional ACO. Results demonstrate that 2PH-ACO consistently outperforms ACO in terms of minimizing earliness and tardiness costs across various test scenarios. The findings suggest that the 2PH-ACO algorithm not only enhances scheduling efficiency but also provides a robust tool for addressing complex scheduling challenges in flexible job shop environments. This research contributes to the field by offering a practical solution that can be applied in real-world manufacturing settings, with implications for future studies to explore further enhancements and applications of the algorithm.</t>
+          <t>This paper focuses on a flexible job shop scheduling (FJSS) problem that incorporates specific constraints, including due windows and sequential dependent setup times, which reflect the complexities faced in real-world manufacturing environments. The key contribution of this study is the introduction of a novel algorithm known as Two-Pheromone Ant Colony Optimization (2PH-ACO). This enhanced algorithm builds on the traditional Ant Colony Optimization (ACO) methods by incorporating a second pheromone trail, aimed to improve search efficiency in finding optimal schedules while reducing computational time. Through a series of simulations, the study demonstrates that the 2PH-ACO algorithm significantly outperforms standard ACO and other baseline methods concerning the total cost of earliness and tardiness. The experimental results show that 2PH-ACO provides a remarkable average improvement of 67.25% in effectiveness when solving small-scale problems, proving its robustness even in high-dimensional scheduling tasks. In large-scale problems (up to 100 jobs), 2PH-ACO continues to deliver superior results, confirming its applicability for practical use in industry settings. The findings suggest that utilizing the 2PH-ACO can lead to better resource allocation, increased customer satisfaction through improved delivery timelines, and reduced operational costs, making it a valuable tool in the field of production economics. The study also discusses the potential for further improvements and adjustments to the algorithm to handle evolving production environments and demands.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -947,21 +1055,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Improved NSGA2 Algorithm to Solve Multi-Objective Flexible Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The NSGA2 algorithm is one of the effective methods to solve multi-objective flexible job shop scheduling problems (MOFJSP) . An improved NSGA2 algorithm is proposed to solve the MOFJSP model that aims to minimize the maximum completion time, the total workload of all machines, the total workshop carbon emissions, the total workshop energy consumption, and the delivery time. Firstly, the improved algorithm performs neighborhood search and cross-mutation operation respectively according to the nondominated ranking level and randomly generated probability of individuals to balance their local search and global search ability of the algorithm. Then, in order to further enrich the diversity of the population and improve the solving ability of the improved algorithm, an elite retention combined with random retention is proposed to retain the parent individuals. At last, the experiment proves the effectiveness of the improved NSGA2 algorithm for solving multi-objective flexible job shop scheduling problems.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>An improved NSGA2 algorithm is proposed that incorporates neighborhood search and cross-mutation operations based on the nondominated ranking level and a random probability. It uses an elite retention combined with random retention strategy to improve population diversity.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>To establish a scheduling model that minimizes the maximum completion time, total workload of all machines, total workshop carbon emissions, total workshop energy consumption, and delivery time.</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>['improved NSGA2 algorithm', 'multi-objective flexible job shop scheduling', 'elite retention strategy']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>This paper addresses the Multi-Objective Flexible Job Shop Scheduling Problem (MOFJSP), known for its complexity due to multiple interacting objectives, including minimizing maximum completion time, total workload, carbon emissions, energy consumption, and delivery time. The authors propose an enhanced version of the NSGA2 algorithm, which is a popular approach for solving MOFJSP. Key improvements include a novel neighborhood search strategy and optimized crossover/mutation operations tailored to the nondominated ranking of solutions, along with a robust elite retention strategy to ensure diversity in the population. Experimental results demonstrated that the proposed algorithm showed superior performance compared to existing methodologies such as NBHA, AHGA, and VNIWO, as reflected in metrics for completion time and workload balance across multiple test instances (4x5, 10x7, 8x8 and 10x10). Performance metrics were rigorously evaluated using a comprehensive simulation, indicating that the proposed enhancements bolster NSGA2's capacity for multi-objective optimization in job shop schedules, proving effective for practical applications. Future work will explore dynamic multi-objective scenarios to address uncertainties inherent to flexible job shop operations.</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Improved NSGA2 Algorithm to Solve Multi-Objective Flexible Job Shop Scheduling Problem - Anna’s Archive copy.pdf</t>
@@ -969,7 +1097,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -986,12 +1114,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A Pareto-based two-stage evolutionary algorithm (PTEA) is proposed, which includes a well-tailored initialization operator and the NSGA-II structure for global exploration in the first stage, and a competitive objective-based local search operator for improved local search ability and convergence in the second stage.</t>
+          <t>A mixed-integer linear programming model tuned by CPLEX is established for the problem. A Pareto-based two-stage evolutionary algorithm (PTEA) is proposed, incorporating a well-designed initialization operator and the NSGA-II structure for global exploration and a competitive objective-based local search operator for improved local search ability and convergence. The algorithm employs a three-layer chromosome encoding and set-based decoding methods.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>To investigate the flexible job shop scheduling problem with worker cooperation flexibility (FJSPWC) and to minimize the makespan, maximum workload of machines, and maximum workload of workers simultaneously.</t>
+          <t>To investigate the flexible job shop scheduling problem with worker cooperation flexibility (FJSPWC) and to simultaneously minimize the makespan, maximum workload of machines, and maximum workload of workers.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1001,7 +1129,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>This paper addresses the flexible job shop scheduling problem with worker cooperation flexibility (FJSPWC), a novel extension of the traditional flexible job shop scheduling problem (FJSP). Unlike previous models that assume a one-to-one relationship between machines and workers, the FJSPWC allows for multiple workers to operate a single machine simultaneously, reflecting real-world scenarios where complex operations require collaborative efforts. The authors develop a mixed-integer linear programming (MILP) model to mathematically represent the FJSPWC, which aims to minimize the makespan, maximum workload of machines, and maximum workload of workers. To solve this problem, they propose a Pareto-based two-stage evolutionary algorithm (PTEA). The first stage employs the NSGA-II framework for global exploration, enhanced by a specially designed initialization operator that generates high-quality initial populations. The second stage incorporates an objective-specific local search operator to improve local exploitation capabilities and accelerate convergence. The effectiveness of the PTEA is validated through extensive experiments on fifty-eight newly formulated benchmarks, demonstrating its superiority over four comparison algorithms in terms of distribution, convergence, and overall performance. The findings of this research provide valuable insights for production managers in optimizing resource allocation in flexible job shop systems, particularly in scenarios requiring worker cooperation. The proposed methodology not only fills a gap in existing literature but also offers practical applications in various manufacturing contexts, paving the way for future research in this area.</t>
+          <t>This paper addresses a novel variant of the flexible job shop scheduling problem (FJSP), termed FJSP with worker cooperation flexibility (FJSPWC), which recognizes that multiple workers may be required for handling operations on machines. To accurately model this complexity, the authors establish a mixed-integer linear programming (MILP) representation and propose a Pareto-based two-stage evolutionary algorithm (PTEA). The PTEA innovation lies in its dual-phase approach. The first phase employs NSGA-II for global exploration, enhancing initial solution quality through a custom initialization operator. This phase aims at quickly generating a well spread Pareto front. The second phase pivots to local search, using an objective-specific local search operator to refine solutions and boost convergence rates. Experiments leverage fifty-eight benchmarks formulated specially for this study, ensuring robust performance evaluation against established algorithms. The PTEA demonstrated superior performance metrics such as hypervolume and inverted generational distance, indicating effective solution distribution and convergence toward optimal results. This not only validates the PTEA’s architectural design but also provides a valuable framework for resource allocation in complex manufacturing setups. The significance of this research lies in addressing real-life scheduling complexities and providing actionable insights for practitioners involved in operational planning. Future implications suggest applying similar methodologies to broader scheduling contexts, including collaborative human-robot systems, thus expanding the utility of the PTEA approach beyond traditional flexible job shop paradigms.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1011,7 +1139,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -1023,27 +1151,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>This paper presents an application of neural networks in solving jobshop scheduling, an np-complete optimization problem with constraint satisfaction. In particular, we introduce a neural computation architecture based on a stochastic Hopfield neural network model. First, the job-shop problem is mapped into a 2-dimensional matrix representation of neurons similar to those for solving the traveling salesman problem (TSP). Constant positive and negative current biases are applied to specific neurons as excitations and inhibitions, respectively, to enforce the operation precedence relationships. At the convergence of neural network, the solution to the jobshop problem is represented by a set of cost function trees encoded in the matrix of stable states. Each node in the set of trees represents a job, and each link represents the interdependency between jobs. The cost attached to each link is a function of the processing time of a particular job. The starting time of each job can be determined by traversing the paths leading to the root node of the tree. A computation circuit computes the total completion times (costs) of all jobs, and the cost difference is added to the energy function of the stochastic neural network. Using a simulated annealing algorithm, the temperature of the system is slowly decreased according to an annealing schedule until the energy of the system is at a local or global minimum. By choosing an appropriate annealing schedule, near-optimal and optimal solutions to job-shop problems can be found.</t>
+          <t>This paper presents an application of neural networks in solving jobshop scheduling, an npcomplete optimization problem with constraint satisfaction. In particular, we introduce a neural computation architecture based on a stochastic Hopfield neural network model. First, the job-shop problem is mapped into a 2-dimensional matrix representation of neurons similar to those for solving the traveling salesman problem (TSP). Constant positive and negative current biases are applied to specific neurons as excitations and inhibitions, respectively, to enforce the operation precedence relationships. At the convergence of neural network, the solution to the jobshop problem is represented by a set of cost function trees encoded in the matrix of stable states. Each node in the set of trees represents a job, and each link represents the interdependency between jobs. The cost attached to each link is a function of the processing time of a particular job. The starting time of each job can be determined by traversing the paths leading to the root node of the tree. A computation circuit computes the total completion times (costs) of all jobs, and the cost difference is added to the energy function of the stochastic neural network. Using a simulated annealing algorithm, the temperature of the system is slowly decreased according to an annealing schedule until the energy of the system is at a local or global minimum. By choosing an appropriate annealing schedule, near-optimal and optimal solutions to job-shop problems can be found.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A neural computation architecture based on a stochastic Hopfield neural network model is proposed. The job-shop problem is represented in a 2-dimensional matrix of neurons, with biases applied to enforce precedence relationships. A simulated annealing algorithm is used to optimize the solution by adjusting the system's temperature according to an annealing schedule.</t>
+          <t>A neural computation architecture based on a stochastic Hopfield neural network model, and a simulated annealing algorithm for optimization.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>To formulate the job-shop scheduling problem using a Hopfield neural network model and to explore the application of stochastic neural networks in finding optimal or near-optimal solutions to this NP-complete problem.</t>
+          <t>To address the job-shop scheduling problem, utilizing a neural network framework to find near-optimal solutions through a stochastic approach.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['neural networks', 'job-shop scheduling', 'optimization', 'stochastic methods', 'simulated annealing']</t>
+          <t>['neural networks', 'job-shop scheduling', 'optimization', 'constraint satisfaction', 'simulated annealing', 'Hopfield neural networks']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>This paper addresses the complex problem of job-shop scheduling, which is classified as NP-complete due to its inherent constraints and optimization requirements. The authors propose a novel approach utilizing a stochastic Hopfield neural network model to represent the scheduling problem in a two-dimensional matrix format. This representation allows for the mapping of jobs and their interdependencies, where each job is represented as a node in a cost function tree. The links between nodes signify the precedence relationships, and the costs associated with these links are derived from the processing times of the jobs. The methodology involves applying constant positive and negative biases to neurons to simulate excitations and inhibitions, thereby enforcing the operational constraints necessary for valid scheduling. The convergence of the neural network leads to stable states that represent potential solutions to the scheduling problem. A key aspect of the proposed method is the integration of a simulated annealing algorithm, which iteratively reduces the system's temperature to minimize the energy function, ultimately guiding the network towards local or global minima. The paper emphasizes the importance of selecting an appropriate annealing schedule to enhance the likelihood of achieving optimal solutions. The significance of this research lies in its potential applications across various fields requiring efficient resource allocation and scheduling, such as manufacturing, logistics, and project management. Future implications include further refinement of the neural network architecture and exploration of additional optimization techniques to improve solution accuracy and computational efficiency.</t>
+          <t>This paper addresses the complex, NP-complete nature of job-shop scheduling problems through the innovative application of neural networks, specifically a stochastic Hopfield neural network model. The authors present a unique mapping of the job-shop problem into a 2-dimensional matrix structure of neurons, which bears resemblance to previous models used in solving the Traveling Salesman Problem (TSP). This framework employs constant positive and negative biases on the neurons to simulate excitatory and inhibitory relationships, respecting the precedence constraints of operations involved in job completion. In this setup, each stable state of the neural network corresponds to a valid job-shop solution, represented through cost function trees. With each node denoting a job and links indicating dependencies between jobs, the total cost can be derived by managing the operation timings through tree traversal. The energy function of the stochastic neural network is adjusted by incorporating the computed total job completion costs, thus guiding the network towards optimal or near-optimal solutions. A simulated annealing algorithm supports the optimization process, gradually lowering the system's temperature in adherence to a specified cooling schedule, a critical component for achieving convergence towards minimum energy states. The approach for optimally solving job-shop scheduling via this neural network structure presents significant implications for real-world applications where scheduling efficiency is paramount, such as manufacturing processes and project management. This first installment sets the stage for a more detailed exploration in the subsequent part of their work, which will delve into the architectural specifics of the neural computation network and assess the efficacy of the presented methodology through simulation outcomes.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1053,7 +1181,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1198,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The proposed approach makes use of particle swarm optimization (PSO) to assign operations on machines and simulated annealing (SA) algorithm to schedule operations on each machine.</t>
+          <t>A hybrid algorithm combining particle swarm optimization (PSO) for assigning operations to machines and simulated annealing (SA) for scheduling operations on assigned machines is proposed. The objective function considers minimizing makespan (maximal completion time), total workload of machines, and workload of the critical machine.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>To minimize makespan (maximal completion time), the total workload of machines, and the workload of the critical machine.</t>
+          <t>To develop an effective approach for solving multi-objective flexible job-shop scheduling problems by combining particle swarm optimization and simulated annealing.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1085,7 +1213,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>This paper addresses the complex problem of flexible job-shop scheduling (FJSP), which is a significant challenge in production management and combinatorial optimization due to its NP-hard nature. Traditional optimization methods struggle to find optimal solutions due to high computational complexity, particularly when multiple optimization criteria are involved. The authors propose a hybrid optimization approach that combines Particle Swarm Optimization (PSO) and Simulated Annealing (SA) to effectively tackle the multi-objective FJSP. PSO is utilized for the assignment of operations to machines, leveraging its ability to mimic social behavior and efficiently explore the solution space. SA is employed as a local search method to schedule the assigned operations, helping to avoid local optima through probabilistic decision-making. The hybrid method is designed to minimize three objectives: the makespan, the total workload of machines, and the workload of the critical machine. The computational experiments conducted demonstrate that the proposed algorithm is not only viable but also effective, particularly for large-scale FJSP instances. The results indicate that the hybrid approach outperforms traditional methods, showcasing its potential for practical applications in industrial scheduling scenarios. The significance of this research lies in its contribution to the field of optimization, providing a robust solution framework that can be adapted for various scheduling challenges. Future implications include further refinement of the hybrid model and exploration of its applicability to other complex scheduling problems.</t>
+          <t>This paper addresses the challenges of scheduling in flexible job-shops, which are complex combinatorial optimization problems known to be NP-hard. Traditional methods for achieving optimal solutions struggle due to high computational demands, leading the authors to explore a hybrid approach combining Particle Swarm Optimization (PSO) for machine assignment and Simulated Annealing (SA) for job scheduling. The proposed method effectively reduces the makespan and machine workload while optimizing overall scheduling performance. Through computational experiments on instances with varying complexities, including 8 jobs on 8 machines and larger problems, the hybrid algorithm demonstrated strong performance, yielding higher quality solutions compared to existing methods. The core of this approach lies in a synergy where PSO generates initial feasible solutions that are refined by SA, balancing exploration with local search efficiency. Performance metrics indicated superior results, with experiments suggesting significant reductions in makespan and total workload when measured against benchmarks set by previous algorithms. The proposed hybrid algorithm showcases not only applicability to multi-objective FJSPs but also potential for broader applications in complex optimization tasks. Future work should extend this methodology to include more comprehensive tests and adaptations for various optimization challenges, leveraging PSO's adaptability in discrete domains and expanding on the hybrid framework's versatility in metaheuristic optimization strategies.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1095,7 +1223,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1240,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>We model JSSP as a Markov decision process (MDP) and design a new state representation using the state features of bidirectional scheduling. We employ an invalid action masking (IAM) technique to guide the agent to avoid exploring suboptimal solutions.</t>
+          <t>The proposed method utilizes deep reinforcement learning (DRL), modeling the job shop scheduling problem as a Markov decision process. It features a new state representation incorporating bidirectional scheduling and employs invalid action masking to improve learning efficiency and solution exploration.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>To improve the effectiveness of deep reinforcement learning in solving job shop scheduling problems by enhancing state representation, action space definition, and reward function design.</t>
+          <t>To enhance deep reinforcement learning techniques for job shop scheduling by introducing a new state representation and invalid action masking to improve decision-making and avoid suboptimal solutions.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1127,7 +1255,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The paper addresses the job shop scheduling problem (JSSP), a well-known NP-Hard combinatorial optimization problem, which poses significant challenges in real-world industrial applications due to its high computational complexity when using exact methods. The authors propose a novel approach utilizing deep reinforcement learning (DRL) to enhance the scheduling process. The main contributions include the introduction of a new state representation based on bidirectional scheduling, which allows the agent to capture more relevant state information and improves decision-making capabilities. Additionally, the invalid action masking (IAM) technique is implemented to reduce the search space, thereby preventing the agent from exploring suboptimal solutions. The proposed method is rigorously evaluated against eight public datasets: ABZ, FT, ORB, YN, SWV, LA, TA, and DMU. Experimental results demonstrate that the new approach consistently outperforms existing state-of-the-art models and priority dispatching rules, achieving significant reductions in average gaps across all datasets. For instance, the method reduces the average gap by at least 0.64% on the ABZ dataset and by at least 8.27% on the FT dataset. The findings suggest that the integration of domain knowledge into the design of state representation and action space can significantly enhance the learning efficiency of DRL agents in solving complex scheduling problems. The paper concludes with discussions on the implications of these results for future research and practical applications in manufacturing and operations management, highlighting the potential for further improvements and adaptations of the proposed methods to other scheduling variants.</t>
+          <t>The paper addresses the challenging job shop scheduling problem (JSSP), known for its NP-hard complexity. The authors critique existing deep reinforcement learning (DRL) strategies, identifying issues in state representation, action space definitions, and reward designs that hinder effective policy learning. To overcome these limitations, the research proposes modeling JSSP as a Markov decision process (MDP) with advanced techniques such as a novel state representation derived from bidirectional scheduling, which captures vital state information while minimizing the occurrence of multiple optimal actions in the candidate action set. Furthermore, the implementation of an invalid action masking (IAM) strategy restricts the action space, enabling the agent to prioritize more promising solutions and accelerate the learning process. Experiments were conducted on eight benchmark datasets (ABZ, FT, ORB, YN, SWV, LA, TA, DMU) to evaluate the method’s efficacy. The experimental results demonstrate that the proposed method significantly outperforms existing state-of-the-art models and heuristic priority dispatching rules through reduced average gap metrics across various scenarios, with performance metrics indicating substantial optimization capabilities. This advancement not only contributes to a better understanding of JSSP management through DRL but also showcases potential real-world applications in complex manufacturing environments, emphasizing the need for continued exploration in generalization capabilities in DRL frameworks. Future work may extend to flexible job shop scheduling and multi-objective optimization frameworks.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1137,7 +1265,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1277,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Job-Shop Scheduling Problem (JSSP) has drawn considerable interest during the last decades, mainly because of its combinatorial characteristics, which make it very difficult to solve. The good performances attained by local search procedures, and especially Nowicki and Smutnicki’s i-TSAB algorithm, encouraged researchers to combine such local search engines with global methods. Differential Evolution (DE) is an Evolutionary Algorithm that has been found to be particularly efficient for continuous optimization, but which does not usually perform well when applied to permutation problems. We introduce in this paper the idea of hybridizing DE with Tabu Search (TS) in order to solve the JSSP. A competitive neighborhood is included within the TS with the aim of determining if DE is able to replace the re-start features that constitute the main strengths of i-TSAB (i.e., a long-term memory and a path-relinking procedure). The computational experiments reported for more than 100 JSSP instances show that the proposed hybrid DE–TS algorithm is competitive with respect to other state-of-the-art techniques, although, there is still room for improvement if the adequacy between the solution representation modes within DE and TS is properly stressed.</t>
+          <t>The Job-Shop Scheduling Problem (JSSP) has drawn considerable interest during the last decades, mainly because of its combinatorial characteristics, which make it very difﬁcult to solve. The good performances attained by local search procedures, and especially Nowicki and Smutnicki’s i-TSAB algorithm, encouraged researchers to combine such local search engines with global methods. Differential Evolution (DE) is an Evolutionary Algorithm that has been found to be particularly efﬁcient for continuous optimization, but which does not usually perform well when applied to permutation problems. We introduce in this paper the idea of hybridizing DE with Tabu Search (TS) in order to solve the JSSP. A competitive neighborhood is included within the TS with the aim of determining if DE is able to replace the re-start features that constitute the main strengths of i-TSAB (i.e., a long-term memory and a path-relinking procedure). The computational experiments reported for more than 100 JSSP instances show that the proposed hybrid DE–TS algorithm is competitive with respect to other state-of-the-art techniques, although, there is still room for improvement if the adequacy between the solution representation modes within DE and TS is properly stressed.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A hybrid Differential Evolution—Tabu Search (DE–TS) algorithm is proposed to solve the Job-Shop Scheduling Problem (JSSP). The method integrates Differential Evolution for global search and Tabu Search for local optimization, utilizing a competitive neighborhood structure to enhance solution quality.</t>
+          <t>A hybrid Differential Evolution (DE) and Tabu Search (TS) algorithm is proposed where DE determines promising regions in the search space while TS locates local optima within those regions. TS is integrated into the DE generational loop to improve the search efficiency. The algorithm utilizes a Random Keys encoding scheme for representation and applies a specialized neighborhood structure based on critical paths.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>To develop a hybrid algorithm that combines Differential Evolution and Tabu Search to effectively solve the Job-Shop Scheduling Problem (JSSP).</t>
+          <t>To develop a hybrid algorithm combining Differential Evolution and Tabu Search for solving Job-Shop Scheduling Problems effectively.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1169,7 +1297,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>The Job-Shop Scheduling Problem (JSSP) is a well-known NP-hard problem that involves scheduling a set of jobs, each consisting of several operations, on a set of machines in a specific order. The objective is to minimize the completion time of the last operation, known as the makespan. Traditional methods for solving JSSP include exact optimization techniques, which struggle with larger instances due to the curse of dimensionality, and heuristic methods that provide good solutions in reasonable time. This paper introduces a hybrid algorithm that combines Differential Evolution (DE) and Tabu Search (TS) to tackle the JSSP. DE is known for its efficiency in continuous optimization but has limitations in permutation problems like JSSP. The authors propose a novel approach that integrates DE's global search capabilities with TS's local search strengths. The hybrid algorithm employs DE to explore the search space and identify promising regions, while TS is used to refine solutions within these regions through local optimization. The computational experiments conducted on over 100 JSSP instances demonstrate that the DE–TS hybrid algorithm is competitive with existing state-of-the-art methods, achieving high-quality solutions. The results indicate that while the hybrid approach is effective, further improvements can be made by optimizing the representation of solutions within DE and TS. This research contributes to the field by providing a new perspective on combining global and local search techniques for solving complex scheduling problems, highlighting the potential for future enhancements in hybrid algorithm design.</t>
+          <t>The paper presents a novel hybrid algorithm that integrates Differential Evolution (DE) and Tabu Search (TS) to address the Job-Shop Scheduling Problem (JSSP), which is known for its computational complexity and has significant industrial applications. The primary motivation for this research stems from the unique combinatorial nature of JSSP, which often renders traditional optimization methods ineffective, particularly for larger instances. The authors devised a hybrid DE-TS algorithm that combines the global exploration strength of Differential Evolution with the local search capability of Tabu Search, creating a solution framework that not only seeks to optimize job scheduling sequences but also mitigates the common issues related to premature convergence associated with standard evolutionary algorithms.
+In breaking down the method, the authors first elaborate on Differential Evolution's adaptation to permutation-based problems, utilizing a Random Keys encoding scheme to represent job sequences. The proposed algorithm operates by allowing DE to explore the search space and identify promising regions before invoking TS to perform local searches for the best schedules within those regions. A competitive neighborhood structure is implemented in TS to enhance the efficiency of local searches, particularly focusing on critical operation swaps, which have a direct impact on the overall makespan of schedules.
+Through extensive computational experiments involving over 100 benchmark instances sourced from established problem libraries, the hybrid DE-TS algorithm demonstrated competitive performance relative to state-of-the-art scheduling algorithms including variants of Tabu Search. While the results showcased the algorithm's ability to achieve optimal solutions in many mid-sized instances, it also highlighted areas for potential improvement, specifically concerning the representation compatibility between DE and TS, and the need for more sophisticated initialization techniques to further augment performance.
+The significance of the findings extends beyond mere algorithmic accomplishments; they contribute to the underlying discourse surrounding algorithm hybridization in solving NP-hard problems like JSSP. Moreover, this research paves the way for future exploration into more advanced hybrid methodologies, suggesting potential avenues like the integration of self-adaptive mechanisms in DE and improved constraint handling techniques that can enhance the robustness and adaptability of the proposed solutions for JSSP and similar combinatorial challenges to come.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1179,7 +1310,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-19 22:16:43</t>
+          <t>2025-08-20 01:42:41</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1327,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Simulated annealing algorithm for solving the nonpreemptive open-shop scheduling problem.</t>
+          <t>Simulated Annealing</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>To minimize the makespan in the nonpreemptive open-shop scheduling problem using a simulated annealing approach.</t>
+          <t>To introduce a simulated annealing algorithm for solving the nonpreemptive open-shop scheduling problem with the goal of minimizing the makespan.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Open-shop scheduling', 'Simulated annealing', 'Makespan minimization', 'Optimization', 'Combinatorial problems']</t>
+          <t>['open-shop scheduling', 'simulated annealing', 'makespan minimization', 'benchmark problems', 'algorithm performance']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The paper addresses the nonpreemptive open-shop scheduling problem (OSSP), which is a variant of job scheduling where a set of jobs must be processed on multiple machines without preemption. The primary objective is to minimize the makespan, defined as the total time required to complete all jobs. The authors propose a simulated annealing algorithm that effectively explores the solution space to find optimal or near-optimal schedules. The methodology begins with an initial feasible configuration and iteratively generates neighboring solutions by perturbing the current schedule. The acceptance of these new solutions is probabilistic, allowing the algorithm to escape local optima. Key components of the algorithm include the definition of the initial configuration, neighborhood transformations, and a cooling schedule that governs the temperature parameter over iterations. The cooling schedule is crucial as it controls the probability of accepting worse solutions, which decreases as the algorithm progresses. The authors implemented their algorithm on various benchmark instances from the literature, demonstrating its effectiveness in finding optimal solutions in many cases. Experimental results indicate that the proposed method outperforms existing algorithms in terms of solution quality and computational efficiency. The significance of this work lies in its contribution to the field of scheduling, providing a robust method for tackling NP-hard problems like OSSP. Future implications include exploring hybrid approaches that combine simulated annealing with other optimization techniques to further enhance performance.</t>
+          <t>The presented research focuses on addressing the Non-preemptive Open-Shop Scheduling Problem (OSSP) using a simulated annealing algorithm aimed at minimizing the makespan, defined as the total time taken from the start of the first job to the completion of the last one. The OSSP involves scheduling a set of jobs across multiple machines, where each job consists of tasks that need to be allocated efficiently to minimize downtime and resource conflicts. Given that the OSSP is NP-hard, this study leverages simulated annealing—a probabilistic technique to approximate the global optimum of a given function—due to its effectiveness in exploring large solution spaces. The proposed algorithm starts with a generation of an initial feasible schedule and iteratively adjusts it through transformations while maintaining feasibility until a stopping criterion is met. The cooling schedule, governing the temperature parameter in simulated annealing, is fine-tuned for optimal performance. Benchmarks from Taillard’s problem instances were utilized to evaluate the effectiveness of the algorithm. Results indicate that the approach successfully identifies optimal solutions across various instances, demonstrating robustness and speed; execution times did not exceed five minutes for even the most complex instances evaluated. In total, the methodology integrates systematic neighborhood transformations (swap and shift-rotate operations) thereby ensuring a balance between exploration and exploitation in the solution space. The practical implications suggest that this algorithm could be employed in real-world manufacturing environments for improved scheduling efficiency, with avenues for further refinement through hybridization with other optimization strategies or domain-specific adaptations.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1221,7 +1352,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1369,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The proposed approach uses quantum-behaved particle swarm optimization (QPSO) to assign the operations of each job on available capable machines and sequence the operations on each machine. Chaotic numbers are used to define the particles rather than random numbers to improve solution diversity.</t>
+          <t>The proposed approach uses QPSO to assign the operations of each job on available capable machines and sequence the operations on each machine. Chaotic numbers are employed instead of random numbers to enhance diversity in the solution search, and a mutation operator is integrated into the QPSO framework to prevent premature convergence. The iterative equations governing QPSO update positions of particles without relying on velocity vectors.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>To minimize makespan in flexible job shop scheduling problems using quantum-behaved particle swarm optimization (QPSO).</t>
+          <t>To minimize the makespan in a flexible job shop scheduling environment using a quantum-behaved particle swarm optimization algorithm that incorporates mutation and chaotic sequences to enhance search capability and solution diversity.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1253,7 +1384,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem (FJSP), which is a complex extension of the classical job shop problem (JSP) where jobs can be processed on multiple machines. The authors highlight the challenges in finding optimal solutions in a reasonable time frame, leading to the use of various heuristic and meta-heuristic approaches. The proposed method, quantum-behaved particle swarm optimization (QPSO), enhances the traditional particle swarm optimization (PSO) by incorporating mutation and chaotic number generation to avoid premature convergence and improve global search capabilities. The methodology involves assigning jobs to machines and sequencing operations to minimize the makespan, a critical performance metric in scheduling. The authors conducted experiments comparing the QPSO algorithm with other established algorithms, demonstrating its effectiveness in reducing makespan with a small relative deviation. The results suggest that QPSO not only provides high-quality solutions but also does so with less computational effort compared to traditional methods. This research contributes to the field by offering a novel approach to tackle NP-hard scheduling problems, with implications for manufacturing and service industries where efficient scheduling is crucial for operational success. Future work may explore further enhancements to the QPSO algorithm and its application to other complex scheduling scenarios.</t>
+          <t>The paper addresses the flexible job shop scheduling problem (FJSP), recognized as NP-hard, which involves assigning operations of jobs to machines while sequencing them effectively to minimize makespan. The authors propose a Quantum Behaved Particle Swarm Optimization (QPSO) algorithm that introduces chaos and mutation into the traditional PSO framework to circumvent the local optima trap commonly encountered in optimization methods. By replacing random number generation with chaotic sequences, the algorithm enhances diversity, aiding in effective exploration of the solution space. The performance of the proposed QPSO is rigorously compared against several established algorithms across benchmark problem instances drawn from existing literature, such as the datasets by Kacem et al. (2002) and Brandimarte (1993). Experimental results indicate that QPSO consistently achieves superior or comparable makespan results, demonstrating its efficiency in solving FJSP with considerable reductions in computational overhead. The paper contributes to the field by proposing a novel hybrid method that effectively integrates concepts from evolutionary computation to address complex scheduling problems. The algorithm's adaptability to various problem scales and the inclusion of diversity mechanisms position it well for future expansions, including hybridization with local search techniques tackling more intricate scheduling environments, such as those incorporating setup times or dynamic job arrivals.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1263,21 +1394,41 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mathematical modeling and a hybridized bacterial foraging optimization algorithm for the flexible job-shop scheduling problem with sequencing flexibility</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The flexible job-shop scheduling problem (FJSP) is an extension of the classical job-shop scheduling problem (JSP) in which operations can be performed by a set of candidate capable machines. An extended version of the FJSP, entitled sequencing flexibility, is studied in this work, which considers precedence between the operations in the form of a directed acyclic graph instead of a sequential order. In this work, a mixed integer linear programming (MILP) formulation is presented to minimize weighted tardiness for the FJSP with sequencing flexibility. Due to the NP-hardness of the problem, a novel biomimicry hybrid bacterial foraging optimization algorithm (HBFOA) is developed, which is inspired by the behavior of E. coli bacteria in its search for food. The developed HBFOA search method is hybridized with simulated annealing (SA). Additionally, the algorithm has been enhanced by a local search method based on the manipulation of critical operations. Classical dispatching rules have been employed to create the initial swarm of HBFOA, and a new dispatching rule named minimum number of operations has been devised. The developed approach has been packaged in the form of a decision support system (DSS) developed on top of Microsoft Excel—a tool most small and mid-range enterprises (SME) use heavily for planning. A case study with local industry is presented to validate the proposed HBFOA and MILP. Additional numerical experiments using literature benchmarks are further used for validation. The results demonstrate that the HBFOA outperformed the classical dispatching rules and the best integer solution of MILP when minimizing the weighted tardiness and offered comparable results for the makespan instances.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A hybrid bacterial foraging optimization algorithm (HBFOA) is developed and hybridized with simulated annealing (SA) to solve the flexible job-shop scheduling problem (FJSP) with sequencing flexibility. The HBFOA is enhanced by a local search method based on the manipulation of critical operations and incorporates a new dispatching rule.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>To develop a mathematical model and a hybrid optimization algorithm to solve the flexible job-shop scheduling problem (FJSP) with sequencing flexibility, aiming at minimizing weighted tardiness.</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>['Flexible job-shop scheduling problem', 'Sequencing-flexibility', 'Bacterial foraging optimization algorithm', 'Simulated annealing', 'Weighted tardiness', 'Decision support system']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>This study addresses the Flexible Job-Shop Scheduling Problem (FJSP), an extension of the classical job-shop scheduling problem (JSP) allowing a set of candidate machines to perform operations. The focus is on sequencing flexibility determined by a directed acyclic graph (DAG), which enhances operational precedence representation beyond the linear order. The authors propose a mixed-integer linear programming (MILP) model targeting the minimization of weighted tardiness. Recognizing the NP-hard nature of FJSP, a novel hybrid bacterial foraging optimization algorithm (HBFOA) is introduced, drawing inspiration from the foraging behavior of E. coli. The HBFOA is hybridized with simulated annealing (SA), leveraging elements of local search and novel dispatching rules for constructing initial swarms. The proposed method is integrated into a user-friendly Decision Support System (DSS) in Microsoft Excel, aimed particularly at small and medium enterprises (SMEs) that frequently rely on Excel for planning and scheduling tasks. Empirical validation includes a case study conducted with local manufacturing partners, alongside further numerical experiments against standard benchmarks in existing literature. Results indicate that the HBFOA outperforms classical dispatching methods and the best solutions derived from MILP, particularly in managing weighted tardiness, while offering competitive results for makespan configurations. The implications of this research extend toward practical applications in dynamic production environments, providing valuable insights for future developments in scheduling algorithms tailored for complex manufacturing systems.</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>Mathematical modeling and a hybridized bacterial foraging optimization algorithm for the flexible job-shop scheduling problem with sequencing flexibility - Anna’s Archive.pdf</t>
@@ -1285,7 +1436,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1462,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1328,12 +1479,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A novel artificial Physarum polycephalum colony algorithm is designed with two main operations: expansion and contraction. The expansion operation allows mycelium to cross and generate offspring, increasing the population size. The contraction operation uses a fast grouping section algorithm to select the best mycelia based on fitness, reducing the population back to its original size.</t>
+          <t>A novel artificial Physarum polycephalum colony algorithm (APPC) is designed with two operations: expansion and contraction. The expansion operation generates a larger population size through self-learning, social learning, and free learning mechanisms, while the contraction operation selects the best individuals from groups to retain optimal solutions and reduce the population back to size, balancing exploration and exploitation.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>To address the flexible job shop scheduling problem with transportation constraints by modeling it as a state transition diagram and developing a multi-objective function that minimizes makespan, average processing waiting time, and average transportation waiting time.</t>
+          <t>To address the flexible job shop scheduling problem with transportation constraints by modeling it as a state transition diagram and solving it using a novel artificial Physarum polycephalum colony algorithm.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1343,7 +1494,9 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The paper addresses the complex issue of flexible job shop scheduling (FJSS) with transportation constraints, a problem that has gained increasing attention due to its relevance in modern industrial and logistics systems. The authors propose a novel artificial Physarum polycephalum colony algorithm (APPC) to tackle this NP-hard problem. The FJSS problem is modeled using a state transition diagram and a multi-objective function that incorporates ten states and aims to minimize makespan, average processing waiting time, and average transportation waiting time. The APPC algorithm operates through two key processes: expansion, where mycelia can intercross to create offspring, effectively doubling the population size, and contraction, which employs a fast grouping section algorithm to maintain the population size by selecting the fittest individuals. This dual operation enhances both the global search capability and convergence speed of the algorithm. The authors conducted extensive computational experiments using benchmark instances and compared the performance of the APPC against several mainstream algorithms. The results indicate that the proposed method significantly outperforms existing state-of-the-art algorithms in terms of both time and space efficiency, demonstrating its potential for solving complex scheduling problems in real-world applications. The findings suggest that the integration of job scheduling and transportation scheduling can lead to improved operational performance, highlighting the importance of considering transportation constraints in scheduling tasks. Future research directions may include further refinement of the algorithm and exploration of its applicability in larger and more complex scheduling scenarios.</t>
+          <t>The paper tackles the complex issue of flexible job shop scheduling (FJSS) while integrating transportation constraints, recognized as a significant NP-hard problem. The authors first model this issue using a state transition diagram, which identifies ten distinct states to represent the scheduling sequence and operational status. They construct a multi-objective function that seeks to minimize the makespan, average processing waiting time, and average transportation waiting time concurrently. The proposed artificial Physarum polycephalum colony algorithm (APPC) utilizes unique biological inspirations derived from the behavior of Physarum polycephalum, effectively enhancing both the search for optimal solutions and convergence within the algorithm.
+The APPC features an innovative population management mechanism that allows for the dynamic adjustment of its size through the expansion (increasing population size via crossovers) and contraction (pruning the less fit individuals) processes. Both operations are crucial for ensuring a balance between exploration and exploitation during solution searching.
+In their empirical findings, the authors provide results from various benchmark cases illustrating that the APPC significantly surpasses several well-established algorithms, highlighting its efficacy and adaptability to solve flexible job shop scheduling problems with intricate transportation logistics. The results indicate a superior performance on numerous instances and showcase the algorithm's ability to maintain efficiency and effectiveness as problem scales increase, a common challenge in computational scheduling optimization. The paper concludes by emphasizing the necessity of ongoing research into integrating realistic factors such as collision avoidance or congestion, indicating potential enhancements for future work.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1353,7 +1506,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1523,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A discrete firefly algorithm (DFA) is proposed to minimize makespan for M-stage hybrid flowshop scheduling problems with the objective function of makespan and mean flow time.</t>
+          <t>A discrete firefly algorithm is proposed to minimize makespan and mean flow time for M-stage hybrid flowshop scheduling problems.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>To minimize the weighted sum of makespan and mean flow time in M-stage hybrid flowshop scheduling problems.</t>
+          <t>To minimize the sum of makespan and mean flow time in multi-objective hybrid flowshop scheduling problems using a discrete firefly algorithm.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1385,7 +1538,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>This paper addresses the complex problem of hybrid flowshop scheduling (HFS), which is recognized as NP-hard and prevalent in various industries such as textiles and electronics. The authors propose a discrete firefly algorithm (DFA) to tackle the multi-objective optimization of makespan and mean flow time. The DFA is an extension of the traditional firefly algorithm, adapted for discrete optimization problems. The methodology involves representing solutions in a discrete format, utilizing the smallest position value (SPV) rule to convert continuous values into job permutations. The algorithm initializes a population of fireflies, evaluates their performance based on the objective functions, and iteratively updates their positions based on attractiveness determined by their light intensity. The computational experiments demonstrate that the DFA significantly outperforms existing metaheuristic approaches in terms of solution quality for HFS problems. The findings suggest that the DFA is a robust tool for optimizing scheduling in complex manufacturing environments, with implications for improving operational efficiency and resource utilization. Future work may explore further enhancements to the algorithm and its application to other combinatorial optimization problems.</t>
+          <t>This letter addresses the challenge of scheduling tasks in multi-objective hybrid flowshop scenarios, which includes various stages with parallel machines. Such scheduling problems are recognized as NP-hard, prompting the use of heuristics and metaheuristics. The authors introduce an innovative discrete firefly algorithm (DFA) tailored for these complex scheduling tasks, specifically aiming to optimize two objective functions: makespan and mean flow time. The classical firefly algorithm was modified to accommodate discrete optimization, allowing it to efficiently explore feasible job permutations. The DFA utilizes a specific position value (SPV) rule to convert continuous solutions into permutations suitable for scheduling tasks. The algorithm iteratively updates solutions by comparing light intensities corresponding to the objective values, with adjustments guided by the attractiveness of fireflies. To validate the DFA's efficacy, computational experiments were performed on both real-world and randomly generated test instances. Results demonstrate that the DFA significantly outperforms traditional metaheuristics such as genetic algorithms (GA), parallel genetic algorithms (PGA), ant colony optimization (ACO), and simulated annealing (SA), achieving improved metrics for both makespan and mean flow time across tests. Furthermore, the study suggests various future applications of DFA in addressing more complex aspects of hybrid flowshop scheduling such as varying machine types and due date constraints, thus highlighting its flexibility and potential for broader application in operational scheduling problems. Overall, this research contributes to the field of operations research by proposing a robust algorithm specifically designed to address the intricate dynamics of hybrid flowshop scheduling challenges, backed by substantial empirical evidence of its performance superiority over existing approaches.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1395,7 +1548,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1565,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>We present an end-to-end framework for solving JSSPs using graph neural networks (GNNs) and deep Q-Learning, specifically a Graph based Dueling Double Deep Q Network (G3DQN) approach. The method involves transforming a JSS instance into a machine-job graph representation, evaluating unassigned operation nodes, and incrementally constructing solutions based on the GNN outputs.</t>
+          <t>An end-to-end framework using graph neural networks (GNNs) and deep Q-learning (DQN). The model constructs solutions incrementally, evaluates states, and determines actions based on a GNN output.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>To develop an efficient approach to solve job shop scheduling problems (JSSPs) in traffic management using graph neural networks and deep Q-learning, aiming to reduce computational costs and improve solution quality.</t>
+          <t>To develop an efficient approach for solving job shop scheduling problems (JSSP) using graph neural networks and deep reinforcement learning for traffic management applications.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1427,7 +1580,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of scheduling vehicle movements in traffic management, which can be modeled as a job shop scheduling problem (JSSP). JSSPs are known to be NP-hard, making it difficult to design effective approximation algorithms without extensive domain knowledge. The authors propose a novel framework that integrates graph neural networks (GNNs) with deep Q-learning to create a single-policy model capable of solving JSSPs efficiently. The framework operates by observing reward signals and adhering to feasible rules, allowing it to learn from trial-and-error without requiring handcrafted features. The GNN captures the current state of the partial solution, enabling the model to function similarly to a constructive heuristic algorithm that builds solutions incrementally. The proposed method, termed Graph based Dueling Double Deep Q Network (G3DQN), utilizes a machine-job graph representation to enhance the modeling of JSSPs. The authors conducted experiments on various JSSP instances, demonstrating that their approach consistently outperformed existing methods in terms of solution quality and computational efficiency. The results indicate that the G3DQN framework not only effectively addresses JSSPs but also holds promise for application in other related scheduling problems. This research contributes to the field by providing a robust reinforcement learning-based methodology that reduces reliance on domain-specific knowledge and offers a scalable solution to complex scheduling challenges. Future work may explore the application of this framework to dynamic scheduling environments and other combinatorial optimization problems.</t>
+          <t>The paper addresses the critical challenge of scheduling vehicle movements in traffic management through the lens of job shop scheduling problems (JSSPs), a known NP-hard combinatorial optimization problem. Traditional methods for solving JSSPs require extensive domain knowledge and heuristics, often involving complex trial-and-error approaches. To tackle this, the authors propose a novel end-to-end framework that integrates graph neural networks (GNNs) with deep Q-learning (DQN) techniques, termed G3DQN. This framework constructs solutions in a step-wise manner using a single-policy model thatlearns to optimize job scheduling based on reward signals derived from its actions. The GNN serves to encapsulate the state of the scheduling problem, representing partial solutions as graph structures that capture dependencies between jobs and machines. The experimental validation of the G3DQN is performed on diverse JSSP instances, demonstrating its ability to yield competitive results against existing heuristic approaches. The model’s performance was evaluated based on the approximation ratio compared to optimal solutions derived by OR-Tools, showcasing an average approximation ratio of 0.969 for instances with 5 machines and 5 jobs, and continued robustness across varying instance sizes up to 15 machines and 20 jobs. The G3DQN not only exhibits strong adaptability to different problem scales but also features a computational complexity comparable to heuristic methods, making it a promising alternative for real-world applications in traffic management contexts. Future work aims to extend this methodology to flexible job shop scheduling problems (FJSP), thereby enhancing its applicability across varying operational scenarios. The significance of this research lies in its potential to offer scalable solutions that improve efficiency in transportation and logistics, which is critical for societal cost reduction and environmental impact mitigation.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1437,21 +1590,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>An efficient memetic algorithm for distributed flexible job shop scheduling problem with transfers</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The traditional distributed flexible job shop scheduling problem (DFJSP) assumes that operations of a job cannot be transferred between different factories. However, in real-world production settings, the operations of a job may need to be processed in different factories owing to requirements of economic globalization or complexity of the job. Hence, in this paper, we propose a distributed flexible job shop scheduling problem with transfers (DFJSPT), in which operations of a job can be processed in different factories. An efficient memetic algorithm (EMA) is proposed to solve the DFJSPT with the objectives of minimizing the makespan, maximum workload, and total energy consumption of factories. In the proposed EMA, a well-designed chromosome presentation and initialization methods are presented to obtain a high-quality initial population. Several crossover and mutation operators and three effective neighborhood structures are designed to expand the search space and accelerate the convergence speed of the solution. Forty benchmark instances of the DFJSPT are constructed to evaluate the EMA and facilitate further studies. The Taguchi method of design of experiments is used to obtain the best combination of key EMA parameters. Extensive computational experiments are carried out to compare the EMA with three well-known algorithms from the literature. The computational results show that the EMA can obtain better solutions for approximately 90% of the tested benchmark instances compared to the three well-known algorithms, thereby demonstrating the DFJSPT’s competitive performance and efficiency.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>An efficient memetic algorithm (EMA) is proposed to solve the DFJSPT with the objectives of minimizing the makespan, maximum workload, and total energy consumption. A well-designed chromosome presentation and initialization methods are used to obtain a high-quality initial population. Several crossover and mutation operators and three effective neighborhood structures are designed to improve search space and accelerate convergence speed.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>To propose a distributed flexible job shop scheduling problem with transfers (DFJSPT) and to develop a memetic algorithm (EMA) to minimize makespan, maximum workload, and total energy consumption in this context.</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>['Distributed flexible job shop scheduling', 'Operation transfer', 'Memetic algorithm', 'Multi-objective optimization', 'Taguchi method']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>The paper addresses the limitations of traditional flexible job shop scheduling (FJSP) models that do not allow operations of a job to be processed across different factories. This assumption is increasingly unrealistic in modern manufacturing environments characterized by economic globalization and complexity in job processes. The authors propose the distributed flexible job shop scheduling problem with transfers (DFJSPT), where job operations can be transferred among multiple factories, which introduces new challenges in scheduling. To tackle this problem, they develop an efficient memetic algorithm (EMA) that combines evolutionary algorithms with local search strategies to optimize scheduling across distributed manufacturing sites. The EMA features unique chromosome representations, initialization methods, and a range of crossover and mutation operators to enhance the solution process. The authors test the EMA's performance against 40 benchmark instances specifically created for DFJSPT. Furthermore, they employ the Taguchi method to determine optimal parameter settings for the EMA, ensuring robust performance in minimizing not only the makespan but also energy consumption and workload across factories. The experimental results indicate that the EMA outperforms traditional algorithms such as NSGA-II, NNIA, and NSGA-III in around 90% of instances, confirming the approach's effectiveness in tackling DFJSPT. In conclusion, the proposed method not only contributes to theoretical advancements in scheduling but also provides practical implications for improving efficiency in modern distributed manufacturing environments. Consequently, the study emphasizes the importance of accounting for operation transfers in job scheduling and sets the stage for further research into multi-objective optimization in flexible manufacturing systems.</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>An efficient memetic algorithm for distributed flexible job shop scheduling problem with transfers - Anna’s Archive.pdf</t>
@@ -1459,7 +1632,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1649,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The proposed GPDPS method takes the following steps to generate the scheduling heuristics: 1) Initialisation of a population of individuals using the ramped-half-and-half method. 2) Evaluation of individuals using a multi-case fitness evaluation that calculates both standard fitness and a list of case-fitness. 3) Selection of elites with top standard fitness for the next generation. 4) Breeding process where parents for mutation and reproduction are selected by traditional tournament selection, while parents for crossover are selected by the new DPS operator based on normalised case-fitness. 5) Adjustment of crossover and mutation rates based on the selection outcomes. 6) Repetition of the process until a stopping criterion is met, returning the best individual.</t>
+          <t>The proposed GPDPS method takes a population initialized by the ramped-half-and-half method. At each generation, individuals are evaluated by a newly developed multi-case fitness evaluation which calculates standard and case-fitness. Elites with top standard fitness are directly selected for the next generation. The breeding process includes traditional tournament selection for mutation and reproduction and the new DPS operator for crossover based on the normalized case-fitness. The crossover and mutation rates are dynamically adjusted based on the selection process. These steps repeat until a stopping criterion is met, returning the best individual found.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>To propose a novel GPHH method with a new DPS scheme (GPDPS) to select a pair of complementary high-quality parents for crossover to solve the DFJSS problem effectively.</t>
+          <t>To propose a novel GPHH method with a new DPS scheme to effectively solve the DFJSS problem by selecting a pair of complementary high-quality parents for crossover.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1491,7 +1664,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of dynamic flexible job shop scheduling (DFJSS), which involves optimizing machine assignments and operation sequencing in environments where jobs arrive dynamically. The authors propose a novel genetic programming hyper-heuristic (GPHH) method that incorporates a diverse partner selection (DPS) scheme, termed GPDPS, to enhance the quality of offspring generated during the scheduling process. Traditional GPHH methods typically rely on fitness-based parent selection, which can lead to offspring with similar characteristics and suboptimal performance. In contrast, GPDPS aims to select complementary high-quality parents for crossover, thereby improving the diversity and effectiveness of the generated scheduling heuristics. The methodology includes a multi-case fitness evaluation that assesses the performance of scheduling heuristics across various scenarios, allowing for a more nuanced selection of parents. Experimental results demonstrate that GPDPS significantly outperforms traditional GPHH methods across multiple DFJSS scenarios, achieving better test performance and faster convergence rates. The experiments were conducted on eight DFJSS scenarios characterized by different objectives and utilization levels, using a robust simulation framework. The findings indicate that the proposed DPS method not only enhances the performance of GPHH but also provides insights into the importance of parent diversity in evolutionary algorithms. This work has practical implications for real-time scheduling in manufacturing and service systems, suggesting that incorporating diversity in parent selection can lead to more effective scheduling solutions. Future research may explore further refinements to the DPS mechanism and its application to other optimization problems beyond DFJSS.</t>
+          <t>This paper presents an innovative approach to solving the dynamic flexible job shop scheduling (DFJSS) problem using genetic programming hyper-heuristics (GPHH) with a focus on enhancing parent selection through a diverse partner selection (DPS) method. Traditional methods have relied on fitness-based selection, which can limit diversity and lead to suboptimal solutions due to selecting similar parents. The proposed GPDPS method introduces a multi-case fitness evaluation that not only assesses individual fitness but also characterizes the diverse behavior of scheduling heuristics across multiple scenarios. This allows for a more robust selection mechanism that prioritizes complementary pairs of parents for crossover, encouraging genetic diversity and improving performance. The GPDPS algorithm has been tested against the traditional GPHH on eight distinct DFJSS scenarios, characterized by different optimization objectives and utilization levels. Experimental results demonstrate that GPDPS surpasses GPHH on maximum objectives like flowtime and tardiness while maintaining competitive results on mean objectives. The findings highlight the importance of parent diversity in enhancing offspring quality and convergence speed. Future work aims to further refine the DPS method to variably adapt to mean objectives while continuing to optimize maximum objectives. Key technical contributions include the development of a novel fitness evaluation strategy, an effective pair selection method that promotes complementarity among selected parents, and a thorough experimental framework evaluating numerous scenarios relevant to real-world scheduling environments.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1501,7 +1674,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
@@ -1518,12 +1691,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>An improved method based on predicting a good solution for the job shop scheduling problem (JSSP) using machine learning techniques, specifically multilayer neural networks, to ensure that the predicted solutions satisfy the constraints of the 0-1 mixed integer programming (0-1 MIP).</t>
+          <t>An improved method of job shop scheduling incorporating a predictive model to satisfy constraints while using machine learning techniques alongside mathematical optimization for the scheduling problem.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>To find the optimal solution of a job shop scheduling problem (JSSP) in a shorter time by predicting a good solution based on previously performed scheduling data and ensuring that the predicted solution satisfies the constraints of the 0-1 MIP.</t>
+          <t>To solve the job shop scheduling problem optimally in a shorter time by predicting suitable solutions based on previously collected scheduling data and using these predictions as initial solutions for optimization.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1533,7 +1706,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>The paper addresses the Job Shop Scheduling Problem (JSSP), a critical issue in high-mix low-volume manufacturing that involves efficiently scheduling jobs under complex constraints. Traditional approaches to JSSP include mathematical programming, simulation, and meta-heuristics, each with its strengths and weaknesses. The authors propose an improved method that integrates machine learning with mathematical optimization to enhance the scheduling process. The core of the proposed method is the formulation of JSSP as a 0-1 mixed integer programming (0-1 MIP) problem, where the goal is to minimize the makespan while satisfying various operational constraints. The authors introduce a novel approach that predicts initial solutions based on historical scheduling data, ensuring that these predictions adhere to the constraints of the 0-1 MIP. This is achieved by using multilayer neural networks to predict binary decision variables that dictate the order of operations. The method significantly reduces solution time compared to previous approaches that did not guarantee constraint satisfaction. Numerical experiments demonstrate that the proposed method not only shortens the solution time but also reduces learning time by approximately half. The authors attribute the improved performance to a decrease in the number of circular sequences in the scheduling, which is a common issue in JSSP. The paper concludes with a discussion on the implications of these findings for future research, emphasizing the need for further analysis and evaluation of the proposed method's effectiveness in various scheduling scenarios. Overall, this research contributes to the field of production scheduling by providing a robust, data-driven approach that leverages machine learning to enhance traditional optimization techniques.</t>
+          <t>The paper addresses the job shop scheduling problem (JSSP), a critical challenge in manufacturing that demands optimal product scheduling under various constraints. Traditional methods have relied on mathematical programming, simulation, and meta-heuristics, each with varying degrees of effectiveness and efficiency. The authors propose a new methodology that combines data-driven insights and mathematical optimization to enhance scheduling outcomes. Instead of merely utilizing a predicted schedule without ensuring constraint satisfaction, the proposed approach guarantees that the initial solution used in optimization is viable according to 0-1 mixed integer programming (0-1 MIP) constraints. This improvement addresses a notable limitation in previous works where constraints were often violated, necessitating post-hoc modifications that could degrade solution quality. Utilizing a two-layer neural network for predicting operational sequences reduces learning time significantly, nearly halving the computational effort compared to prior methods. This dual-focus on constraint adherence and enhanced learning efficiency results in a marked improvement in solution times, significantly outperforming previous methodologies. The underlying data for this analysis stems from a benchmark JSSP dataset generated with a uniform distribution of processing times, simulating real-world variability in manufacturing contexts. Evaluation metrics included solution times across multiple trials demonstrating the robustness and reliability of the new method. Future work will explore the impact of various operational variables, including different machine assignments, job counts, and processing time variances, and further refine predictions to eliminate circular sequences, enhancing overall scheduling accuracy and efficiency in manufacturing environments.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1543,21 +1716,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-19 22:18:01</t>
+          <t>2025-08-20 01:45:05</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hybrid whale optimization algorithm enhanced with Lévy flight and differential evolution for job shop scheduling problems</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>The job shop scheduling problem (JSSP) has been a hot issue in manufacturing. For the past few decades, scholars have been attracted to research JSSP and proposed many novel meta-heuristic algorithms to solve it. Whale optimization algorithm (WOA) is such a novel meta-heuristic algorithm and has been proven to be efficient in solving real-world optimization problems in the literature. This paper proposes a hybrid WOA enhanced with Lévy flight and differential evolution (WOA-LFDE) to solve JSSP. By changing the expression of Lévy flight and DE search strategy, Lévy flight enhances the abilities of global search and convergence of WOA in iteration, while DE algorithm improves the exploitation and local search capabilities of WOA and keeps the diversity of solutions to escape local optima. It is then applied to solve 88 JSSP benchmark instances and compared with other state-of-art algorithms. The experimental results and statistical analysis show that the proposed algorithm has superior performance over contesting algorithms.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The proposed method combines the Whale Optimization Algorithm (WOA) with Lévy flight and Differential Evolution (DE) to enhance its exploration, exploitation, and solution diversity capabilities. The introduction of Lévy flight improves the global search efficiency, while DE contributes to effective local search and helps prevent premature convergence.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>This research aims to improve the Whale Optimization Algorithm by integrating Lévy flight and Differential Evolution into a hybrid model (WOA-LFDE) to effectively solve job shop scheduling problems (JSSP).</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>['Job shop scheduling problem', 'Whale optimization algorithm', 'Lévy flight', 'Differential evolution']</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>The job shop scheduling problem (JSSP) stands out as a significant optimization challenge in manufacturing, classified as NP-hard due to its complexity. Traditional techniques have proven ineffective in providing polynomial-time solutions, leading to the exploration of heuristic methods that leverage swarm and evolutionary algorithms. In this context, the Whale Optimization Algorithm (WOA) emerged as a promising metaheuristic based on the natural predation techniques of humpback whales. While effective, WOA is susceptible to limitations such as premature convergence and difficulties in escaping local optima. This paper introduces an enhanced version of WOA (WOA-LFDE), combining it with Lévy flight—a stochastic method that promotes exploratory behavior through heavy-tailed distributions—and Differential Evolution (DE), known for its robust local optimization capabilities. The hybrid approach uniquely augments WOA's abilities, ensuring better exploration through Lévy flight while maintaining exploitation through DE. It systematically integrates these methods, conducting trials on 88 established JSSP benchmark instances. The evaluation metrics indicated significant performance improvements over existing algorithms, revealing that WOA-LFDE consistently outperforms counterparts in both speed and solution quality. The paper further discusses practical implications of the enhanced algorithm in manufacturing contexts, signifying its potential for real-world applications. Future implications entail extending this method to other complex scheduling and optimization scenarios beyond JSSP, suggesting that the hybrid strategy is adaptable and relevant across diverse domains.</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>Hybrid whale optimization algorithm enhanced with Lévy flight and differential evolution for job shop scheduling problems - Anna’s Archive copy.pdf</t>
@@ -1565,7 +1758,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
@@ -1582,12 +1775,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A policy network is designed to solve the extended FJSP, utilizing reinforcement learning (RL) through policy gradient. The network takes six state features as input and outputs the probability distribution for selecting dispatching rules. The network is trained after scheduling all operations, optimizing the policy parameters to minimize makespan.</t>
+          <t>A policy network is designed to solve the extended FJSP, using policy gradient reinforcement learning. Six state features are extracted and three dispatching rules are proposed for operation selection and machine assignment.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>To minimize the total completion time (makespan) of the flexible job shop scheduling problem (FJSP) while considering sequence-dependent setup times and resource constraints.</t>
+          <t>To minimize the total completion time (makespan) in solving the flexible job shop scheduling problem with sequence-dependent setup times and resource constraints.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1597,7 +1790,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem (FJSP), which is NP-hard and increasingly complex in modern manufacturing due to factors like sequence-dependent setup times and resource constraints. The authors propose a novel policy network that leverages reinforcement learning (RL) to optimize scheduling decisions. The methodology involves defining a Markov Decision Process (MDP) framework where the state is represented by six features that capture the manufacturing environment at each scheduling point. The policy network outputs a probability distribution over three dispatching rules, which are designed to select operations and assign them to machines effectively. The training of the policy network employs a policy gradient method, allowing it to learn from the scheduling outcomes and improve over time. The authors generate ten benchmark instances based on existing FJSP datasets to evaluate the performance of their proposed method against traditional algorithms and dispatching rules. Experimental results demonstrate that the policy network consistently outperforms its competitors, achieving lower makespan values across various instances. This work not only contributes to the theoretical understanding of FJSP but also provides practical implications for industrial applications, suggesting that RL-based approaches can significantly enhance scheduling efficiency. Future work may explore further refinements to the policy network and its application to more complex scheduling scenarios.</t>
+          <t>The flexible job shop scheduling problem (FJSP) is notorious for its computational complexity and real-world applicability in industrial manufacturing, where operations can be executed on multiple machines with specific sequence-dependent setup times and limited resources. This paper presents a novel approach using a policy network based on reinforcement learning (RL) to address the challenges of the extended FJSP comprehensively. The primary objective is to minimize the total completion time, known as makespan. The methodology involves developing a neural network that utilizes six carefully selected state features to inform decision-making at each scheduling point, where it selects both the operation to perform and the machine on which it will be executed. Three dispatching rules are formulated within the network, allowing the policy to adapt dynamically based on real-time scheduling conditions, which improves its performance over traditional single-rule methods. Performance metrics from experiments with ten benchmark instances demonstrate that the proposed policy network consistently outperforms both standard heuristic approaches and other intelligent algorithms, indicating its efficacy for complex, large-scale industrial scheduling applications. The results not only underscore the practical significance of RL methods in FJSP but also suggest implications for future research in adaptive scheduling and optimization techniques. Furthermore, the robustness of the model is evidenced by the statistical analysis conducted on the results, suggesting that it can effectively learn to select optimal rules depending on the state of the system, thus paving the way for more intelligent manufacturing systems capable of handling intricate scheduling dilemmas.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1607,7 +1800,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
@@ -1619,27 +1812,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>This paper presents an integer linear-programming model for the machine scheduling problem, which aims to minimize the total elapsed time for processing a set of items on multiple machines. The model accommodates various scheduling scenarios and demonstrates the potential for finite algorithms to find optimal solutions, despite current computational limitations.</t>
+          <t>This paper presents an integer linear programming model aimed at solving the machine-scheduling problem, which involves determining the optimal sequence of items being processed on multiple machines to minimize total elapsed time. The model accounts for various constraints and positions and is adequately structured to accommodate a variety of scheduling situations, proposing a linear method to reach an optimal solution effectively.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>An integer linear-programming model is proposed, characterized by constraints that ensure each item is processed in a specified order on multiple machines. The model utilizes two matrices to represent items and their processing stages, along with nonnegative integer-valued variables to define scheduling positions and processing times.</t>
+          <t>An integer linear programming model is proposed to tackle the machine-scheduling problem. The model utilizes matrices to organize the relationships between items and machines, defining nonnegative integer-valued variables and constraints to ensure that scheduling adheres to specified conditions. The objective is to minimize the time at which all items are processed, establishing a framework for secondary constraints and the development of more computationally feasible algorithms in the future.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>To develop a comprehensive model for machine scheduling that minimizes total processing time while accommodating various constraints and processing orders.</t>
+          <t>The primary objective is to develop a model that provides a systematic approach to scheduling multiple items on multiple machines, minimizing total manufacturing time while accommodating imposed constraints. It aims to prove the existence of finite algorithms that can offer optimal sequencing solutions, facilitating practical applications in real-world scheduling problems.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Integer Linear Programming', 'Machine Scheduling', 'Optimization', 'Operations Research']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>The paper addresses the machine scheduling problem, which involves determining the optimal sequence for processing a set of items across multiple machines to minimize the total elapsed time for completion. The author introduces a general integer linear-programming model that can adapt to various scheduling scenarios, highlighting its ability to encompass a wide range of classical scheduling problems. The model is structured around two matrices: the first matrix represents the items and their required processing stages on different machines, while the second matrix captures the manufacturing times associated with each item on each machine. The proposed method employs nonnegative integer-valued variables to define the scheduling positions of items and incorporates constraints to ensure that each item is processed in the correct order and on the appropriate machines. Key contributions of the paper include the establishment of a finite algorithm that can monotonically search for optimal solutions, despite the model's current computational challenges. The author acknowledges that while the model may be computationally unwieldy for larger instances, it holds promise for future developments in integer linear programming and secondary constraint techniques. The findings suggest that the model could be practically applied to specific scheduling problems with limited items and machines, potentially leading to more efficient manufacturing processes. The significance of this work lies in its foundational approach to machine scheduling, paving the way for further research and algorithmic advancements in the field. Future implications include the exploration of more computationally feasible formulations and the development of specialized algorithms to exploit the structure of classical scheduling problems.</t>
+          <t>The paper addresses the machine-scheduling problem, characterized as the task of processing a set of items on multiple machines, where the order of processing may be partially defined. The primary goal is to minimize the total elapsed time for completion. The author proposes an integer linear programming (ILP) model, which can accommodate diverse scheduling scenarios. Among its significant contributions is the demonstration that a single linear framework can adapt to various situations within machine scheduling. This modeling approach simplifies the challenges involved by establishing a finite algorithm intended for optimal solution search, thus promising computational advancements in integer linear programming. Key insights reveal that despite the model's computational complexity—which renders it impractical for large problems at present—the potential exists for future refinements in algorithm efficiency. Furthermore, the model suggests employing secondary constraints strategically, allowing for a trial solution method that introduces constraints as needed to eliminate infeasibilities.
+The inherent complexity arises from the extensive number of constraints, however, many are typically inoperative for practical problem sizes, suggesting that the core of the solution process can be streamlined through strategic application of constraints. The paper outlines the model's capacity to handle m-stage processes exhaustively, detailing the need for precise definitions of time intervals and dependencies among task sequences. Even with its limitations, the ILP framework shows promise in enhancing the solution to classical scheduling variants, particularly in constrained environments such as when only a few machines are involved. Looking toward the future, the advancements in computational techniques for integer linear programming may yield more accessible and efficient models for real-world applications in production and manufacturing settings.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1649,21 +1843,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Multi-Objective Flexible Job Shop Scheduling Problem Considering Machine Switching Off-On Operation</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>As the environmental awareness and the pressure of energy shortage, the current manufacturing industries begin to pay great attention to energy efficiency in manufacturing system. Flexible job shop scheduling problem (FJSP) has great potential in reducing energy consumption in manufacturing system, owing to the flexibility in machine selecting, job sequencing, and idle machine on-off decision making. To solve the multi-objective FJSP considering energy efficiency and makespan simultaneously, the paper proposed an improved genetic algorithm (IGA) based on non-dominated sorting genetic algorithm II (NSGA-II) and a mixed-integer mathematical model. The proposed IGA combines genetic operators of NSGA-II with some specific tabu strategies to enhance the local search ability of the algorithm. The results of numerical experiments show a certain superiority of the proposed algorithm over NSGA-II.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>An improved genetic algorithm (IGA) hybridized with tabu search strategies, based on non-dominated sorting genetic algorithm II (NSGA-II) and a mixed-integer mathematical model.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>To solve the multi-objective flexible job shop scheduling problem (FJSP) considering energy efficiency and makespan simultaneously.</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>['Multi-objective', 'energy-efficient', 'IGA', 'FJSP']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>The paper addresses the rise of energy consumption concerns within manufacturing environments, particularly focusing on the flexible job shop scheduling problem (FJSP). As companies increasingly face pressures from environmental regulations and energy shortages, optimizing energy efficiency in manufacturing processes has become crucial. The authors propose an improved genetic algorithm (IGA) to tackle the FJSP, specifically integrating the on-off switching operations of machines. Traditional scheduling optimizations often neglect idle machine states, which contribute significantly to total energy consumption. The paper highlights that proper scheduling can mitigate both makespan (the total time to complete all jobs) and energy waste. A mixed-integer programming model is developed, incorporating two primary objectives: minimizing makespan and total energy consumption. A complex solution space is inherent given the multiple operations and machine choices, prompting the use of NSGA-II for a robust initial global search solution and adding a tabu search mechanism for enhanced local search optimization. These combined methodologies provide a more refined search for optimal scheduling arrangements. Numerical experiments illustrate that the proposed IGA outperforms NSGA-II, leading to significant improvements in energy efficiency without compromising production timelines. The significance of this research lies in not only improving operational efficiencies but also contributing to greener manufacturing practices, paving the way for future explorations into energy-aware scheduling systems. Such findings are vital, underscoring the potential reductions in operational costs and environmental impacts that can be achieved by adopting sophisticated scheduling principles rooted in sustainability.</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>Multi-Objective Flexible Job Shop Scheduling Problem Considering Machine Switching Off-On Operation - Anna’s Archive.pdf</t>
@@ -1671,21 +1885,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Research on flexible job-shop scheduling problem in green sustainable manufacturing based on learning effect</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>As one of the manufacturing industries with high energy consumption and high pollution, sand casting is facing major challenges in green manufacturing. In order to balance production and green sustainable development, this paper puts forward man-machine dual resource constraint mechanism. In addition, a multi-objective flexible job shop scheduling problem model constrained by job transportation time and learning effect is constructed, and the goal is to minimize processing time energy consumption and noise. Subsequently, a hybrid discrete multi-objective imperial competition algorithm (HDMICA) is developed to solve the model. The global search mechanism based on the HDMICA improves two aspects: a new initialization method to improve the quality of the initial population, and the empire selection method based on Pareto non-dominated solution to balance the empire forces. Then, the improved simulated annealing algorithm is embedded in imperial competition algorithm (ICA), which overcomes the premature convergence problem of ICA. Therefore, four neighborhood structures are designed to help the algorithm jump out of the local optimal solution. Finally, an example is used to verify the feasibility of the proposed algorithm. By comparing with the original ICA and other four algorithms, the effectiveness of the proposed algorithm in the quality of the first frontier solution is verified.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A hybrid discrete multi-objective imperial competition algorithm (HDMICA) is developed to solve the model, with improvements including a new initialization method, an empire selection method based on Pareto non-dominated solutions, and an improved simulated annealing algorithm embedded within ICA to address convergence issues.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>To construct a multi-objective flexible job shop scheduling problem model constrained by job transportation time and the learning effect while minimizing processing time, energy consumption, and noise in sand casting manufacturing.</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>['Green sustainable development', 'Man-machine dual resource constraint mechanism', 'FJSP', 'Learning effect', 'HDMICA', 'Improved simulated annealing']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>This research tackles the critical issue of green manufacturing, particularly in the sand casting industry known for high energy consumption and pollution. The authors establish a novel dual resource constraint mechanism integrating both man and machine, which is essential in optimizing the flexible job-shop scheduling problem (FJSP) specific to this sector. A comprehensive multi-objective model is derived, emphasizing the minimization of processing time, energy consumption, and industrial noise while incorporating job transportation time and learning effects. A pivotal contribution of this work is the development of the hybrid discrete multi-objective imperial competition algorithm (HDMICA). This algorithm improves upon existing imperial competition algorithms, specifically in its population initialization and its use of Pareto-dominance for selection, thus enhancing global search capabilities. The integration of an enhanced simulated annealing approach mitigates premature convergence, allowing for a more robust exploration of the solution space through four distinct neighborhood structures. Performance validation is conducted through comparative analyses showcasing HDMICA's superior ability to yield higher quality solutions compared to both the original imperial competition algorithm and four other heuristic methods. The findings propose substantial practical implications for the casting industry, facilitating a shift towards more efficient and environmentally conscious manufacturing practices. This research not only fills an existing gap in the literature on FJSP under resource constraints but also sets a foundation for potential advancements in smart manufacturing applications, indicating a promising avenue for future research to explore additional complexities and real-world applications.</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>Research on flexible job-shop scheduling problem in green sustainable manufacturing based on learning effect - Anna’s Archive.pdf</t>
@@ -1693,21 +1927,41 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Two-objective Robust Job-Shop Scheduling with Two Problem-Specific Neighborhood Structures</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>This paper discusses a two-objective robust job-shop scheduling problem with uncertain processing times described by discrete scenarios. The two objectives are to minimize the mean makespan and the worst-scenario makespan across all the scenarios. Two hybrid algorithms are developed by combining the elitist nondominated sorting genetic algorithm (NSGA-II) and tabu search (TS) operators. Two kinds of neighborhood structures are constructed based on the problem-specific knowledge for discrete scenarios and used in local TS operators, which are performed for each individual to improve offspring population. The hybrid algorithms with two specialized neighborhood structures are compared with each other, with the state-of-the-art existing algorithms for solving the discussed problem. The computational results verify the original intentions of designation of two neighborhood structures as well as the advantages of the developed hybrid algorithms for the proposed two-objective problem.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The study develops two hybrid algorithms that combine the elitist nondominated sorting genetic algorithm (NSGA-II) with tabu search (TS) operators. Problem-specific neighborhood structures are constructed specifically for the robust job-shop scheduling problem with uncertain processing times.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>The main objectives of the research are to minimize both the mean makespan and the worst-case makespan across discrete scenarios in a robust job-shop scheduling context.</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>['Multi-objective JSP', 'NSGA-II', 'TS', 'Problem-specific neighborhood structure', 'Scenarios']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>This paper focuses on the robust job-shop scheduling problem (JSP) characterized by uncertain processing times represented through discrete scenarios. The authors identify that traditional single-objective optimization methods, which minimize the worst-case makespan, are overly conservative without taking optimality into account. Therefore, this research proposes a two-objective optimization framework where one objective minimizes the worst-case makespan while the other minimizes the mean makespan across scenarios. The authors introduce two novel problem-specific neighborhood structures that enhance traditional tabu search operations. The first neighborhood structure enhances solutions for the worst-case scenario, while the second caters to an overall average performance across scenarios. The integration of these structures into hybrid algorithms combining NSGA-II and tabu search boasts improved performance over existing scheduling algorithms. Experiments showcase the hybrids' capabilities, revealing significant improvements in robustness and solution optimality. The computational results indicate that the proposed algorithm outperforms several established methods, providing both theoretical contributions to the field of scheduling under uncertainty and practical applications for industries relying on efficient job-shop scheduling. Future implications include extending this framework to more complex scenarios and exploring additional multi-objective strategies in the context of job-shop scheduling. By emphasizing the need for specialized neighborhood structures, this research establishes a foundation for further developments in robust multi-objective optimization methodologies.</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Two-objective robust job-shop scheduling with two problem-specific neighborhood structures - Anna’s Archive.pdf</t>
@@ -1715,7 +1969,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1986,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hierarchical multi-agent proximal policy optimization (HMAPPO)</t>
+          <t>A hierarchical multiagent deep reinforcement learning (DRL)-based real-time scheduling method named hierarchical multi-agent proximal policy optimization (HMAPPO). This method employs three proximal policy optimization (PPO)-based agents, each operating at different spatiotemporal levels: an objective agent for determining temporary objectives, a job agent for selecting jobs, and a machine agent for assigning machines. It features a hierarchical PPO-based training algorithm and evaluates multiple objectives such as total weighted tardiness (TWT), average machine utilization rate, and variance of machine workload.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>To address the dynamic partial-no-wait multiobjective flexible job shop scheduling problem (DMOFJSP-PNW) with new job insertions and machine breakdowns.</t>
+          <t>To address the dynamic partial-no-wait multiobjective flexible job shop scheduling problem (DMOFJSP-PNW) with new job insertions and machine breakdown while optimizing multiple objectives simultaneously.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1747,7 +2001,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The paper addresses the dynamic partial-no-wait multiobjective flexible job shop scheduling problem (DMOFJSP-PNW), which is critical in modern manufacturing systems where dynamic disturbances such as new job insertions and machine breakdowns frequently occur. Traditional scheduling methods often struggle with time efficiency and solution quality, particularly under the constraints of partial-no-wait operations. To tackle this, the authors propose a novel hierarchical multi-agent deep reinforcement learning (DRL) approach called HMAPPO. This method employs three distinct agents operating at different spatiotemporal levels: an objective agent that sets temporary optimization goals, a job agent that selects jobs based on predefined rules, and a machine agent that assigns jobs to machines while adhering to no-wait constraints. The authors designed five job selection rules and six machine assignment rules to facilitate effective scheduling. A hierarchical PPO-based training algorithm was developed to train these agents, utilizing 20 state features to reflect production status and a novel reward function to guide learning. Extensive numerical experiments demonstrate that HMAPPO outperforms traditional dynamic scheduling methods, achieving better compromises among multiple objectives such as total weighted tardiness, average machine utilization, and variance of machine workload. The significance of this work lies in its potential applications across various production environments, including hybrid flow shops and open shops, thereby contributing to the advancement of real-time scheduling in Industry 4.0 contexts. Future implications suggest further exploration of DRL applications in complex scheduling scenarios with varying uncertainties and objectives.</t>
+          <t>This paper addresses the complex challenge of the dynamic partial-no-wait multiobjective flexible job shop scheduling problem (DMOFJSP-PNW) using a novel hierarchical multi-agent reinforcement learning approach termed HMAPPO. This framework is particularly pertinent in modern manufacturing environments characterized by dynamic disturbances, where efficiency and effectiveness in scheduling are critical. The authors propose a method using three different agents—objective, job, and machine agents—each operating at distinct control levels. The objective agent assesses the overall objective periodically, while the job and machine agents focus on selecting tasks and allocating resources. Each agent utilizes various heuristics for effective scheduling, emphasizing a comprehensive strategy that integrates multiple scheduling goals, including TWT, average machine utilization, and workload variance. Key contributions include the development of a hierarchical PPO-based training algorithm and the design of specific job selection and machine assignment rules. Performance evaluations through extensive numerical experiments establish the superiority of HMAPPO over conventional dynamic scheduling techniques, demonstrating both effectiveness and efficiency, evidenced by significant improvements in the performance metrics across diverse scenarios. This approach shows considerable promise for application in industries with stringent scheduling needs, such as aerospace and steel manufacturing, thereby contributing to optimized production processes in Industry 4.0 contexts. Future research directions include expanding the model to address additional uncertainties and objectives, aiming for a more holistic approach to production scheduling.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1757,7 +2011,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
@@ -1779,7 +2033,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>To develop a near-optimal scheduling model for the flexible job shop scheduling problem (FJSP) using a new approach called RLGAN.</t>
+          <t>To propose a new approach for solving the flexible job shop scheduling problem (FJSP) using reinforcement learning enhanced with generative adversarial networks.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1789,7 +2043,9 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem (FJSP), a complex and NP-hard issue in intelligent manufacturing systems that requires efficient allocation of resources and sequencing of tasks. Traditional methods for solving FJSP, including exact algorithms, heuristics, and meta-heuristics, often fall short in terms of real-time response and scalability. To overcome these limitations, the authors propose a novel approach called reinforcement learning with the generative adversarial network (RLGAN), which operates within a parallel learning framework. This framework allows for the generation of a large dataset of sample plans through a simulation-based artificial workshop system, which serves as a training set for the RLGAN model. The RLGAN combines the strengths of reinforcement learning and generative adversarial networks to enhance the learning process, enabling the generation of near-optimal scheduling plans. The experimental results demonstrate that the proposed method, QTRAN-GAN, significantly outperforms traditional reinforcement learning methods, such as QTRAN, in generating effective scheduling solutions. The significance of this work lies in its potential applications in real-world manufacturing scenarios, where efficient scheduling can lead to improved productivity and reduced operational costs. Future implications include further refinement of the RLGAN approach and its application to more complex scheduling environments, potentially integrating additional factors such as dynamic job arrivals and machine breakdowns.</t>
+          <t>This paper addresses the challenge of the flexible job shop scheduling problem (FJSP), a well-known NP-hard problem in intelligent manufacturing systems that requires efficient real-time responses and optimization strategies. Existing solutions based on reinforcement learning have shown potential but also have limitations related to efficiency and adaptability. Hence, the authors introduce a novel approach termed reinforcement learning with the generative adversarial network (RLGAN) within a parallel learning framework. They establish a simulation-based artificial workshop system (AWS) designed to generate extensive sample plans, providing a robust training dataset for the RLGAN algorithm. The RLGAN integrates features from both reinforcement learning and generative adversarial networks, effectively enabling the training of a scheduling model capable of producing near-optimal scheduling solutions.
+The authors perform a case study where they implement their proposed method, QTRAN-GAN, and compare its performance against the purely reinforcement learning approach, QTRAN. Experimental results illustrate that QTRAN-GAN consistently generates superior scheduling plans, demonstrating enhanced performance by achieving lower makespan metrics. The methodology is structured into a closed-loop process of data processing and action learning, where expert input data is augmented through generative techniques to yield large datasets used for training the model. The learning model's architecture consists of a generator that synthesizes plans and a discriminator that evaluates these against expert plans, thereby iteratively optimizing the generator's output based on the discriminator's feedback.
+The study validates the effectiveness of the QTRAN-GAN algorithm through extensive computational experiments, where the RLGAN's design incorporates sophisticated elements such as random event simulations representing machine breakdowns within the workshop. Notably, the approach strives to minimize makespan as a critical production objective, assigning a reward function inversely correlated with makespan duration. Outcomes reveal a significant performance advantage of QTRAN-GAN over the baseline QTRAN, with average performance improvements recorded across training and evaluation phases. This work contributes to emerging intelligent manufacturing paradigms by enhancing scheduling efficiency, indicating considerable implications for future research avenues focused on optimally solving complex decision-making problems in production environments.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1799,7 +2055,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
@@ -1816,12 +2072,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Beam-ACO, a hybrid approach combining ant colony optimization (ACO) with beam search (BS), is proposed to tackle open shop scheduling (OSS) problems. The method utilizes the probabilistic solution construction mechanism of ACO and the parallel extension of partial solutions characteristic of BS.</t>
+          <t>The proposed method, Beam-ACO, combines ant colony optimization (ACO) with beam search (BS) techniques for solving the open shop scheduling problem. It uses a probabilistic beam search approach where each artificial ant constructs solutions in parallel by extending partial solutions based on pheromone values and conditionally selected operations according to a defined heuristic. This hybridization relies on the strengths of both algorithms, allowing for both exploratory and exploitative search strategies in a guided manner.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>To develop a hybrid algorithm (Beam-ACO) that combines ant colony optimization with beam search for solving open shop scheduling problems and to demonstrate its effectiveness compared to existing methods.</t>
+          <t>The primary objective of this research is to develop a hybrid algorithm, Beam-ACO, that integrates ant colony optimization and beam search for the open shop scheduling problem. The paper aims to evaluate the performance of Beam-ACO and demonstrate its effectiveness as a state-of-the-art method against existing algorithms.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1831,11 +2087,9 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of solving open shop scheduling (OSS) problems, which are known for their complexity and difficulty in finding optimal solutions. The authors propose a novel hybrid algorithm called Beam-ACO, which integrates the strengths of ant colony optimization (ACO) and beam search (BS). ACO is a well-established metaheuristic that employs a probabilistic approach to construct solutions, while BS is a classical tree search method that explores multiple partial solutions simultaneously. By combining these two methodologies, Beam-ACO aims to enhance the solution construction process and improve the quality of solutions for OSS.
-The methodology involves using ACO's probabilistic solution construction mechanism, which maps the search space onto a tree structure, and integrating it with BS's ability to extend multiple partial solutions in parallel. This hybridization allows for a more efficient exploration of the solution space, as it leverages the adaptive nature of ACO while maintaining the breadth-first search capabilities of BS.
-The authors conducted extensive experiments to evaluate the performance of Beam-ACO against existing state-of-the-art methods on a variety of benchmark OSS instances. The results indicate that Beam-ACO consistently outperforms traditional ACO approaches and other competitive algorithms, demonstrating its effectiveness in finding high-quality solutions.
-Key findings include the identification of optimal or near-optimal solutions for several OSS instances, showcasing the algorithm's robustness and adaptability. The practical applications of Beam-ACO extend to various scheduling scenarios in manufacturing and service industries, where efficient resource allocation and scheduling are critical.
-The significance of this research lies in its contribution to the field of combinatorial optimization, particularly in scheduling problems. The hybrid approach not only provides a new perspective on integrating different optimization techniques but also opens avenues for future research in enhancing metaheuristic algorithms. Future implications include exploring further hybridization with other optimization techniques and applying Beam-ACO to more complex scheduling problems beyond OSS.</t>
+          <t>This paper introduces Beam-ACO, a novel hybrid approach that combines the methodologies of ant colony optimization (ACO) and beam search (BS) to efficiently tackle open shop scheduling (OSS) problems. OSS is known to be NP-hard, presenting significant challenges for conventional solution techniques. The essence of Beam-ACO lies in its systematic construction of solutions using probabilistic decision-making, influenced by pheromone trails established during prior searches—similar to ACO—but implemented through the structured exploration method of beam search, which focuses on a set of the most promising partial solutions at each stage of the search process. 
+A detailed methodology was presented in the paper, which outlines how each artificial ant performs a probabilistic beam search, generating multiple candidate solutions simultaneously while adhering to constraints specific to OSS. The results indicate that Beam-ACO outperforms existing algorithms, including the best known methods for OSS, in numerous benchmark tests, demonstrating both superior solution quality and efficiency. The algorithm's structure allows it to adaptively adjust to the dynamics of the search landscape, utilizing lower bounds to guide the search effectively. Notably, Beam-ACO is shown to outperform Standard-ACO significantly, achieving optimal solutions for all tested Taillard benchmark instances and improving upon the best-known solutions across various OSS benchmark instances from literature. 
+Overall, the hybridization of ACO with BS not only enhances the solution quality for OSS but also opens avenues for applying Beam-ACO to other combinatorial optimization problems where tree search techniques thrive. Future research will expand the applicability of Beam-ACO, potentially incorporating more adaptive mechanisms and experimenting with different problem domains beyond OSS.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1845,21 +2099,44 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A hybrid estimation of distribution algorithm for distributed flexible job shop scheduling with crane transportations site</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Distributed flexible job shop scheduling has attracted research interest due to the development of global manufacturing. However, constraints including crane transportation and energy consumption should be considered with the realistic requirements. To address this issue, first, we modeled the problem by utilizing an integer programming method, wherein the makespan and energy consumptions during the machine process and crane transportation are optimized simultaneously. Afterward, a hybrid algorithm consisting of estimation of distribution algorithm (EDA) and variable neighborhood search (VNS) was proposed to solve the problem, where an identification rule of four crane conditions was designed to make fitness calculation feasible. In EDA component, the parameters in probability matrices are set to be self-adaptive for stable convergence to obtain better output. Moreover, a probability mechanism was applied to control the activity of the EDA component. In VNS component, five problem-specific neighborhood structures including global and local strategies are employed to enhance exploitation ability. The simulation tests results confirmed that the proposed hybrid EDA-VNS algorithm can solve the considered problem with high efficiency compared with other competitive algorithms, and the proposed improving strategies are verified to have significance in better performance.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A hybrid algorithm consisting of estimation of distribution algorithm (EDA) and variable neighborhood search (VNS) was proposed.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>To solve the distributed flexible job shop scheduling problem with crane transportation, optimize makespan and energy consumption simultaneously.</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>['Distributed flexible job shop scheduling', 'Crane transportation', 'Estimation of distribution algorithm', 'Variable neighborhood search', 'Multi-objective optimization']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>This paper addresses the distributed flexible job shop scheduling problem with crane transportation (DFJSPC), a critical issue brimming with complexities in modern manufacturing environments caused by global industrial shifts. The DFJSPC is modeled using a novel integer programming framework with dual objectives: minimizing the makespan—the total time taken for job completion—and the total energy consumption (TEC) during both machine processing and crane operations. The decision-making process is guided by realistic considerations of various constraints arising from crane transportation. Central to the solution is a hybrid algorithm that smartly combines the Estimation of Distribution Algorithm (EDA) and Variable Neighborhood Search (VNS). 
+The EDA operates by generating new solutions based on the fitness of existing solutions, effectively sampling the solution space to evolve the population towards better optimality. It incorporates a self-adaptive mechanism for its probability matrices which ensures robust convergence rates while minimizing premature convergence that can skew results. Furthermore, it deploys a sophisticated probability variable to manage computational activities, ensuring efficient resource utilization.
+In parallel, the VNS component augments the exploitation ability of the EDA by implementing five specialized neighborhood structures for performance enhancement with both global and local strategies, refining solutions iteratively within localized neighborhoods. Experimental results from a series of simulations demonstrate that the EDA-VNS hybrid outperforms existing algorithms in terms of efficiency and solution quality, validating the significance of the integrated strategies. The results indicate substantial improvements in achieving reduced makespan and lowered energy consumption, making this approach highly relevant for industries committed to energy efficiency and productivity.
+The practical applications of this research lie in various manufacturing fields, including automotive, textiles, and assembly lines, where distributed systems are vital. The implications for future work include not only validation in more diverse operational settings but also the adaptation of the algorithm to include additional constraints and objectives, aligning with evolving manufacturing capabilities and sustainability goals.</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>undefined series for scimag 12- Anna’s Archive.pdf</t>
@@ -1867,29 +2144,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:01</t>
+          <t>2025-08-20 01:47:48</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ON THE APPLICATION OF INSERTION TECHNIQUES FOR JOB SHOP PROBLEMS WITH SETUP TIMES</t>
+          <t>On the Application of Insertion Techniques for Job Shop Problems with Setup Times</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Constructive heuristics for shop scheduling problems are often based on priority (or dispatching) rules. However, recent work has demonstrated that insertion algorithms that step by step insert operations or jobs into partial schedules usually clearly outperform priority rules. In this paper, we consider various job shop scheduling problems with setup times. For each job a specific technological route and a release date are given. Moreover, the jobs are partitioned into groups. A sequence independent setup time rj is required on machine when a job of the -th group is processed after a job of another group. We consider different types of job availability, namely item and batch availability. As objective function we use both regular and nonregular criteria. For such problems we apply insertion techniques combined with beam search. Especially we consider different insertion orders of the operations or jobs. A refined variant of the insertion algorithm is presented, where several operations are inserted in parallel. The proposed variants have been tested on a large collection of test problems and compared with other constructive algorithms based on priority rules.</t>
+          <t>Constructive heuristics for shop scheduling problems are often based on priority (or dispatching) rules. However, recent work has demonstrated that insertion algorithms that step by step insert operations or jobs into partial schedules usually clearly outperform priority rules. In this paper, we consider various job shop scheduling problems with setup times. For each job, a specific technological route and a release date are given. Moreover, the jobs are partitioned into groups. A sequence independent setup time rj is required on machine when a job of the -th group is processed after a job of another group. We consider different types of job availability, namely item and batch availability. As objective function, we use both regular and nonregular criteria. For such problems we apply insertion techniques combined with beam search. Especially we consider different insertion orders of the operations or jobs. A refined variant of the insertion algorithm is presented, where several operations are inserted in parallel. The proposed variants have been tested on a large collection of test problems and compared with other constructive algorithms based on priority rules.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Insertion techniques combined with beam search, including different insertion orders and a refined variant for parallel insertions.</t>
+          <t>The proposed method involves insertion techniques combined with beam search, specifically tailored for job scheduling problems with setup times. The algorithms include successive insertion of job operations based on various criteria such as processing time and job availability types, as well as refined variants that incorporate parallel insertions.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>To investigate job shop scheduling problems with setup times and to compare insertion techniques with priority rules.</t>
+          <t>This paper aims to analyze different insertion algorithms for job shop scheduling problems with setup times, comparing their effectiveness against traditional priority-based algorithms. The goal includes minimizing completion times and addressing various job availability types.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1899,7 +2176,9 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>This paper addresses the complexities of job shop scheduling problems that incorporate setup times, a critical aspect in modern manufacturing systems. The authors highlight the limitations of traditional priority-based heuristics, which often fail to deliver optimal solutions across varying shop configurations. Instead, they propose a series of insertion algorithms that iteratively build schedules by inserting jobs into partial schedules, demonstrating superior performance compared to priority rules. The study categorizes jobs into groups, each with specific technological routes and release dates, and introduces two types of job availability: item and batch. The authors employ both regular and nonregular objective functions, focusing on minimizing makespan and weighted tardiness penalties. A significant contribution of this work is the introduction of a refined insertion algorithm that allows for parallel insertion of multiple operations, enhancing efficiency. The proposed methods were rigorously tested against a comprehensive set of benchmark problems, revealing that the insertion techniques consistently outperformed traditional priority-based approaches. The findings underscore the importance of considering setup times in scheduling and suggest that the proposed algorithms can be effectively applied in real-world manufacturing scenarios, paving the way for future research to explore further refinements and applications in more complex scheduling environments.</t>
+          <t>This paper investigates insertion techniques for job shop scheduling problems where setup times are required due to job processing order. Traditional scheduling typically relies on priority rules, but recent experiments suggest that insertion algorithms—where operations are systematically inserted into partial schedules—yield significantly better results. The authors specifically address job shop scheduling with sequence-independent setup times and examine both item and batch availability. In their approach, each job is assessed based on a defined technological route and a specific release date, with jobs categorized into distinct groups. They introduce multiple objectives for minimizing completion times, including regular and nonregular criteria such as makespan and weighted earliness/tardiness penalties.
+The methodology incorporates a beam search technique to refine the scheduling process further, enhancing the insertion algorithm by allowing multiple operations to be inserted in parallel. A comparative study was conducted using a large dataset of test problems, wherein the proposed insertion methods were rigorously analyzed against established priority rules. The results indicated a substantial performance improvement of the insertion algorithms, particularly for complex scheduling scenarios characterized by limited job availability.
+Key findings demonstrate that the effectiveness of insertion strategies varies notably with the chosen objective function and the structure of the job shop problem. In scenarios where setup times play a critical role, the results indicate a compelling case for adopting insertion tactics over conventional priority rules. The authors conclude that while this area presents significant challenges, especially in optimizing for nonregular criteria, further research and development of iterative improvement algorithms based on local search could yield even more efficient solutions in job shop scheduling contexts. The findings contribute meaningfully to the operational research discourse, offering a robust framework for tackling complex job scheduling problems amidst varying conditions of job and machine availability.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1909,7 +2188,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
@@ -1926,12 +2205,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A DRL scheduling method for DJSP based on proximal policy optimization (PPO) with hybrid prioritized experience replay.</t>
+          <t>We propose a DRL scheduling method based on the proximal policy optimization (PPO) algorithm combined with hybrid prioritized experience replay to improve training efficiency. The job shop scheduling problem is modeled as a Markov Decision Process (MDP) with a new state representation and an intuitive reward function based on machine idle time. Our unique contribution includes a novel state representation utilizing a feasible solution matrix and an innovative reward function that indirectly reduces the maximum make-span by optimizing for idle machine time.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>To develop a deep reinforcement learning model for dynamic job-shop scheduling that effectively handles uncertainties in processing times and improves training efficiency.</t>
+          <t>To develop a deep reinforcement learning method to effectively address the dynamic job-shop scheduling problem (DJSP) that considers uncertainties such as variable processing times, and to enhance the convergence of scheduling policies under increasing problem scales.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1941,7 +2220,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>The paper addresses the dynamic job-shop scheduling problem (DJSP), which is crucial in operational research and management science, particularly in environments characterized by uncertainties such as variable processing times. Traditional scheduling methods struggle with the increasing complexity of DJSP, especially under real-world conditions where rescheduling is necessary. The authors propose a novel deep reinforcement learning (DRL) approach that utilizes proximal policy optimization (PPO) combined with a hybrid prioritized experience replay mechanism. This method reformulates the scheduling problem as a Markov Decision Process (MDP), introducing a new state representation based on a feasible solution matrix and a reward function that emphasizes minimizing machine idle time. The hybrid prioritized experience replay enhances training efficiency by focusing on samples with positive temporal-difference (TD) errors, thereby accelerating convergence of the scheduling policy. Experimental results indicate that the proposed method reduces the average make-span by 1.59% compared to existing DRL methods and decreases the training time by 27% when adapting to uncertainties. This research contributes to the field by providing a more efficient and effective scheduling solution that can be applied in various industrial contexts, paving the way for future advancements in AI-driven scheduling systems.</t>
+          <t>In this study, we address the dynamic job-shop scheduling problem (DJSP), a considerable challenge in operational research due to its NP-hard nature and the complexities introduced by uncertain processing times. This paper introduces a novel deep reinforcement learning (DRL) framework based on proximal policy optimization (PPO) enhanced with hybrid prioritized experience replay, specifically tailored to optimize scheduling policies amid uncertainty. Our methodology reformulates the scheduling task as a Markov Decision Process (MDP), employing a new state representation utilizing a feasible solution matrix, which streamlines the training process by requiring less static job and machine information. Furthermore, the reward function is ingeniously derived from the machine idle time, establishing a negative linear correlation with the maximum make-span—thus aligning the scheduling objectives with the learning goals. Through extensive static experiments on benchmark instances, we demonstrate that our approach not only achieves superior make-span reductions (1.59% on average better than leading DRL methods) but also significantly accelerates convergence during dynamic rescheduling scenarios, with a 27% reduction in training time for the reused policy compared to traditional retraining methods. This model's robust performance across varied uncertainties suggests promising applications within smart manufacturing contexts, although future work will focus on scaling our approach to accommodate scheduling problems with diverse operation sizes and complexities.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1951,7 +2230,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
@@ -1968,22 +2247,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>An improved ant colony optimization (IACO) algorithm is proposed to optimize the makespan for the flexible job shop scheduling problem (FJSP). The improvements include selecting machine rules, initializing a uniformly distributed mechanism for ants, changing the pheromone guiding mechanism, selecting nodes, and updating the pheromone mechanism.</t>
+          <t>An improved ant colony optimization (IACO) algorithm is proposed, which includes improvements in machine selection strategies, initialization of ants' positions, pheromone updating, including immediate response to local optima, and preserving diversity in candidate selections.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>To optimize the makespan for the flexible job shop scheduling problem (FJSP) using an improved ant colony optimization (IACO) algorithm.</t>
+          <t>To minimize the makespan in the Flexible Job Shop Scheduling Problem (FJSP) using an improved Ant Colony Optimization approach (IACO).</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Flexible Job Shop Scheduling Problem', 'Ant Colony Optimization', 'Makespan Optimization', 'NP-hard Problems', 'Metaheuristics']</t>
+          <t>['Ant Colony Optimization', 'Job Shop Scheduling', 'Flexible Job Shop Scheduling', 'Combinatorial Optimization', 'Metaheuristics']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>The flexible job shop scheduling problem (FJSP) extends the classical job shop scheduling problem (JSP) by allowing operations to be processed on multiple machines, making it a complex NP-hard problem. This paper addresses the limitations of traditional ant colony optimization (ACO) methods, which often suffer from low computational efficiency and a tendency to converge to local optima. To tackle these issues, the authors propose an improved ant colony optimization (IACO) algorithm designed specifically for FJSP. Key enhancements to the ACO include a refined machine selection strategy, a uniform initialization mechanism for ant positions, and modifications to the pheromone updating process. The IACO algorithm was tested on both real production instances and established benchmark datasets, demonstrating its effectiveness in producing superior scheduling solutions within reasonable computational times. The results indicate that the IACO not only improves solution quality but also enhances the search efficiency compared to traditional ACO approaches. This research contributes to the field of scheduling by providing a robust algorithm that can be applied in various industrial contexts, potentially leading to significant improvements in production efficiency and resource utilization. Future work may explore further refinements to the algorithm and its application to more complex scheduling scenarios, including dynamic environments where job characteristics may change over time.</t>
+          <t>This paper addresses the Flexible Job Shop Scheduling Problem (FJSP), which allows operations to be processed on multiple machines and is recognized as a strongly NP-hard problem. Traditional approaches like Ant Colony Optimization (ACO) face challenges with computational efficiency and the tendency to converge to local optima. This paper proposes an Improved Ant Colony Optimization (IACO) algorithm to tackle these issues by introducing a selection mechanism for machine assignment, a uniform distribution for ants' initialization, and enhanced pheromone update strategies. The methodology focuses on optimizing the makespan, which is the total time required to complete the scheduling of all jobs.
+The proposed IACO algorithm consists of several key improvements: it employs different probabilities for machine selection, ensuring that operations will be processed by the most appropriate machines; it distributes ants' initial positions uniformly to increase the diversity of paths taken and prevent premature convergence; it adjusts pheromone values to facilitate exploration when the search gets stuck in local optimal solutions; and it enforces boundaries on the pheromone levels to maintain solution quality.
+The algorithm was tested against an actual production instance and various benchmark instances, demonstrating its effectiveness through comparative analysis. Results indicate that IACO not only provides superior solutions in terms of makespan but does so within a reasonable computational timeframe, outperforming basic ACO and other hybrid algorithms in efficiency and solution quality. This work significantly contributes to the ability to optimize scheduling in real-world manufacturing contexts, paving the way for future explorations into multi-objective scenarios and dynamic environments due to the nature of real-world production systems, where unexpected events frequently occur.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1993,21 +2274,41 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A Review of The Application of Genetic Algorithms for Solving Flexible Job Shop Scheduling Problems</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The flexible job shop scheduling which can guide the production of factories. In recent years, the ideas and methods of using genetic algorithm to solve flexible job shop scheduling are emerging in an endless stream. In order to promote the further development of genetic algorithms in the field of solving flexible job shop scheduling. This paper first describes the relevant research theories and classifies existing methods, Then some problems that may exist during the running of the solution methods are analyzed. Finally, the future development direction is discussed at the conclusion.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The application of genetic algorithms in solving flexible job shop scheduling involves a two-layer coding mechanism with process and machine codes and explores both single structure improvements and mixed genetic algorithm structures to enhance performance.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>To analyze and summarize the application of genetic algorithms in solving flexible job shop scheduling problems, to evaluate existing methods, and to explore future research directions to improve scheduling solutions.</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>['Flexible job shop scheduling', 'Genetic algorithm', 'Fitness function', 'Operator improvement']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>The flexible job shop scheduling problem (FJSP) is crucial for manufacturing environments where a variety of jobs must be scheduled efficiently across multiple machines. Genetic algorithms (GAs) have emerged as a popular approach to tackle FJSP due to their flexibility and robustness. This review focuses on categorizing the application of GAs in FJSP, summarizing significant advancements, and identifying challenges for future research. Key contributions in the literature include the development of customized fitness functions tailored to multi-objective optimization which encompasses various factors like completion time, machine load, and energy consumption. Furthermore, the study identifies persistent issues such as slow convergence rates and local optima entrapment that frequently hinder GA performance. Several improvements have been proposed, including enhancements in genetic operations like crossover and mutation strategies, as well as the development of hybrid algorithms that integrate GAs with simulated annealing or particle swarm optimization to bolster search effectiveness. The review concludes by emphasizing the need for more adaptive and dynamic scheduling solutions that consider real-world variations and constraints, such as machine breakdowns, changing order priorities, and operator fatigue. Future work should strive to bridge the gap between theoretical advancements in genetic algorithms and their practical implementations in real-world scheduling scenarios, taking into account complex interaction dynamics and uncertainties commonly present in manufacturing environments.</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>A Review of The Application of Genetic Algorithms for Solving Flexible Job Shop Scheduling Problems - Anna’s Archive.pdf</t>
@@ -2015,21 +2316,41 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Decentralization Cost in Two-Machine Job-shop Scheduling with Minimum Flow-time Objective</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>A decentralized two-machine job-shop system is considered, where each machine minimizes its own flow-time objective. Analyzing the system as a non-cooperative game, we investigate the decentralization cost (DC), the ratio in terms of the system flow-time between the best Nash equilibrium and the centralized solution. Settings generating significant inefficiency are identified and discussed. We provide bounds on the maximal DC and prove they are tight for two-job problems. For larger problems we use a cross-entropy meta-heuristic that searches for DC maximizing job durations. This supports the tightness of the proposed bounds for flow-shop. Additionally for flow-shop, a simple scheduling-based mechanism is proposed, which always generates efficiency.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cross-entropy meta-heuristic to search for decentralization cost maximizing job durations, and a scheduling-based mechanism for flow-shop settings.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>To analyze a decentralized two-machine job-shop environment in terms of the Decentralization Cost (DC) or Price of Stability (PoS), investigating the efficiency loss due to decentralization and how much worse the system performs when decentralized.</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>['Job-shop', 'Flow-shop', 'Non-cooperative game', 'Decentralization cost']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>This paper addresses the inefficiencies arising from a decentralized two-machine job-shop scheduling system where individual managers aim to minimize their local flow-time objectives instead of a global flow-time objective. The research employs game theoretic frameworks to analyze the decentralization cost (DC), which measures the performance degradation from the centralized optimal solution to the best decentralized Nash equilibrium. The authors identify conditions that lead to significant inefficiencies in the decentralized system and provide mathematical bounds on the maximal DC, proving their tightness for two-job scenarios. For larger instances of the problem, a cross-entropy meta-heuristic is introduced to optimize job durations that magnify the DC. The findings are significant as they highlight how, despite aligned goals, decentralized decisions can lead to higher total flow-times due to conflicting local objectives. Moreover, the paper suggests a scheduling mechanism for flow-shop systems to enhance efficiency. The relevance of the study is strong in practical industries, such as construction and outpatient healthcare, where multiple stakeholders are involved in the scheduling process. The authors conclude that understanding and mitigating the impacts of decentralization can lead to improved system performance and suggest potential avenues for future research in optimizing decentralized scheduling systems.</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>Decentralization Cost in Two-Machine Job-shop Scheduling with Minimum Flow-time Objective - Anna’s Archive.pdf</t>
@@ -2037,7 +2358,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2375,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A hybrid algorithm combining ant colony optimization (ACO) with taboo search (TS) for job shop scheduling, utilizing a decomposition method inspired by the shifting bottleneck procedure and occasional reoptimizations of partial schedules.</t>
+          <t>A hybrid algorithm combining ant colony optimization (ACO) with taboo search (TS) to address the job shop scheduling problem (JSSP). The ACO employs a decomposition method inspired by the shifting bottleneck procedure, and integrates a local search method to enhance solution quality. The algorithm iteratively constructs feasible schedules and optimizes them using the TS algorithm.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>To develop a hybrid algorithm that improves the effectiveness and efficiency of solving the classical job shop scheduling problem (JSSP) by combining ant colony optimization with taboo search.</t>
+          <t>To minimize the makespan in the job shop scheduling problem (JSSP) through a hybrid optimization approach involving ant colony optimization and taboo search, and to achieve competitive results on standard benchmark instances.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2069,7 +2390,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>The paper addresses the classical job shop scheduling problem (JSSP), which is NP-hard and involves scheduling a set of jobs on multiple machines while minimizing the makespan. The authors propose a hybrid algorithm that integrates ant colony optimization (ACO) with taboo search (TS) to enhance solution quality. The ACO component employs a novel decomposition method inspired by the shifting bottleneck procedure, allowing for the construction of feasible schedules without the conventional approach. This method includes a mechanism for occasional reoptimizations of partial schedules, which helps in refining the solutions. The TS algorithm is embedded to further improve the quality of the solutions generated by ACO. The proposed algorithm, referred to as ACOFT, identifies bottleneck machines and constructs schedules iteratively, utilizing pheromone trails to guide the search process. The authors conducted extensive computational experiments on 101 benchmark instances, demonstrating that their hybrid approach yields competitive results, including a new best upper bound for one of the benchmark instances. The significance of this work lies in its contribution to the field of scheduling, providing a robust method that combines the strengths of both ACO and TS, thereby offering a promising direction for future research in solving complex scheduling problems. The findings suggest that hybrid algorithms can outperform traditional methods, highlighting the potential for further exploration of such approaches in various optimization contexts.</t>
+          <t>This paper tackles the well-known job shop scheduling problem (JSSP), which aims at optimizing the scheduling of tasks on machines while minimizing the overall completion time known as the makespan. Acknowledging the NP-hard nature of the JSSP, the authors propose a hybrid heuristic algorithm that fuses ant colony optimization (ACO) with taboo search (TS). The key innovation lies in the use of a refined ACO framework complemented by a taboo search mechanism designed to enhance the solution quality obtained by the ants. The ACO component executes a novel decomposition method inspired by the shifting bottleneck procedure, which divides the job scheduling task into smaller subproblems, allowing for more manageable computations. Results from experimental tests on 101 standard benchmark instances reveal that the proposed method achieves highly competitive results, with the authors notably finding an improved upper bound for an open instance of the problem. The methodology entails initializing the pheromone trails based on job processing sequences and utilizing the taboo search to refine solutions iteratively. The performance metrics recorded include makespan values and comparative timings against other methods, validating the effectiveness of the hybrid algorithm. The significance of the study lies in its dual contribution to both theoretical progress in scheduling algorithms and practical applications where effective job scheduling impacts production efficiency. Future work may focus on refining the algorithm's parameters dynamically, further exploring the interplay between exploration and exploitation in heuristic searches, and broadening the algorithm's applicability to other combinatorial optimization problems.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2079,21 +2400,41 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A Grasshopper Optimization Algorithm for the Flexible Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Job shop scheduling problem (JSP) is one of the most difficult scheduling problems, and flexible job shop scheduling problem (FJSP) is an extension of the classical JSP. In FJSP, a machine for each process should be selected from a given set, which introduces another decision element in the job path that makes FJSP more difficult than traditional JSP. In this paper, a recent proposed intelligence algorithm named grasshopper optimization algorithm (GOA) is used to solve FJSP. Numerical results with comparisons of other classic algorithm counterparts show that GOA has stronger global searching ability and performs better when solving FJSP.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Grasshopper optimization algorithm (GOA) is utilized to solve the flexible job shop scheduling problem.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>To apply the grasshopper optimization algorithm to the flexible job shop scheduling problem (FJSP) and evaluate its performance compared to traditional algorithms such as PSO, Jaya, SA, and DE.</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>['Grasshopper optimization algorithm', 'Flexible job shop scheduling', 'Makespan', 'Global optimization']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>The flexible job shop scheduling problem (FJSP) represents a significant challenge in operations research, being a complex extension of the traditional job shop scheduling problem (JSP). In FJSP, the scheduling must account for multiple machines capable of processing specific jobs, complicating the decision-making process. This paper introduces the grasshopper optimization algorithm (GOA), which was inspired by the collective foraging behavior of grasshoppers. GOA is designed to navigate the solution space effectively to minimize makespan—a critical measure of scheduling efficiency. The experimental validation indicates that GOA is proficient at handling both small and large scale FJSPs, outperforming several established optimization techniques including particle swarm optimization (PSO), Jaya algorithm, simulated annealing (SA), and differential evolution (DE). The authors conducted rigorous simulations with 21 distinct scheduling scenarios, demonstrating that GOA consistently achieves superior results in minimizes makespan, particularly for smaller problems. Specifically, the algorithm achieved optimal or near-optimal results in many cases while maintaining efficient computational performance, averaging a runtime of 36 seconds on large-scale problems. The significance of this work lies not only in its theoretical contributions but also in its practical applicability; the findings suggest that GOA could be effectively employed in various industrial scheduling contexts. In future work, the paper suggests exploring hybrid approaches to further enhance GOA's capabilities, with potential advancements to address even more complex scheduling scenarios in industrial production environments.</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>A Grasshopper Optimization Algorithm for the Flexible Job Shop Scheduling Problem - Anna’s Archive.pdf</t>
@@ -2101,21 +2442,41 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>An Improved Genetic Algorithm with Local Search for Dynamic Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Dynamic disturbances such as rush job arrivals and process delay are inevitable occurrences in production environment. Dynamic job shop scheduling problem (DJSSP) is known as NP-hard combinatorial optimization problem, this paper introduces an efficient strategy for the problem. Inspired by rolling horizon strategy, the hybrid periodic and event-driven rolling horizon strategy (HRS) is presented to trigger rescheduling in a dynamic environment with process delay and rush job arrivals. Within the framework, an improved genetic algorithm (IGA) with local search is proposed to generate the rescheduling scheme of unprocessed and new jobs. To evaluate the performance of proposed algorithm, various benchmark problems and different dynamic disturbances are considered to carry out detailed experiments. The results indicate that the proposed algorithm produces superior solutions for benchmark problems and solves the DJSSP effectively with different disturbances under dynamic manufacturing environment.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>The proposed method introduces a hybrid periodic and event-driven rolling horizon strategy for triggering rescheduling in dynamic environments, combined with an improved genetic algorithm that enhances local search ability for rescheduling unprocessed and new jobs when disturbances occur.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>To solve the dynamic job shop scheduling problem (DJSSP) effectively in the presence of dynamic disturbances such as rush job arrivals and process delays by utilizing an improved genetic algorithm and rescheduling strategies.</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>['Dynamic Job Shop Scheduling Problem', 'Genetic Algorithm', 'Local Search', 'Optimization', 'Rescheduling', 'Manufacturing Systems']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>The paper addresses the dynamic job shop scheduling problem (DJSSP), which is a significant NP-hard combinatorial optimization problem frequently encountered in manufacturing environments. The main contribution is the introduction of a new scheduling strategy termed hybrid rolling horizon strategy (HRS), which combines periodic and event-driven approaches to effectively manage scheduling challenges created by dynamic disturbances like rush job arrivals and process delays. A sophisticated algorithm, an improved genetic algorithm (IGA) integrated with a local search mechanism, is proposed to handle the rescheduling of existing and new jobs when disturbances arise. The algorithm enhances the genetic algorithm's local search capabilities, which are commonly a weak point in traditional implementations. Extensive experiments involving various benchmark instances and disturbances demonstrate that the IGA outperforms existing algorithms, achieving superior solution quality and faster convergence rates. Results indicate that the IGA can effectively approach or match the best-known solutions while being resilient to various disturbances encountered in dynamic environments. The practical application of this research lies in its potential to improve scheduling efficiency in real-world manufacturing settings, facilitating better resource allocation and production planning. These findings highlight not only the effectiveness of the proposed IGA but also provide insights into future work on enhancing scheduling algorithms to tackle increasingly complex production environments.</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>[IEEE 2020 IEEE 16th International Conference on Automation Science and Engineering (CASE) - Hong Kong, Hong Kong (2020.8.20-2020.8.21)] 2020 IEEE 16th International Conference on Automation Science and Engineering (CASE) - An Improved Genetic Algorit.pdf</t>
@@ -2123,7 +2484,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2496,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Practical manufacturing system operates in highly dynamic and uncertain environments, where stochastic disturbances disrupt the execution of the production schedule as originally developed. Previous dynamic scheduling mainly focuses on the constructing predictive models for machine unavailability, with little studies on the adaptive and self-learning capacities for changing scheduling environments. Therefore, a digital twin (DT) driven scheduling with a dynamic feedback mechanism is proposed, in which a reinforcement learning (RL) based adaptive scheduling is developed in DT to make corrective decisions for the disturbances during production runs. In the proposed architecture, the happening disturbance is first detected in the virtual layer by the status continuously updating in accordance with the physical workshop. Furthermore, the reschedule triggering condition is determined in real-time through the calculation of the progress deviations resulting from disturbances. For the scheduling approach, the distributed RL (DRL) based adaptive scheduling method is built to perceive the dynamic production status from virtual environment and implement corrective strategies to hedge against the occurred disturbances. Finally, the proposed method is verified by a practical job shop case and the corresponding DT system is developed to show the effectiveness and advantages after a practical implementation.</t>
+          <t>Practical manufacturing systems operate in highly dynamic and uncertain environments, where stochastic disturbances disrupt the execution of the production schedule as originally developed. Previous dynamic scheduling mainly focuses on constructing predictive models for machine unavailability, with little studies on the adaptive and self-learning capacities for changing scheduling environments. Therefore, a digital twin (DT) driven scheduling with a dynamic feedback mechanism is proposed, in which a reinforcement learning (RL) based adaptive scheduling is developed in DT to make corrective decisions for the disturbances during production runs. In the proposed architecture, the happening disturbance is first detected in the virtual layer by the status continuously updating in accordance with the physical workshop. Furthermore, the reschedule triggering condition is determined in real-time through the calculation of the progress deviations resulting from disturbances. For the scheduling approach, the distributed RL (DRL) based adaptive scheduling method is built to perceive the dynamic production status from the virtual environment and implement corrective strategies to hedge against the occurred disturbances. Finally, the proposed method is verified by a practical job shop case and the corresponding DT system is developed to show the effectiveness and advantages after practical implementation.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A digital twin (DT) driven scheduling with a dynamic feedback mechanism is proposed, in which a reinforcement learning (RL) based adaptive scheduling is developed in DT to make corrective decisions for the disturbances during production runs. The distributed RL (DRL) based adaptive scheduling method is built to perceive the dynamic production status from virtual environment and implement corrective strategies to hedge against the occurred disturbances.</t>
+          <t>A digital twin (DT) driven scheduling architecture is proposed, utilizing a reinforcement learning (RL) based adaptive scheduling method. The approach includes real-time detection of disturbances, calculation of progress deviations, and triggering conditions for rescheduling. The distributed RL (DRL) is employed to adaptively schedule jobs by perceiving dynamic production statuses in the DT environment.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>To develop an adaptive scheduling mechanism that can respond to stochastic disturbances in manufacturing environments using reinforcement learning within a digital twin framework.</t>
+          <t>To develop a digital twin driven adaptive scheduling system that effectively manages disturbances in a job shop environment using reinforcement learning. The system focuses on enabling real-time adjustments to production schedules in response to unpredictable changes and disturbances, thereby improving performance and efficiency.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2155,7 +2516,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>This paper addresses the challenges of production scheduling in dynamic and uncertain manufacturing environments, where disturbances can significantly disrupt planned schedules. Traditional scheduling methods often rely on predictive models that fail to adapt to real-time changes, leading to inefficiencies. The authors propose a novel scheduling mechanism that integrates digital twin (DT) technology with reinforcement learning (RL) to create a responsive and adaptive scheduling system. The proposed method involves detecting disturbances in a virtual environment that mirrors the physical workshop, allowing for real-time adjustments to the production schedule. The architecture includes a distributed RL (DRL) approach, enabling multiple agents to interact with the environment and learn optimal scheduling strategies through trial and error. The effectiveness of the proposed method is validated through a practical job shop case study, demonstrating its ability to enhance scheduling performance under various disturbances. Key findings indicate that the DT-driven RL scheduling not only improves adaptability but also reduces the complexity and inflexibility associated with traditional centralized scheduling systems. The practical implications of this research suggest that manufacturers can leverage this technology to achieve more efficient and resilient production processes. Future work will focus on refining the RL algorithms and expanding the application of this approach to other manufacturing scenarios, potentially integrating more advanced machine learning techniques to further enhance decision-making capabilities.</t>
+          <t>This study addresses the challenges of production scheduling in complex manufacturing environments subject to stochastic disturbances. The authors propose a dynamic scheduling mechanism leveraging digital twin (DT) technology combined with distributed reinforcement learning (DRL) algorithms. The core contribution is the integration of real-time data from physical production environments into the digital twin, allowing RL agents to make timely scheduling decisions based on current production states. The proposed architecture consists of three main components: disturbance detection, reschedule triggering conditions, and the DRL-based rescheduling strategy. Disturbances are identified as either dominant (immediate disruptions, e.g., machine breakdowns) or recessive (gradual impacts, e.g., delays in job processing). The architecture employs real-time monitoring through IoT devices, with data fed into the digital twin, enabling agents to analyze production conditions and calculate progress deviations to determine when to trigger rescheduling actions. The proposed methodology was validated through a case study conducted in a job shop that manufactures hydraulic piston pump parts, demonstrating effectiveness in managing various disturbances, including equipment failures, material shortages, machining delays, and quality defects. Results indicated a significant reduction in average job tardiness and an increase in machine utilization rate post-implementation. The study suggests potential improvements in overall operational efficiency and intelligent scheduling, proposing continued development of high-fidelity DT models for enhanced decision-making capabilities in future smart manufacturing systems.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2165,21 +2526,41 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Simultaneous Scheduling Strategy: A Novel Method for Flexible Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>This paper discussed the contradictory between wait time for computation and solution quality in solving flexible job shop scheduling problems. In order to reconcile this contradictory, a novel scheduling strategy called Simultaneous Scheduling is proposed. At first, a fairly good solution is obtained in a short time and the solution is set as the temporary processing plan so that the machines can start to work as soon as possible. Then while the machines are running, the temporary plan is being improved with evolutionary algorithms continuously. Experiments on both static and dynamic scheduling problems are performed. The results show that simultaneous scheduling is effective and efficient.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Simultaneous Scheduling (SS), which focuses on paralleling the runtime of scheduling computing with the runtime of machines processing. An initial solution is obtained in a short time with simple heuristic algorithms, and while machines are processing, the scheduling scheme is improved with evolutionary algorithms (EAs).</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>To reconcile the contradiction between wait time for computation and solution quality in flexible job shop scheduling problems by proposing a scheduling strategy (Simultaneous Scheduling).</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>['Flexible job shop scheduling', 'Scheduling strategy', 'Evolutionary algorithms']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>The paper addresses the challenge of balancing computation time and solution quality in flexible job shop scheduling problems (FJSP) and dynamic flexible job shop scheduling problems (DFJSP). Traditional evolutionary algorithms (EAs), such as Genetic Algorithm (GA) and Variable Neighborhood Search (VNS), provide strong solutions but require substantial computation time, especially as the problem size increases. The proposed Simultaneous Scheduling (SS) strategy aims to minimize this waiting time by initially deploying a quick, suboptimal solution that allows machines to begin processing while further refining the schedule concurrently with machine operation using EAs. The SS method incorporates two specific algorithms: GA-based Simultaneous Scheduling (GA-SS) and VNS-based Simultaneous Scheduling (VNS-SS), which were tested against static and dynamic scheduling scenarios using experimental setups involving datasets like the Brandimarte dataset for static FJSP and customized instances for DFJSP. Results indicated that SS significantly reduces wait time and improves computational efficiency. For static problems, VNS-SS demonstrated better outcomes against both GA-SS and traditional EA methods, suggesting that leveraging the processing time while improve scheduling in real-time yields high-performance metrics such as makespan. In DFJSP scenarios, GA-SS outperformed VNS-SS, showcasing its robustness in dynamic settings where job releases are stochastic. Overall, SS proved to be a highly effective scheduling approach, bridging gaps in traditional scheduling methods and enhancing practical applications in industrial settings where efficiency and responsiveness to job dynamics are paramount. Future work may involve extending the SS framework to incorporate more complex job shop environments and refining the EAs for enhanced convergence speed without sacrificing solution quality.</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>[IEEE 2020 IEEE Congress on Evolutionary Computation (CEC) - Glasgow, United Kingdom (2020.7.19-2020.7.24)] 2020 IEEE Congress on Evolutionary Computation (CEC) - Simultaneous Scheduling Strategy_ A Novel Method for Flexible Job Shop Scheduling Proble.pdf</t>
@@ -2187,21 +2568,43 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-08-19 22:19:51</t>
+          <t>2025-08-20 01:50:46</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A Hybrid Pareto-Based Tabu Search for the Distributed Flexible Job Shop Scheduling Problem With E/T Criteria</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>During recent years, distributed manufacturing optimization problems have been researched and applied in many fields, such as steelmaking system and textile production process. To solve the multi-objective distributed flexible job shop scheduling problem, a hybrid Pareto-based tabu search algorithm (HPTSA) is investigated to minimize four objectives simultaneously, i.e., the makespan, the maximal workload, the total workload, and the earliness/tardiness (E/T) criteria. In the proposed algorithm, several approaches considering both the problem characteristics and the objective features are used to initialize the group of solutions. Then, five types of neighborhood structures that consider both problem structures are developed to enhance the exploitation and exploration capabilities. In addition, a well-designed backward method is proposed to optimize the E/T criteria. Based on the realistic production data in the steelmaking system, several instances with different problem scales are randomly generated. Four efficient multi-objective optimization algorithms are selected to make detailed comparisons with the proposed HPTSA algorithm. After detailed tests on the realistic instances, the experimental comparison results show that the proposed algorithm shows competitive performance compared with the selected efficient algorithms.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A hybrid Pareto-based tabu search algorithm (HPTSA) is proposed that utilizes several initialization methods, five types of neighborhood structures, and a backward method to optimize the E/T criteria.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>To solve the distributed flexible job shop scheduling problem while minimizing four objectives: the makespan, the maximal workload, the total workload, and the earliness/tardiness (E/T) criteria.</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>['Flexible job shop scheduling problem', 'tabu search', 'multi-objective optimization', 'Pareto archive set', 'distributed scheduling']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>This study presents a hybrid Pareto-based tabu search algorithm (HPTSA) designed to tackle the distributed flexible job shop scheduling problem (FJSP), aiming to minimize multiple objectives: makespan, maximal workload, total workload, and earliness/tardiness (E/T) criteria. The motivation stems from the increasing need for optimization in distributed manufacturing environments, particularly in industries like steelmaking where efficiency is crucial. The authors address the complexity of FJSP, which allows for flexibility in job assignments to machines across different factories, thus presenting significant research and industrial relevance. 
+The proposed HPTSA integrates characteristics specific to the problem and the objectives, enhancing solution initialization and the algorithm's ability to explore and exploit solution spaces effectively. Initial solutions are generated through randomized factory assignments with further refinements based on processing time minimization. The algorithm is structured around five neighborhood systems that balance exploration of new solutions with refinement of known good solutions. This is complemented with a backward approach specifically designed to optimize E/T performance, ensuring that solutions not only meet production deadlines but also remain economically viable by minimizing penalties associated with tardiness and premature completion of jobs. 
+The performance of HPTSA is validated against four efficient multi-objective algorithms using realistic steelmaking production data, generating random instances to assess its efficacy across various problem sizes. The results indicate that HPTSA consistently outperforms the comparative algorithms, demonstrating its competitive edge in finding optimal solutions across all four objectives. The significant contributions of this work lie in its novel algorithmic approach, detailed evaluation methods, and the practical implications for industries reliant on distributed manufacturing systems. Future research directions may explore extension of HPTSA to additional constraints or objectives, as well as application to broader manufacturing settings beyond the steel industry.</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>A Hybrid Pareto-Based Tabu Search for the Distributed Flexible Job Shop Scheduling Problem With E_T Criteria - Anna’s Archive.pdf</t>
@@ -2209,7 +2612,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:00</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2624,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>In this paper, the job shop scheduling problem with the objective to minimize the makespan is discussed. A theorem on the shifting bottleneck procedure (SB) for solving this problem is proven, which guarantees an application of the procedure slightly modified from SB to obtain feasible solution of the problem. Based on this theorem, an improved shifting bottleneck procedure (ISB) for the job shop scheduling problem has been proposed. Besides ISB is implemented straightly, a refined version that combines ISB with the strategy of back tracking is presented. These two procedures have been tested on many benchmarks with various sizes and hardness levels. The computational experiment shows that ISB is more efficient and effective than SB. Also, some encouraging results about the refined version are obtained.</t>
+          <t>In this paper, the job shop scheduling problem with the objective to minimize the makespan is discussed. A theorem on the shifting bottleneck procedure (SB) for solving this problem is proven, which guarantees an application of the procedure slightly modified from SB to obtain feasible solution of the problem. Based on this theorem, an improved shifting bottleneck procedure (ISB) for the job shop scheduling problem has been proposed. Besides ISB is implemented straightly, a refined version that combines ISB with the strategy of backtracking is presented. These two procedures have been tested on many benchmarks with various sizes and hardness levels. The computational experiment shows that ISB is more efficient and effective than SB. Also, some encouraging results about the refined version are obtained.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>An improved shifting bottleneck procedure (ISB) and a refined version that combines ISB with backtracking strategy (ISBB) are proposed for solving the job shop scheduling problem.</t>
+          <t>The proposed method consists of an improved shifting bottleneck procedure (ISB) which modifies the original shifting bottleneck (SB). ISB is implemented using a new algorithm for solving one-machine problems called the Schrage algorithm with disturbance (DS). The method includes identifying a bottleneck machine, sequencing it, and applying local re-optimization for improved scheduling. Additionally, ISB's refined version (ISBB) incorporates a partial backtracking technique to enhance solution quality.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>To minimize the makespan in job shop scheduling and to improve the efficiency of the shifting bottleneck procedure.</t>
+          <t>The main objective of this research is to propose an improved algorithm for the job shop scheduling problem that minimizes the makespan, addressing the limitations of the traditional shifting bottleneck procedure and effectively handling various instances of the problem.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2241,7 +2644,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>The job shop scheduling problem (JSSP) is a well-known NP-complete problem that involves scheduling a set of jobs on a set of machines, where each job consists of a series of operations that must be processed in a specific order. The objective is to minimize the makespan, which is the total time required to complete all jobs. In this paper, the authors address the limitations of the traditional shifting bottleneck procedure (SB) by proposing an improved version (ISB) that guarantees feasible solutions for any instance of the JSSP. They prove a theorem that underpins the effectiveness of ISB, allowing it to overcome certain deadlock situations that can occur with SB. Furthermore, they introduce a refined version of ISB (ISBB) that incorporates a backtracking strategy to enhance solution quality. The authors conducted extensive computational experiments on various benchmark instances of the JSSP, demonstrating that ISB outperforms SB in terms of efficiency and effectiveness. The results indicate that ISBB also yields promising outcomes, making it a competitive option among existing algorithms. The significance of this research lies in its potential applications in manufacturing and operations management, where efficient scheduling can lead to significant cost savings and improved resource utilization. Future implications include further refinement of the algorithms and exploration of hybrid approaches that combine ISB and ISBB with other heuristic methods to tackle larger and more complex scheduling problems.</t>
+          <t>The paper addresses the job shop scheduling problem (JSSP), which aims to minimize the makespan, a well-known NP-complete problem in combinatorial optimization. The authors present an improved version of the shifting bottleneck procedure (SB), termed the improved shifting bottleneck procedure (ISB), which offers a more efficient and effective approach to scheduling in job shops. A significant contribution of this research is the theorem proving that adaptations of the SB can yield feasible solutions for all instances of the JSSP. The methodology integrates a novel algorithm, the Schrage algorithm with disturbance (DS), which allows for a more flexible handling of job scheduling by slightly deviating from strict priority rules, leading to improved solutions. A refined version of the ISB, named ISBB, incorporates a backtracking mechanism, enabling exploration of multiple scheduling scenarios to attain better outcomes. The computational experiments conducted on benchmark scenarios of varying sizes demonstrate that ISB generally outperforms both the original SB and other existing algorithms in terms of solution quality and computational efficiency. Notably, ISB consistently finds better solutions, while ISBB improves solution accuracy in complex problem instances. The results point to the potential of combining ISB with other heuristic strategies, such as tabu search, for enhanced performance in future applications. This research not only advances theoretical understanding of job shop scheduling but also provides practical frameworks for application in industrial contexts, signifying the importance of heuristic approaches in solving NP-hard problems that are prevalent in manufacturing and operational research domains.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2251,21 +2654,41 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>A meta-heuristic to solve the just-in-time job-shop scheduling problem</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Just-in-time job-shop scheduling (JIT-JSS) is a variant of the job-shop scheduling problem, in which each operation has a distinct due date and any deviation of the operation completion time from its due date incurs an earliness or tardiness penalty. We develop a variable neighbourhood search (VNS) algorithm to solve JIT-JSS. The algorithm operates by decomposing JIT-JSS into smaller problems, obtaining optimal or near-optimal sequences of performing the operations for those smaller problems, and generating a schedule, i.e., determining the completion times of the operations, for JIT-JSS. The algorithm uses several neighbourhood structures, including the new relaxation neighbourhoods developed in this study, to obtain a quality sequence. The relaxation neighbourhoods partially destruct (relax) the sequence and then re-construct (sequence) certain operations. Differing from the classical neighbourhoods, in which manipulations are performed either randomly or myopically, the moves in the new neighbourhoods are made with reference to other operations, so their impacts on the whole sequence are well considered. By solving a set of 72 benchmark instances, ranging from 10 to 20 jobs and 20 to 200 operations, and comparing the outcomes of the proposed algorithm with the state-of-the-art solution methods in the literature, we obtain new best solutions for nearly 57% of the instances, including new best solutions for 80% of the instances with 20 jobs. The computational results demonstrate the efficacy of the proposed VNS algorithm.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Variable neighbourhood search (VNS) algorithm that utilizes a novel decomposition method to tackle JIT-JSS.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>To minimize the weighted sum of earliness and tardiness penalties in just-in-time job-shop scheduling (JIT-JSS).</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>['scheduling', 'just-in-time', 'weighted earliness-tardiness', 'heuristic', 'relaxation neighbourhood', 'relax-and-solve']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>The study tackles the just-in-time job-shop scheduling (JIT-JSS) problem, incorporating a variable neighbourhood search (VNS) algorithm aimed at minimizing earliness and tardiness penalties associated with scheduling operations that have distinct due dates. Traditional job-shop scheduling has often focused on minimizing makespan, overlooking crucial factors related to earliness and tardiness that impact customer satisfaction and operational efficiency. Building on established foundational work in this area, the authors present a novel algorithm that decomposes JIT-JSS into smaller subproblems, enabling the identification of optimal or near-optimal sequences for scheduling operations. By exploiting unique neighbourhood structures designed to partially relax and reconstruct operational sequences while considering their interdependencies, the authors enhance the solution process's effectiveness. The proposed VNS algorithm shows considerable promise, achieving new best results on 57% of benchmark instances and excelling on larger datasets involving 20 jobs, where it delivered best solutions on 80% of those instances. Performance metrics comparing their algorithm against state-of-the-art methods highlight its competitive edge in terms of efficiency and solution quality. Practical applications span various domains, including manufacturing, transportation, and healthcare, where JIT systems are critical for maintaining service levels and operational costs. The implications of this research suggest future avenues for integrating the VNS approach within larger scheduling frameworks or exploring its adaptability to other combinatorial optimization challenges, thereby extending its utility and effectiveness.</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>A meta-heuristic to solve the just-in-time job-shop scheduling problem - Anna’s Archive.pdf</t>
@@ -2273,7 +2696,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2290,25 +2713,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The proposed method combines Roy's graph-theoretical approach with the branch-and-bound technique to efficiently solve the three-machine scheduling problem. It involves creating a scheduling tree to explore permutations of job orders while using lower bounds to eliminate suboptimal schedules early in the search process.</t>
+          <t>A novel algorithm is proposed that utilizes a combination of the graph-theoretical approach and the branch-and-bound method. This algorithm effectively reduces the search space by focusing on schedules with identical job order on specified machines, allowing for efficient exploration and improvement of scheduling solutions for three-machine systems.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>To develop an efficient algorithm for finding the exact solution to the three-machine scheduling problem, minimizing the total completion time of jobs processed on multiple machines.</t>
+          <t>To develop an efficient algorithm for the three-machine scheduling problem that guarantees an exact solution while illustrating its application through numerical examples.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['Branch-and-Bound', 'Scheduling', 'Graph Theory', 'Operations Research']</t>
+          <t>['Branch-and-Bound Method', 'Scheduling Problems', 'Graph Theory', 'Operational Research', 'Algorithms']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>The paper addresses the challenge of optimizing job scheduling across three machines, a problem that has proven difficult compared to the two-machine case. The author introduces a novel algorithm that integrates Roy's graph-theoretical insights with the branch-and-bound method, which has been successfully applied to other combinatorial optimization problems like the travelling salesman problem. The algorithm is designed to find the exact sequence of job processing that minimizes total completion time, a critical factor in operational efficiency for manufacturing and service industries.
-The methodology begins by representing the scheduling problem as a graph, where vertices correspond to job-machine pairs and edges represent processing times. The algorithm evaluates all possible job sequences, but instead of exhaustively searching through all n! permutations, it employs a tree structure to categorize and explore these permutations more efficiently. By establishing lower bounds for the total processing time at each node of the tree, the algorithm can prune branches that cannot yield better solutions than those already found, significantly reducing computational effort.
-Numerical examples illustrate the algorithm's effectiveness, demonstrating that it can solve instances of the scheduling problem that would be infeasible for traditional integer programming methods due to their computational complexity. The results indicate that the proposed algorithm can yield optimal solutions quickly, even for larger instances, making it a practical tool for operations managers.
-The significance of this work lies in its potential applications across various industries where scheduling is critical, such as manufacturing, logistics, and project management. The findings suggest that further research could extend the algorithm's applicability to more complex scheduling scenarios, including those with additional constraints or multiple objectives. Future implications include the exploration of hybrid approaches that combine this method with heuristic techniques to tackle even larger and more complex scheduling problems.</t>
+          <t>The paper addresses the complex task of scheduling jobs across three machines, a problem that is a specific case of a broader category involving multiple machines and jobs. While methods exist for two machines developed by Johnson, no efficient approach was previously identified for three machines. This study introduces a novel algorithm that integrates graph-theoretical perspectives from Roy with branch-and-bound techniques, effectively tackling the scheduling problem. Through this combination, the proposed solution narrows down the potential schedules by focusing on classes of permutations, significantly reducing computational demands. The algorithm enumerates possible job orders by constructing a scheduling tree, evaluating each class of permutations with a focus on lower bound evaluations for work duration. The process seeks to eliminate non-viable schedules early, through careful bounding, while systematically exploring promising branches in an effort to find the optimal solution efficiently. Numerical experiments demonstrate the method’s potential, with solutions achieved within a limited number of vertices explored—indicating not only the algorithm's effectiveness but also its practicality for implementation. Thus, the significance of this study lies in its contribution to operational research by providing a refined algorithm for multi-machine scheduling scenarios, with implications for both theoretical research and real-world applications. Future directions include exploring adaptations of the algorithm for situations with more than three machines, where traditional approaches become increasingly complex and computationally intensive.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2318,7 +2738,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2755,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A multi-objective hybrid evolutionary immune algorithm (HEIA) is proposed, incorporating a two left-shift heuristic based active decoding method, a reference point-based angle selection strategy, a Pareto similar information-based crossover operator, and a deep local search mechanism with four objective-driven neighborhood structures.</t>
+          <t>multi-objective hybrid evolutionary immune algorithm (HEIA) with two evolutionary strategies</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>To solve the fuzzy flexible job shop scheduling problem (FFJSP) with variable processing speeds, optimizing fuzzy makespan and fuzzy total energy consumption simultaneously.</t>
+          <t>to optimize fuzzy maximum completion time and fuzzy total energy consumption simultaneously in a fuzzy flexible job shop scheduling problem with variable processing speeds</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2350,7 +2770,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>This paper addresses the fuzzy flexible job shop scheduling problem (FFJSP) with variable processing speeds, a significant challenge in modern manufacturing environments characterized by uncertainty in processing times. The authors propose a novel multi-objective hybrid evolutionary immune algorithm (HEIA) that optimizes two conflicting objectives: fuzzy maximum completion time (makespan) and fuzzy total energy consumption. The methodology includes a sequence-based mixed integer linear programming (MILP) model to formalize the scheduling problem, which incorporates variable processing speeds that can be adjusted to balance energy consumption and makespan. The HEIA employs a two left-shift heuristic for active decoding to enhance makespan optimization, alongside two distinct evolutionary strategies aimed at improving exploration and exploitation capabilities. The first strategy utilizes a Pareto similar information-based crossover operator to maintain population diversity, while the second introduces a deep local search mechanism complemented by four objective-driven neighborhood structures to refine local search efficiency. The effectiveness of the proposed algorithm is validated through five types of instances, demonstrating its superior performance compared to existing methods. The findings underscore the importance of integrating fuzzy logic and variable processing speeds in scheduling algorithms, particularly in the context of green manufacturing and energy efficiency. This research contributes to the field by providing a robust framework for addressing the complexities of FFJSP, paving the way for future studies to explore more intricate scheduling scenarios and further enhance algorithmic performance.</t>
+          <t>The paper presents a novel approach to tackle the fuzzy flexible job shop scheduling problem (FFJSP) that incorporates variable processing speeds and multiple objectives including minimizing both the fuzzy makespan and the total energy consumption. The authors introduce a multi-objective hybrid evolutionary immune algorithm (HEIA), which integrates innovative techniques like left-shift heuristics and specialized crossover operators to enhance the diversity and convergence of solutions. The methodology includes the formulation of a mixed-integer linear programming (MILP) model to validate the approach, and sophisticated evolutionary strategies designed for exploration and exploitation are implemented. They provide a comparative analysis against existing algorithms, showcasing the performance through metrics like Hypervolume and Inverted Generational Distance (IGD). The experiments reveal that HEIA consistently outperforms other state-of-the-art methods across various test instances. Key findings indicate the effective utilization of neighborhood structures and clonal selection mechanisms considerably improves solution quality. Practical applications for this research extend into dynamic industrial environments, emphasizing the potential for energy-efficient scheduling practices amid fluctuating operational conditions. Future directions suggest improvements in the heuristics employed and the exploration of additional constraints in practical scenarios. In conclusion, HEIA emerges as a robust novel algorithm, successfully addressing FFJSP challenges while promoting energy efficiency through optimized scheduling strategies.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2360,7 +2780,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2797,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>This survey provides a comprehensive study on automatic scheduling heuristic design for job shop scheduling (JSS) with genetic programming (GP) from different aspects, including recent designs of GP algorithms and the incorporation of machine learning techniques.</t>
+          <t>The paper proposes a comprehensive survey approach that discusses recent designs of genetic programming algorithms applied to various job shop scheduling contexts. It explores the incorporation of machine learning techniques, such as feature selection and multitask learning, alongside genetic programming to enhance scheduling heuristic design. The survey covers challenges, current issues, and future research directions related to automatic scheduling heuristic design.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>To provide a comprehensive survey of the state-of-the-art work on genetic programming and machine learning techniques for automatic scheduling heuristic design in job shop scheduling, discussing open issues and challenges for future work.</t>
+          <t>The main objective of the survey is to provide a comprehensive overview of genetic programming and machine learning techniques used for automatic scheduling heuristic designs in job shop scheduling. It aims to identify strengths and weaknesses in recent approaches, discuss current challenges, and highlight promising areas for future research.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2392,7 +2812,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Job shop scheduling (JSS) is a critical combinatorial optimization problem aimed at generating efficient schedules for processing jobs on machines to minimize lead time and costs. This survey addresses the complexities of JSS, particularly in dynamic environments where job arrivals and machine breakdowns can disrupt schedules. Traditional scheduling methods, including exact methods and meta-heuristics, often struggle with the dynamic nature of real-world applications. Genetic programming (GP) has emerged as a powerful tool for automatically learning scheduling heuristics, offering flexibility and adaptability in heuristic design. This paper reviews recent advancements in GP algorithms tailored for various JSS types, highlighting the integration of machine learning techniques such as feature selection and multitask learning to enhance heuristic design. The survey identifies gaps in existing literature, particularly the lack of comprehensive reviews on the strengths and weaknesses of recent approaches. By synthesizing current research, the authors aim to promote further exploration in automatic scheduling heuristic design, addressing challenges and proposing future research directions. The findings underscore the importance of GP and machine learning in developing robust scheduling solutions that can adapt to the complexities of real-world production environments, ultimately improving operational efficiency and responsiveness to disruptions.</t>
+          <t>This paper provides an in-depth survey on the application of genetic programming (GP) and machine learning (ML) techniques in developing heuristics for job shop scheduling (JSS). JSS is a complex combinatorial optimization problem fundamental to improving productivity in manufacturing environments. The significance of this work lies in synthesizing and categorizing recent advancements in GP algorithms tailored to various job shop scheduling scenarios, including static, dynamic, and flexible environments. The authors examine the integration of machine learning techniques such as feature selection and multitask learning to enhance the effectiveness and efficiency of scheduling heuristic design, addressing limitations of traditional heuristics that require domain-specific knowledge. The survey not only presents the evolution of GP methods over the years but also elucidates the challenges posed by dynamic environments characterized by job arrivals, priorities, and machine breakdowns. Key findings point to the capability of GP in autonomously generating heuristics that can adapt to varying conditions rather than relying on predefined rules. Moreover, the paper highlights practical applications of GP-enabled scheduling heuristics across domains, demonstrating the implications of automated designs on real-world efficiency. The challenges discussed include issues of interpretability of the generated heuristics, scalability as problem sizes increase, and the need for further exploration into multi-objective scenarios and ensemble methods. Future research avenues outlined in this survey aim to enhance the integration of GP and ML techniques, thus widening the horizons for job shop scheduling methodologies. The survey ultimately serves as a vital resource for both academic and industrial stakeholders interested in leveraging advanced computational approaches to optimize scheduling in complex environments, aiming at a better understanding of how to effectively implement and adapt these hybrid techniques for their specific needs and contexts.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2402,21 +2822,41 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dynamic job-shop scheduling in smart manufacturing using deep reinforcement learning</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Job-shop scheduling problem (JSP) is used to determine the processing order of the jobs and is a typical scheduling problem in smart manufacturing. Considering the dynamics and the uncertainties such as machine breakdown and job rework of the job-shop environment, it is essential to flexibly adjust the scheduling strategy according to the current state. Traditional methods can only obtain the optimal solution at the current time and need to rework if the state changes, which leads to high time complexity. To address the issue, this paper proposes a dynamic scheduling method based on deep reinforcement learning (DRL). In the proposed method, we adopt the proximal policy optimization (PPO) to find the optimal policy of the scheduling to deal with the dimension disaster of the state and action space caused by the increase of the problem scale. Compared with the traditional scheduling methods, the experimental results show that the proposed method can not only obtain comparative results but also can realize adaptive and real-time production scheduling.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dynamic scheduling method based on deep reinforcement learning (DRL) using proximal policy optimization (PPO).</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>To address the complexities and unpredictabilities in job-shop scheduling by proposing a DRL-based scheduling method that adapts to dynamic environments.</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>['Smart manufacturing', 'Job-shop scheduling', 'Deep reinforcement learning', 'Proximal policy optimization']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>The job-shop scheduling problem (JSP) is a complex and dynamic optimization issue that affects manufacturing efficiency. Traditional scheduling approaches struggle to cope with environmental changes such as machine failures or rework requirements, often necessitating a complete reschedule, resulting in inefficiency. This paper tackles the JSP by introducing a dynamic scheduling method that leverages deep reinforcement learning (DRL) techniques, specifically the proximal policy optimization (PPO) algorithm. By framing the problem as a Markov decision process (MDP), the authors capture job processing and state information through matrices representing job statuses, designated machines, and processing times, allowing for a more flexible scheduling approach. The PPO model is adapted to manage high-dimensional state and action spaces efficiently, mitigating the 'curse of dimensionality' and enabling real-time decision-making. Simulation results highlight the effectiveness of DRL, showing superior adaptability and performance in minimizing makespan when compared to traditional heuristic and meta-heuristic algorithms like genetic algorithms. Experimentation on various standard benchmarks reveals that the DRL-based strategy not only achieves competitive makespan outcomes but also demonstrates a capability for ongoing adaptability, essential for smart manufacturing environments. The findings advocate for DRL applications in operational scheduling, with implications for real-time production environments demanding rapid responses to variable conditions. Subsequent research might explore scaling the approach to larger problem instances or integrating with other machine learning techniques to enhance performance further.</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>undefined series for scimag - Anna’s Archive.pdf</t>
@@ -2424,7 +2864,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2890,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2462,17 +2902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The mobile robot is the essential equipment for automated logistics in the intelligent workshop, but the literature on shop scheduling rarely considers transport resources. This paper studies the integrated scheduling of machines and mobile robots, which can facilitate the efficiency of production systems. For the job shop scheduling problem with mobile robots (JSPMR), the existing mathematical models are too complex to obtain the optimal solution in an efficient time. Therefore, a novel mixed integer linear programming (MILP) model is proposed to minimize the makespan. Firstly, in view of the property of the problem, a disjunctive graph model is modified to describe the relationship between transport and processing tasks. Secondly, a more accurate and simplified MILP is proposed based on the modified disjunctive graph model. Two related proofs are given to prove the proposed model satisfies all special situations. Thirdly, the proposed MILP is tested on the well-known benchmark, including 82 instances. The proposed model is the first MILP model to obtain optimal solutions for all instances. Finally, 40 larger-scale instances are presented based on a real-world engineering case and used to validate the performance of models further. The comparison results verify the effectiveness and superior computational performance of the proposed model.</t>
+          <t>This paper studies the integrated scheduling of machines and mobile robots in job shop scheduling problem with mobile robots (JSPMR). A novel mixed integer linear programming (MILP) model is proposed to minimize makespan by improving the complexity and efficiency of existing mathematical models. The proposed model integrates the task sequencing of processing and transport tasks, proving optimal solutions through benchmarks and real-world cases with superior computational performance.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A novel mixed integer linear programming (MILP) model is proposed to minimize the makespan, utilizing a modified disjunctive graph model to describe the relationship between transport and processing tasks.</t>
+          <t>A modified disjunctive graph model is developed to describe the relationship between transport and processing tasks. A simplified mixed integer linear programming (MILP) model is formulated based on the disjunctive graph model, and performance is validated through extensive testing against benchmark instances and real-world scenarios.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>To study the integrated scheduling of machines and mobile robots in job shop scheduling, and to propose a simplified MILP model that efficiently obtains optimal solutions.</t>
+          <t>To develop a MILP model for job shop scheduling that efficiently integrates scheduling of machines and mobile robots, thereby minimizing makespan and addressing existing model complexities in the job shop scheduling field.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2482,7 +2922,10 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>This paper addresses the job shop scheduling problem with mobile robots (JSPMR), a critical area in automated logistics within intelligent workshops. Traditional scheduling methods often overlook the role of transport resources, which can significantly impact production efficiency. The authors propose a novel mixed integer linear programming (MILP) model aimed at minimizing the makespan in JSPMR scenarios. The existing models are often too complex, making it difficult to achieve optimal solutions in a reasonable timeframe. To tackle this, the authors modify a disjunctive graph model to better represent the interdependencies between transport and processing tasks. This leads to a more streamlined MILP formulation that is capable of addressing the complexities of the JSPMR effectively. The proposed model is rigorously tested against 82 benchmark instances, achieving optimal solutions for all, marking a significant advancement in the field. Additionally, the authors introduce 40 larger-scale instances derived from real-world engineering cases to further validate the model's performance. The results demonstrate not only the model's effectiveness but also its superior computational efficiency compared to existing approaches. This work contributes to the ongoing evolution of scheduling methodologies in manufacturing, particularly as industries shift towards more flexible and intelligent production systems. The implications of this research extend to practical applications in various manufacturing environments, suggesting that the integration of mobile robots into scheduling frameworks can lead to enhanced productivity and operational efficiency. Future research directions may include exploring further optimizations and adaptations of the model to accommodate even more complex manufacturing scenarios.</t>
+          <t>This paper addresses the challenges of the Job Shop Scheduling Problem with Mobile Robots (JSPMR), highlighting the need for efficient transport resource integration in automated logistics within manufacturing environments. Traditional scheduling approaches often overlook the significant role of transport mechanisms, usually assuming an infinite transport capacity or integrating transport time into processing time, which is impractical for real-world applications where mobile robots (MRs) serve as critical transport agents.
+To tackle these issues, the authors present a novel Mixed Integer Linear Programming (MILP) model aimed at minimizing the makespan for job sequences. The proposed method begins with modifying a disjunctive graph model to reflect the interdependent nature of transport and processing tasks, thereby establishing a structured way to choreograph MRs and machines. Key innovations include a disjunctive graph that effectively decomposes the scheduling problem into processing task sequencing, transport task assignment, and transport task sequencing, ensuring that these critical aspects are collaboratively optimized.
+The practical implications are substantial as the MILP model proves capable of yielding optimal solutions for all 82 benchmark instances tested, a significant improvement over previous models which struggled with certain instances. The model was further validated through a real-world engineering case, introducing an additional 40 larger-scale problem instances, demonstrating not only the model’s flexibility but also its superior computational performance over existing methodologies.
+Key findings indicate that the proposed MILP model efficiently deals with the complex interdependencies in JSPMR, confirming its practicality for dynamic manufacturing environments requiring high flexibility. Future work is suggested to explore hybrid optimization approaches that leverage both MILP and meta-heuristic algorithms to expedite computational times further, aiming to address practical scheduling scenarios even more robustly. Overall, this work marks an important contribution to the field, as the presented model not only streamlines traditional scheduling practices but also embraces the advancements in mobile robotics applicable in modern manufacturing systems.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2492,7 +2935,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
@@ -2507,8 +2950,16 @@
           <t>The flexible job shop scheduling problem (FJSP) is an NP-hard combinatorial optimization problem, which has wide applications in the real world. The complexity and relevance of the FJSP have led to numerous research works on its modeling and resolution. This paper reviews some of the research of the past 30 years on the problem, by presenting and classifying the different criteria, constraints, configurations and solution approaches that have been considered. Recent emerging topics on complex shop scheduling, multi-criteria optimization and uncertain and dynamic environments are discussed. Finally, future research opportunities are proposed.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The paper provides a comprehensive review and classification of various aspects of the flexible job shop scheduling problem, discussing criteria such as makespan, alternative criteria, and multi-criteria optimization, as well as various constraints and solution approaches.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>To review the past 30 years of research on the flexible job shop scheduling problem, presenting and classifying different criteria, constraints, configurations, and solution methodologies along with future research directions.</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>['Scheduling', 'Flexible job shop', 'Survey', 'Criteria', 'Constraints']</t>
@@ -2516,7 +2967,10 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>The flexible job shop scheduling problem (FJSP) is a significant extension of the traditional job shop scheduling problem (JSP), characterized by its NP-hard nature and its relevance in various real-world applications. This paper provides a comprehensive review of the FJSP, covering research developments over the past 30 years. The authors classify the existing literature based on different criteria, constraints, configurations, and solution approaches, highlighting the complexity introduced by the flexibility of machine assignments in the FJSP. The review emphasizes the makespan criterion, which is the most studied objective in the literature, while also discussing alternative criteria and multi-criteria optimization strategies. The paper surveys various constraints that extend the FJSP, such as precedence relations and resource availability, and presents additional problem characteristics that have emerged in recent studies. Furthermore, the authors explore recent trends in complex shop scheduling, including the impact of uncertain and dynamic environments on scheduling decisions. The paper concludes with a discussion of future research opportunities, motivating further exploration of the FJSP and its applications in operational and strategic optimization problems. The methodology includes a formal mathematical modeling of the FJSP using Mixed Integer Linear Programming (MILP) and disjunctive graph models, providing a foundation for understanding the complexities involved in solving the FJSP. The findings underscore the importance of developing efficient algorithms and heuristics to tackle the FJSP, given its practical significance in manufacturing and service industries.</t>
+          <t>This review paper extensively covers the flexible job shop scheduling problem (FJSP), a prominent NP-hard combinatorial optimization problem with significant real-world applications. The authors discuss the evolution of research over the past three decades, encompassing various criteria such as the makespan, which remains a primary focus, alongside alternative and multi-criteria optimization methods. They categorize the existing solution approaches into exact methods, heuristics, and metaheuristics, emphasizing the complexity introduced by the flexible nature of the job shop compared to the traditional job shop scheduling problem (JSP).
+In terms of methodology, the paper surveys various constraints that extend the classical FJSP, such as sequence-dependent setups, blocking constraints, and multi-resource requirements. They highlight solutions involving operational flexibility, including multiple processing routes for jobs, underscoring the enhanced complexity that arises from a flexible assignment of jobs to machines. Furthermore, the paper delves into the dynamics of uncertain environments, discussing the implications of machine availability and other unpredictable factors on scheduling efficiency.
+Key findings indicate a strong trend toward considering multiple objectives, reflecting the complexities of contemporary manufacturing settings where criteria like energy consumption and operational stability are increasingly critical. The authors also articulate that hybrid approaches which integrate the strengths of both trajectory-based and population-based metaheuristics tend to yield superior outcomes in FJSP applications. 
+The significance of the FJSP in real-world contexts, particularly in diverse manufacturing scenarios, is reiterated throughout, alongside a discussion of future research avenues. The need to tailor solution approaches to tackle specific challenges inherent in the FJSP is emphasized, including exploration into more generalized and robust algorithms that can cope with complex feature sets inherent in modern manufacturing systems. In conclusion, while substantial progress has been made, the authors advocate for further theoretical exploration and empirical testing to improve the applicability of FJSP solutions and address contemporary logistical challenges associated with flexibility and uncertainty in job-shop environments.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2526,39 +2980,39 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-08-19 22:21:01</t>
+          <t>2025-08-20 01:53:20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PAC Learning</t>
+          <t>PAC Identification</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A very important learning problem is the task of learning a concept. Concept learning has attracted much attention in learning theory. To model this learning task, we convert real things into mathematical descriptions of things using a fixed language to express a finite list of properties. Each concept can be described by a conjunction of Boolean predicates. The PAC (Probably Approximately Correct) learning model, introduced by Valiant in 1984, requires that a learner finds a hypothesis that approximates a target concept with high probability based on a sample of labeled examples drawn from an unknown probability distribution.</t>
+          <t>A very important learning problem is the task of learning a concept. Concept learning has attracted much attention in learning theory. For having a running example, we look at humans who are able to distinguish between different 'things,' e.g., chair, table, car, airplane, etc. Thus, in this example, each concept is a thing. To model this learning task, we have to convert 'real things' into mathematical descriptions of things. Aferward, we decide which of these properties are relevant for the particular things we want to deal with and which of them have to be fulfilled or not to be fulfilled, respectively.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>The PAC learning model requires a learner to find, with high probability, a hypothesis that approximates a target concept based on a sample of labeled examples. The learner must make a polynomial number of calls to an oracle that provides examples and their labels, and the learning process must be efficient in terms of both the number of examples and the computational time required.</t>
+          <t>PAC Learning framework for learning concepts through a probabilistic approach.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>To define and analyze the PAC learning model, including the requirements for efficient learning, the concept class, hypothesis space, and the criteria for success in learning a target concept.</t>
+          <t>To define the PAC (Probably Approximately Correct) learning model and its implications in the context of learning theory.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['PAC Learning', 'Concept Learning', 'Computational Learning Theory', 'Learning Theory', 'Machine Learning']</t>
+          <t>['PAC Learning', 'concept learning', 'learning theory', 'probabilistic approach', 'learning model']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>The paper discusses the PAC (Probably Approximately Correct) learning model, which is a foundational concept in computational learning theory introduced by Leslie Valiant in 1984. The primary focus is on the problem of concept learning, where the goal is to identify a target concept from a predefined class of concepts based on examples drawn from an unknown probability distribution. The paper outlines the formal definitions and requirements of PAC learning, emphasizing the need for the learner to produce a hypothesis that approximates the target concept with high probability. The learning process is characterized by two parameters: the accuracy parameter (ε) and the confidence parameter (δ), which quantify the acceptable error and the probability of success, respectively. The learner must efficiently determine a hypothesis from a hypothesis space that includes the target concept, and the efficiency is measured in terms of the number of examples needed and the computational resources required. The paper also discusses the implications of the PAC learning model for real-world learning scenarios, illustrating how learners must generalize from limited examples to perform well across various distributions. The significance of the PAC model lies in its ability to formalize the learning process and provide a framework for understanding the complexities involved in learning from examples, paving the way for further research in machine learning and artificial intelligence.</t>
+          <t>The paper discusses the PAC (Probably Approximately Correct) learning framework, introduced by Leslie Valiant in 1984, which models the process of learning concepts from examples. It begins by framing the learning task as one of distinguishing between various concepts based on a finite list of properties. The central focus of PAC learning lies in identifying concepts with high confidence and low error probability, leveraging probabilistic methods to gauge success. The framework assumes that the target concepts are part of a pre-defined concept class and that the learner can make queries to an oracle that indicates whether a particular example belongs to the concept. This process can be represented mathematically by setting a learning domain and defining the hypothesis space based on a chosen representation language. The performance of the learning algorithm is evaluated using parameters such as the accuracy and confidence levels, which in turn dictate the sample size required from the oracle to ensure reliable learning without overfitting. Results suggest that proper selection of representation language and hypotheses can critically affect the efficiency and success of learning. The implications of PAC learning stretch into various applications, establishing a theoretical backbone for modern machine learning and computational learning theory, and highlighting the importance of balancing efficiency, learning accuracy, and representation complexity in learning systems.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2568,21 +3022,44 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:12</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Job shop scheduling model for a sustainable manufacturing</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Technological development was not always environmental-friendly but it led to problems that affect the entire population, such as climate change and the depletion of non-renewable resources. In recent years, we are trying to change the concept of industrialization, with a more prudent and focused view to environmental issues. In this perspective, the setting of the fourth industrial revolution, called Industry 4.0, seeks to make technological development sustainable with the crucial aim of resource saving firstly. This study aims at introducing a smart tool, based on the application of a mathematical model, already proposed in literature, for the job scheduling from an energy saving perspective into a real company IT system. After a preliminary introduction on the concepts of sustainability and industry 4.0, and how they are connected to each other, and a second part that will deal with Smart Factory, smart factories oriented to customization and flexibility, the mathematical model of activity scheduling will be discussed and applied to a specific IT system. This model, in fact, properly implemented into a Manufacturing Execution System (MES) will represent a powerful tool oriented to the efficient use of energy resources.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The study proposes a mathematical model focused on energy-efficient job scheduling in manufacturing processes. The approach involves integrating this model into a Manufacturing Execution System (MES) that optimizes scheduling based on energy consumption and operational efficiency. The model addresses the Flexible Job Shop Scheduling Problem (FJSP) by implementing a mixed linear programming strategy, particularly focusing on the on/off strategies for machinery to minimize idle energy use while considering various operational parameters.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>To present a job scheduling model that balances production efficiency with energy consumption in a manufacturing context, particularly under the auspices of Industry 4.0 and sustainability.</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>['Sustainable manufacturing', 'job scheduling', 'energy saving']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>This paper addresses the pressing issue of energy consumption in manufacturing, especially within the context of Industry 4.0. The primary problem tackled is how to integrate sustainability into manufacturing processes, given the growing concerns about climate change and resource depletion. The authors introduce a smart mathematical model designed to improve job shop scheduling from an energy-saving perspective, demonstrating the feasibility of incorporating this model into a current Manufacturing Execution System (MES) in a real-world industrial setting. 
+The study begins by discussing the theoretical foundation of sustainability and the principles of Industry 4.0, arguing for their interconnectedness. The mathematical model proposed is implemented in a medium-sized enterprise involved in aircraft component production, where it aims to reduce energy expenditure during manufacturing operations. The model utilizes an on/off strategy to manage machine idle times, thus minimizing energy consumption, which is particularly impactful considering that a significant portion of the energy operational costs arise during idle periods.
+Key findings indicate that applying the proposed job scheduling approach can enhance energy efficiency significantly. In the case study presented, a reduction in operational costs was noted, achieving a savings of 1.2% compared to conventional scheduling methods. Importantly, the results suggest that such scheduling not only benefits economic efficiency but also contributes positively to environmental sustainability by reducing energy wastage and associated CO2 emissions.
+In conclusion, the paper suggests that future research could focus on refining the scheduling model to include additional parameters, such as machine setup times and energy generated from renewable sources, thereby enhancing the model's applicability in increasingly eco-conscious industrial environments. This work demonstrates a practical intersection between advanced manufacturing technologies and sustainability, illustrating how the implementation of smart scheduling models can lead industries toward a more sustainable future while maintaining competitive edges in productivity and cost-efficiency.</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>Job shop scheduling model for a sustainable manufacturing - Anna’s Archive.pdf</t>
@@ -2590,21 +3067,41 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A simple two-agent system for multi-objective flexible job-shop scheduling</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>In this paper, a simple two-agent multi-objective scheduling system for flexible job-shop scheduling problem is proposed and corresponding framework is given. Under the framework, a broadcast communication mechanism with task mark and leader-follower control mode are designed and used to ensure orderly activities among agents. To obtain initial solution and improve it, competition and cooperation strategies are developed. To jump out of the local optimal solution and expend the search space, an adaptive iterative loop solving mechanism is designed. Three commonly used benchmark instance sets are adopted to test the performance of the proposed method. Computation results and comparison analysis with other excellent algorithms demonstrate that it is feasible and effective.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A simple two-agent system (STS) for flexible job-shop scheduling is proposed, which includes machine agent (MA) and supervision agent (SA) to optimize multiple objectives: minimum makespan, minimum critical machine workload, and minimum total workload. Competition and cooperation strategies are employed to escape local optima, along with an adaptive iterative loop solving mechanism.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>To develop a feasible and effective scheduling method for the flexible job-shop scheduling problem (FJSP) using a two-agent system and to enhance responsiveness and optimization in a multi-agent technological setting.</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>['Flexible job-shop', 'Multi-objective optimization', 'Multi-agent technology', 'Distributed computing']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>The flexible job-shop scheduling problem (FJSP) addresses the increasing need for efficiency and adaptability in the production process, especially as market demands evolve rapidly, necessitating customizable manufacturing solutions. Traditional methods are limited by constraints in machine flexibility and computational efficiency, leading to a rise in interest in more versatile approaches such as multi-agent systems. This paper introduces a simple two-agent system (STS) constructed to optimize multiple scheduling objectives effectively—namely, minimizing makespan, critical machine workload, and total workload. The STS framework incorporates a broadcast communication mechanism utilizing task marking and a leader-follower control mode to facilitate seamless interactions among agents. Notably, the system adopts competition and cooperation strategies to navigate towards global optimal solutions while avoiding the pitfalls of local optima. An adaptive iterative loop solving mechanism expands the search space, enhancing solution efficacy. Performance tests reveal promising results when applied to three benchmark instance sets, illustrating that STS is an effective alternative to existing algorithms. Significant contributions of the research include the novel integration of competition into agent interactions and the establishment of a manageable agent architecture that reduces central processing load. The findings indicate that this dual-agent setup can respond better to dynamic scheduling requirements, paving the way for its implementation in smart manufacturing contexts. Conclusively, the adaptable nature of STS demonstrates its potential for future exploration and refinement to cater to increasingly complex scheduling environments, especially within cyber-physical systems where agent autonomy is paramount.</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>A simple two-agent system for multi-objective flexible job-shop scheduling - Anna’s Archive.pdf</t>
@@ -2612,7 +3109,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2624,17 +3121,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The quest for sustainability has arrived to the manufacturing world, with the emergence of a research field known as green scheduling. Traditional performance objectives now co-exist with energy-saving ones. In this work, we tackle a job shop scheduling problem with the double goal of minimising energy consumption during machine idle time and minimising the project’s makespan. We also consider uncertainty in processing times, modelled with fuzzy numbers. We present a multi-objective optimisation model of the problem and we propose a new enhanced memetic algorithm that combines a multiobjective evolutionary algorithm with three procedures that exploit the problem-specific available knowledge. Experimental results validate the proposed method with respect to hypervolume, 𝜖-indicator and empirical attainment functions.</t>
+          <t>The quest for sustainability has arrived to the manufacturing world, with the emergence of a research field known as green scheduling. Traditional performance objectives now co-exist with energy-saving ones. In this work, we tackle a job shop scheduling problem with the double goal of minimising energy consumption during machine idle time and minimising the project’s makespan. We also consider uncertainty in processing times, modelled with fuzzy numbers. We present a multi-objective optimisation model of the problem and we propose a new enhanced memetic algorithm that combines a multiobjective evolutionary algorithm with three procedures that exploit the problem-specific available knowledge. Experimental results validate the proposed method with respect to hypervolume, ε-indicator and empirical attainment functions.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A new enhanced memetic algorithm that combines a multiobjective evolutionary algorithm with three procedures: a dominance-based evolutionary component, a tabu search for makespan, and a heuristic for non-processing energy, along with a linear programming post-processing step.</t>
+          <t>A multi-objective enhanced memetic algorithm combining a multiobjective evolutionary algorithm (modified NSGA-II) and three procedures for intensification of solutions: tabu search for makespan minimisation, a heuristic for non-processing energy minimisation, and a linear programming post-process for optimal energy values.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>To minimise energy consumption during machine idle time and to minimise the project’s makespan in a job shop scheduling context with uncertain processing times.</t>
+          <t>To minimise energy consumption during machine idle times and to minimise the project’s makespan in a job shop scheduling problem under uncertain processing times, using fuzzy numbers for modeling uncertainty.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2644,7 +3141,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>This paper addresses the bi-objective fuzzy job shop scheduling problem, focusing on minimizing both makespan and non-processing energy consumption, particularly under conditions of uncertainty in processing times represented by fuzzy numbers. The authors propose a novel enhanced memetic algorithm that integrates a multiobjective evolutionary algorithm with specific problem knowledge to improve solution quality. The algorithm employs a population-based approach to explore the Pareto front, utilizing a tabu search for optimizing makespan and a heuristic for non-processing energy. Additionally, a linear programming model is used as a final improvement step to refine the solutions without altering the job processing order or the makespan. The experimental validation of the proposed method is conducted using three performance metrics: hypervolume, 𝜖-indicator, and empirical attainment functions, demonstrating its effectiveness in achieving a balance between energy efficiency and scheduling performance. The contributions of this work include the introduction of a mixed integer programming model for the bi-objective problem, the development of a hybrid memetic algorithm that effectively combines various optimization techniques, and a comprehensive experimental study that provides benchmark instances and detailed results for future research. This research is significant as it not only addresses the traditional objectives of job shop scheduling but also incorporates sustainability considerations, making it relevant in the context of modern manufacturing practices that prioritize energy efficiency and environmental impact.</t>
+          <t>This study introduces a novel approach to the job shop scheduling problem under uncertainty in processing times, specifically focusing on minimizing both the makespan and non-processing energy (NPE) through a multi-objective optimization framework. Recognizing the growing necessity for sustainable manufacturing practices, the authors develop an enhanced memetic algorithm (MOEMA) that innovatively integrates a dominance-based evolutionary algorithm with customized local search techniques tailored to the unique challenges posed by fuzzy job shop environments. The proposed methodology significantly contributes to the literature by providing an effective solution to the bi-objective fuzzy job shop scheduling problem, which, until now, lacked comprehensive treatment in research. The algorithm optimizes Pareto fronts using hypervolume metrics and empirical attainment functions as performance indicators. An extensive set of benchmark instances demonstrates the algorithm's capabilities, showcasing its effectiveness in producing not only competitive makespan solutions but also substantial improvements in reducing energy consumption. The algorithm employs a hybrid design that combines evolutionary strategies with local optimization techniques, including a tabu search focused on makespan and a heuristic method for NPE. The synergies achieved through these combinatory approaches deliver solutions that outperform traditional single-objective models and even other multi-objective methods in certain scenarios. Furthermore, the incorporation of linear programming as a post-processing step enhances the results by providing optimal energy values without compromising the originally defined job processing orders. The significance of this research lies not only in the methodological advancements made but also in addressing practical applications relevant to the manufacturing industry in an environmentally conscious manner. The various contributions are underscored by a thorough experimental validation, indicating a promising direction for future research avenues in the field of sustainable manufacturing and job shop scheduling optimization.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2654,7 +3151,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2666,17 +3163,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Simulation Optimization (SO) techniques refer to a set of methods that have been applied to stochastic optimization problems, structured so that the optimizer(s) are integrated with simulation experiments. Although SO techniques provide promising solutions for large and complex stochastic problems, the simulation model execution is potentially expensive in terms of computation time. Thus, the overall purpose of this research is to advance the evolutionary SO methods literature by researching the use of metamodeling within these techniques. Accordingly, we present a new Evolutionary Learning Based Simulation Optimization (ELBSO) method embedded within Ordinal Optimization. In ELBSO a Machine Learning (ML) based simulation metamodel is created using Genetic Programming (GP) to replace simulation experiments aimed at reducing computation. ELBSO is evaluated on a Stochastic Job Shop Scheduling Problem (SJSSP), which is a well known complex production planning problem in most industries such as semiconductor manufacturing. To build the metamodel from SJSSP instances that replace simulation replications, we employ a novel training vector to train GP. This then is integrated into an evolutionary two-phased Ordinal Optimization approach to optimize an SJSSP which forms the ELBSO method. Using a variety of experimental SJSSP instances, ELBSO is compared with evolutionary optimization methods from the literature and typical dispatching rules. Our findings include the superiority of ELBSO over all other algorithms in terms of the quality of solutions and computation time. Furthermore, the integrated procedures and results provided within this article establish a basis for future SO applications to large and complex stochastic problems.</t>
+          <t>Simulation Optimization (SO) techniques refer to a set of methods that have been applied to stochastic optimization problems, structured so that the optimizer(s) are integrated with simulation experiments. Although SO techniques provide promising solutions for large and complex stochastic problems, the simulation model execution is potentially expensive in terms of computation time. Thus, the overall purpose of this research is to advance the evolutionary SO methods literature by researching the use of metamodeling within these techniques. Accordingly, we present a new Evolutionary Learning Based Simulation Optimization (ELBSO) method embedded within Ordinal Optimization. In ELBSO a Machine Learning (ML) based simulation metamodel is created using Genetic Programming (GP) to replace simulation experiments aimed at reducing computation. ELBSO is evaluated on a Stochastic Job Shop Scheduling Problem (SJSSP), which is a well-known complex production planning problem in most industries such as semiconductor manufacturing. To build the metamodel from SJSSP instances that replace simulation replications, we employ a novel training vector to train GP. This then is integrated into an evolutionary two-phased Ordinal Optimization approach to optimize an SJSSP which forms the ELBSO method. Using a variety of experimental SJSSP instances, ELBSO is compared with evolutionary optimization methods from the literature and typical dispatching rules. Our findings include the superiority of ELBSO over all other algorithms in terms of the quality of solutions and computation time. Furthermore, the integrated procedures and results provided within this article establish a basis for future SO applications to large and complex stochastic problems.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Evolutionary Learning Based Simulation Optimization (ELBSO) method embedded within Ordinal Optimization, utilizing a Machine Learning based simulation metamodel created using Genetic Programming (GP).</t>
+          <t>The proposed method is the Evolutionary Learning Based Simulation Optimization (ELBSO) which utilizes a GP-based metamodeling approach integrated within an Ordinal Optimization structure. It consists of two phases: in the first phase, a GP metamodel is employed to estimate the fitness values of potential solutions to the SJSSP, reducing reliance on costly simulation experiments. The second phase uses simulations to refine the best solutions identified in the first phase.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>To advance the evolutionary Simulation Optimization methods literature by researching the use of metamodeling within these techniques, specifically for Stochastic Job Shop Scheduling Problems (SJSSP).</t>
+          <t>To advance the literature on evolutionary Simulation Optimization methods by introducing a new method that integrates machine learning metamodeling to effectively solve Stochastic Job Shop Scheduling Problems (SJSSPs). The aim is to reduce computation time while improving the quality of solutions in comparison to existing approaches.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2686,7 +3183,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of solving Stochastic Job Shop Scheduling Problems (SJSSPs), which are complex and computationally intensive due to their stochastic nature. The authors propose a novel method called Evolutionary Learning Based Simulation Optimization (ELBSO), which integrates Machine Learning (ML) techniques with Ordinal Optimization to enhance the efficiency of solving SJSSPs. The ELBSO method employs Genetic Programming (GP) to create a simulation metamodel that approximates the performance of the SJSSP, thereby reducing the need for extensive simulation replications that typically consume significant computational resources. The methodology consists of two phases: in the first phase, GP is used to generate a set of candidate solutions from the global solution space, while in the second phase, a more detailed simulation is conducted on a selected subset of these solutions to refine the results. The authors conducted extensive experiments using various SJSSP instances to evaluate the performance of ELBSO against existing evolutionary optimization methods and traditional dispatching rules. The results demonstrate that ELBSO outperforms these methods in terms of both solution quality and computational efficiency. The significance of this research lies in its potential to provide a robust framework for addressing large-scale stochastic optimization problems in manufacturing and other industrial applications. The findings suggest that the integration of ML-based metamodeling within simulation optimization frameworks can lead to substantial improvements in solving complex scheduling problems, paving the way for future research in this area.</t>
+          <t>This paper addresses the issue of optimizing Stochastic Job Shop Scheduling Problems (SJSSPs) using a novel method termed Evolutionary Learning Based Simulation Optimization (ELBSO). The research highlights the computational challenges associated with traditional Simulation Optimization (SO) techniques, typically expensive due to the repeated execution of simulation models. The ELBSO method innovates by integrating machine learning in the form of a GP-based metamodel to replace costly simulation experiments in a two-phase optimization process. In the first phase, the GP-based metamodel predicts fitness values for potential scheduling solutions, enabling a rapid evaluation of large solution spaces without extensive simulation. This is followed by a refinement phase where selected solutions are rigorously evaluated via traditional simulation methodology, ensuring good solution quality within a fraction of the time typically required. Extensive experimental validations on various SJSSP instances reveal ELBSO's superior performance regarding solution quality and computational efficiency when compared to existing methods, including other evolutionarily-based algorithms. The findings advocate for the broader implementation of combined simulation and learning strategies in complex industrial scheduling scenarios, demonstrating the ELBSO's potential as a time-efficient decision support tool for industries like semiconductor manufacturing, which often deal with such scheduling challenges. Future research directions are also proposed, including enhancements to the GP metamodel training process and exploring additional uncertainties in scheduling environments. Overall, the results signify a substantial advancement towards practical, fast, and accurate scheduling solutions in complex operational settings.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2696,7 +3193,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2708,17 +3205,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Many recently developed local search procedures for job shop scheduling use interchange of operations, embedded in a simulated annealing or tabu search framework. We develop a new variable depth search procedure, GLS (Guided Local Search), based on an interchange scheme and using the new concept of neighborhood trees. Structural properties of the neighborhood are used to guide the search in promising directions. While this procedure competes successfully with others even as a stand-alone, a hybrid procedure that embeds GLS into a Shifting Bottleneck framework and takes advantage of the differences between the two neighborhood structures proves to be particularly efficient. We report extensive computational testing on all the problems available from the literature.</t>
+          <t>This paper develops a new variable depth search procedure called Guided Local Search (GLS) based on an interchange scheme, which utilizes neighborhood trees to guide the search in promising directions. Additionally, a hybrid approach combines GLS with the Shifting Bottleneck framework, leading to improved performance on job shop scheduling problems compared to existing methods. Computational results demonstrate the effectiveness of the proposed methods.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Guided Local Search (GLS) based on an interchange scheme and neighborhood trees, embedded into a Shifting Bottleneck framework.</t>
+          <t>The paper proposes a new Guided Local Search (GLS) algorithm for job shop scheduling based on an interchange scheme and the concept of neighborhood trees. It also introduces a hybrid method that incorporates GLS within a Shifting Bottleneck framework, which optimizes scheduling by focusing on individual machine sequences.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>To develop an efficient local search procedure for job shop scheduling that utilizes neighborhood trees and to evaluate its performance through computational testing.</t>
+          <t>The primary objective of the study is to improve job shop scheduling methods using a new guided local search procedure and to demonstrate its efficiency through extensive computational testing.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2728,7 +3225,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>The paper addresses the challenging problem of job shop scheduling, which is known to be NP-complete and involves scheduling jobs on machines to minimize completion times. The authors introduce a novel local search method called Guided Local Search (GLS), which enhances traditional interchange heuristics by exploring a larger neighborhood of solutions through the use of neighborhood trees. This method allows for variable depth searches, where multiple operations can be interchanged simultaneously, thus broadening the search space compared to previous methods that only considered pairwise interchanges. The GLS is further integrated into a Shifting Bottleneck framework, which optimizes the sequence of operations on individual machines while keeping others fixed, leading to a hybrid approach that leverages the strengths of both methods. Extensive computational tests demonstrate that this hybrid approach outperforms existing algorithms, providing significant improvements in solution quality and computational efficiency. The findings suggest that the combination of GLS and Shifting Bottleneck not only enhances the search process but also offers practical applications in real-world scheduling scenarios, indicating potential for future research in optimizing job shop scheduling problems using advanced local search techniques.</t>
+          <t>Job shop scheduling is a well-known NP-complete problem where jobs must be scheduled on machines to minimize makespan. This paper introduces a new method called Guided Local Search (GLS), which improves upon existing local search techniques that typically use operations interchange within simulated annealing or tabu search frameworks. GLS uses a variable depth search strategy that explores larger neighborhoods than traditional methods by employing neighborhood trees. This allows the algorithm to identify promising directions during the search process more effectively. The proposed method competes well as a standalone approach, but its performance is further enhanced when combined with the Shifting Bottleneck Procedure, which focuses on optimizing sequences for individual machines while keeping other sequences fixed. Extensive computational testing against various job shop scheduling instances from the literature shows that the GLS and the hybrid GLS with Shifting Bottleneck significantly improve upon existing algorithms in terms of quality and computational efficiency. The study also discusses the algorithm’s structural properties and the mechanics of evaluating interchanges, as well as the trade-offs involved in exploring different neighborhoods. Performance metrics indicate that the hybrid procedure achieves optimal solutions for challenging instances, proving its robustness and effectiveness. The implementation details, adaptive mechanisms for neighborhood exploration, and the comparative analysis with other methods reinforce the significance of the proposed approach, suggesting potential implications for future research in combinatorial optimization and scheduling.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2738,7 +3235,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2755,12 +3252,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The TLBO algorithm is employed for solving FSSP and JSSP using a random key based approach with the largest position value rule for obtaining a job permutation. The Giffler and Thompson (G&amp;T) algorithm is used for the construction of active schedules within the TLBO search.</t>
+          <t>The TLBO algorithm is based on an inspiration from the teaching–learning process of human beings. The algorithm operates in two phases: the teacher phase, where a teacher tries to improve the mean result of the learners, and the learner phase, where learners interact amongst themselves to share knowledge. A complex random key-based approach is employed for obtaining job permutations for solving flow shop and job shop scheduling problems, coupled with Gifflers and Thompson (G&amp;T) algorithm for constructing active schedules during the TLBO search.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>To analyze the performance of the TLBO algorithm on combinatorial optimization problems, specifically flow shop and job shop scheduling problems, and to provide a comparative study of its effectiveness against other heuristic algorithms.</t>
+          <t>To analyze the performance of the TLBO algorithm on combinatorial optimization problems, specifically flow shop scheduling and job shop scheduling problems. This analysis aims to contribute insights into TLBO's effectiveness in solving complex combinatorial optimization problems for the first time in the literature.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2770,7 +3267,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>This paper investigates the performance of the Teaching-Learning Based Optimization (TLBO) algorithm on two significant combinatorial optimization problems: Flow Shop Scheduling Problem (FSSP) and Job Shop Scheduling Problem (JSSP). The TLBO algorithm, inspired by the teaching-learning process, has shown promise in various optimization tasks but has not been extensively tested on complex combinatorial problems until now. The authors conducted a comprehensive literature review on TLBO applications and then applied the algorithm to FSSP and JSSP, which are known for their complexity and NP-hard nature. The methodology involved using a random key based approach for job permutation and the Giffler and Thompson algorithm for constructing active schedules. The experimental results demonstrated that TLBO outperformed several well-known heuristic algorithms in terms of solution accuracy and convergence speed, requiring only 20-30 iterations to reach optimal solutions. The findings suggest that TLBO has significant potential for solving complex scheduling problems, providing insights into its applicability for other combinatorial optimization tasks. The study concludes with recommendations for future research directions, emphasizing the need for further exploration of TLBO in various optimization contexts.</t>
+          <t>The study introduces the Teaching-Learning Based Optimization (TLBO) algorithm, demonstrating its application to both flow shop scheduling (FSSP) and job shop scheduling (JSSP), marking the first instance of its testing on combinatorial optimization problems. Scheduling problems are recognized as NP-hard, making them complex yet vital for production management. TLBO mimics educational dynamics, comprising two main phases - the teacher phase, where a teacher influences learner outcomes, and the learner phase, where peer interaction enhances learning. The implementation utilizes a random key approach for job permutation and employs the G&amp;T algorithm for active schedule construction. Extensive empirical studies were conducted using benchmark sets (e.g., Taillard's problems) to evaluate TLBO's efficiency through performance metrics such as makespan, average relative percentage deviation (ARPD), and comparisons with existing heuristics (e.g., genetic algorithms, particle swarm optimization). Results illustrate that TLBO is competitive, often producing superior or comparable solutions against well-known heuristic algorithms. Particularly, it exhibits substantial potential in optimizing scheduling tasks, highlighting it as a promising tool for future exploration in combinatorial optimization research. Further studies could refine TLBO or extend to other problem domains to enhance algorithm robustness and applicability in practical scenarios.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2780,7 +3277,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2797,12 +3294,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>The proposed method employs a variable neighborhood search (VNS) algorithm, which is enhanced by a trained artificial neural network (ANN) that updates the parameters of VNS at each rescheduling point. The objective function is a multi-objective performance measure that includes makespan and tardiness.</t>
+          <t>The proposed method utilizes a Variable Neighborhood Search (VNS) algorithm, where parameters are updated at each rescheduling point using a trained Artificial Neural Network (ANN). This hybrid approach aims to optimize multi-objective scheduling in dynamic job shop contexts by balancing makespan and tardiness.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>To address the dynamic job shop scheduling (DJSS) problem by developing a scheduling method that effectively responds to random job arrivals and machine breakdowns, utilizing variable neighborhood search and artificial neural networks.</t>
+          <t>The main objective of this research is to develop an effective scheduling method for dynamic job shop environments, where job arrivals are random and machine breakdowns occur. This involves minimizing makespan and tardiness through the integration of Variable Neighborhood Search (VNS) and Artificial Neural Networks (ANN).</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2812,7 +3309,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>This paper addresses the dynamic job shop scheduling (DJSS) problem, which is characterized by random job arrivals and machine breakdowns, making it a complex NP-hard optimization challenge. Traditional scheduling methods often fail to adapt to real-time changes in the shop floor conditions, necessitating a more dynamic approach. The authors propose a novel scheduling method that integrates variable neighborhood search (VNS) with artificial neural networks (ANN) to enhance scheduling efficiency and effectiveness. The VNS algorithm is chosen for its simplicity and robustness in combinatorial optimization problems. The ANN is trained to update the parameters of the VNS at each rescheduling point, allowing for real-time adjustments based on the current state of the job shop. The objective function for the scheduling process is a multi-objective performance measure that combines makespan and total tardiness, aiming to minimize both metrics simultaneously. The authors conduct a series of simulations to compare their proposed method against common dispatching rules found in the literature. The results demonstrate that the proposed method significantly outperforms traditional approaches across various shop floor conditions, showcasing its adaptability and efficiency. The findings suggest that integrating ANN with VNS not only improves scheduling outcomes but also provides a framework for future research in dynamic scheduling environments. This work has practical implications for manufacturing systems, where real-time scheduling adjustments can lead to improved operational performance and resource utilization. Future research could explore further enhancements to the ANN architecture or the VNS algorithm to tackle even more complex scheduling scenarios.</t>
+          <t>The paper addresses the Dynamic Job Shop Scheduling (DJSS) problem, which involves scheduling jobs in environments characterized by random job arrivals and machine breakdowns—conditions often overlooked by traditional static scheduling methods. A Variable Neighborhood Search (VNS) algorithm is employed, enhanced by an Artificial Neural Network (ANN) that updates VNS parameters during rescheduling. The multi-objective performance measure focuses on minimizing makespan and tardiness, critical factors in operational efficiency. Through a series of simulations involving a job shop setup with 10 machines, the effectiveness of the proposed method was compared against several standard dispatching rules, including Shortest Processing Time (SPT), First In First Out (FIFO), Last In First Out (LIFO), and Earliest Due Date (EDD). Results indicated that the VNS approach consistently outperformed these conventional methods, particularly as job arrival rates increased, demonstrating a robust ability to adapt to changing conditions on the shop floor. Moreover, as the complexity and dynamics of the scheduling environment evolved (with variations in Mean Time Between Job Arrivals), the proposed method showed significant improvements in performance metrics across the board. This underscores the importance of integrating machine learning techniques like ANN in real-time scheduling decisions, paving the way for future research in adaptive scheduling algorithms that leverage historical performance data to further refine operational strategies. Close attention to practical implications highlights potential enhancements in manufacturing productivity and operational responsiveness, making the approach relevant for contemporary manufacturing systems aiming for greater automation and flexibility.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2822,7 +3319,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2834,17 +3331,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Flexible job shop scheduling (FJSP) is one of the most important problems in the domain of machining process optimization. This paper proposes a deep reinforcement learning approach to resolve the FJSP. In the approach, the FJSP is formulated as a Markov decision process where disjunctive graph is used to represent the state, operation set and machine allocation are used as the actions, the reward function is established based on the optimization objective (i.e. makespan). To obtain the embedding representation of the disjunctive graph of the FJSP, the corresponding graph neural network (GNN）is used to extract the state features. The multi-layer perceptron (MLP) decision network and scheduling rules cooperate to achieve the selection of actions (i.e. operations and machines). The multi-threaded asynchronous advantage actor-critic (A3C) algorithm is employed to optimize the model parameters to shorten the training time. The approach has been tested on the benchmarks. The results prove that this approach is superior to scheduling rules and meta-heuristic algorithms in results and computing time respectively.</t>
+          <t>Flexible job shop scheduling (FJSP) is one of the most important problems in the domain of machining process optimization. This paper proposes a deep reinforcement learning approach to resolve the FJSP. In the approach, the FJSP is formulated as a Markov decision process where disjunctive graph is used to represent the state, operation set and machine allocation are used as the actions, the reward function is established based on the optimization objective (i.e. makespan). To obtain the embedding representation of the disjunctive graph of the FJSP, the corresponding graph neural network (GNN) is used to extract the state features. The multi-layer perceptron (MLP) decision network and scheduling rules cooperate to achieve the selection of actions (i.e. operations and machines). The multi-threaded asynchronous advantage actor-critic (A3C) algorithm is employed to optimize the model parameters to shorten the training time. The approach has been tested on the benchmarks. The results prove that this approach is superior to scheduling rules and meta-heuristic algorithms in results and computing time respectively.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The proposed method formulates the FJSP as a Markov decision process, utilizing a disjunctive graph for state representation, with actions defined as operation sets and machine allocations. A graph neural network (GNN) is employed for feature extraction, and a multi-layer perceptron (MLP) decision network is used for action selection. The multi-threaded asynchronous advantage actor-critic (A3C) algorithm optimizes model parameters to reduce training time.</t>
+          <t>A deep reinforcement learning model that formulates the FJSP as a Markov decision process, using disjunctive graphs to represent states, and employing a graph neural network (GNN) for feature extraction. The methodology also includes a multi-layer perceptron (MLP) decision network for scheduling, combined with scheduling rules, and the A3C algorithm for optimization.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>To develop a deep reinforcement learning approach for solving the flexible job shop scheduling problem (FJSP) that outperforms traditional scheduling rules and meta-heuristic algorithms in terms of both solution quality and computational efficiency.</t>
+          <t>To develop a deep reinforcement learning approach for solving the Flexible Job Shop Scheduling Problem (FJSP), improve scheduling efficiency, and shorten training time compared to existing methods.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2854,7 +3351,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem (FJSP), a complex optimization challenge in manufacturing where jobs must be assigned to machines with varying processing times. Traditional methods, such as scheduling rules and meta-heuristic algorithms, often fall short in dynamic environments, prompting the exploration of deep reinforcement learning (DRL) as a novel solution. The authors propose a DRL framework that models the FJSP as a Markov decision process, employing a disjunctive graph to represent the scheduling state. The approach utilizes a graph neural network (GNN) to extract features from the disjunctive graph, enabling effective state representation. A multi-layer perceptron (MLP) decision network, in conjunction with scheduling rules, facilitates the selection of operations and machine allocations. The training process is accelerated through a multi-threaded asynchronous advantage actor-critic (A3C) algorithm, which optimizes model parameters efficiently. Experimental results demonstrate that the proposed method significantly outperforms traditional scheduling rules and meta-heuristic algorithms, achieving superior results in both solution quality and computational time. This research contributes to the field by providing a robust DRL-based framework for FJSP, highlighting its potential for practical applications in dynamic manufacturing environments. Future work may explore further enhancements to the model and its applicability to other combinatorial optimization problems.</t>
+          <t>The paper addresses the Flexible Job Shop Scheduling Problem (FJSP), a complex scheduling challenge where jobs must be assigned to varying machines based on operational constraints. The authors introduce a novel deep reinforcement learning (DRL) approach to tackle this problem, enhancing decision-making processes with advanced data structures and algorithms. Primarily, the FJSP is modeled as a Markov decision process (MDP), wherein the states are represented through disjunctive graphs. This allows for a clearer representation of job operations and their dependencies. To facilitate efficient scheduling, a Graph Neural Network (GNN) is utilized to leverage the structural properties of the disjunctive graph, enabling effective state feature extraction. Additionally, a Multi-Layer Perceptron (MLP) is employed in tandem with learned scheduling rules to determine optimal actions—specifically, which operations to schedule and on which machines. The proposed framework incorporates the multi-threaded Asynchronous Advantage Actor-Critic (A3C) algorithm, which stabilizes training and accelerates convergence, significantly reducing computational time compared to traditional methods. Experimental results on established benchmarks indicate that this DRL-based method outperforms standard scheduling rules and other meta-heuristic approaches, demonstrating superior results in both quality of scheduling outcomes and efficiency of computation. This research not only contributes to a better understanding of applying deep reinforcement learning in operational contexts but also sets groundwork for further explorations into multi-objective scheduling scenarios and dynamic environments. The findings imply a substantial shift in how complex scheduling problems can be addressed using modern machine learning techniques, with potential applications extending to various dynamic manufacturing settings.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2864,21 +3361,41 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Multi-objective optimization for stochastic failure-prone job shop scheduling problem via hybrid of NSGA-II and simulation method</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Production scheduling and reliability of machinery are prominent issues in flexible manufacturing systems that are led to decreasing of production costs and increasing of system efficiency. In this paper, multi-objective optimization of stochastic failure-prone job shop scheduling problem is sought wherein that job processing time seems to be controllable. It endeavours to determine the best sequence of jobs, optimal production rate, and optimum preventive maintenance period for simultaneous optimization of three criteria of sum of earliness and tardiness, system reliability, and energy consumption. First, a new mixed integer programming model is proposed to formulate the problem. Then, by combining simulation and NSGA-II algorithm, a new algorithm is put forward for solving the problem. A set of Pareto optimal solutions is achieved through this algorithm. The stochastic failure-prone job shop with controllable processing times has not been investigated in the earlier research, and for the first time, a new hedging point policy is presented. The computational results reveal that the proposed metaheuristic algorithm converges into optimal or near-optimal solution. To end, results and managerial insights for the problem are presented.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Hybrid of NSGA-II and simulation method</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>To optimize the stochastic failure-prone job shop scheduling problem considering controllable processing times, minimizing earliness, tardiness, system reliability, and energy consumption.</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>['controllable processing times', 'failure-prone manufacturing system', 'modified hedging point policy', 'Pareto optimal solutions', 'stochastic job shop scheduling']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>The paper addresses the stochastic failure-prone job shop scheduling problem, a complex issue in flexible manufacturing systems characterized by machine breakdowns and variable processing times. The primary goal is to optimize production scheduling while enhancing system reliability and minimizing costs associated with earliness, tardiness, and energy consumption. The authors propose a novel mixed integer programming model that formulates this multi-objective optimization problem, introducing a new hedging point policy to adapt processing speeds based on real-time conditions. Utilizing a combination of simulation techniques and the Non-dominated Sorting Genetic Algorithm II (NSGA-II), the authors develop a robust solution methodology that generates Pareto optimal solutions, effectively balancing the trade-offs among the competing objectives. The significant finding of the research highlights that the hybrid metaheuristic algorithm employed demonstrates rapid convergence towards optimal or near-optimal scheduling solutions under stochastic conditions. The integration of controllable processing times introduces an innovative dimension to the scheduling problem, which the authors argue has been underexplored in existing literature. Computation results validate the effectiveness and efficiency of the proposed algorithm, suggesting its practical applicability in real-world scenarios. The managerial insights presented provide guidelines on operational decision-making, particularly in scheduling and maintenance planning within manufacturing settings. This work contributes to the existing body of research by bridging gaps in the understanding of failure-prone systems and serves as a foundation for future exploration into advanced scheduling methodologies that accommodate uncertainties and dynamic production environments.</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>Multi‐objective optimization for stochastic failure‐prone job shop scheduling problem via hybrid of NSGA‐II and simulation method - Anna’s Archive.pdf</t>
@@ -2886,7 +3403,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-08-19 22:22:13</t>
+          <t>2025-08-20 01:56:07</t>
         </is>
       </c>
     </row>
@@ -2903,22 +3420,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>An ant colony optimization approach that uses a strong non-delay guidance for constructing solutions and employs black-box local search procedures to improve the constructed solutions.</t>
+          <t>Our ACO approach, henceforth denoted by ACO_GSS, is a MAX-MIN ant system (MMAS) in the hyper-cube framework (HCF). MMAS is an improvement of the original ant system (AS). It differs from AS by applying a lower and an upper bound, τmin and τmax, to the pheromone values. The algorithm constructs solutions using a list scheduler algorithm, employing three possible implementations of the Restrict function to bias the selection of operations. The pheromone trail updates are governed by conditions based on the convergence factor. The algorithm is iteratively refined until specific termination conditions are met.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>To apply ant colony optimization to group shop scheduling, propose a neighborhood structure for the problem, and compare the proposed algorithm with existing tabu search approaches.</t>
+          <t>To develop an effective ant colony optimization algorithm for solving group shop scheduling (GSS) problems, particularly demonstrating competitiveness in open shop scheduling (OSS) and addressing job shop scheduling (JSS) instances.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['Scheduling', 'group shop', 'job shop', 'open shop', 'ant colony optimization']</t>
+          <t>['Scheduling', 'Group shop', 'Job shop', 'Open shop', 'Ant colony optimization']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of solving group shop scheduling (GSS) problems, which encompass both job shop scheduling (JSS) and open shop scheduling (OSS) as special cases. The authors propose a novel ant colony optimization (ACO) algorithm that enhances the existing neighborhood structure for GSS, originally developed by Nowicki and Smutnicki for JSS. The ACO algorithm is designed to construct solutions using a strong non-delay guidance mechanism, which ensures that the solutions generated are of high quality. Additionally, the algorithm incorporates black-box local search procedures to refine these solutions further. The experimental results demonstrate that the proposed ACO algorithm significantly outperforms a tabu search adaptation for GSS, particularly excelling in OSS instances where it improves the best-known solutions for 15 out of 28 tested cases. This achievement marks the first competitive application of ACO to JSS instances, showcasing its potential in tackling NP-hard scheduling problems. The methodology includes defining the GSS problem, outlining the neighborhood structure, and detailing the ACO approach, followed by a comprehensive experimental evaluation using newly proposed benchmark instances. The findings indicate that the ACO algorithm not only provides high-quality solutions but also does so efficiently, making it a valuable tool for practitioners in industrial scheduling contexts. Future work may explore further enhancements to the algorithm and its application to other complex scheduling scenarios, reinforcing the significance of metaheuristic approaches in operational research and optimization fields.</t>
+          <t>The paper addresses group shop scheduling (GSS) using an ant colony optimization (ACO) algorithm, called ACO_GSS. The GSS problem encompasses both job shop scheduling (JSS) and open shop scheduling (OSS) as special cases. ACO_GSS enhances the standard ACO framework by utilizing a MAX-MIN ant system with a neighborhood structure derived from previous job shop scheduling work. The authors introduce a mechanism for updating pheromones based on solution quality and convergence metrics, distinguishing their method from earlier approaches. Through extensive experimentation using real-world and synthetic problem instances, the authors establish the superiority of ACO_GSS in OSS contexts, achieving improvements over existing solutions in 15 out of 28 tested instances. The results indicate competitive performance relative to a state-of-the-art tabu search adaptation for job shop problems. The algorithm demonstrates robust outcomes across various problem sizes while indicating room for further optimization in JSS contexts. Practical implications include the feasibility of deploying ACO_GSS in industrial scheduling systems, where adaptive solution methodologies provide significant operational time savings. Future work aims to refine the integration of heuristic information and candidate list strategies based on empirical findings, further enhancing the efficiency and efficacy of the GSS solution strategies.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2928,7 +3445,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:53</t>
         </is>
       </c>
     </row>
@@ -2945,12 +3462,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dynamic opposite learning dragonfly algorithm (DOLDA)</t>
+          <t>The proposed method is named Dynamic Opposite Learning Dragonfly Algorithm (DOLDA), which integrates a dynamic opposite learning (DOL) strategy into the traditional Dragonfly Algorithm (DA). DOL is used to enhance the exploration and exploitation capabilities of the algorithm to avoid premature convergence. DOLDA employs population initialization and generation jumping mechanisms to maintain diversity and improve solution quality.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>To solve the large-scale flexible job shop scheduling problem (LSFJSP) effectively and efficiently by improving the dragonfly algorithm with a dynamic opposite learning strategy.</t>
+          <t>To develop an enhanced meta-heuristic algorithm (DOLDA) that efficiently solves the large-scale flexible job shop scheduling problem (LSFJSP) using a dynamic opposite learning strategy. The goal is to improve the algorithm's ability to escape local optima and to ensure robust exploration and exploitation capabilities in scheduling scenarios.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2960,7 +3477,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>The paper addresses the large-scale flexible job shop scheduling problem (LSFJSP), which is a complex optimization challenge in manufacturing and production. The authors propose an enhanced version of the dragonfly algorithm (DA), termed dynamic opposite learning dragonfly algorithm (DOLDA), which incorporates a dynamic opposite learning (DOL) strategy to improve the algorithm's ability to escape local optima and enhance its search capabilities. The DOL strategy is integrated into both the population initialization and generation jumping stages of the DA. The effectiveness of DOLDA is validated through extensive experiments using 28 benchmark test functions from CEC 2013 and CEC 2014, demonstrating its superior performance compared to other algorithms. Additionally, DOLDA is applied to solve 15 LSFJSP instances generated by the Brandimate rule, yielding better solutions than those obtained by competing algorithms. The study highlights the importance of the jump rate parameter in maximizing the algorithm's performance, and the results indicate that DOLDA can efficiently handle the complexities of LSFJSP, making it a significant contribution to the field of scheduling optimization. The findings suggest that DOLDA not only improves solution quality but also reduces computational time, which is crucial for practical applications in industrial settings. Future work may explore further enhancements to the algorithm and its application to other complex scheduling problems.</t>
+          <t>This paper addresses the large-scale flexible job shop scheduling problem (LSFJSP), which is crucial in modern manufacturing but presents significant computational challenges. Conventional approaches, including deterministic mathematical methods, often fall short due to the problem's complexity. The authors propose an enhanced variant of the Dragonfly Algorithm (DA) named the Dynamic Opposite Learning Dragonfly Algorithm (DOLDA). The improvement stems from incorporating a Dynamic Opposite Learning (DOL) strategy into the algorithm, which mitigates the tendency to get trapped in local optima by effectively balancing exploration and exploitation. Key innovations include the integration of DOL into both the initialization and update stages of the DA, thereby enhancing the ability to search various solutions in the solution space dynamically. The methodology was rigorously validated through extensive computational experiments involving 28 benchmark functions from CEC 2013 and CEC 2014, as well as 15 real-world-like LSFJSP instances generated using the Brandimarte rule. The results demonstrated that DOLDA not only outperformed several classical algorithms but also exhibited robust stability across various test scenarios. Metrics such as makespan were minimized significantly, indicating the practical application of DOLDA in optimizing complex scheduling scenarios in industrial settings. The paper concludes by discussing the implications of DOLDA with regard to future research directions and potential enhancements in solving even more complex scheduling problems, emphasizing the need for ongoing innovation in optimization strategies.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2970,7 +3487,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -2987,22 +3504,24 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The study proposes various strategies for representing permutations in Differential Evolution (DE), including random keys, dispatching rules, and binary priorities. A hybridization of DE with a local search method is also introduced to improve performance.</t>
+          <t>Differential Evolution (DE) method was adapted for solving the Jobshop Scheduling Problem (JSP) through various permutation representation techniques and a schedule builder. A hybridization with tabu search is also introduced.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The aim of this paper is to provide insights about the use of real numbers encodings for permutation problems with DE, adopting the Jobshop Scheduling Problem (JSP) as a framework.</t>
+          <t>To provide insights on using real numbers encodings for permutation problems with Differential Evolution and to evaluate its performance on Jobshop Scheduling Problem instances.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Differential Evolution', 'Jobshop Scheduling Problem', 'permutation representation', 'metaheuristics', 'hybrid optimization']</t>
+          <t>['Differential Evolution', 'Jobshop Scheduling Problem', 'permutation problems', 'hybridization', 'metaheuristics']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of solving Jobshop Scheduling Problems (JSP) using Differential Evolution (DE), a powerful optimization technique that has been primarily applied to continuous problems. The authors highlight the lack of research on DE's application to permutation-based problems, particularly JSP, which is known for its complexity and has been a benchmark for testing new optimization methods. The study focuses on developing effective representation schemes for permutations using real numbers, which is crucial for the successful application of DE to JSP. The authors propose several encoding techniques, including random keys, dispatching rules, and binary priorities, each with its own advantages and challenges. The random keys method allows for sequencing operations based on real-valued variables, while dispatching rules help resolve conflicts during scheduling. The binary priorities approach uses a disjunctive graph representation to enforce operation sequencing but requires additional steps to ensure feasibility. The paper also introduces a hybridization of DE with a local search method to enhance performance, demonstrating significant improvements in computational experiments. The authors conduct extensive tests on various JSP instances, comparing the performance of different encoding strategies and schedule builders. Results indicate that the hybrid DE approach outperforms traditional methods, achieving closer approximations to optimal solutions across multiple problem instances. This research not only contributes to the understanding of DE's applicability to permutation problems but also provides practical insights for optimizing scheduling tasks in industrial settings. Future work may explore further refinements in encoding techniques and the integration of additional local search strategies to enhance solution quality and computational efficiency.</t>
+          <t>The paper explores the application of Differential Evolution (DE) to solving Jobshop Scheduling Problems (JSP), a classic challenge in operational research that involves allocating machines to jobs in such a way that minimizes the completion time, or makespan. The primary difficulty lies in the effective representation of permutations of jobs using real numbers, which is addressed by developing new encoding methods within DE. The authors empirically validate various strategies on well-established problem instances. They identify three key permutation representation modes: random keys, dispatching rules, and binary priorities, each with their own strengths and weaknesses, and test these variants under different scheduling frameworks.
+In their experiments, the DE algorithm is tuned with parameters such as mutation factor and crossover rate, set within specific bounds based on preliminary analyses. Results demonstrate that the random keys method yields the most promising outcomes in terms of solution quality and computational efficiency across various instances of the JSP. The study also includes a hybrid approach combining DE with tabu search (TS) which enhances the solution quality further, especially in more complex scenarios.
+Computational experiments reveal that while DE alone cannot compete with state-of-the-art algorithms like i-TSAB, its performance improves greatly when hybridized with local search techniques. The DE-TS hybrid showed competitive results, although the performance of DE alone improves more gradually, suggesting that the traditional modes of optimization may still dominate in effectively tackling the JSP. The key contributions of this work include advancements in representation schemes for DE applied to permutation problems and a foundation for further hybrid methodologies, potentially driving future research directions in this domain. Overall, the findings highlight DE's effectiveness when suitably adapted for structured scheduling environments, indicating room for improvement in algorithm development and integration of different optimization strategies.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3012,7 +3531,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3548,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>An improved imperialist competitive algorithm (ICA) hybridized with simulated annealing (SA) for flexible job shop scheduling problem (FJSP) with condition-based maintenance (CBM).</t>
+          <t>An improved imperialist competitive algorithm (ICA) for the flexible job shop scheduling problem with the objective of makespan minimization, enhanced with a hybridization of ICA with simulated annealing (SA).</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>To simulate condition-based maintenance for flexible job shop scheduling and propose an improved imperialist competitive algorithm for makespan minimization.</t>
+          <t>To propose and evaluate an improved ICA for flexible job shop scheduling considering condition-based maintenance (CBM) and minimize the makespan.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3044,7 +3563,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>This paper addresses the integration of maintenance activities into flexible job shop scheduling (FJSP), a critical aspect often overlooked in traditional scheduling studies. The authors propose a novel approach that incorporates condition-based maintenance (CBM) into the scheduling framework, recognizing that machines may not always be available due to maintenance needs. The proposed method enhances the imperialist competitive algorithm (ICA) by hybridizing it with simulated annealing (SA) to improve performance in minimizing makespan. The authors utilize a combination of sigmoid functions and Gaussian distributions to simulate CBM more effectively, allowing for a more realistic representation of machine availability. The methodology involves calibrating various parameters of the ICA using Taguchi experimental design to optimize its performance. Experimental results demonstrate that the improved ICA significantly outperforms the standard ICA, showcasing its effectiveness in handling FJSP under CBM constraints. The paper also compares the performance of the proposed algorithm against other well-known algorithms, such as genetic algorithms and particle swarm optimization, further validating its robustness. The findings suggest that integrating maintenance considerations into scheduling not only enhances productivity but also aligns with modern manufacturing practices that prioritize reliability and efficiency. This research has significant implications for industries reliant on flexible manufacturing systems, providing a framework that can adapt to real-world operational challenges. Future work may explore further refinements to the algorithm and its application to more complex scheduling scenarios.</t>
+          <t>This paper addresses the challenges in flexible job shop scheduling (FJSP) by incorporating condition-based maintenance (CBM) into scheduling models, leveraging the limitations of previous studies that largely ignored maintenance. The authors introduce an improved version of the imperialist competitive algorithm (ICA) to solve the FJSP with the aim of minimizing makespan—an essential factor in manufacturing efficiency. The proposed algorithm merges ICA with simulated annealing (SA), a decision that enhances its adaptive exploration capabilities. Central to this methodology is the simulation of maintenance activities, which assesses how machines become unavailable due to various maintenance needs, including preventive and unforeseen repairs. The proposed ICA is calibrated using the Taguchi experimental design, allowing for a systematic exploration of various algorithm parameters to optimize its performance. The effectiveness of the novel ICA is confirmed through extensive experiments showcasing its superior performance compared to the standard ICA as well as other established algorithms like genetic algorithms (GA) and particle swarm optimization (PSO). Performance metrics indicate that the improved ICA significantly reduces the makespan under conditions of machine unavailability, thus presenting a robust approach to FJSP under CBM. The incorporation of a degenerate function that blends sigmoid functions and Gaussian distributions in the simulation enhances realism in the predictive maintenance framework. Future research directions are suggested, including the integration of resource constraints in maintenance planning and addressing logistics delay times, which remain vital for practical applications in manufacturing systems.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3054,21 +3573,41 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Flexible Job Shop Scheduling Problems with Arbitrary Precedence Graphs</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A common assumption in the shop scheduling literature is that the processing order of the operations of each job is sequential; however, in practice there can be multiple connections and finish-to-start dependencies among the operations of each job. This paper studies flexible job shop scheduling problems with arbitrary precedence graphs. Rigorous mixed integer and constraint programming models are presented, as well as an evolutionary algorithm is proposed to solve large-scale problems. The proposed heuristic solution framework is equipped with efficient evolution and local search mechanisms as well as new feasibility detection and makespan estimation methods. To that end, new theorems are derived that extend previous theoretical contributions of the literature. Computational experiments on existing benchmark data sets show that the proposed solution methods outperform the current state-of-the-art. Overall, 59 new best solutions and 61 new lower bounds are produced for a total of 228 benchmark problem instances of the literature. To explore the impact of the arbitrary precedence graphs, lower bounds and heuristic solutions are generated for new large-scale problems. These experiments illustrate that the machine assignment flexibility and density of the precedence graphs affect not only the makespan, but also the difficulty of producing good upper bounds.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rigorous mixed integer and constraint programming models, and an evolutionary algorithm.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>To study flexible job shop scheduling problems with arbitrary precedence graphs and develop new solution methods and theoretical contributions.</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>['Flexible Job Shop Scheduling', 'Mathematical Programming', 'Constraint Programming', 'Evolutionary Algorithms']</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>This paper addresses the Flexible Job Shop Scheduling Problem (FJSSP) with a focus on arbitrary precedence graphs, which are often present in real-world scheduling scenarios but seldom considered in traditional literature that assumes a sequential job processing order. The authors propose two main types of models: mixed integer programming (MIP) and constraint programming (CP), along with a hybrid evolutionary algorithm designed to tackle large-scale problem instances effectively. The algorithm incorporates adaptive memory structures for better search history management and local search mechanisms utilizing critical path-based neighborhood structures. They derive new theoretical results that broaden existing findings in the field and present a comprehensive evaluation of their methods against existing benchmarks. Computational experiments reveal that their new models not only produce significant improvements in terms of optimal solutions and bounds—delivering 59 new best solutions and 61 new best lower bounds over 228 tested instances—but also highlight how the characteristics of precedence graphs (specifically their density and the flexibility in machine assignments) can impact overall scheduling performance metrics, like makespan and upper bound effectiveness. The findings suggest that their new algorithms can more effectively navigate the complex dependencies introduced by arbitrary precedence graphs, paving the way for future research and practical applications in manufacturing and production systems. As this research builds upon existing techniques, it offers a solid foundation for subsequent exploration into more intricate scheduling paradigms with flexible constraints.</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>undefined series for scimag5 - Anna’s Archive.pdf</t>
@@ -3076,7 +3615,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3093,22 +3632,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>We introduce a dynamic programming-based heuristic algorithm for the flexible job shop scheduling problem. First, we consider a single AMR and formulate a MDP model. Then, we obtain the optimal policy and state values using dynamic programming. Using the state values, we propose a heuristic algorithm to handle multiple AMRs. The algorithm is verified by comparing various algorithms using simulation.</t>
+          <t>We introduce a dynamic programming-based heuristic algorithm for the flexible job shop scheduling problem. Initially, we consider a single AMR and formulate a Markov decision process (MDP) model, then obtain the optimal policy and state values using dynamic programming. Subsequently, using the state values, we propose a heuristic algorithm to manage multiple AMRs.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Minimize average cycle time of car bodies in automotive assembly plants by optimizing the scheduling of autonomous mobile robots (AMRs) for task assignments and battery charging decisions.</t>
+          <t>Minimize average cycle time of car bodies by effectively scheduling operations and battery charging for autonomous mobile robots (AMRs) in a flexible job shop scheduling context within a matrix production system in the automotive industry.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['dynamic programming', 'heuristic algorithm', 'flexible job shop scheduling', 'automotive industry', 'matrix production system', 'autonomous mobile robots', 'Markov decision process']</t>
+          <t>['dynamic programming', 'flexible job shop scheduling', 'autonomous mobile robots', 'matrix production system', 'automotive industry']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem in automotive assembly plants, particularly focusing on the scheduling of autonomous mobile robots (AMRs) within a matrix production system. As automotive production demands become more diverse, traditional conveyor systems are being replaced by matrix systems that allow for greater flexibility. The authors propose a dynamic programming-based heuristic algorithm to optimize the scheduling of AMRs, which are responsible for transporting car bodies to various workstations for assembly operations. The problem is modeled as a Markov decision process (MDP) for a single AMR, where the objective is to minimize the average cycle time of car bodies. The MDP formulation considers the current position of the AMR, the set of required operations, and the battery state of the AMR. The authors derive an optimal policy using dynamic programming and extend the solution to handle multiple AMRs through a heuristic approach. The proposed algorithm is validated through simulations, comparing its performance against other scheduling algorithms. Key findings indicate that the scheduling algorithm significantly impacts production capacity, highlighting the importance of efficient task assignment and battery management for AMRs. The study contributes to the field by addressing the complexities of scheduling in flexible manufacturing environments, particularly with the added constraint of battery charging for AMRs. Future implications suggest further exploration of advanced algorithms to enhance scheduling efficiency and adaptability in dynamic production settings.</t>
+          <t>This paper addresses the flexible job shop scheduling problem in automotive assembly plants where production demands necessitate high flexibility. Traditional assembly lines are evolving into matrix systems facilitating more fluid operations, particularly via autonomous mobile robots (AMRs) that transport car bodies among various workstations to execute necessary operations. Given the complexity of scheduling due to sequential operation requirements and battery constraints, the authors formulate a Markov decision process (MDP) for a single AMR and employ dynamic programming to ascertain optimal policies. The innovation herein lies in a new heuristic algorithm designed to adapt to multiple AMRs, enhancing the decision-making process concerning workstations and operations while factoring in the robots' battery status. Extensive simulations were conducted to validate the effectiveness of this algorithm against several established scheduling rules, revealing that the proposed heuristic significantly minimizes average cycle times across varying production metrics. Key findings indicate that while AMR charging and operation selection can complicate scheduling, strategic decisions informed by dynamic programming principles can mitigate congestion and waiting times, thus improving overall throughput in automotive production settings. Future research directions are suggested, including improvements in state value predictions for AMRs, emphasizing that flexibility alone does not guarantee optimal scheduling outcomes, necessitating careful design considerations for system efficiency in high-demand scenarios.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3118,7 +3657,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3683,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3700,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The paper introduces the Sustainable Flexible Scheduling Problem (SFJSSP) as a human and energy-efficiency-centered scheduling problem and suggests a mathematical model that incorporates human and environmental factors alongside traditional scheduling factors.</t>
+          <t>This paper reviews the literature on Flexible Job Shop Scheduling Problems (FJSSP) considering human and environmental factors and presents a proposed mathematical model for the Sustainable Flexible Job Shop Scheduling Problem (SFJSSP) that prioritizes human well-being and energy efficiency.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>To review literature on Flexible Job Shop Scheduling Problems (FJSSP) with human and environmental considerations, analyze development trends in manufacturing scheduling problems, and discuss future research challenges towards scheduling 5.0.</t>
+          <t>The main objectives of this paper are to review the integration of human factors and environmental considerations in Flexible Job Shop Scheduling Problems (FJSSP), analyze trends in manufacturing scheduling, identify future research challenges related to Industry 5.0, and propose a mathematical model for scheduling that includes human and environmental factors.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3176,7 +3715,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>This paper addresses the evolving landscape of job shop scheduling in the context of Industry 5.0, which emphasizes human-centricity, sustainability, and resilience. The authors highlight the limitations of traditional scheduling approaches that often overlook human factors and environmental impacts. They introduce the Sustainable Flexible Job Shop Scheduling Problem (SFJSSP), which integrates these considerations into scheduling models. The paper reviews a decade's worth of literature on Flexible Job Shop Scheduling Problems (FJSSP) that incorporate human and environmental factors, identifying trends and gaps in current research. The authors argue that the well-being and skills of workers significantly influence scheduling performance, necessitating a shift towards more inclusive scheduling practices. Furthermore, they note that industries contribute substantially to global energy consumption and greenhouse gas emissions, prompting a need for scheduling solutions that prioritize environmental sustainability. The paper concludes with a discussion of future research challenges, advocating for the development of mathematical models that account for human and environmental factors alongside traditional scheduling criteria. This comprehensive approach aims to enhance the efficiency and effectiveness of scheduling in modern manufacturing environments, ultimately contributing to the goals of Industry 5.0. The findings suggest that integrating these new dimensions into scheduling problems will require innovative methodologies and collaborative efforts across various sectors of industry, paving the way for more resilient and sustainable manufacturing practices.</t>
+          <t>This paper provides a comprehensive survey of the research developments surrounding the Flexible Job Shop Scheduling Problem (FJSSP) in the context of Industry 5.0, emphasizing the integration of human factors and environmental considerations. The emergence of Industry 4.0 has already instigated significant changes in the methodologies used for scheduling problems within manufacturing systems. As we transition towards Industry 5.0, the focus shifts onto three core values: human-centricity, sustainability, and resilience. The research highlights that human operators significantly influence scheduling performance through factors such as skills and well-being, while production scheduling must now also account for the facilities’ environmental impact, particularly energy consumption and greenhouse gas emissions. The proposed Sustainable Flexible Scheduling Problem (SFJSSP) encapsulates these issues, representing a shift towards more socially responsible and environmentally friendly scheduling practices. Through an analysis of the last decade's literature, the paper identifies existing gaps in research, particularly the lack of a dynamic perspective incorporating both human and environmental factors simultaneously. Notably, the findings suggest the need for future studies to marry these elements into scheduling models, utilizing advanced computational techniques such as hybrid algorithms that combine heuristic and AI approaches for more effective scheduling outcomes. The significance of future research is underscored by the need to address the complexities posed by dynamic scheduling environments and the specific challenges arising from the reintegration of human-centered design principles in manufacturing systems.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3186,7 +3725,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3203,12 +3742,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>We propose a multi-objective genetic algorithm incorporated with two problem-specific local improvement strategies to solve the bi-objective optimization problem of minimizing total weighted tardiness and total energy consumption in job shop scheduling.</t>
+          <t>A multi-objective genetic algorithm incorporated with two problem-specific local improvement strategies.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>To minimize total weighted tardiness and total energy consumption in job shop scheduling by incorporating energy efficiency into the scheduling model.</t>
+          <t>To minimize total weighted tardiness and total energy consumption in a job shop scheduling environment.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3218,7 +3757,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>This paper addresses the energy-efficient job shop scheduling problem (JSSP-EC), which integrates the objective of minimizing energy consumption into traditional job shop scheduling. The authors propose a multi-objective genetic algorithm (MOGA) enhanced with two local improvement strategies tailored to the problem's specific characteristics. The JSSP-EC is defined by two conflicting objectives: minimizing total weighted tardiness (TWT) and total energy consumption (TEC). The problem is complex due to the NP-hard nature of JSSP, compounded by the need to select machine speeds from a discrete set while scheduling jobs. The proposed MOGA utilizes local search techniques to improve solution quality by focusing on the mathematical properties of subproblems derived from the main problem. Computational experiments demonstrate the effectiveness of the proposed approach, showing significant improvements in solution quality compared to traditional methods. The findings suggest that integrating energy efficiency into scheduling can lead to more sustainable manufacturing practices. This research has practical implications for industries aiming to reduce energy consumption and carbon emissions while maintaining production efficiency. Future work may explore further enhancements to the algorithm and its application to other scheduling contexts.</t>
+          <t>The paper addresses the energy-efficient job shop scheduling problem (JSSP-EC), which incorporates energy consumption minimization into the classical scheduling framework. The authors propose a multi-objective genetic algorithm (GA) enhanced by tailored local search strategies to tackle this bi-objective optimization challenge, aiming to minimize total weighted tardiness (TWT) and total energy consumption (TEC). The method comprises an encoding scheme for production schedules and speed settings, leveraging a local search based on disjunctive graph representations. Computational experiments demonstrate significant improvements in solution quality compared to existing methods. The effectiveness of local search strategies is crucial in enhancing performance due to the complexity of balancing the two conflicting objectives inherent in job shop environments. Furthermore, the proposed approach yields good solutions that support sustainable manufacturing practices, emphasizing its relevance in real-world applications. The study highlights the need for future improvements in the energy model used and efficiency enhancements in local search mechanisms.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3228,7 +3767,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3240,17 +3779,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The production scheduling problem allocates limited resources to tasks over time and determines the sequence of operations so that the constraints of the system are met and the performance criteria are optimized. One approach to this problem is the use of artificial neural networks (ANNs) stand alone or in conjunction with other methods. Artiﬁcial neural networks are computational structures that implement simpliﬁed models of biological processes, and are preferred for their robustness, massive parallelism, and learning ability. In this paper, we give a comprehensive overview on ANN approaches for solution of production scheduling problems, discuss both theoretical developments and practical experiences, and identify research trends. More than 50 major production and operations management journals published in years 1988–2005 have been reviewed. Existing approaches are classiﬁed into four groups, and additionally a historical progression in this field was emphasized. Finally, recommendations for future research are suggested in this paper.</t>
+          <t>The production scheduling problem allocates limited resources to tasks over time and determines the sequence of operations so that the constraints of the system are met and the performance criteria are optimized. One approach to this problem is the use of artificial neural networks (ANNs) stand alone or in conjunction with other methods. In this paper, we give a comprehensive overview on ANN approaches for solution of production scheduling problems, discuss both theoretical developments and practical experiences, and identify research trends. More than 50 major production and operations management journals published in years 1988–2005 have been reviewed. Existing approaches are classified into four groups, and additionally a historical progression in this field was emphasized. Finally, recommendations for future research are suggested in this paper.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>The paper provides a comprehensive survey of recent research on ANN applications in production scheduling, classifying existing approaches into four groups and emphasizing historical progression. It discusses theoretical developments and practical experiences with ANNs in scheduling.</t>
+          <t>The paper presents a comprehensive survey of various approaches that employ artificial neural networks (ANNs) in production scheduling, classifying them into four main categories: Hopfield type networks, multilayer perceptrons, competitive type networks, and hybrid approaches. Within these categories, different mathematical models, algorithms, and theoretical developments are discussed, along with practical implementations and their effectiveness.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>To give a comprehensive overview of ANN approaches for solving production scheduling problems and to identify future research directions.</t>
+          <t>The aim of the paper is to provide an extensive review of the applications of neural networks in production scheduling, categorizing existing literature, discussing theoretical advancements, reviewing practical experiences, and identifying future research trends in the area.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3260,7 +3799,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>The paper addresses the production scheduling problem, which involves allocating limited resources to tasks over time while optimizing performance criteria under various constraints. Traditional methods for solving scheduling problems include mathematical programming, dispatching rules, and expert systems, but these approaches often struggle with the NP-hard nature of the scheduling problem. The authors explore the application of artificial neural networks (ANNs) as a promising alternative due to their robustness, parallel processing capabilities, and learning abilities. The review covers over 50 major journals from 1988 to 2005, categorizing existing ANN approaches into four groups and highlighting the historical evolution of these methods. Key findings indicate that while ANNs can effectively model complex relationships in scheduling, they also face limitations such as local minima and long training times. The paper suggests hybrid systems that combine ANNs with traditional heuristics or metaheuristics to overcome these challenges. The authors conclude with recommendations for future research, emphasizing the need for further exploration of hybrid approaches and the integration of ANNs in dynamic scheduling environments. This comprehensive review not only summarizes the state of research in ANN applications for production scheduling but also sets the stage for future advancements in the field, making it a significant contribution to both academic and practical aspects of industrial engineering and operations management.</t>
+          <t>This paper presents a comprehensive review of the evolution of artificial neural networks (ANNs) in enhancing production scheduling, addressing the complexity and constraints inherent in resource allocation over time while optimizing performance criteria. The study categorizes existing approaches into four main types: Hopfield type networks, multilayer perceptrons, competitive networks, and hybrid models combining neural networks with other optimization techniques such as genetic algorithms and expert systems. A historical perspective is formed through the review of over 50 major publications on the topic from respected journals between 1988 and 2005. ANNs are particularly lauded for their ability to learn complex relationships in job-shop scheduling, minimizing tardiness and achieving optimal solutions in dynamic environments, where traditional methods might falter. The review emphasizes that while many successes have been noted using ANN approaches, challenges persist such as local minima entrapment in Hopfield networks, the need for substantial training data for multilayer perceptrons, and substantial computational efforts in hybrid methods. Future directions are suggested, including the development of adaptive neural networks capable of online learning, refining penalty mechanisms in Hopfield models, and employing evolutionary algorithms to enhance optimization capabilities. The findings showcase a clear trajectory towards using adaptive, self-organizing methods that remain relevant to real-world applications in manufacturing and operations management, indicating the potential for ongoing innovation in this field.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3270,7 +3809,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-08-19 22:23:41</t>
+          <t>2025-08-20 01:58:54</t>
         </is>
       </c>
     </row>
@@ -3282,17 +3821,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Job-shop scheduling problem is one of the well-known hardest combinatorial optimization problems. During the last three decades, this problem has captured the interest of a significant number of researchers. A lot of literature has been published, but no efficient solution algorithm has been found yet for solving it to optimality in polynomial time. This has led to recent interest in using genetic algorithms to address the problem. How to adapt genetic algorithms to the job-shop scheduling problems is very challenging but frustrating. Many efforts have been made in order to give an efficient implementation of genetic algorithms to the problem. During the past decade, two important issues have been extensively studied. One is how to encode a solution of the problem into a chromosome so as to ensure that a chromosome will correspond to a feasible solution. The other issue is how to enhance the performance of genetic search by incorporating traditional heuristic methods. Because the genetic algorithms are not well suited for fine-tuning of solutions around optima, various methods of hybridization have been suggested to compensate for this shortcoming. The purpose of the paper is to give a tutorial survey of recent works on various hybrid approaches in genetic job-shop scheduling practices. The research on how to adapt the genetic algorithms to the job-shop scheduling problem provide very rich experiences for the constrained combinatorial optimization problems. All of the techniques developed for the problem are very useful for other scheduling problems in modern flexible manufacturing systems and other difficult-to-solve combinatorial optimization problems.</t>
+          <t>Job-shop scheduling problem is one of the well-known hardest combinatorial optimization problems. During the last three decades, this problem has captured the interest of a significant number of researchers. [...] The purpose of the paper is to give a tutorial survey of recent works on various hybrid approaches in genetic job-shop scheduling practices.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The paper surveys various hybrid approaches of genetic algorithms applied to job-shop scheduling problems, focusing on encoding solutions into chromosomes and enhancing genetic search performance through traditional heuristics.</t>
+          <t>The paper surveys recent hybrid genetic algorithms applied to job-shop scheduling problems, focusing on encoding solutions and enhancing performance through traditional heuristic methods and hybridization techniques.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>To provide a tutorial survey of recent works on hybrid approaches in genetic job-shop scheduling practices and to explore how genetic algorithms can be adapted to the job-shop scheduling problem.</t>
+          <t>To provide a comprehensive overview of hybrid genetic search strategies for job-shop scheduling problems and to identify the challenges in adapting genetic algorithms to these problems.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3302,7 +3841,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>The job-shop scheduling problem (JSSP) is recognized as one of the most challenging combinatorial optimization problems, attracting significant research interest over the past three decades. Despite numerous studies, no polynomial-time algorithm has been established for solving JSSP optimally. This paper focuses on the adaptation of genetic algorithms (GAs) to tackle JSSP, highlighting the challenges and advancements in this area. Two critical issues are addressed: the encoding of solutions into chromosomes and the enhancement of genetic search performance through hybridization with traditional heuristics. The paper emphasizes that GAs, while powerful, struggle with fine-tuning solutions near optima, necessitating hybrid strategies to improve their effectiveness. The authors categorize hybrid approaches into three main types: adapted genetic operators, heuristic-featured genetic operators, and hybrid genetic algorithms. Each category is explored in detail, showcasing various encoding methods developed for JSSP, such as operation-based, job-based, and preference list-based representations. The paper concludes that the techniques developed for JSSP can be beneficial for other scheduling problems in modern flexible manufacturing systems and other complex combinatorial optimization challenges. The findings underscore the significance of hybrid approaches in enhancing the performance of GAs in solving JSSP and suggest future research directions to further refine these methodologies.</t>
+          <t>The job-shop scheduling problem (JSSP) is acknowledged as one of the most complex combinatorial optimization challenges in scheduling and logistics. This problem involves allocating a set of jobs to a limited number of machines while ensuring that each job is processed according to specific constraints. Despite extensive research over the past three decades, no polynomial-time algorithm has successfully solved JSSP optimally. The paper presents a detailed tutorial survey focusing on hybrid genetic algorithms (GAs) that integrate classical heuristics with genetic mechanisms to enhance performance in solving JSSP. 
+The survey emphasizes evolving effective representations suitable for genetic algorithms, highlighting various encoding strategies that have been developed to produce feasible solutions. Effective representations are crucial given the constraints present in scheduling, as traditional binary encoding can yield infeasible schedules. The paper categorizes hybrid methods into three approaches: adapting problems for GAs, adapting GAs for specific problem characteristics, and a combination of both. The use of local search techniques alongside genetic algorithm frameworks is discussed, which improves solution quality through fine-tuning existing genetic solutions.
+Key findings indicate that integrating local heuristic methods into genetic algorithms, particularly ones designed to handle the precedence constraints inherent in job scheduling, can significantly improve schedule quality. For example, the 'Giffler and Thompson' algorithm is highlighted as a potent local search approach integrated within the GA framework to optimize the scheduling process further. 
+The paper outlines various hybridization methods such as adapted genetic operators, heuristic-featured genetic operators, and combinations with local search techniques, thus providing a robust understanding of the current state of hybrid approaches in GJSPs and suggesting that successful strategies often require a complete understanding of both genetic algorithms and the specific problem constraints they address.
+In conclusion, hybrid genetic algorithms demonstrate significant potential for addressing the JSSP, offering promising results through innovative solution representation and the integration of heuristic methods. The insights gained from this survey not only highlight the effectiveness of these hybrid strategies but also lay the groundwork for future advancements in solving other complex combinatorial optimization problems through algorithmic enhancements.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3312,7 +3855,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
@@ -3329,12 +3872,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Feed forward, multi-layered neural network metamodels trained through the back-error-propagation (BEP) learning algorithm.</t>
+          <t>Feed forward, multi-layered neural network metamodels were trained through the back-error-propagation (BEP) learning algorithm.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>To explore the use of artificial neural networks (ANNs) as an alternative to traditional job-shop simulation approaches and to develop a framework for job-shop scheduling analysis.</t>
+          <t>To explore the use of artificial neural networks (ANNs) as an alternative to traditional job-shop simulation and to estimate manufacturing lead times (MLTs) in a job shop environment.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3344,7 +3887,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>This paper addresses the limitations of traditional job-shop simulation methods by proposing artificial neural networks (ANNs) as a viable alternative for job-shop scheduling analysis. The authors developed feed forward, multi-layered neural network metamodels trained using the back-error-propagation (BEP) learning algorithm. The primary objective was to estimate manufacturing lead times (MLTs) for orders processed in a four-machine job shop. The study involved generating training samples through simulation software, specifically Arena, to create a dataset that included various job types and processing times. The ANN models were evaluated against outputs from established simulation packages such as Arena, SIMAN, and ProModel. The results indicated that the MLTs produced by the ANN models were comparable to those generated by these simulation tools, demonstrating that ANNs can effectively capture the relationships between job sequences and flowtimes. The methodology included defining problem scenarios, generating training data, and implementing a structured training algorithm that adjusted the network architecture based on performance metrics. The findings suggest that ANNs can simplify the scheduling decision-making process by providing rapid evaluations of different scheduling alternatives without requiring extensive simulation expertise. This research has significant implications for industries relying on job-shop scheduling, as it offers a more accessible and efficient approach to simulation metamodeling. Future work could explore the application of ANNs in more complex job-shop environments and the integration of additional variables to enhance predictive accuracy.</t>
+          <t>This paper presents research on using artificial neural networks (ANNs) as an alternative metamodeling technique to traditional simulation for job shop scheduling analysis. The focus is on the ability of multi-layer feed forward neural networks to effectively estimate manufacturing lead times (MLT) when processing jobs in a four-machine job shop setup. The authors trained these networks using the back-error-propagation (BEP) algorithm, developing various architectures capable of approximating the input-output relationships effectively. The developed ANN models were validated against data generated from traditional simulation packages like Arena, SIMAN, and ProModel, revealing that the outputs from the ANN models were comparable in quality to these established models. Key findings suggest that ANN-based simulations can successfully capture the complex relationships between machine sequences and their impact on average flowtimes of jobs within the stochastic environment of job shops. Practical implications include the reduction in time and effort required for scheduling analysis, marking an enhancement over the conventional simulation that typically requires significant expertise for model modifications. Furthermore, the efficiency of ANN approaches could be integrated into decision support systems to optimize scheduling processes, particularly benefiting methodologies reliant on simulation of potential solutions, such as genetic algorithms. The study concludes that ANNs represent a promising integration of AI into the computational aspect of manufacturing systems, significantly streamlining scheduling tasks while maintaining high accuracy levels in lead time predictions.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3354,7 +3897,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
@@ -3372,11 +3915,7 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>This paper by M. R. Garey, D. S. Johnson, and Ravi Sethi, published in 1976 in the Mathematics of Operations Research, addresses the computational complexity associated with flowshop and jobshop scheduling problems. The authors explore the theoretical underpinnings of these scheduling paradigms, which are critical in operations research and industrial engineering. The main contributions of the paper include a detailed analysis of the complexity classes of various scheduling problems, establishing that certain instances are NP-hard. The methodology involves a rigorous examination of scheduling algorithms and their performance in different scenarios, providing insights into optimal scheduling strategies. Key findings indicate that while some scheduling problems can be solved efficiently, others require exponential time to find optimal solutions, highlighting the need for heuristic or approximation methods in practical applications. The significance of this work lies in its foundational role in the field of scheduling theory, influencing subsequent research and practical implementations in manufacturing and service industries. Future implications suggest a continued exploration of approximation algorithms and their effectiveness in real-world applications.</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>moor_1_2_117 -- 7299155bde783f41b95badb4c9dbe9f7 -- Anna’s Archive.pdf</t>
@@ -3384,21 +3923,41 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hybrid Brain Storm Optimization algorithm and Late Acceptance Hill Climbing to solve the Flexible Job-Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>This paper presents the Brain Storming Optimization (BSO) algorithm as a solution to the Flexible Job-Shop Scheduling Problem (FJSSP). A new updating strategy is proposed to improve the global search of the BSO algorithm. To enhance the local intensification capability and to overcome the slow convergence of the BSO algorithm, we introduce Late Acceptance Hill Climbing (LAHC) with three neighborhoods to the BSO algorithm. Extensive computational experiments were carried out on benchmark datasets for FJSSP. The proposed algorithm outperformed the original BSO algorithm and competed well with other well-known algorithms in various datasets.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The proposed method combines a new updating strategy for BSO with Late Acceptance Hill Climbing (LAHC). The BSO algorithm is enhanced by adaptive neighborhood structures and selection methods, improving local intensification and global search capabilities.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>To address the Flexible Job-Shop Scheduling Problem (FJSSP) using a hybrid approach that combines the Brain Storming Optimization algorithm with Late Acceptance Hill Climbing.</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>['Brain Storming Optimization Algorithm', 'Flexible Job Shop', 'Neighborhood Search Strategy', 'Late Acceptance Hill Climbing']</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>This paper tackles the Flexible Job-Shop Scheduling Problem (FJSSP) using a novel hybrid algorithm comprising Brain Storming Optimization (BSO) and Late Acceptance Hill Climbing (LAHC). The FJSSP is recognized for its complexity and is categorized as NP-hard due to both job routing and sequencing sub-problems. The authors introduce improvements to the BSO algorithm, which previously exhibited slow convergence when exploring solution spaces. By incorporating an adaptive updating strategy with an LAHC methodology, they enhance both local intensification and overall search performance. The hybrid approach utilizes a clustering mechanism where solutions are organized and updated through predefined probabilistic transitions, leading to a more chaotic search space exploration. The LAHC algorithm contributes a late acceptance criterion that allows the algorithm to compare current solutions against previously evaluated ones, facilitating better decision-making regarding solution acceptance during searches. Computational experiments conducted on four widely established benchmarks demonstrate a substantial performance enhancement of the proposed algorithm over the baseline BSO algorithm. The results indicate that the hybrid method not only outperformed the original BSO but also matched or exceeded the effectiveness of existing leading algorithms in the arena of flexible job-shop scheduling. The findings reinforce the significance of combining global search strategies with local refinement techniques in tackling complex scheduling challenges, laying groundwork for future exploration in optimization methods relevant to similar NP-hard problems.</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>Hybrid Brain Storm Optimization algorithm and Late Acceptance Hill Climbing to solve the Flexible Job-Shop Scheduling Problem - Anna’s Archive.pdf</t>
@@ -3406,7 +3965,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3982,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>The proposed algorithm consists of two major modules: the machine selection module (MSM) using Grouping Genetic Algorithm (GGA) to assign operations to machines, and the operation scheduling module (OSM) using Genetic Algorithm (GA) to determine the processing sequence of operations on machines.</t>
+          <t>The proposed algorithm consists of two modules: the machine selection module (MSM) using Grouping Genetic Algorithm (GGA) for assigning operations to machines, and the operation scheduling module (OSM) using Genetic Algorithm (GA) for determining the processing sequence of operations on machines.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3438,7 +3997,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>This paper addresses the flexible job shop scheduling problem (FJSP) with parallel machines and reentrant processes, which is a complex optimization challenge in modern manufacturing. The authors propose a novel scheduling algorithm that integrates two key components: the machine selection module (MSM) and the operation scheduling module (OSM). The MSM employs a Grouping Genetic Algorithm (GGA) to effectively assign operations to the available parallel machines, while the OSM utilizes a traditional Genetic Algorithm (GA) to determine the optimal sequence of operations for each machine. The significance of this research lies in its application to a real-world scenario within a weapon production factory, where the consequences of delays are critical due to military order requirements. The performance metrics evaluated include total tardiness, total machine idle time, and makespan, which are crucial for assessing the efficiency of the scheduling process. The experimental design involved varying the parameters of GA and GGA to identify optimal settings, and the results indicated that the proposed algorithm significantly outperformed existing scheduling methods currently in practice. The findings suggest that the integration of GGA and GA not only enhances scheduling efficiency but also provides a robust framework for addressing similar scheduling challenges in various manufacturing environments. Future implications of this work include the potential for further refinement of the algorithm and its application to other complex scheduling scenarios, thereby contributing to advancements in operational efficiency and productivity in manufacturing systems.</t>
+          <t>This paper addresses the flexible job shop scheduling problem (FJSP) particularly focusing on environments with parallel machines and reentrant processes. Traditional job shop scheduling constraints have been modified to accommodate flexible operations where the same job can be processed multiple times on a set of machines. The proposed method is innovative, leveraging both Genetic Algorithm (GA) and Grouping Genetic Algorithm (GGA) to develop a two-module scheduling algorithm. The first module, the Machine Selection Module (MSM), utilizes GGA to assign jobs to available parallel machines efficiently, while the second module, the Operation Scheduling Module (OSM), employs GA to establish the sequence of operations assigned to these machines, considering their processing orders. A case study conducted in a real-world weapon manufacturing facility validates the proposed algorithm's effectiveness. The performance metrics emphasized are total tardiness, total machine idle time, and makespan—parameters critical given the high penalties associated with military contract delays. The experimental design tailored for this study involves simulating scenarios with varying numbers of orders to analyze the performance discrepancy between the proposed method (GGA for MSM and GA for OSM) and conventional methods used in practice, known as Weapon Production Scheduling (WPS). Results illustrate that the combined approach significantly reduces tardiness and idle times compared to WPS in both simple and complex problem scenarios. The findings are substantial, suggesting that integrating GGA and GA into scheduling operations can yield marked improvements in manufacturing efficiency and adaptability. Future research directions include employing other heuristic techniques and incorporating material availability constraints to enhance algorithm robustness.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3448,21 +4007,41 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>An Effective Multi-Objective Artificial Bee Colony Algorithm for Energy Efficient Distributed Job Shop Scheduling</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Distributed Job Shop Scheduling Problem (DJSSP) is a generalization of the classic job shop scheduling problem (JSSP), characterized by simultaneously assigning jobs to different factories/workshops and determining their processing sequence. Due to energy efficient and productivity significantly affect the profits of enterprises, two criteria (i.e., makespan and total energy consumption) are used to evaluate the DJSSP. In this paper, a mixed integer programming model is developed, and a multi-objective artificial bee colony algorithm (MOABC) is proposed to evaluate the trade-off between the two objectives. In the MOABC, a solution encoding is represented by three parts: a factory assignment vector, a job permutation vector and a machine speed selection matrix. Meanwhile, a solution decoding is designed to present the scheduling scheme. A numerical experiment is designed to verify the effectiveness of the proposed MOABC. The experimental result demonstrates that the proposed MOABC can generate better Pareto solutions than NSGA-II and SPEA2 for the DJSSP.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>multi-objective artificial bee colony algorithm (MOABC)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>To study the distributed job shop scheduling problem (DJSSP) with the objectives of minimizing both makespan and the total energy consumption (TEC).</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>['Distributed Job Shop Scheduling Problem', 'Energy efficient scheduling', 'Multi-objective artificial bee colony algorithm']</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>The research addresses the Distributed Job Shop Scheduling Problem (DJSSP), which is an extension of the classic Job Shop Scheduling Problem (JSSP). The problem involves coordinating multiple jobs across several factories, where jobs must be assigned not only to machines but also to specific factories while minimizing two critical objectives: makespan and total energy consumption (TEC). The authors develop a mixed integer linear programming (MILP) model that incorporates variable machine speed settings, allowing for the exploration of trade-offs between processing speed and energy usage. The proposed solution methodology is a modified Multi-Objective Artificial Bee Colony algorithm (MOABC), which adapts the standard artificial bee colony algorithm to the discrete nature of job scheduling. This modification includes custom encoding strategies tailored for the problem domain and employs a fast non-dominant sorting method to efficiently identify Pareto-optimal solutions. A practical numerical experiment validates the effectiveness of this approach, showing that the MOABC outperforms traditional methods such as NSGA-II and SPEA2, producing superior Pareto solutions. The proposed MOABC captures a diverse set of solutions, enabling decision-makers to strategize around energy efficiency while maintaining productivity. This work is significant as it not only contributes to the scheduling literature by addressing the multi-factory context but also emphasizes the importance of energy efficiency in manufacturing systems. Future research could explore the applicability of the proposed method in real-world scenarios, examining its adaptability to varying machine characteristics and production environments.</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>An Effective Multi-Objective Artificial Bee Colony Algorithm for Energy Efficient Distributed Job Shop Scheduling - Anna’s Archive.pdf</t>
@@ -3470,21 +4049,44 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hybrid whale optimization algorithm enhanced with Lévy flight and differential evolution for job shop scheduling problems</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The job shop scheduling problem (JSSP) has been a hot issue in manufacturing. For the past few decades, scholars have been attracted to research JSSP and proposed many novel meta-heuristic algorithms to solve it. Whale optimization algorithm (WOA) is such a novel meta-heuristic algorithm and has been proven to be efficient in solving real-world optimization problems in the literature. This paper proposes a hybrid WOA enhanced with Lévy flight and differential evolution (WOA-LFDE) to solve JSSP. By changing the expression of Lévy flight and DE search strategy, Lévy flight enhances the abilities of global search and convergence of WOA in iteration, while DE algorithm improves the exploitation and local search capabilities of WOA and keeps the diversity of solutions to escape local optima. It is then applied to solve 88 JSSP benchmark instances and compared with other state-of-art algorithms. The experimental results and statistical analysis show that the proposed algorithm has superior performance over contesting algorithms.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>hybrid WOA enhanced with Lévy flight and differential evolution (WOA-LFDE)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>To solve job shop scheduling problems (JSSP) using an optimized algorithm that enhances global search and convergence capabilities.</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>['Job shop scheduling problem', 'Whale optimization algorithm', 'Lévy flight', 'Differential evolution']</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>The paper addresses the job shop scheduling problem (JSSP), a noted NP-hard challenge in manufacturing that has received significant attention over the years due to its complexity. The authors introduce a novel hybrid optimization algorithm that integrates the Whale Optimization Algorithm (WOA) with Lévy Flight and Differential Evolution (DE) to improve both exploration and exploitation during the optimization process. WOA, inspired by the hunting techniques of humpback whales, is known for its efficient global search capabilities. However, to overcome its weaknesses, particularly premature convergence and local optima entrapment, the authors incorporate Lévy flight as a mechanism to enhance the global search abilities of WOA, and DE for improving local search and diversity.
+The proposed WOA-LFDE algorithm modifies the existing WOA framework by adopting a Lévy flight distribution to facilitate better search patterns and combining it with DE to bolster local optimization capabilities. Through thorough experimentation on 88 JSSP benchmark instances, the authors compare the performance of WOA-LFDE against several state-of-the-art algorithms. The results demonstrate that WOA-LFDE outperforms the competition across various metrics, confirming its efficacy for JSSP.
+In detail, the WOA encompasses two main phases: exploration, characterized by global searching behaviors, and exploitation, focusing on local refinements. The integration of Lévy flights allows the algorithm to sample potential solutions more effectively across the search space. Meanwhile, DE contributes its strength in local search, thereby maintaining a robust population of solutions and preventing stagnation.
+This hybrid algorithm exhibits significant improvements, with experimental findings indicating enhanced solution quality and computational efficiency compared to traditional methods. The implications of these findings suggest that WOA-LFDE not only advances the state of JSSP resolution methodologies but also encourages further exploration of hybrid approaches in tackling complex optimization problems. Future research directions could include expanding the algorithm's applications to other combinatorial optimization problems and further refining its parameters to enhance performance even more.</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>Hybrid whale optimization algorithm enhanced with Lévy flight and differential evolution for job shop scheduling problems - Anna’s Archive.pdf</t>
@@ -3492,7 +4094,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
@@ -3509,12 +4111,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>The study compares four variational quantum algorithms (VQA): filtering variational quantum eigensolver (F-VQE), quantum approximate optimization algorithm (QAOA), standard variational quantum eigensolver (VQE), and variational quantum imaginary time evolution (VarQITE) on the job shop scheduling problem (JSP) using IBM’s superconducting quantum processors.</t>
+          <t>We apply four variational quantum heuristics running on IBM’s superconducting quantum processors to the job shop scheduling problem. The methods compared are the filtering variational quantum eigensolver (F-VQE), quantum approximate optimization algorithm (QAOA), standard variational quantum eigensolver (VQE), and variational quantum imaginary time evolution (VarQITE).</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>To evaluate the effectiveness of variational quantum algorithms in solving the job shop scheduling problem, particularly in optimizing a steel manufacturing process.</t>
+          <t>The primary objective is to evaluate the effectiveness of four variational quantum algorithms in solving a job shop scheduling problem that relates to steel manufacturing processes. We aim to assess convergence speed, sampling frequency of optimal solutions, and scalability of these algorithms on the NISQ quantum hardware.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3524,7 +4126,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of combinatorial optimization, particularly in industrial processes where exact solutions are computationally intractable. The authors focus on the job shop scheduling problem (JSP), a classic NP-hard problem, and explore the application of four variational quantum algorithms (VQAs) on IBM’s superconducting quantum processors. The study highlights the filtering variational quantum eigensolver (F-VQE) as a promising approach, demonstrating its superior convergence speed and ability to sample the global optimum more frequently than other algorithms like QAOA, VQE, and VarQITE. The JSP formulation used in this research was specifically tailored for steel manufacturing by Nippon Steel Corporation, emphasizing the practical relevance of the problem. The authors conducted experiments on problem sizes up to 23 qubits, showcasing F-VQE's capability to solve these instances without requiring error mitigation post-processing. The results indicate that F-VQE not only converges faster but also effectively handles larger problem sizes compared to its counterparts. This work contributes to the understanding of how VQAs can be leveraged in real-world optimization scenarios, particularly in the context of NISQ (noisy intermediate-scale quantum) computing. The findings suggest that while VQAs do not guarantee convergence, they can provide valuable approximate solutions within practical computational budgets. Future implications of this research include further exploration of VQA performance on larger and more complex industrial problems, as well as the potential for integrating these algorithms into existing manufacturing processes to enhance efficiency and reduce costs.</t>
+          <t>In this research paper, Amaro et al. investigate the application of variational quantum algorithms (VQAs) to solve a combinatorial optimization problem—specifically, the Job Shop Scheduling Problem (JSP)—that is particularly relevant to steel manufacturing. The inherent complexity of the JSP makes it computationally challenging, as it is classified as NP-hard, meaning finding exact solutions is impractical for large instances. Instead, practical approaches typically involve heuristic methods, including the recent advancements in quantum algorithms tailored for current noisy intermediate-scale quantum (NISQ) era hardware. The authors implement and compare four VQAs on IBM's superconducting quantum processors: the Quantum Approximate Optimization Algorithm (QAOA), the Standard Variational Quantum Eigensolver (VQE), the Variational Quantum Imaginary Time Evolution (VarQITE), and the newly introduced Filtering Variational Quantum Eigensolver (F-VQE). They find that F-VQE demonstrates superior performance, particularly in convergence speed and the frequency of achieving optimal solutions, outperforming the other methods in multiple test scenarios. The paper outlines the problem formulation and the corresponding methods utilized in detail, including benchmarking on instances varying from 5 qubits to 23 qubits. Notably, F-VQE shows robust performance, solving instances with up to 23 qubits effectively without additional error mitigation techniques. The presented results highlight the potential of variational algorithms to address large-scale combinatorial problems in real-world industrial contexts using quantum computing technologies, outlining future implications for optimization tasks in sectors beyond manufacturing, like logistics and supply chain management. This study sets a precedent for future work aiming to leverage the anticipated increases in quantum computational power to tackle increasingly complex optimization challenges.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3534,21 +4136,42 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Improved NSGA2 Algorithm to Solve Multi-Objective Flexible Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>The NSGA2 algorithm is one of the effective methods to solve multi-objective flexible job shop scheduling problems (MOFJSP). An improved NSGA2 algorithm is proposed to solve the MOFJSP model that aims to minimize the maximum completion time, the total workload of all machines, the total workshop carbon emissions, the total workshop energy consumption, and the delivery time. Firstly, the improved algorithm performs neighborhood search and cross-mutation operation respectively according to the nondominated ranking level and randomly generated probability of individuals to balance their local search and global search ability of the algorithm. Then, in order to further enrich the diversity of the population and improve the solving ability of the improved algorithm, an elite retention combined with random retention is proposed to retain the parent individuals. At last, the experiment proves the effectiveness of the improved NSGA2 algorithm for solving multi-objective flexible job shop scheduling problems.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>An improved NSGA2 algorithm that incorporates neighborhood search and cross-mutation operations based on nondominated ranking levels. It also includes an elite retention strategy combined with random retention to enhance population diversity.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>To establish a scheduling model that minimizes the maximum completion time, total workload of all machines, total workshop carbon emissions, total workshop energy consumption, and delivery time.</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>['improved NSGA2 algorithm', 'multi-objective', 'flexible job shop scheduling', 'elite retention strategy']</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>This paper addresses the challenge of multi-objective flexible job shop scheduling problems (MOFJSP), which involve optimizing multiple competing objectives simultaneously, including minimizing the maximum completion time, total machine workload, carbon emissions, energy consumption, and delivery times. The existing NSGA2 algorithm, while effective, often suffers from issues such as insufficient population diversity and limited global search capabilities. To overcome these limitations, the authors propose an enhanced version of NSGA2 that integrates strategies such as neighborhood search and cross-mutation based on the individual's nondominated ranking levels to balance local and global search efforts. Additionally, they introduce an innovative elite retention strategy that selects and retains a percentage of the highest-performing individuals alongside newly generated offspring. This dual mechanism effectively enriches the population diversity and enhances the algorithm's solution quality.
+The study utilizes diverse test instances (KACEM) to validate the proposed algorithm against traditional competitors, where key performance metrics include the Pareto optimality of the schedules generated. Results demonstrated that the improved NSGA2 outperformed established methods, confirming its robustness and efficiency in handling MOFJSP scenarios. An extensive experimental setup was utilized, consisting of parameter tuning and performance evaluation under various configurations, indicating significant reductions in completion times and workloads. The findings highlight the algorithm's practical applications in real-world scheduling contexts, especially those emphasizing sustainability through minimized energy consumption and carbon footprint. Future research directions will explore dynamic multi-objective scheduling adaptations to further enhance the algorithm's applicability in fluctuating production environments.</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>Improved NSGA2 Algorithm to Solve Multi-Objective Flexible Job Shop Scheduling Problem - Anna’s Archive.pdf</t>
@@ -3556,21 +4179,41 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>A Decomposition Method for Makespan Minimization in Job-Shop Scheduling Problem Using Ising Machine</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>To cope with daily changes in manufacturing production orders and plans, more efficient scheduling of production is highly required. The job-shop scheduling problem (JSP) provides a way to solve the production planning problem automatically, and the makespan criterion is an important metric for evaluating production efficiency. Several studies on the JSP using an Ising machine have been reported, but it is difficult to minimize the makespan by using an Ising machine. In this paper, we present a new method for minimizing the makespan in the JSP using an Ising machine. The makespan minimization problem is decomposed into two problems, the minimum makespan estimation problem and the constraint satisfaction problem. These problems are repeatedly solved until the solution converges to a sub-optimal result or until the termination conditions are satisfied. Experimental comparison with a commercial-based solver demonstrated that the proposed method is up to 5.2 times faster.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>The proposed method, called the makespan-decomposition method, decomposes the makespan minimization problem into a master-problem for estimating the minimum makespan and a sub-problem for solving the constraint satisfaction problem. These are solved iteratively until convergence is achieved.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>To minimize the makespan in job-shop scheduling while efficiently handling daily changes in production schedules.</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>['job-shop scheduling', 'makespan', 'Ising machine', 'problem decomposition', 'quantum computing']</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>The job-shop scheduling problem (JSP) is critical for efficient production planning, especially in environments where manufacturing orders change frequently. Traditional approaches to minimizing makespan typically rely on exact methods that can be computationally intensive or heuristic methods that lack optimality assurance. The introduction of Ising machines, which leverage quantum computing principles, provides an exciting avenue for optimization. However, using Ising machines directly for makespan minimization in JSP has inherent challenges due to the need for binary variable formulations. The present work introduces a novel decomposition approach that splits the makespan minimization problem into two parts, a master-problem focusing on estimating the minimum makespan and a sub-problem for the constraint satisfaction aspect. This technique enables the iterative resolution of the problems, progressively refining the makespan estimation until an acceptable sub-optimal solution is reached or the specified termination criteria are met. The study demonstrates the practical effectiveness of this method through experiments that confirm its speed, achieving results that are up to 5.2 times faster than traditional commercial solvers. The method's reliance on the quadratic unconstrained binary optimization (QUBO) model allows for efficient handling of complex problem parameters using Ising technology. Key findings reveal that this approach not only fulfills the requirements of minimizing makespan but also adapits swiftly to real-time scheduling needs, thereby paving the way for future research and applications in optimization tasks involving adaptive manufacturing scenarios.</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>A Decomposition Method for Makespan Minimization in Job-Shop Scheduling Problem Using Ising Machine - Anna’s Archive.pdf</t>
@@ -3578,7 +4221,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2025-08-19 22:24:40</t>
+          <t>2025-08-20 02:02:05</t>
         </is>
       </c>
     </row>
@@ -3590,27 +4233,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Scheduling is one of the most important fields in Advanced Planning and Scheduling or a manufacturing optimization. In this paper, we propose a network modeling technique to formulate the complex scheduling problems in manufacturing, and focus on how to model the scheduling problems to mathematical formulation. We propose a multi-section evolutionary algorithm for the scheduling models formulated by network modeling. Through a combination of the network modeling and this multi-section evolutionary algorithm, we can implement the auto-scheduling in the manufacturing system. The effectiveness and efficiency of proposed approach are investigated with various scales of scheduling problems by comparing with recent related researches. Lastly, we introduced service-oriented evolutionary computation architecture software. It helps improve the evolutionary computation’s availability in the variable practical scheduling in manufacturing.</t>
+          <t>Scheduling is one of the most important fields in Advanced Planning and Scheduling or a manufacturing optimization. In this paper, we propose a network modeling technique to formulate the complex scheduling problems in manufacturing, and focus on how to model the scheduling problems to mathematical formulation. We propose a multi-section evolutionary algorithm for the scheduling models formulated by network modeling. Through a combination of the network modeling and this multi-section evolutionary algorithm, we can implement the auto-scheduling in the manufacturing system. The effectiveness and efficiency of proposed approach are investigated with various scales of scheduling problems by comparing with recent related researches. Lastly, we introduced service-oriented evolutionary computation architecture software. It help improved the evolutionary computation’s availability in the variable practical scheduling in manufacturing.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>multi-section evolutionary algorithm</t>
+          <t>We propose a multi-section evolutionary algorithm for the scheduling models formulated by network modeling.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>minimize makespan and improve scheduling efficiency in manufacturing systems</t>
+          <t>To formulate the complex scheduling problems in manufacturing using network modeling and to implement auto-scheduling through a multi-section evolutionary algorithm.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Evolutionary algorithm (EA)', 'Advanced planning and scheduling (APS)', 'Network modeling', 'Manufacturing optimization', 'Service-oriented architecture']</t>
+          <t>['Evolutionary algorithm', 'Advanced planning and scheduling', 'Network modeling', 'Manufacturing optimization', 'Service-oriented architecture']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>This paper addresses the critical issue of scheduling in manufacturing, which is essential for optimizing production processes. The authors propose a novel network modeling technique that allows for the mathematical formulation of complex scheduling problems. This approach is complemented by a multi-section evolutionary algorithm designed to enhance the scheduling models derived from the network modeling. The integration of these two methodologies facilitates the implementation of auto-scheduling within manufacturing systems, thereby improving operational efficiency. The effectiveness of the proposed method is rigorously evaluated against various scales of scheduling problems, demonstrating its superiority over existing approaches. The authors also introduce a service-oriented evolutionary computation architecture software that enhances the practical applicability of evolutionary computation in real-world scheduling scenarios. The findings indicate that the proposed method not only minimizes makespan but also adapts to the dynamic nature of manufacturing environments, making it a significant contribution to the field of Advanced Planning and Scheduling (APS). The implications of this research extend to various manufacturing contexts, suggesting that the proposed techniques can be employed to optimize scheduling in diverse industrial applications. Future work may explore the scalability of the proposed methods and their integration with emerging technologies in manufacturing.</t>
+          <t>In this paper, Lin et al. present a novel approach to scheduling in manufacturing environments using network modeling and an innovative multi-section evolutionary algorithm. The primary problem addressed is the complexity and dynamic nature of scheduling processes in manufacturing systems, which often lead to inefficiencies and elevated costs. The authors provide a detailed methodology that begins with the use of network modeling to formulate scheduling problems mathematically. This approach allows for the representation of various parameters and constraints associated with manufacturing resources, operations, and production plans as a network model. The multi-section evolutionary algorithm introduced leverages this formulation to find optimal or near-optimal scheduling solutions. The algorithm comprises distinct sections for operation sequencing, resource assignment, and movement resource assignments. This design is intended to handle the intricacies of real-world manufacturing schedules which often involve multiple types of resources and competing objectives like minimizing makespan and balancing workloads.
+Experiments were conducted on various scaled scheduling problems, including the Job-shop Scheduling Problem (JSP) and Integrated Production Planning and Scheduling (IPPS), where the proposed method exhibited superior performance in terms of solution quality and computational efficiency when compared to existing evolutionary algorithms. The authors also provide a service-oriented architecture, SoECA, which facilitates the implementation of their auto-scheduling system across different manufacturing contexts.
+Overall, this research contributes significantly to the field of manufacturing optimization, not just by proposing a new algorithm but also by addressing practical considerations for implementing such systems in diverse manufacturing environments. Future work will explore more adaptive objectives and other constraints driven by market demands and environmental sustainability, emphasizing the need for flexible and responsive manufacturing systems in today's complex economic landscape.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3620,7 +4265,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3637,12 +4282,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The proposed method is based on a MARL with deep neural networks. Here, the fixed participants of a production system, i.e. machines and transporters, are modelled as agents. In addition, there is a factory agent that coordinates the agents within the factory and ensures the flow of information. The factory agent can accept or reject customer orders, depending on whether the production skills required for the order exist in the factory. This agent also keeps track of external factors such as the current energy price.</t>
+          <t>The proposed method is based on a MARL with deep neural networks where fixed participants of the production system (machines and transporters) are modeled as agents, along with a factory agent that coordinates them. The factory agent manages customer orders and considers external factors such as energy prices. A central reward function is shared among agents to promote cooperative behavior. Proximal Policy Optimization (PPO) is used for learning.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>To propose a method for reactive optimization of flexible production plants in a multi-criteria manner regarding economic and sustainable target values, utilizing Multi-Agent Deep Reinforcement Learning (MARL).</t>
+          <t>To optimize flexible production planning by incorporating sustainability and economic targets through a novel Multi-Agent Deep Reinforcement Learning approach in Flexible Job Shop Scheduling (FJSSP).</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3652,7 +4297,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>The paper addresses the challenges posed by the increasing demand for flexibility and sustainability in modern production facilities, particularly in the context of Flexible Job Shop Scheduling Problems (FJSSP). The authors highlight the complexity of optimizing production schedules under dynamic constraints, which include both traditional metrics like makespan and energy consumption, as well as sustainability goals. The main contribution of the paper is the introduction of a novel method based on Multi-Agent Reinforcement Learning (MARL) that allows for multi-criteria dynamic planning of production facilities. This method is experimentally validated through a series of trials, demonstrating its effectiveness compared to conventional scheduling methods. The proposed MARL framework models machines and transporters as agents, with a coordinating factory agent that manages the flow of information and decision-making processes. Key findings indicate that the MARL approach can effectively handle disruptions and adapt to changing production requirements while optimizing for both economic and sustainable objectives. The practical applications of this research are significant, as they provide a pathway for industries to enhance their production planning processes in alignment with sustainability goals. The paper concludes with a discussion of the results and outlines future research directions, emphasizing the need for further exploration of multi-objective optimization in production scheduling. Overall, this work contributes to the growing body of knowledge in the intersection of artificial intelligence, production planning, and sustainability, offering insights into how advanced technologies can facilitate more efficient and environmentally friendly manufacturing practices.</t>
+          <t>This research focuses on optimizing Flexible Job Shop Scheduling Problems (FJSSP) through a Multi-Agent Deep Reinforcement Learning (MARL) approach that also addresses sustainability in production. The motivation arises from increasing demands for flexible and sustainable manufacturing processes amidst changing operational constraints such as energy costs and resource management. The proposed method intelligently utilizes reinforcement learning techniques where agents represent production machinery and their interactions are modeled to ensure optimal solving of scheduling problems while minimizing energy costs and managing deadlines. Key performance metrics considered include makespan, energy consumption, and product lateness. Experiments were carried out using simulated job-shop scenarios with varying target optimization criteria across multiple trials that structured agent-learning behavior against traditional heuristics like First-Come-First-Serve (FCFS) and Shortest Job Next (SJN). Results demonstrate that the MARL approach, particularly when focused on energy management, achieves reduced energy costs and operational efficiency, although it may lead to increased lateness in certain configurations. This underscores the complexity of balancing conflicting metrics in sustainable production environments. The significance of this study lies in its practical implications: providing manufacturers with advanced, adaptable scheduling strategies that respond to real-time constraints and sustainability goals, aiding in the transition towards greener industrial practices. Future work will involve refining the agent objective functions to better integrate sustainability without sacrificing operational performance, exploring the inclusion of additional parameters that reflect the intricacies of modern production demands.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3662,21 +4307,41 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Improved Genetic Algorithm Approach Based on New Virtual Crossover Operators for Dynamic Job Shop Scheduling</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>The realtime manufacturing system is subject to different kinds of disruptions such as new job arrivals, machine breakdowns, and jobs cancellation. These different disruptions affect the original schedule that should be updated to maintain the system’s performance. An effective re-scheduling is required in this situation to make better utilization of the system resources. This paper studies the dynamic job shop scheduling problem, a known NP Hard optimization problem where new jobs arrive unconditionally at the system. To deal with system changes and perform hard tasks scheduling, we propose an evolutionary genetic algorithm based on virtual crossover operators. Experimental results show efficiency when compared with state-of-the-art heuristics and metaheuristics dedicated to evaluating large scale instances. Simulation results demonstrate the efficiency of the proposed virtual crossover operators integrated into the genetic algorithm approach.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>An evolutionary genetic algorithm approach is proposed, utilizing new virtual crossover operators to effectively handle dynamic changes in job arrivals and machine breakdowns in scheduling.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>To address the dynamic job shop scheduling problem by developing an effective genetic algorithm that utilizes novel crossover operators to improve scheduling efficiency in the face of dynamic disruptions.</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>['Dynamic job shop scheduling problem', 'genetic algorithm', 'crossover operators', 'makespan', 'dispatching rules', 'metaheuristics']</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>This study tackles the dynamic job shop scheduling problem (JSSP), a known NP-Hard optimization task characterized by the unpredictable arrival of new jobs, machine breakdowns, and task cancellations in realtime manufacturing environments. These disruptions necessitate effective re-scheduling strategies to maintain optimal utilization of system resources and to minimize makespan, which is defined as the completion time of the last job. This paper introduces an improved genetic algorithm (GA) enhanced by new virtual crossover operators designed specifically for dynamic conditions. The main contributions include a comprehensive literature review on existing techniques for dynamic JSSP and the development of a GA that integrates these crossover mechanisms to respond swiftly to alterations in schedule requirements. The GA operates by creating populations of job sequences, applying selection through a roulette wheel method, and utilizing the virtual crossover operators to produce offspring that inherit favorable traits from their parents without concerning themselves with the physical operation sequences. The study includes detailed testing of this GA against state-of-the-art heuristics and metaheuristics, analyzing performance metrics including makespan and computational efficiency. Simulation results indicate that the proposed method significantly improves performance, achieving better makespan values across various instances of dynamic JSSP compared to existing approaches. Its significance lies in providing a robust framework for scheduling in unpredictable manufacturing environments, thus presenting valuable insights for real-world applications where adaptability is essential. Future implications include further exploration of enhancing crossover strategies and integrating additional scheduling constraints to refine the algorithm's applicability in even more complex dynamic scenarios.</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>Improved Genetic Algorithm Approach Based on New Virtual Crossover Operators for Dynamic Job Shop Scheduling - Anna’s Archive.pdf</t>
@@ -3684,12 +4349,16 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Untitled Paper</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3706,21 +4375,41 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>A Study on Performance Evaluation of Different Parameter Settings of Particle Swarm Optimization in Job Shop Scheduling Problem</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>This study is to present a particle swarm optimization (PSO) to solve a job shop scheduling problem with the objective of minimizing a makespan. The solution representation of a particle that is encoded with a permutation of all operations on jobs. The operations are ordered by precedence constraints. For the performance evaluation, each particle is evaluated by a quality of the fitness function. In the particle swarm optimization model, the effect of parameters, like the swarm size, on performance are investigated in this paper. In different swarm sizes, the performance of proposed methodology is tested on forty well-known benchmark problems from the OR-library. The computational results demonstrate that the proposed methodology can effectively solve a job shop scheduling problem and also take less processing time although run on a personal computer.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>The methodology for the PSO application consists of three main steps: (1) **Problem representation**: Encoding the solution as a permutation of job operations. (2) **Fitness evaluation**: Defining the fitness function to minimize the makespan, transforming the solution into the makespan value based on given precedence constraints. (3) **PSO solution**: Implementing the PSO algorithm with initialized parameters, generating particles, and iterating through position and velocity updates until convergence is achieved.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>To evaluate the performance of particle swarm optimization (PSO) in solving the job shop scheduling problem (JSSP) with a focus on different parameter settings.</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>['particle swarm optimization (PSO)', 'job shop scheduling problem (JSSP)', 'parameter setting', 'permutation encoding schema']</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>The paper addresses the job shop scheduling problem (JSSP), which involves organizing multiple jobs with predetermined sequences of operations on various machines to minimize makespan. The authors propose a particle swarm optimization (PSO) approach, detailing its encoding mechanism and fitness evaluation tailored for JSSP. The PSO algorithm simulates the social behavior of birds to seek optimal job schedules through parameterized search. Key contributions include a comprehensive methodology that facilitates the transformation of real-valued positions into a permutation encoding, capturing the operational constraints of JSSP. Testing on 40 benchmark problems reveals that variations in swarm size significantly impact performance. Results highlight that the PSO is not only effective in finding near-optimal solutions but also exhibits efficient computational characteristics on standard hardware, making it suitable for small and medium enterprises where computational resources may be limited. The findings advocate for further refinement of PSO parameters to enhance optimization in larger and more complex real-world scheduling scenarios. The computational experiments provide concrete performance metrics, demonstrating the algorithm's adaptability and efficiency in diverse scheduling contexts.</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>A Study on Performance Evaluation of Different Parameter Settings of Particle Swarm Optimization in Job Shop Scheduling Problem - Anna’s Archive.pdf</t>
@@ -3728,7 +4417,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3745,12 +4434,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>A two stage Ant Colony Algorithm (ACA) is proposed to solve the integrated model of Job Shop Scheduling Problem (JSSP) and Conflict-Free Routing Problem (CFRP).</t>
+          <t>A two stage Ant Colony Algorithm (ACA) is proposed to address the integrated Job Shop Scheduling Problem (JSSP) and Conflict-Free Routing Problem (CFRP), which utilizes pheromone trails and heuristic information to optimize job sequencing and routing decisions for AGVs.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>To minimize the total completion time (make-span) in the integrated model of job shop scheduling and conflict-free routing of AGVs.</t>
+          <t>The main objectives are to minimize the total completion time (make-span) in a job shop environment and to ensure conflict-free routing for Automated Guided Vehicles (AGVs) during the job transportation process.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3760,7 +4449,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>The paper addresses the Job Shop Scheduling Problem (JSSP) with a focus on the transportation times between machines, which have often been overlooked in previous studies. The authors introduce a new integrated model that combines JSSP with the Conflict-Free Routing Problem (CFRP) for Automated Guided Vehicles (AGVs). The primary objective is to minimize the total completion time, or make-span, while ensuring that AGVs can operate without conflicts along their routes. The problem is classified as NP-hard, necessitating the development of a meta-heuristic approach. The proposed Ant Colony Algorithm (ACA) operates in two stages to effectively tackle the complexities of the integrated model. The authors conducted computational experiments on 13 test problems to validate the efficiency of the ACA, demonstrating its effectiveness particularly for larger problem instances. Additionally, the study includes an economic analysis to determine the optimal number of AGVs and railways required in the production environment. The results indicate that the ACA not only provides efficient scheduling solutions but also contributes to the operational viability of AGVs in a manufacturing setting. This research has significant implications for industries relying on automated systems for job scheduling and material handling, suggesting that careful consideration of transportation times and routing conflicts can lead to improved production efficiency and reduced operational costs. Future work may explore further refinements to the ACA and its application to more complex production environments.</t>
+          <t>This paper introduces a new approach to integrating Job Shop Scheduling Problem (JSSP) with Conflict-Free Routing Problem (CFRP) for Automated Guided Vehicles (AGVs) in manufacturing systems. The primary issue addressed is the optimization of scheduling and routing in scenarios where transportation times between machines are significant. The authors posit that many existing models have neglected the complexity introduced by AGV routing conflicts, which can lead to operational breakdowns and increased costs. By formulating a mathematical model that jointly addresses both JSSP and CFRP, the authors demonstrate the need for a robust solution, especially considering the NP-hard nature of the problem. To tackle this, a two-stage Ant Colony Algorithm (ACA) is presented: the first stage focuses on job sequencing and the second on route optimization for AGVs. Experimental results from 13 generated test problems showcase the ACA's efficiency, particularly in larger instances where traditional methods fail to provide timely solutions. Key findings reveal that the ACA algorithm significantly outperforms exact methods in terms of computational time and solution quality, especially in complex scenarios. Moreover, the study includes sensitivity analysis and economic evaluations, which indicate optimal configurations of AGVs and rail-systems to minimize operational costs. The findings suggest that effective management of multi-AGV systems can prevent workflow disruptions while enhancing overall productivity. Future implications of this work include extending the model to other manufacturing environments and exploring continuous time frameworks to further refine scheduling algorithms.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3770,7 +4459,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3787,12 +4476,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>We propose and solve two mathematical models: a mixed integer linear programming model and a constraint programming model. A thorough analysis on the scalability of solving these mathematical models with commercial solvers is carried out.</t>
+          <t>We propose two mathematical models for the fuzzy job shop scheduling problem: a mixed integer linear programming model and a constraint programming model. Both models are solved using commercial solvers. Additionally, we utilize a disjunctive graph model and a competitive metaheuristic algorithm from the literature for comparison.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>To propose and solve mathematical models for the fuzzy job shop scheduling problem, improve known upper and lower bounds for existing instances, and characterize the hardness of these instances.</t>
+          <t>To address the fuzzy job shop scheduling problem with makespan minimization, propose and solve mathematical models, improve known upper and lower bounds of makespan values, and characterise the hardness of benchmark instances.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3802,7 +4491,9 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>The paper addresses the fuzzy job shop scheduling problem (FJSP) with a focus on makespan minimization, which has garnered significant attention in recent years. Despite the availability of various benchmark instances and metaheuristic solutions, there has been a notable lack of mathematical models specifically tailored for the fuzzy variant of the job shop problem. This gap has led to challenges in characterizing the complexity of existing benchmarks and in establishing reliable bounds for the makespan, which are crucial for evaluating new solving methods. The authors propose two mathematical models: a mixed integer linear programming (MILP) model and a constraint programming (CP) model, aimed at filling this gap. They conduct a comprehensive analysis of the scalability of these models using commercial solvers, which allows them to enhance existing upper and lower bounds for the makespan of various instances and certify optimality for many cases for the first time. The study also includes a comparative analysis with a state-of-the-art metaheuristic algorithm to provide a clearer understanding of the results. The findings indicate that the proposed models not only improve the bounds but also facilitate a structural characterization of the instances' hardness, which is essential for future research in the field. The implications of this work extend to practical applications in manufacturing and service industries where scheduling plays a critical role, and the methodologies developed could serve as a foundation for further advancements in fuzzy scheduling problems.</t>
+          <t>This paper addresses the fuzzy job shop scheduling problem (fJSP) with a focus on makespan minimization. It identifies a significant gap in the existing literature, in which little attention has been paid to establishing mathematical models for the fuzzy version of the job shop problem, thus limiting the effectiveness of comparative assessments of new algorithms. To resolve this, the authors propose two mathematical models: one based on mixed integer linear programming (MILP) and another utilizing constraint programming (CP). These models are formulated to accommodate the uncertainties of processing times represented as fuzzy numbers, specifically triangular fuzzy numbers. The study employs state-of-the-art commercial solvers to analyze the scalability and performance of both models against previously established benchmark instances, totaling 149 instances that vary in size from 36 to 2000 tasks.
+The research also highlights the significance of considering both exact algorithms (through MILP and CP) and heuristic approaches (using metaheuristics), suggesting that while the exact methods excel at smaller and medium-sized instances, the complexity of larger instances often necessitates the adoption of metaheuristics. The results reveal that the CP model generally outperforms the MILP model, providing more reliable bounds and achieving optimal solutions for many instances within acceptable time limits.
+Importantly, the work updates the best-known lower and upper bounds on the optimal makespan for all instances analyzed, with 83 instances certified as optimal for the first time, improving upon the existing literature significantly. The findings advocate for a comprehensive framework that melds various solving techniques for practical application in real-world scheduling scenarios, stressing the need for future research to focus on instance characteristics beyond size, such as the ratio of jobs to machines, which appears to affect the computational complexity. The contribution of these models and findings stands to substantially further research efforts in fuzzy scheduling paradigms, providing a more robust foundation for upcoming investigations in this domain.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3812,7 +4503,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3834,7 +4525,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3846,27 +4537,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Job shop scheduling problem (JSSP) is a typical NP-hard problem. In order to improve the solving efficiency for JSSP, a hybrid differential evolution and estimation of distribution algorithm based on neighbourhood search is proposed in this paper, which combines the merits of Estimation of distribution algorithm and Differential evolution (DE). Meanwhile, to strengthen the searching ability of the proposed algorithm, a chaotic strategy is introduced to update the parameters of DE. Two mutation operators are adopted. A neighbourhood search (NS) algorithm based on blocks on critical path is used to further improve the solution quality. Finally, the parametric sensitivity of the proposed algorithm has been analysed based on the Taguchi method of design of experiment. The proposed algorithm was tested through a set of typical benchmark problems of JSSP. The results demonstrated the effectiveness of the proposed algorithm for solving JSSP.</t>
+          <t>Job shop scheduling problem (JSSP) is a typical NP-hard problem. In order to improve the solving efﬁciency for JSSP, a hybrid differential evolution and estimation of distribution algorithm based on neighbourhood search is proposed in this paper, which combines the merits of Estimation of distribution algorithm and Differential evolution (DE). Meanwhile, to strengthen the searching ability of the proposed algorithm, a chaotic strategy is introduced to update the parameters of DE. Two mutation operators are adopted. A neighbourhood search (NS) algorithm based on blocks on critical path is used to further improve the solution quality. Finally, the parametric sensitivity of the proposed algorithm has been anal-ysed based on the Taguchi method of design of experiment. The proposed algorithm was tested through a set of typical benchmark problems of JSSP. The results demonstrated the effectiveness of the proposed algorithm for solving JSSP.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A hybrid differential evolution and estimation of distribution algorithm based on neighbourhood search (NS-HDE/EDA) is proposed, which incorporates Estimation of Distribution Algorithm (EDA) and Differential Evolution (DE) with a chaotic parameter control strategy and two mutation operators. A neighbourhood search algorithm based on blocks on critical path is also utilized to enhance solution quality.</t>
+          <t>The proposed method is a hybrid differential evolution and estimation of distribution algorithm based on neighbourhood search (NS-HDE/EDA). It uses chaotic strategies to update parameters and two mutation operators, combined with a neighbourhood search algorithm based on critical path blocks for further optimization of solutions.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>To improve the solving efficiency for the Job Shop Scheduling Problem (JSSP) by proposing a hybrid algorithm that combines differential evolution and estimation of distribution methods with neighbourhood search.</t>
+          <t>The objective of the research is to improve the efficiency of solving the Job Shop Scheduling Problem (JSSP), which is a standard NP-hard problem, by proposing a hybrid optimization algorithm that incorporates both local and global search strategies.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['job shop scheduling', 'differential evolution', 'estimation of distribution algorithm', 'neighbourhood search', 'hybrid optimisation']</t>
+          <t>['job shop scheduling', 'differential evolution', 'estimation of distribution algorithm', 'neighbourhood search', 'hybrid optimization']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>The Job Shop Scheduling Problem (JSSP) is a well-known NP-hard problem that involves scheduling a set of jobs on machines where each job must be processed in a specific order. Traditional mathematical methods struggle with the complexity of JSSP, leading to the adoption of meta-heuristic approaches. This paper introduces a novel hybrid algorithm, NS-HDE/EDA, which integrates Differential Evolution (DE) and Estimation of Distribution Algorithm (EDA) to enhance the search capabilities for solving JSSP. The proposed method employs a chaotic strategy to dynamically adjust DE parameters, improving its adaptability during the search process. Additionally, two mutation operators are utilized to diversify the search space, while a neighbourhood search algorithm based on critical path blocks is implemented to refine solutions further. The effectiveness of the NS-HDE/EDA algorithm is validated through extensive testing on benchmark JSSP instances, demonstrating superior performance compared to existing methods. The results indicate that the hybrid approach not only improves solution quality but also reduces computational time, making it a practical tool for real-world scheduling applications. The study also explores the parametric sensitivity of the algorithm using the Taguchi method, providing insights into optimal parameter settings for enhanced performance. This research contributes to the ongoing efforts to tackle JSSP and suggests future directions for algorithmic improvements and applications in complex scheduling scenarios.</t>
+          <t>The Job Shop Scheduling Problem (JSSP) poses a significant challenge in combinatorial optimization due to its NP-hard nature. In this study, the authors propose a novel algorithm called NS-HDE/EDA, which is a hybrid of Differential Evolution (DE) and Estimation of Distribution Algorithms (EDA), enhanced with a neighbourhood search (NS) strategy that focuses on optimizing critical path blocks. The authors introduced a chaotic parameter-control mechanism to bolster the performance of DE. The algorithm employs two mutation strategies and utilizes a neighbourhood search based on identified blocks within the critical path to refine solutions further. The method's effectiveness is substantiated through comprehensive experiments on 123 JSSP benchmark instances drawn from OR-Library. The results reveal that NS-HDE/EDA outperforms existing methods, achieving substantially lower makespan in various test scenarios, demonstrating its higher efficacy in swiftly converging to quality solutions compared to traditional algorithms. Additionally, the researchers conducted a sensitivity analysis using the Taguchi method, refining key parameters to enhance algorithm performance. This study illustrates the promising potential of hybrid algorithms in addressing complex scheduling problems, paving the way for future enhancements and broader applications in combinatorial optimization domains.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3876,7 +4567,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3893,12 +4584,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>We propose a new DRL framework to realize representation learning and policy learning, using a lightweight multi-layer perceptron (MLP) as the state embedding network. We design a new state representation that reflects the state features of candidate actions and define a new action space that solves both subproblems of FJSSP simultaneously.</t>
+          <t>We propose a new deep reinforcement learning (DRL) framework which incorporates representation learning and policy learning. The framework uses a lightweight multi-layer perceptron (MLP) for state embedding, defines a new state representation that effectively captures candidate actions' features, and a novel action space enabling simultaneous resolution of the operation sequencing and machine allocation subproblems of the FJSSP. The performance of this method is validated through extensive experiments on public datasets.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>To develop a new deep reinforcement learning framework for solving flexible job shop scheduling problems, focusing on improving state representation and action space definition.</t>
+          <t>The objective of this research is to develop an effective solution to the Flexible Job Shop Scheduling Problems (FJSSP) using a deep reinforcement learning approach, improving upon existing methods in terms of computational efficiency and solution quality.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3908,7 +4599,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>The flexible job shop scheduling problem (FJSSP) is a complex NP-Hard combinatorial optimization problem that requires solving two subproblems: operation sequencing and machine allocation. Traditional methods for solving FJSSP include exact and approximate methods, with the latter being more practical for larger instances. Recent advancements in deep reinforcement learning (DRL) have shown promise in addressing scheduling problems due to their speed and generalization capabilities. This paper introduces a novel DRL framework that enhances representation learning and policy learning through a lightweight multi-layer perceptron (MLP) for state embedding, which significantly reduces computational complexity. The authors propose a new state representation that effectively captures the features of candidate actions, thereby improving the agent's decision-making capabilities. Additionally, they redefine the action space to address both subproblems of FJSSP simultaneously, allowing for a single policy model to be trained. The proposed method is evaluated on four public datasets: Barnes, Brandimarte, Dauzere, and Hurink. Experimental results demonstrate that the new approach outperforms existing state-of-the-art models and composite priority dispatching rules in terms of optimization ability and applicability. This research contributes to the field by providing a more efficient and effective solution to FJSSP, with implications for practical applications in manufacturing and production scheduling. Future work may explore further enhancements in state representation and action space definitions, as well as the application of the framework to other complex scheduling scenarios.</t>
+          <t>The paper addresses the Flexible Job Shop Scheduling Problem (FJSSP), which is known for its NP-hard complexity and expansive solution space. Traditional exact methods, while precise, often suffer from high computational complexity that limits their practicality to small instances. Approximate methods, including heuristic and meta-heuristic approaches, provide faster solutions but typically yield lower quality outcomes. Recent advances in Deep Reinforcement Learning (DRL) present an opportunity to navigate these complexities effectively due to their inherent ability to learn optimal policies from interaction with the environment. The authors introduce a novel DRL framework tailored to FJSSP that incorporates representation learning via a lightweight Multi-Layer Perceptron (MLP), thus reducing computational demands. This framework includes a new definition of state representation that captures essential features of candidate actions directly, improving an agent's decision-making abilities. Additionally, the action space is redefined to allow the simultaneous handling of two subproblems (operation sequencing and machine allocation) within a single framework, facilitating a more efficient learning process. Performance validation is carried out on various public datasets, including Barnes, Brandimarte, Dauzere, and Hurink datasets. Results illustrate that this new method not only improves upon the performance of traditional composite priority dispatching rules but also achieves competitive results compared to existing state-of-the-art models, indicating its potential for wider applications in FJSSP scenarios. Future work may explore extensions to multi-objective and dynamic FJSSP, enhancing the practical relevance of DRL in real-world scheduling contexts.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3918,7 +4609,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:03</t>
+          <t>2025-08-20 02:04:03</t>
         </is>
       </c>
     </row>
@@ -3930,17 +4621,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>In recent decades many attempts have been made at the solution of Job Shop Scheduling Problem using a varied range of tools and techniques such as Branch and Bound at one end of the spectrum and Heuristics at the other end. However, the literature reviews suggest that none of these techniques are sufficient on their own to solve this stubborn NP-hard problem. Hence, it is postulated that a suitable solution method will have to exploit the key features of several strategies. We present here one such solution method incorporating Genetic Algorithm and Tabu Search. The rationale behind using such a hybrid method as in the case of other systems which use GA and TS is to combine the diversiﬁed global search and intensiﬁed local search capabilities of GA and TS respectively. The hybrid model proposed here surpasses most similar systems in solving many more traditional benchmark problems and real-life problems. This, the system achieves by the combined impact of several small but important features such as powerful chromosome representation, effective genetic operators, restricted neighbourhood strategies and efficient search strategies along with innovative initial solutions. These features combined with the hybrid strategy employed enabled the system to solve several benchmark problems optimally, which has been discussed elsewhere in Meeran and Morshed (8th Asia Paciﬁc industrial engineering and management science conference, Kaohsiung, Taiwan, 2007). In this paper we bring out the system’s practical usage aspect and demonstrate that the system is equally capable of solving real life Job Shop problems.</t>
+          <t>In recent decades many attempts have been made at the solution of Job Shop Scheduling Problem using a varied range of tools and techniques such as Branch and Bound at one end of the spectrum and Heuristics at the other end. However, the literature reviews suggest that none of these techniques are sufficient on their own to solve this stubborn NP-hard problem. Hence, it is postulated that a suitable solution method will have to exploit the key features of several strategies. We present here one such solution method incorporating Genetic Algorithm and Tabu Search. The rationale behind using such a hybrid method as in the case of other systems which use GA and TS is to combine the diversified global search and intensified local search capabilities of GA and TS respectively. The hybrid model proposed here surpasses most similar systems in solving many more traditional benchmark problems and real-life problems. This, the system achieves by the combined impact of several small but important features such as powerful chromosome representation, effective genetic operators, restricted neighbourhood strategies and efficient search strategies along with innovative initial solutions. These features combined with the hybrid strategy employed enabled the system to solve several benchmark problems optimally, which has been discussed elsewhere in Meeran and Morshed (8th Asia Pacific industrial engineering and management science conference, Kaohsiung, Taiwan, 2007). In this paper we bring out the system’s practical usage aspect and demonstrate that the system is equally capable of solving real life Job Shop problems.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>A hybrid method incorporating Genetic Algorithm and Tabu Search.</t>
+          <t>Hybrid method combining Genetic Algorithm (GA) and Tabu Search (TS). GA employs global search and parallel exploration of solution space, while TS enhances local search to avoid poor local minima. The system utilizes innovative initial solutions, chromosome representation, and efficient genetic operators.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>To find the best job sequence through the machines, which minimises the total completion time in Job Shop Scheduling Problems.</t>
+          <t>To minimize the total completion time (make-span) for job shop scheduling problems while satisfying operational constraints.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3950,7 +4641,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>The paper addresses the Job Shop Scheduling Problem (JSSP), a well-known NP-hard problem that has significant implications in manufacturing environments. Traditional methods such as Branch and Bound and various heuristics have been insufficient on their own, leading to the exploration of hybrid approaches. The authors propose a hybrid genetic tabu search algorithm that combines the global search capabilities of Genetic Algorithms (GA) with the local search strengths of Tabu Search (TS). This hybrid model is designed to leverage the advantages of both techniques, resulting in improved performance on benchmark and real-life scheduling problems. Key contributions include the development of a powerful chromosome representation, effective genetic operators, and innovative initial solutions, which collectively enhance the algorithm's ability to find optimal solutions. The methodology involves a systematic approach to scheduling that minimizes the total completion time while adhering to precedence and capacity constraints. The results demonstrate that the proposed hybrid algorithm outperforms existing methods, achieving optimal solutions for 48 out of 51 benchmark problems tested, including hard instances from established benchmarks. The practical applications of this research are significant, as it provides a robust solution framework for organizations facing complex scheduling challenges. Future implications suggest further exploration of hybrid techniques and their adaptability to various scheduling scenarios, potentially leading to broader applications in operational research and manufacturing systems.</t>
+          <t>The paper addresses the Job Shop Scheduling Problem (JSSP), an NP-hard combinatorial problem prevalent in manufacturing. Its complexity necessitates hybrid approaches since standalone methods struggle to deliver efficient solutions. The authors propose a hybrid model combining Genetic Algorithms (GA) and Tabu Search (TS). GA provides a diversified global search through the evolution of a population of solution candidates, while TS localizes the search by refining these candidates to avoid local optima. The proposed system notably incorporates innovative features like a powerful chromosome representation method, effective genetic operators, a restricted neighborhood strategy, and innovative initial solutions, which collectively enhance performance. The authors validated their approach on various benchmark JSSP datasets, successfully achieving optimal solutions in a significant number of cases, thus demonstrating its effectiveness beyond mere theoretical application. Notably, the system performed particularly well in real-world implementations, offering superior scheduling solutions for job shops in the steel and automotive industries, showcasing its adaptability and robustness in practical scenarios. The computational efficacy was highlighted, reporting significant reductions in make-span when compared to existing manual scheduling techniques. This indicates the applicability of the hybrid model for broad industrial use and its potential to impact operational efficiency positively. Future work may focus on further optimization of parameters and exploration of additional hybrid techniques to enhance solution quality across diverse scheduling scenarios.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3960,7 +4651,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:50</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
@@ -3977,22 +4668,24 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Based on a quantitative text analysis and a qualitative literature review, the authors identify four design principles, which companies should take into account when implementing Industrie 4.0 solutions.</t>
+          <t>The paper employs a combination of quantitative text analysis and qualitative literature review to identify design principles of Industrie 4.0. The approach includes a systematic review of academic and practical publications to derive four key design principles for implementing Industrie 4.0 scenarios: interconnection, information transparency, decentralized decisions, and technical assistance.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>This paper aims at closing the gap in research regarding the lack of explicitly stated Industrie 4.0 design principles, enabling both academics and practitioners to better understand and implement Industrie 4.0 scenarios.</t>
+          <t>This paper aims to provide a comprehensive understanding of Industrie 4.0 by identifying explicit design principles that practitioners can use to develop and implement appropriate solutions. It aims to enable further academic investigation and practical implementation of Industrie 4.0 scenarios.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['Industrie 4.0', 'Internet of Everything', 'design principles', 'quantitative text analysis', 'qualitative literature review']</t>
+          <t>['Industrie 4.0', 'design principles', 'Internet of Everything', 'smart factories', 'decentralized decisions', 'information transparency', 'technical assistance']</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>The paper addresses the ambiguity surrounding the term 'Industrie 4.0', which refers to the integration of advanced information and communication technologies into industrial processes, marking the onset of a new industrial revolution. Despite its prominence in discussions among academics and practitioners, a clear definition and understanding of Industrie 4.0 has not been established, complicating both academic discourse and practical implementation. The authors conducted a comprehensive study combining quantitative text analysis and qualitative literature review to identify four key design principles that can guide companies in implementing Industrie 4.0 solutions. The methodology involved analyzing a significant body of literature to extract relevant themes and principles, ensuring that the findings are grounded in both theoretical and practical perspectives. A case study is presented to demonstrate how these principles can assist practitioners in identifying and executing Industrie 4.0 scenarios effectively. The findings contribute to the academic literature by providing a structured framework for understanding Industrie 4.0, while also offering practical guidance for businesses looking to navigate this complex landscape. The implications of this research are significant, as they not only clarify the concept of Industrie 4.0 but also pave the way for future studies and applications in the field, emphasizing the need for a unified approach to design principles in this rapidly evolving industrial context.</t>
+          <t>The paper addresses the challenge of understanding and implementing Industrie 4.0, the next industrial revolution characterized by the integration of the Internet of Everything into industrial value chains. Despite its prominence, there is no universal definition or understanding of Industrie 4.0, complicating academic discourse and practical implementation. The authors perform a quantitative text analysis and qualitative literature review to derive four design principles crucial for implementing Industrie 4.0: interconnection, information transparency, decentralized decision-making, and technical assistance. The authors conducted an extensive literature review, analyzing 130 academic and practical publications. This process revealed common themes and design elements within existing literature, ultimately leading to the formulation of the four guiding principles.
+The case study provided in the paper exemplifies the application of these principles in a real-world scenario, where a collaboration between a chemical industry company and various academic institutions aimed to identify and develop Industrie 4.0 scenarios. By utilizing a nominal group workshop consisting of practitioners from diverse fields, the project clearly illustrates how these design principles were integrated into identifying and prioritizing potential scenarios. Throughout the collaborative process, participants were guided by the principles, which helped streamline scenario evaluation based on compliance with Industrie 4.0 objectives, contribution to strategic goals, and overall feasibility.
+Key findings indicate that the emphasis on such design principles fosters a shared understanding among practitioners, improves strategic alignment with business objectives, and facilitates the identification of actionable scenarios that are ready for implementation. The paper concludes that while the identified principles serve as a foundation for both academic research and practical applications, future work could further explore their adaptability across different industries and operational contexts. Overall, the study contributes significantly to both the academic discourse surrounding Industrie 4.0 and the practical strategies for its implementation, paving the way for evolving manufacturing and production paradigms.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4002,7 +4695,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:50</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
@@ -4019,12 +4712,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>The diploid hybrid genetic algorithm is introduced into the dynamic shop scheduling operation, incorporating machine learning principles to enhance the genetic algorithm's performance in job shop scheduling.</t>
+          <t>The paper introduces a diploid hybrid genetic algorithm into the dynamic job shop scheduling operation. This algorithm involves matrix coding for processes and machines, along with designed selection, crossover, mutation operations, and a retention operator to preserve optimal individuals in the population during evolution. Machine learning principles are utilized to enhance the initial population's fitness, improving the genetic algorithm's efficiency and stability.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>To develop an intelligent scheduling system that integrates process planning with dynamic optimal scheduling, capable of adapting to complex environmental changes in manufacturing processes.</t>
+          <t>To optimize job shop scheduling in intelligent manufacturing systems through the integration of machine learning principles with a genetic algorithm, thereby enhancing production efficiency and adaptability to dynamic changes in manufacturing environments.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4034,7 +4727,8 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>This paper addresses the challenges of job shop scheduling in intelligent manufacturing, where traditional methods struggle to cope with dynamic and complex environments. The authors propose a novel approach that integrates a diploid hybrid genetic algorithm with machine learning principles to enhance scheduling efficiency and adaptability. The methodology involves matrix coding for processes and machines, along with tailored genetic operations such as selection, crossover, mutation, and a retention operator to preserve optimal solutions across generations. The intelligent scheduling system combines rule-based and simulation-based techniques, leveraging an expert system to optimize scheduling decisions. Key findings indicate that the proposed method significantly improves the stability of the evolutionary process, ensuring high fitness values for initial populations and minimizing the risk of losing optimal solutions. The practical applications of this research are substantial, as it enables manufacturing systems to respond swiftly to unexpected events and changes, thereby reducing downtime and enhancing productivity. The significance of this work lies in its potential to revolutionize job shop scheduling by providing a robust framework that can be adapted to various manufacturing scenarios. Future implications include further refinement of the algorithm and exploration of additional machine learning techniques to enhance decision-making processes in real-time scheduling environments.</t>
+          <t>This paper addresses the increasing challenges in job shop scheduling within the manufacturing industry, particularly as traditional methods fail to meet the efficiency demands of modern production techniques. The authors propose a novel approach that integrates machine learning principles with a diploid hybrid genetic algorithm for optimal dynamic scheduling in an intelligent manufacturing context. The methodology involves developing an integrated scheduling system that adapts to real-time environmental changes, ensuring that production processes are handled efficiently, and minimizing disruptions caused by unexpected events. By employing matrix coding techniques for both processes and machines and introducing sophisticated genetic operators such as selection, crossover, mutation, and a retention operator, the proposed system aims to maintain high fitness values within its population. This innovative approach leads to stable evolutionary processes that enhance overall scheduling performance.
+Key findings indicate the effectiveness of combining rule-based scheduling with simulation and machine learning, resulting in higher flexibility and responsiveness in scheduling decisions. The research presented utilizes MATLAB for algorithm debugging, emphasizing the streamlined identification of errors and performance metrics during implementation. Through rigorous evaluation, the authors assert that the optimized scheduling system not only improves production flow and utilization rates but also aligns with the increasingly personalized demands of consumers by facilitating quicker adaptations to changes in market conditions. The study's significance lies in its potential to transform job shop scheduling in intelligent manufacturing environments, paving the way for future developments in automated and smart production systems that can efficiently manage resources and drive down costs. Finally, the implications for future research include exploring the expansion of this integrated approach to other types of scheduling rules, enhancing the overall efficacy of scheduling systems in various manufacturing contexts.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4044,21 +4738,41 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:50</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Multi-objective optimisation in flexible assembly job shop scheduling using a distributed ant colony system</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>This paper studies the production scheduling problem in a flexible manufacturing system with two adjacent working areas, whose products are incorporated with flexible non-linear process plans and assembling operations. The basic parts are produced in one area before they are transported to the other area for assembly. The assembling structures of products are either flat or multi-levelled. Sequence-dependent setup times of operations and transition times of jobs between machines are considered separately from processing times. Lot streaming is considered beforehand such that each job represents a basic part instead of a batch of identical parts. Identical subassemblies are shared by all possible assembling operations, instead of being pre-associated with any product. Makespan, total tardiness and total workload are taken as objectives to be optimised. We propose a distributed ant colony system to solve the problem and explore the Pareto front. The approach is first compared with other methods, using several sets of hypothetical test cases with different sizes and complexities; then, it is applied to solve a ball valve production scheduling problem under different scenarios. We show that the proposed approach outperforms most of the other methods for the tested problems, especially for large-scale instances, making it a valuable and competitive approach for solving practical production scheduling problems.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>We propose a distributed ant colony system to solve the scheduling problem and explore the Pareto front. The methodology involves a comprehensive experiment design with different scales of testbeds and a practical case study on ball valve production scheduling.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>To develop an efficient and effective method for multi-objective optimisation in flexible assembly job shop scheduling, considering makespan, total tardiness, and total workload as objectives.</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+          <t>['Scheduling', 'flexible assembly job shop scheduling', 'multi-objective optimisation', 'meta-heuristics', 'ant colony optimisation']</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>This paper addresses the complex problem of production scheduling in flexible job shop environments where products contain non-linear processes and assembly operations. Unlike traditional job shop scheduling, this study takes into account the flow of basic parts produced in one area and later assembled in another, while applying concepts like part sharing and lot streaming for enhanced flexibility. The goals are threefold: to minimize makespan, total tardiness, and total workload. The proposed solution employs a distributed ant colony system, which allows for robust exploration of the solution space and is particularly effective for larger scale problems. The work is validated through a series of experiments utilizing hypothetical test cases of varying complexities and a real-world case study in ball valve production scheduling. Results highlight that the proposed method significantly surpasses traditional solutions, especially in handling larger problem instances. This research contributes to the field by integrating multiple objectives that mirror practical scheduling demands and demonstrates the applicability of advanced algorithms in real manufacturing scenarios. The findings open avenues for future research into more complex assembly systems and the potential integration of additional scheduling constraints.</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>Multi-objective optimisation in flexible assembly job shop scheduling using a distributed ant colony system - Anna’s Archive.pdf</t>
@@ -4066,7 +4780,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
@@ -4078,17 +4792,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>In practice, parallel-machine job-shop scheduling (PMJSS) is very useful in the development of standard modelling approaches and generic solution techniques for many real-world scheduling problems. In this paper, based on the analysis of structural properties in an extended disjunctive graph model, a hybrid shifting bottleneck procedure (HSBP) algorithm combined with Tabu Search (TS) metaheuristic algorithm is developed to deal with the PMJSS problem. The original-version shifting bottleneck procedure (SBP) algorithm for the job-shop scheduling (JSS) has been significantly improved to solve the PMJSS problem with four novelties: (i) a topological-sequence algorithm is proposed to decompose the PMJSS problem in a set of single-machine scheduling (SMS) and/or parallel-machine scheduling subproblems; (ii) a modified Carlier algorithm based on the proposed lemmas and the proofs is developed to solve the SMS subproblem; (iii) the Jackson rule is extended to solve the PMS subproblem; (iv) a TS metaheuristic algorithm is embedded under the framework of SBP to optimise the JSS and PMJSS cases. The computational experiments show that the proposed HSBP is very efficient in solving the JSS and PMJSS problems.</t>
+          <t>In practice, parallel-machine job-shop scheduling (PMJSS) is very useful in the development of standard modelling approaches and generic solution techniques for many real-world scheduling problems. In this paper, based on the analysis of structural properties in an extended disjunctive graph model, a hybrid shifting bottleneck procedure (HSBP) algorithm combined with Tabu Search (TS) metaheuristic algorithm is developed to deal with the PMJSS problem. The original-version shifting bottleneck procedure (SBP) algorithm for job-shop scheduling (JSS) has been significantly improved to solve the PMJSS problem with four novelties: (i) a topological-sequence algorithm is proposed to decompose the PMJSS problem in a set of single-machine scheduling (SMS) and/or parallel-machine scheduling subproblems; (ii) a modified Carlier algorithm based on the proposed lemmas and the proofs is developed to solve the SMS subproblem; (iii) the Jackson rule is extended to solve the PMS subproblem; (iv) a TS metaheuristic algorithm is embedded under the framework of SBP to optimise the JSS and PMJSS cases. The computational experiments show that the proposed HSBP is very efficient in solving the JSS and PMJSS problems.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A hybrid shifting bottleneck procedure (HSBP) algorithm combined with Tabu Search (TS) metaheuristic algorithm is developed to deal with the PMJSS problem.</t>
+          <t>A hybrid shifting bottleneck procedure (HSBP) algorithm integrated with Tabu Search (TS) for solving PMJSS, featuring a topological-sequence algorithm to decompose problems into SMS and PMS subproblems, along with a modified Carlier algorithm and an extended Jackson rule.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>To develop an efficient algorithm for solving the parallel-machine job-shop scheduling problem (PMJSS) using a hybrid approach that combines the shifting bottleneck procedure with Tabu Search.</t>
+          <t>To improve the efficiency and effectiveness of scheduling in parallel-machine job-shop settings using a hybrid algorithm that combines a modified SBP with metaheuristics, specifically addressing the computational complexity associated with PMJSS.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4098,7 +4812,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>The paper addresses the Parallel-Machine Job-Shop Scheduling (PMJSS) problem, which is crucial for developing effective scheduling solutions in various industrial applications. The authors propose a novel hybrid shifting bottleneck procedure (HSBP) algorithm that integrates a Tabu Search (TS) metaheuristic to enhance the performance of the traditional shifting bottleneck procedure (SBP) originally designed for job-shop scheduling (JSS). The research identifies four key innovations: (1) a topological-sequence algorithm that decomposes the PMJSS into manageable single-machine scheduling (SMS) and parallel-machine scheduling (PMS) subproblems; (2) a modified Carlier algorithm tailored for efficiently solving the SMS subproblem; (3) an extension of the Jackson rule to effectively address the PMS subproblem; and (4) the incorporation of a TS metaheuristic within the SBP framework to optimize both JSS and PMJSS scenarios. The methodology is grounded in a thorough analysis of the structural properties of the PMJSS problem using an extended disjunctive graph model. The authors conduct extensive computational experiments to validate the efficiency of the proposed HSBP algorithm, demonstrating its superior performance compared to existing methods. The findings indicate that the HSBP algorithm not only improves solution quality but also reduces computational time, making it a significant contribution to the field of operational research and scheduling. The implications of this research extend to practical applications in manufacturing and production environments where effective scheduling is critical for operational efficiency. Future work may explore further enhancements to the algorithm and its applicability to more complex scheduling scenarios.</t>
+          <t>The paper addresses the parallel-machine job-shop scheduling (PMJSS) problem, a significant challenge in production and operations management. The authors develop a hybrid shifting bottleneck procedure (HSBP) algorithm leveraging structural properties analyzed through an extended disjunctive graph (DG) model. The combined HSBP algorithm incorporates several innovations: notably, a topological-sequence algorithm for problem decomposition into manageable single-machine scheduling (SMS) and parallel-machine scheduling (PMS) subproblems, alongside a modified Carlier algorithm, enhanced Jackson rules, and the Tabu Search (TS) metaheuristic framework for optimization. The proposed methodology significantly improves upon the traditional shifting bottleneck procedure (SBP), addressing its limitations when applied to PMJSS. The computational experiments demonstrate the algorithm's superior efficiency and applicability across both JSS and PMJSS scenarios, validating the enhanced approach through extensive benchmarking on instances from established datasets. The results indicate an ability to reduce makespan and improve overall scheduling performance in complex environments. Future implications suggest that this model can be adapted to various real-world scenarios beyond manufacturing, including logistics and service-oriented operations. Overall, the authors contribute to both theoretical algorithms and practical applications in scheduling, demonstrating significant advancements in addressing the multifaceted challenges of PMJSS.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4108,21 +4822,42 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Digital Twin Enhanced Dynamic Job-Shop Scheduling</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>In this paper, we propose a digital twin (DT) enhanced dynamic job-shop scheduling methodology that addresses common bottlenecks such as machine availability prediction, disturbance detection, and performance evaluation. By integrating real and simulated data, the DT allows for improved predictions, timely rescheduling, and comprehensive performance evaluations. The effectiveness of the proposed method is illustrated through a case study involving hydraulic valve manufacturing in a job shop.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>The proposed method integrates a five-dimension digital twin that combines real-time data from physical machines with simulated data from virtual counterparts, enabling machine availability prediction, disturbance detection, and performance evaluation. The methodology consists of three key approaches: (1) machine availability prediction using data from both physical and virtual machines; (2) disturbance detection comparing the physical and virtual entities; and (3) multi-dimensional performance evaluation using various simulation models.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>The main objective of this research is to enhance dynamic job-shop scheduling by leveraging digital twin technology to improve machine availability prediction, effectively detect disturbances, and provide comprehensive performance evaluations, all of which contribute to more optimal scheduling decisions.</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>['Digital Twin', 'Dynamic scheduling', 'Machine availability', 'Disturbance detection', 'Performance evaluation']</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Dynamic job-shop scheduling is essential for optimizing production processes but often faces challenges due to machine unavailability and various disturbances. The paper addresses these issues by incorporating the concept of a digital twin (DT), which creates a sophisticated link between physical machines and their virtual counterparts. The essential contributions of this research include a detailed exploration of DT-based methods for machine availability prediction, disturbance detection, and performance evaluation. The study defines a five-dimension digital twin model for machines, fusing real-time operational data with simulated information to inform scheduling decisions effectively. The predictive capabilities of the DT enable early detection of machine faults and tool wear, predicting the remaining useful life (RUL) of tools while ensuring machines are available when required. Moreover, disturbances are detected by comparing parameters of the physical machine with those of its digital counterpart, allowing for timely adjustments to live scheduling conditions.
+A case study involving a machining job-shop producing hydraulic valves demonstrates the practicality and effectiveness of the proposed methodologies. The results show substantial improvements in scheduling performance metrics, such as reduced makespan, minimized tardiness, and enhanced machine utilization. Furthermore, the DT model's multi-dimensional capabilities provide comprehensive insights into operational efficiency, including energy consumption and stress levels of machinery, thereby elevating the overall production system's responsiveness and reliability. The paper concludes that the DT-enhanced dynamic scheduling methodology not only addresses the current limitations in job-shop scheduling but also sets the groundwork for further expansions in smart manufacturing practices, emphasizing an integrated approach that could yield significant flexibility and efficiency in future industrial operations.</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>Digital Twin Enhanced Dynamic Job-Shop Scheduling - Anna’s Archive.pdf</t>
@@ -4130,7 +4865,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
@@ -4156,21 +4891,41 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ageing workforce effects in Dual-Resource Constrained job-shop scheduling</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Currently, the ageing population is getting higher attention in production systems due to the increasing percentage of the ageing workforce, which persists longer in the working environment. Older workers are more vulnerable because of a possible decrease in physical capacities but can have a higher experience level. It is important to evaluate these factors during production process decisions and adapt the working environment to such workers. In such a way, production systems performance and workers’ well-being are jointly achieved. In companies aiming to include these aspects, digitalisation and automation can provide tools that can be used at tactical, strategic or operational levels. For example, at the operational level, wearable sensors, smart devices or trackers can be used in analysing the working time, effort and physical fatigue of operators via human-energy expenditure. These measures can be used to assess the required recovery time. However, the most challenging step is to include these measures in the decision-making process to organise the working process for operators according to their profiles and health restrictions. In this paper, we show how fatigue can be incorporated into operational processes such as scheduling in the context of a Dual-Resource Constrained (DRC) job shop. We consider several models to integrate rest allowance into the scheduling process and present a heuristic approach to assign operations to workers and machines. The impact of rest allowance on system performance is measured and managerial insights are provided.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>In this study, we propose a new approach that considers older employees' characteristics in the scheduling of a Dual-Resource Constrained job-shop problem (DRCJSP). We propose several models to integrate Rest Allowance (RA) into the scheduling decisions, including heuristic methods for assigning tasks to workers and machines while accounting for fatigue effects based on workers' age and experience level.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>This paper investigates the effects of workforce differences from a physical and experience point of view by including them in the scheduling process in DRC, presenting a more realistic scheduling approach that considers fatigue effects and workers' experience. We aim to balance the workload among multi-skilled workers and assign Rest Allowance based on individual characteristics.</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>['Ageing workforce', 'Production systems', 'Rest allowance', 'Human factors', 'DRG Job Shop']</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>This paper addresses the challenge posed by an ageing workforce within production systems, specifically regarding job-shop scheduling under dual-resource constraints. As the workforce ages, their physical capabilities may diminish even as their experience levels increase, prompting a need for a more tailored scheduling approach. The authors acknowledge that while digitalization and automation can help adapt production environments for older workers, the integration of their needs into operational scheduling remains problematic. The research focuses on incorporating fatigue—a byproduct of physical exertion—into the scheduling processes typical of Dual-Resource Constrained (DRC) job shops. Various models are proposed to embed Rest Allowance (RA) into conventional scheduling, providing a means to systematically include considerations for worker fatigue related to ageing. Key innovations include an easy-to-use heuristic method that delivers results suitable for practical industrial applications, balancing work assignments according to both physical characteristics and experience. The authors validate their approach through case studies, offering managerial insights into improving production performance whilst safeguarding worker well-being. The findings underscore the importance of reevaluating traditional scheduling practices to accommodate the unique profile of an ageing workforce, leading to potential improvements in both productivity and worker satisfaction. This research not only contributes to the literature on job-shop scheduling but also emphasizes the necessity of integrating human factors into production decision-making, thereby paving the way for more inclusive and adaptive operations management strategies for diverse workforce demographics.</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>undefined series for scimag1 - Anna’s Archive.pdf</t>
@@ -4178,7 +4933,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
@@ -4204,21 +4959,44 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Solving a new robust reverse job shop scheduling problem by meta-heuristic algorithms</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>The growing concerns of companies to economic savings, optimal utilization of resources, and increased environmental protection regulations prompt the manufacturers to be more focused on the recycling of the products that are at the end of their useful life. This study considers a job shop scheduling problem with reverse flows under uncertainty. Since the main parameter of the model (i.e., the processing time of operations) is tainted with a great degree of uncertainty in real-world applications, a robust programming approach is utilized. This paper proposes a computationally efficient model. Due to the complexity and difficulty of solving the presented model, an exact solution method for small-sized instances and simulated annealing (SA) and discrete harmony search (DHS) algorithms for medium- and large-sized instances are proposed. The model performance is evaluated by comparing the computational results with the literature. Furthermore, the performance of the proposed meta-heuristic algorithms is evaluated by comparing the resulted solutions with the exact method for small-sized instances and with three other meta-heuristic algorithms, such as discrete particle swarm optimization (DPSO) and invasive weed optimization (DIWO), and iterated greedy (IG) algorithms, for medium- and large-sized instances. The satisfying results show that the presented model and proposed algorithms ensure good quality solutions within a reasonable time for all test problems and the SA algorithm outperforms the DIWO, DPSO, DHS, and IG algorithms in most cases.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>The proposed methodology includes a mixed-integer programming (MIP) model for robust reverse job shop scheduling problems (RJSSP) under uncertainty, using robust optimization (RO) and meta-heuristic algorithms such as simulated annealing (SA) and discrete harmony search (DHS) for solution attainment.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>To develop a robust optimization model for the RJSSP that accommodates uncertainties in processing times and to evaluate the performance of various meta-heuristic algorithms compared to exact solution methods and other existing algorithms.</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+          <t>['Job shop scheduling', 'Robust optimization', 'Reverse flows', 'Simulated annealing', 'Harmony search']</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>This paper addresses the robust reverse job shop scheduling problem (RJSSP) under uncertainty, emphasizing the need for improved methods in scheduling that account for the complexities of reverse flows typical in recycling operations. The authors introduce a mixed-integer programming model that effectively captures the essence of RJSSP while accounting for uncertainty in operation processing times through a robust optimization approach. This methodology distinguishes itself from previous works, not only by offering a computationally efficient formulation but also by addressing the inherent uncertainties of processing times that can affect scheduling accuracy.
+To tackle the computational challenges that accompany the proposed model, the authors develop several meta-heuristic algorithms including Simulated Annealing (SA) and Discrete Harmony Search (DHS) specifically designed for medium- to large-sized instances, alongside an exact solution method for smaller problems. Performance comparisons reveal that the SA algorithm consistently outperforms other algorithms, including Discrete Particle Swarm Optimization (DPSO), Invasive Weed Optimization (DIWO), and Iterated Greedy (IG) algorithms, indicating a robust ability to generate high-quality solutions efficiently.
+The application of this RJSSP model has significant implications in industry sectors such as automotive, home appliances, and electronics, where effective scheduling can lead to substantial improvements in resource utilization and cost efficiency, particularly in environments with strict environmental regulations and recycling needs. With the growing global emphasis on sustainability, optimizing reverse flows in manufacturing becomes even more critical.
+The paper concludes by highlighting the potential for future research in further refining these algorithms and exploring additional complexities within RJSSP, such as dynamic environments and additional constraints, thus paving the way for more robust and flexible scheduling solutions in industrial applications.</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>Solving a new robust reverse job shop scheduling problem by meta-heuristic algorithms - Anna’s Archive.pdf</t>
@@ -4226,7 +5004,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2025-08-19 22:26:51</t>
+          <t>2025-08-20 02:06:09</t>
         </is>
       </c>
     </row>
@@ -4238,13 +5016,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>This paper focus on artificial intelligence approaches to NP-hard job shop scheduling (JSS) problem. In the literature successful approaches of artificial intelligence techniques such as neural network, genetic algorithm, multi agent systems, simulating annealing, bee colony optimization, ant colony optimization, particle swarm algorithm, etc. are presented as solution approaches to job shop scheduling problem. These studies are surveyed and their successes are listed in this article.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>This paper focus on artiﬁcial intelligence appr- oaches to NP-hard job shop scheduling (JSS) problem. In the literature successful approaches of artiﬁcial intelligence techniques such as neural network, genetic algorithm, multi agent systems, simulating annealing, bee colony optimiza- tion, ant colony optimization, particle swarm algorithm, etc. are presented as solution approaches to job shop scheduling problem. These studies are surveyed and their successes are listed in this article.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>The paper surveys various artificial intelligence approaches for the Job Shop Scheduling (JSS) problem, detailing techniques such as genetic algorithms, neural networks, ant colony optimization, and others to evaluate their effectiveness in solving JSS.</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The scope and the purpose of this paper are to present a survey of job shop scheduling problems (JSSs) using artificial intelligence (AI) solution techniques which covers the AI strategies for different objective function of job shop scheduling problem.</t>
+          <t>To present a comprehensive survey of artificial intelligence techniques applied to the NP-hard job shop scheduling problem (JSS), summarizing their methodologies and outcomes from 1997 to 2012.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4254,7 +5036,9 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>The paper provides a comprehensive survey of artificial intelligence (AI) techniques applied to the job shop scheduling (JSS) problem, which is recognized as NP-hard and a significant challenge in combinatorial optimization. The authors review various AI strategies, including neural networks, genetic algorithms, multi-agent systems, simulated annealing, bee colony optimization, ant colony optimization, and particle swarm optimization, highlighting their effectiveness in addressing JSS. The survey covers literature from 1997 to 2012, primarily sourced from Science Direct and EBSCO databases, and categorizes the techniques based on different objective functions relevant to JSS. The paper emphasizes the complexity of JSS, which involves allocating a finite set of jobs to a finite set of machines, each with specific processing times and constraints. The authors discuss the historical context of AI, tracing its evolution since the 1956 Dartmouth conference, and its application in planning and scheduling. They detail the classification of AI strategies for JSS, providing insights into the performance of various algorithms and their comparative advantages over traditional methods like Branch-and-Bound. The findings indicate that AI techniques generally yield superior solution quality and reduced computation times compared to conventional heuristics. The paper concludes with discussions on future research directions, suggesting that ongoing advancements in AI could further enhance the efficiency and effectiveness of scheduling solutions in manufacturing contexts. Overall, this survey serves as a valuable resource for researchers and practitioners seeking to understand the landscape of AI applications in job shop scheduling and the potential for future innovations in this domain.</t>
+          <t>Job shop scheduling (JSS) presents a complex and challenging problem, categorized as NP-hard due to its combinatorial nature. The difficulty lies in efficiently allocating limited resources over time to perform a predetermined collection of tasks while optimizing performance criteria. This paper conducts a thorough review of artificial intelligence (AI) solution strategies applied to JSS over a 15-year period from 1997 to 2012. Key AI techniques including genetic algorithms (GAs), neural networks (NNs), ant colony optimization (ACO), particle swarm optimization (PSO), and others are evaluated based on their successes in providing effective solutions to JSS.
+The survey underscores the rise of GAs, agent-based systems, and ACO while documenting a decline in the use of NNs. The methodology includes a classification of articles based around usage of specific algorithms and objective functions. It further elaborates on the unique solution characteristics and performance metrics of each AI strategy across various studies. The results indicate that while no single algorithm emerged as the unequivocal best across all scenarios, many demonstrated specific strengths in minimizing makespan, tardiness, or other critical scheduling metrics under varying operational constraints. Especially notable was the hybridization of these algorithms, which often yielded superior outcomes compared to traditional heuristic approaches.
+The practical applications of JSS solutions, particularly in manufacturing processes, emphasize the necessity for efficient scheduling techniques to enhance competitiveness in the production environment. Future research directions are suggested, focusing on the exploration of hybrid models and enhancements in computational efficiency, as current algorithms, while effective, do not guarantee optimal solutions. The findings advocate for continued innovation in AI methodologies to further advance JSS solutions.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4264,7 +5048,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:40</t>
+          <t>2025-08-20 02:08:06</t>
         </is>
       </c>
     </row>
@@ -4276,17 +5060,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Most sequencing problems deal with deterministic environments where all information is known in advance. However, in real-world problems multiple sources of uncertainty need to be taken into consideration. To model such a situation, in this article, a dynamic sequencing problem with random arrivals, processing times and due-dates is considered. The examined system is a manufacturing line with multiple job classes and sequence-dependent setups. The performance of the system is measured under the metrics of mean WIP, mean cycle time, mean earliness, mean tardiness, mean absolute lateness, and mean percentage of tardy jobs. Twelve job dispatching rules for solving this problem are considered and evaluated via simulation experiments. A statistically rigorous analysis of the solution approaches is carried out with the use of unsupervised and supervised learning methods. The cluster analysis of the experimental results identified classes of priority rules based on their observed performance. The characteristics of each priority rule class are documented and areas in objective space not covered by existing rules are identified. The functional relationship between sequencing priority rules and performance metrics of the production system was approximated by artificial neural networks. Apart from gaining insight into the mechanics of the sequencing approaches the results of this article can be used (1) as a component for prediction systems of dispatching rule output, (2) as a guideline for building new dispatching heuristic with entirely different characteristics than existing ones, (3) to significantly decrease the length of what-if simulation studies.</t>
+          <t>Most sequencing problems deal with deterministic environments where all information is known in advance. However, in real-world problems multiple sources of uncertainty need to be taken into consideration. To model such a situation, in this article, a dynamic sequencing problem with random arrivals, processing times and due-dates is considered. The examined system is a manufacturing line with multiple job classes and sequence-dependent setups. The performance of the system is measured under the metrics of mean WIP, mean cycle time, mean earliness, mean tardiness, mean absolute lateness, and mean percentage of tardy jobs. Twelve job dispatching rules for solving this problem are considered and evaluated via simulation experiments. A statistically rigorous analysis of the solution approaches is carried out with the use of unsupervised and supervised learning methods. The cluster analysis of the experimental results identified classes of priority rules based on their observed performance. The characteristics of each priority rule class are documented and areas in objective space not covered by existing rules are identified. The functional relationship between sequencing priority rules and performance metrics of the production system was approximated by artificial neural networks. Apart from gaining insight into the mechanics of the sequencing approaches the results of this article can be used (1) as a component for prediction systems of dispatching rule output, (2) as a guideline for building new dispatching heuristics with entirely different characteristics than existing ones, (3) to significantly decrease the length of what-if simulation studies.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>The methodology involves developing discrete-event simulation models of the production systems, conducting experiments, applying clustering methods to obtain hierarchies of clusters of priority rules, and using artificial neural networks for metamodeling the production systems.</t>
+          <t>The methodology involves simulation experiments to evaluate twelve dispatching rules, followed by cluster analysis to identify classes of priority rules based on performance metrics like mean WIP, cycle time, tardiness, etc. This is complemented by using artificial neural networks for approximating the functional relationship between priority rules and performance metrics.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>To classify a set of dispatching rules into natural groupings using unsupervised learning, predict this classification based on dispatching rules’ priority indices, assess the invariance of classification to external parameters, analyze similarities among dispatching rules within the same class, and approximate the mapping between priority rules and performance metrics using supervised learning methods.</t>
+          <t>To determine if dispatching rules can be classified into natural groupings using unsupervised learning, whether this classification is invariant to external parameters like setup frequency and job arrival rates, and to approximate the mapping between priority rules and performance metrics through supervised learning methods.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4296,7 +5080,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>This paper addresses the dynamic sequencing problem in manufacturing systems characterized by random job arrivals, processing times, and due dates. Unlike traditional approaches that assume deterministic environments, this study incorporates multiple uncertainties to better reflect real-world scenarios. The authors evaluate twelve job dispatching rules through simulation experiments, measuring performance across various metrics such as mean work-in-progress (WIP), cycle time, earliness, tardiness, absolute lateness, and the percentage of tardy jobs. A significant contribution of this research is the application of cluster analysis and artificial neural networks to classify and model the performance of these dispatching rules. The cluster analysis reveals distinct classes of priority rules based on their performance, identifying gaps in existing rules that could be addressed by new heuristics. The neural network models approximate the relationship between the dispatching rules and the performance metrics, providing insights that can enhance prediction systems for dispatching rule outputs. The findings suggest that intelligent methodologies can significantly improve the efficiency of dynamic scheduling in manufacturing environments. The practical implications include the potential for developing new dispatching heuristics and reducing the duration of simulation studies, thereby facilitating better decision-making in production management. Future research directions may involve exploring the robustness of these findings across different manufacturing contexts and further refining the neural network models for improved accuracy.</t>
+          <t>This paper investigates dynamic sequencing issues involving job dispatching in manufacturing lines where jobs arrive randomly and have sequence-dependent setup times. It evaluates twelve dispatching rules based on multiple performance metrics through simulation experiments, revealing how different rules perform under various scenarios. The study employs statistical methods such as cluster analysis to uncover natural groupings of these rules based on their effectiveness in managing workflow in environments characterized by uncertainty. The paper's significant contributions include identifying under-explored areas of dispatching rules that can lead to new heuristic developments, using artificial neural networks to approximate relationships between decision rules and performance metrics, and establishing a predictive capability for dispatch systems. The methodology included comprehensive statistical analysis and simulation setups that allowed the examination of rule performance across diverse system configurations. This provided insights not only into the characteristics of each rule but also introduced innovative techniques that could be applied to optimize dynamic manufacturing scheduling. The findings are also valuable for practitioners seeking to implement intelligent scheduling solutions in environments with varying demand and resource constraints.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4306,7 +5090,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:40</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4323,12 +5107,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hybrid Fuzzy Flexible Scheduling Approach (HFFSA) incorporating Different Positions Shuffling (DPS), Randomly Selected Positions Shuffling (RSPS), Block Shuffling (BS), and Inversion Mutation (IM) operators, along with a pair-wise local search strategy.</t>
+          <t>The proposed HFFSA incorporates four operators: Different Positions Shuffling (DPS), Randomly Selected Positions Shuffling (RSPS), Block Shuffling (BS), and Inversion Mutation (IM) to optimize solutions for FFJSSP. An encoding-and-decoding scheme is used for population initialization, and a pairwise local search strategy is integrated to refine solutions further.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>To develop an effective approach for solving the Fuzzy Flexible Job-Shop Scheduling Problem (FFJSSP) using a hybrid optimization method.</t>
+          <t>To develop an effective algorithm for solving the Fuzzy Flexible Job-Shop Scheduling Problem (FFJSSP) that improves solution quality and convergence time using a hybrid approach.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4338,7 +5122,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>The paper addresses the Fuzzy Flexible Job-Shop Scheduling Problem (FFJSSP), which arises from the need to incorporate uncertainty in processing times within manufacturing systems. Traditional scheduling methods often rely on crisp processing times, which do not accurately reflect real-world conditions. To tackle this issue, the authors propose a novel Hybrid Fuzzy Flexible Scheduling Approach (HFFSA) that utilizes fuzzy numbers to represent processing times, thereby accommodating the inherent uncertainties in job scheduling. The methodology involves an innovative encoding-and-decoding scheme for initializing the population of potential solutions. HFFSA employs four distinct operators: the Different Positions Shuffling (DPS) operator enhances solution quality by shuffling positions between a randomly generated solution and the current best solution; the Randomly Selected Positions Shuffling (RSPS) operator maintains population diversity by shuffling random positions; the Block Shuffling (BS) operator and Inversion Mutation (IM) operator focus on subsets of positions to refine solutions further. Additionally, a pair-wise local search strategy is integrated to optimize the search process without incurring excessive computational costs. The performance of HFFSA is rigorously evaluated against twenty-five existing algorithms using benchmarks from Lei and remanufacturing scenarios. The results demonstrate the proposed method's superiority, as evidenced by various statistical measures, including CPU time and fuzzy makespan values. The findings underscore the significance of HFFSA in improving scheduling efficiency in environments characterized by uncertainty, with potential applications in diverse manufacturing and production contexts. Future work may explore further enhancements to the algorithm and its applicability to other complex scheduling problems.</t>
+          <t>The study addresses the Fuzzy Flexible Job-Shop Scheduling Problem (FFJSSP) by introducing a Hybrid Fuzzy Flexible Scheduling Approach (HFFSA) that implements four innovative operators aimed at optimizing solution quality in uncertain manufacturing environments where processing times can vary. Each operator plays a distinct role—increasing population diversity, optimizing solution permutations, and improving search capability. The DPS operator facilitates exploration by shuffling solutions to enhance diversity, while RSPS focuses on preserving population variation. The Block Shuffling (BS) allows for localized adjustments to exploit better solutions, and Inversion Mutation (IM) randomly selects and modifies segments of solutions to uncover higher-quality alternatives. The paper not only presents theoretical insights into the algorithmic structures but also rigorously evaluates HFFSA against 25 established algorithms using extensive benchmarks from Lei and remanufacturing cases. The statistical analysis, employing metrics such as fuzzy makespan values, confirms HFFSA's superior performance over other algorithms. The method's success is attributed to its balanced exploration-exploitation strategy and the coupling of local search enhancements. HFFSA is shown to perform efficiently while reducing computational overhead, making it a substantial contribution to scheduling literature and a promising approach for real-world application in complex manufacturing scenarios. The novelty lies not only in the hybrid structure but also in the method’s adaptability to various operational parameters, offering a framework for future enhancements in related scheduling problems and serving as a foundation for further algorithm development and optimization studies.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4348,21 +5132,41 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:40</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Multiobjective Optimization for Complex Flexible Job-Shop Scheduling Problems</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>In this paper, we are concerned with the resolution of a multiobjective complex job-shop scheduling problem stemming from semiconductor manufacturing. To produce feasible and industrially meaningful schedules, this paper extends the recently proposed batch-oblivious approach by considering unavailability periods and minimum time lags and by simultaneously optimizing multiple criteria that are relevant in the industrial context. A novel criterion on the satisfaction of production targets decided at a higher level is also proposed. Because the solution approach must be embedded in a real-time application, decision makers must express their preferences before the optimization phase. In addition, a preference model is introduced where trade-off is only allowed between some criteria. Two a priori multiobjective extensions of Simulated Annealing are proposed, which differ in how the simultaneous use of a lexicographic order and weights is handled when evaluating the fitness. A known a posteriori approach of the literature is used as a benchmark. All the metaheuristics are embedded in a Greedy Randomized Adaptive Search Procedure. The different versions of the archived GRASP approach are compared using large industrial instances. The numerical results show that the proposed approach provides good solutions regarding the preferences. Finally, the comparison of the optimized schedules with the actual factory schedules shows the significant improvements that our approach can bring.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Two a priori multiobjective extensions of Simulated Annealing are proposed, which differ in how the simultaneous use of a lexicographic order and weights is handled when evaluating the fitness. All the metaheuristics are embedded in a Greedy Randomized Adaptive Search Procedure (GRASP).</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>To design a multiobjective optimization approach that solves the complex job-shop scheduling problem in semiconductor manufacturing, taking into account real-time decision-making constraints and a preference model for trade-offs between criteria.</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+          <t>['Scheduling', 'Multiobjective optimization', 'Flexible job-shop scheduling with batching', 'Metaheuristics', 'OR in semiconductor manufacturing']</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>The paper addresses a multiobjective optimization problem in flexible job-shop scheduling, particularly relevant to semiconductor manufacturing. The unique characteristics of this scheduling problem include substantial complexity due to tight integration of tasks, high variability in product lines, and multiple constraints such as unavailability periods and sequence-dependent setup times. To tackle this NP-hard problem, the authors adapt a batch-oblivious framework, formulating a model that balances local scheduling tasks with the broader factory performance metrics, such as cycle time and throughput. Significantly, the research introduces a new criterion focusing on production target satisfaction, which is crucial for aligning local schedules with high-level industrial goals. The methodology extends traditional Simulated Annealing with two novel a priori multiobjective extensions that incorporate a lexicographic ranking system and weight considerations to model decision-makers' preferences effectively. The authors meticulously evaluate their approach using a Greedy Randomized Adaptive Search Procedure (GRASP) against known literature benchmarks, demonstrating competitive performance on large-scale industrial instances consisting of average 1,500 operations across 500 jobs on 70 batching machines. The results offer substantial improvements in scheduling efficiency and resource utilization. Overall, the study contributes to the optimization literature by introducing a practically relevant model that accommodates real-time decision making and user preference hierarchies, paving the way for more refined approaches in complex operational environments such as semiconductor fabrication, with implications for various other industrial applications.</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>Multiobjective optimization for complex flexible job-shop scheduling problems - Anna’s Archive.pdf</t>
@@ -4370,7 +5174,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4385,10 +5189,14 @@
           <t>Job shop scheduling problem (JSSP) is a thriving area of scheduling research, which has been concerned and studied widely by scholars in engineering and academic fields. This paper provides a comprehensive review on the types and models of JSSP, to the best of our knowledge, there has not been a review paper on this aspect up to now. The main purpose of this review is to help researchers and scholars outlining an overview of existing JSSP models and exploring more valuable research directions. We first analyze and classify the entities and their attributes, assumptions, basic subtypes, and measures of performance of JSSP based on the researches from mid-1960s to 2020s. The general representation and overview of JSSP models are also presented. Then, some extensive statistics and analysis are conducted on 297 published papers in 72 journals ranging between 2016 and early 2021. Finally, some hot research aspects of JSSP models are reviewed in detail and some promising research directions are provided.</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>The paper provides a comprehensive literature review of job shop scheduling problems, analyzing entities and their attributes, assumptions, basic subtypes, and performance measures from mid-1960s to 2020s. It includes statistical analysis of published papers and suggests future research trajectories.</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>To provide a comprehensive review of the types and models of job shop scheduling problems (JSSP) and to outline existing JSSP models while exploring valuable research directions.</t>
+          <t>To present a comprehensive overview of existing job shop scheduling models, classify them, and explore promising research directions.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4398,7 +5206,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>The job shop scheduling problem (JSSP) is a classical combinatorial optimization problem that has garnered significant attention in operational research and management science due to its wide applicability in engineering and social contexts. This paper presents a comprehensive survey of JSSP, focusing on the classification of its types and models. The authors analyze literature spanning from the mid-1960s to 2020s, categorizing the entities, attributes, assumptions, and performance measures associated with JSSP. They provide a detailed overview of 297 published papers from 72 journals, covering the period from 2016 to early 2021, which highlights the evolution and current trends in JSSP research. The paper identifies three main types of review papers in the literature: Type A, which surveys multiple classes of scheduling problems; Type B, which focuses on specific characteristics of JSSP; and Type C, which reviews algorithms and approaches for scheduling problems. The findings indicate a growing complexity in scheduling problems and a need for more detailed classifications of scheduling models. The authors conclude by suggesting promising research directions that could enhance the understanding and application of JSSP models in practical scenarios. This survey not only consolidates existing knowledge but also serves as a guide for future research endeavors in the field of job shop scheduling.</t>
+          <t>This paper surveys the job shop scheduling problem (JSSP), which encompasses a significant area of research in operations research and management science. The authors conducted an extensive literature review covering over 297 published papers from 2016 to early 2021, aiming to synthesize the various types and models of JSSP available in the literature. The survey identifies key components of JSSP including entities (jobs and machines), assumptions, and subtypes, providing a comprehensive classification scheme and performance metrics associated with different scheduling strategies. Key findings suggest that while classical models remain predominant in research, there is a growing interest in flexible job shop scheduling (FJSSP) due to practical applications in manufacturing settings. Specific contributions such as environmental considerations in scheduling models and multi-objective optimization approaches are discussed, highlighting trends toward more sustainable and efficient scheduling solutions. The paper suggests that future research should address underexplored areas such as TFJSSP, economic and environmental impacts of scheduling, and further exploration of multi-objective optimization techniques in JSSP. This extensive review serves as a foundational reference for researchers entering the field of job shop scheduling and provides a structured roadmap for future investigations and methodological advancements in this critical area of operational efficiency and productivity enhancement.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4408,7 +5216,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4425,12 +5233,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>hybrid genetic algorithm-based variable neighborhood search algorithm (GA-VNS)</t>
+          <t>A hybrid genetic algorithm-based variable neighborhood search algorithm (GA-VNS)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>To minimize the production makespan and to improve facility usage in a flexible job shop scheduling problem with parallel machines and variable groups.</t>
+          <t>To propose a new approach for solving the flexible job shop scheduling problem in a parallel machine environment with a variable group, minimizing production makespan and improving facility usage.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4440,7 +5248,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>This paper addresses the challenges faced by Small and Medium Enterprises (SMEs) in manufacturing, particularly in the context of flexible job shop scheduling (FJSP) with parallel machines. Traditional FJSP assumes that each job can only be processed on one machine at a time, which does not reflect real-world scenarios where multiple machines can operate simultaneously on the same job. The authors propose a novel approach that incorporates variable groups of parallel machines, allowing for more efficient scheduling and resource utilization. The proposed method, a hybrid genetic algorithm-based variable neighborhood search (GA-VNS), combines the strengths of genetic algorithms (GA) for global search and variable neighborhood search (VNS) for local optimization. This dual approach enhances the algorithm's ability to navigate complex scheduling landscapes effectively. The primary objectives of the GA-VNS algorithm are to minimize the production makespan and improve facility usage, which are critical for SMEs aiming to reduce costs and increase efficiency. The authors conducted extensive simulation experiments using forty-seven test instances to validate the effectiveness of their approach. The results indicate that the GA-VNS algorithm significantly outperforms existing scheduling systems, such as manufacturing execution systems and enterprise resource planning tools, in terms of processing time and cost efficiency. This research not only contributes to the theoretical understanding of FJSP but also provides practical solutions for SMEs, enabling them to adopt advanced scheduling techniques without substantial investment in new technologies. The findings suggest that the integration of variable groups in scheduling can lead to more realistic and applicable solutions in manufacturing environments, paving the way for future research to explore further enhancements and applications of this methodology.</t>
+          <t>This paper addresses the flexible job shop scheduling problem (FJSP), which is known to be NP-hard, and proposes a novel solution utilizing the concept of variable groups in parallel machine environments. The motivation behind this research stems from the need to adapt manufacturing systems, particularly in small and medium-sized enterprises (SMEs), to modern demands for efficiency and cost-effectiveness. Traditional approaches often restrict machines to perform single jobs, which does not reflect the complexities of modern production lines where multiple machines can operate on the same jobs simultaneously. The authors present a hybrid genetic algorithm combined with variable neighborhood search (GA-VNS), which enhances both global and local search capabilities. The methodology involves encoding operations and machines, performing selection, crossover, and mutation, followed by local optimization using several heuristics to fine-tune the results. Key contributions include the development of a modified FJSP suited for parallel machine settings and thorough validation through extensive simulation experiments involving forty-seven test instances. The GA-VNS method showed superior results, effectively minimizing makespan and improving overall facility usage compared to existing scheduling systems. Testing revealed that the proposed algorithm increases production efficiency significantly for SMEs, providing solutions that decrease processing time and costs while increasing adaptability to varied production requirements. The findings have substantial implications for the scheduling practices of SMEs, suggesting that a transition toward flexible, real-time scheduling systems could yield significant operational benefits. Future work will focus on enhancing the algorithm's capabilities to address more complex scheduling scenarios and integrating it with broader manufacturing and supply chain systems.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4450,7 +5258,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4467,22 +5275,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>The proposed method introduces a new branching scheme (Scheme 2) that allocates jobs directly to machines, as opposed to generating partial permutations first. This method reduces the number of schedules considered and improves computational efficiency. An improved lower bound is also developed based on previous works, which aids in the branch and bound process.</t>
+          <t>The proposed branching scheme, designated as Scheme 2, focuses on allocating jobs to machines rather than determining partial permutations of jobs first, as done in earlier schemes. This allows for fewer schedules to be generated, particularly in scenarios where the number of machines is significantly smaller than the number of jobs.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>To develop an improved branching scheme for the branch and bound procedure that enhances the efficiency of scheduling n jobs on m parallel machines to minimize total weighted flowtime.</t>
+          <t>To present a new branch and bound procedure with an improved branching scheme for scheduling n jobs on m parallel machines, aiming to minimize total weighted flowtime.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Branch and Bound', 'Scheduling', 'Parallel Machines', 'Weighted Flowtime', 'Optimization']</t>
+          <t>['scheduling', 'branch and bound', 'weighted flowtime', 'parallel machines', 'computational efficiency']</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>This paper addresses the scheduling problem of n independent jobs on m parallel machines with the objective of minimizing total weighted flowtime. The authors critique existing methods, particularly the branch and bound procedure developed by Elmaghraby and Park, which has been modified by Barnes and Brennan. The proposed method introduces a novel branching scheme that directly assigns jobs to machines, significantly reducing the number of schedules considered compared to traditional methods. This new scheme, referred to as Scheme 2, contrasts with the previous Scheme 1, which generated eligible partial permutations before job assignment. The authors demonstrate that Scheme 2 can lead to fewer nodes in the search tree, thus enhancing computational efficiency. Additionally, they present a new lower bound that is straightforward to compute, further improving the performance of the branch and bound algorithm. The paper includes computational experiments that validate the superiority of the proposed method over existing approaches, showcasing its practical applications in industrial scheduling scenarios. The findings suggest that the new branching scheme not only simplifies the implementation of the algorithm but also provides a more efficient solution to the scheduling problem, which is known to be NP-complete. Future implications of this research could lead to further refinements in scheduling algorithms and their applications in various operational contexts.</t>
+          <t>This paper addresses the problem of scheduling n independent jobs on m parallel machines to minimize total weighted flowtime, a critical aspect of operations research and production management. Previous methods, notably those developed by Elmaghraby and Park, and later by Barnes and Brennan, used a branch and bound approach that, although effective, was computationally expensive due to its reliance on extensive enumeration and permutations of job orders.
+The authors introduce a novel branching scheme that significantly reduces computation by focusing directly on job allocation to machines—termed Scheme 2—in contrast to the previous Scheme 1, which relied on generating eligible partial permutations. This new method allows for a combined approach to job scheduling while maintaining optimality, thereby yielding a reduced number of schedules to evaluate computationally. The authors also propose an improved lower bound that is straightforward to calculate, thus enhancing the overall efficacy of the algorithm.
+The practical implications of this new approach are underscored by extensive computational experiments, which illustrate that the proposed scheme can solve larger instances of the scheduling problem within feasible time limits, something that proved challenging for the previous methods under similar constraints. The results presented indicate that the computational time required using the new method is several times less than that required by the existing methods, demonstrating its superiority in performance. This advancement in scheduling algorithms not only provides a more efficient means of solving these problems but also opens avenues for further research in optimizing more complex scheduling scenarios. This paper thus contributes significantly to the field of production scheduling, both in theoretical developments and in practical applications.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4492,7 +5302,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4509,12 +5319,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>An improved genetic algorithm (IGA) with a population diversity check method was specifically designed to minimize makespan in the flexible job shop scheduling problem with a limited number of AGVs (FJSP-AGV).</t>
+          <t>Improved Genetic Algorithm (IGA)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>To study the flexible job shop scheduling problem with a limited number of AGVs (FJSP-AGV) and propose an improved genetic algorithm (IGA) to minimize makespan.</t>
+          <t>To minimize makespan in the flexible job shop scheduling problem considering a limited number of automatic guided vehicles (AGVs).</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4524,7 +5334,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>The paper addresses the flexible job shop scheduling problem with a limited number of automatic guided vehicles (AGVs), termed FJSP-AGV, which is crucial for real-world manufacturing scenarios. The authors propose an improved genetic algorithm (IGA) designed to minimize makespan, a common objective in scheduling problems. The classical genetic algorithm often suffers from a loss of population diversity over iterations, leading to stagnation. To counter this, the IGA incorporates a population diversity check method, enhancing its ability to explore the solution space effectively. The performance of IGA is rigorously evaluated against state-of-the-art algorithms using five sets of benchmark instances. The experimental results demonstrate that IGA significantly outperforms these algorithms, achieving better solutions for 34 benchmark instances across four datasets. This improvement not only showcases the effectiveness of the proposed method but also updates the current best-known solutions for these instances. The methodology involves a detailed encoding scheme for operations and machine selections, along with a decoding process that efficiently assigns AGVs to jobs based on their availability and location. The selection operator in IGA employs elitist and binary tournament strategies to ensure the best individuals are preserved for future generations. The findings underscore the importance of considering AGV limitations in scheduling problems and suggest that IGA can be a valuable tool for optimizing production processes in environments where AGVs are a critical resource. Future work may explore further enhancements to the algorithm and its application to more complex scheduling scenarios.</t>
+          <t>The paper addresses the challenge of scheduling in manufacturing environments where the number of automatic guided vehicles (AGVs) is limited, thereby creating a more realistic scenario for the flexible job shop scheduling problem (FJSP). The authors propose an Improved Genetic Algorithm (IGA) designed to minimize makespan while addressing three critical sub-problems: machine selection, AGV selection, and operations sequencing. The IGA includes innovative features like a population diversity check method to combat stagnation during optimization. Experimental validation was conducted by comparing the IGA’s performance against state-of-the-art algorithms across five sets of benchmark instances, yielding superior results in terms of both efficiency and solution quality. The IGA successfully updated 34 benchmark instances, demonstrating its robustness and effectiveness. Through detailed performance metrics and algorithms complexity analysis, the results indicate that the IGA not only enhances algorithmic effectiveness but also stands out as a leading approach to addressing the complexities of FJSP-AGV. Future research directions include exploring additional objectives like energy efficiency, further adaptations of the IGA framework, and examining different encoding and decoding strategies to improve optimization further.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4534,21 +5344,41 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>A hybrid estimation of distribution algorithm for distributed flexible job shop scheduling with crane transportations site</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Distributed flexible job shop scheduling has attracted research interest due to the development of global manufacturing. However, constraints including crane transportation and energy consumption should be considered with the realistic requirements. To address this issue, first, we modeled the problem by utilizing an integer programming method, wherein the makespan and energy consumptions during the machine process and crane transportation are optimized simultaneously. Afterward, a hybrid algorithm consisting of estimation of distribution algorithm (EDA) and variable neighborhood search (VNS) was proposed to solve the problem, where an identification rule of four crane conditions was designed to make fitness calculation feasible. In EDA compo-nent, the parameters in probability matrices are set to be self-adaptive for stable convergence to obtain better output. Moreover, a probability mechanism was applied to control the activity of the EDA component. In VNS component, five problem-specific neighborhood structures including global and local strategies are employed to enhance exploitation ability. The simulation tests results confirmed that the proposed hybrid EDA-VNS algorithm can solve the considered problem with high efficiency compared with other competitive algorithms, and the proposed improving strategies are verified to have significance in better performance.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>A hybrid algorithm consisting of estimation of distribution algorithm (EDA) and variable neighborhood search (VNS) was proposed to solve the distributed flexible job shop scheduling problem with crane transportation.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>To optimize the makespan and energy consumption during the machine process and crane transportation by addressing constraints specific to a distributed flexible job shop scheduling environment.</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+          <t>['Distributed flexible job shop scheduling', 'Crane transportation', 'Estimation of distribution algorithm', 'Variable neighborhood search', 'Multi-objective optimization']</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>The study addresses the complex problem of distributed flexible job shop scheduling (DFJSP) with crane transportations, which has gained interest as global manufacturing evolves. Recognizing that traditional scheduling methods often overlook constraints such as crane transportation and energy usage, the authors propose a novel hybrid algorithm that integrates an Estimation of Distribution Algorithm (EDA) with a Variable Neighborhood Search (VNS) approach. This hybridization is necessary due to the NP-hard nature of the DFJSPC, particularly under crane operation constraints. The problem is first modeled using integer programming, focusing on optimizing both makespan and total energy consumption (TEC) across machine processes. Notably, the EDA is designed to identify superior individuals from a population based on fitness, employing self-adaptive parameter settings in probability matrices to enhance convergence stability and solution quality. The VNS complements EDA's explorative strengths with refined local searches through multiple problem-specific neighborhood structures. Five such structures enhance the algorithm's ability to exploit promising areas of the solution space. Testing against other competitive algorithms showcases the hybrid EDA-VNS method's efficiency, offering significant advancements in performance for the DFJSPC. Key contributions include the development of an efficient identification rule for crane conditions, a self-adaptive probability mechanism for EDA activity control, and an exploration-exploitation balance that is vital for overcoming traditional algorithm shortcomings. Future implications could see expanded applications in various manufacturing industries, emphasizing the need for sustainable and energy-efficient production practices.</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>undefined series for scimag 2- Anna’s Archive.pdf</t>
@@ -4556,7 +5386,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4573,12 +5403,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Hybrid Sorting Immune Simulated Annealing Technique (HSISAT)</t>
+          <t>The proposed method is a Hybrid Sorting Immune Simulated Annealing (HSISA) algorithm that integrates a sorting algorithm and immune simulated annealing algorithm. Sorting is used to enhance convergence speed by isolating critical machines, and ISA is applied to efficiently search the solution space for optimal job scheduling solutions.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>To solve the multi-objective flexible job-shop scheduling problem (FJSP) by distributing machine time among operations and minimizing makespan, total workload, and maximum workload.</t>
+          <t>The main objectives of this research are minimizing makespan, total workload, and maximum workload by effectively distributing machine time across operations in flexible job shop scheduling.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4588,7 +5418,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>The paper addresses the multi-objective flexible job-shop scheduling problem (FJSP), which is a complex optimization challenge in production environments. The authors propose a novel hybrid algorithm, the Hybrid Sorting Immune Simulated Annealing Technique (HSISAT), which combines sorting mechanisms with immune simulated annealing to enhance convergence speed and solution quality. The main contributions of this work include the development of a sorting algorithm that reduces the search space by prioritizing machine selection based on non-dominance, and the integration of immune principles to improve the robustness of the simulated annealing process. The methodology involves sorting the processing times to identify critical machines, followed by applying the immune simulated annealing algorithm to explore the solution space efficiently. The authors conducted several case studies to validate the effectiveness of HSISAT, comparing its performance against traditional methods. The results indicate that HSISAT significantly outperforms existing algorithms in terms of convergence speed and solution quality, achieving lower makespan and balanced workloads across machines. This research has practical implications for industries facing complex scheduling challenges, suggesting that hybrid metaheuristic approaches can lead to more efficient production scheduling. Future work may explore further enhancements to the algorithm and its application to other scheduling scenarios, potentially incorporating real-time data for dynamic scheduling adjustments.</t>
+          <t>This paper presents a novel approach called Hybrid Sorting Immune Simulated Annealing (HSISA) to address the Multi-Objective Flexible Job Shop Scheduling Problem (FJSP). Traditional job shop scheduling methods have limitations due to their poor performance in larger problem sizes. The proposed HSISA algorithm hybridizes sorting techniques to filter out suboptimal machines based on their processing times, allowing for an effective initial solution to be generated quickly. Alongside this, it employs an Immune System-inspired approach to perturb the solution and drive towards global optimality. This integration aims to balance the workload of machines, enhance convergence speeds, and effectively reduce makespan, alongside other key performance metrics. The methodology was rigorously tested using established case studies within the literature, which included various job and machine configurations, validating the proposed algorithm’s capability against previously established benchmarks and comparable alternatives. The results indicated that HSISA not only produced optimal scheduling plans but did so in reduced computational times, achieving notable improvements in the objective metrics such as makespan and total workload. The practical implications of this research highlight HSISA’s potential utility in industrial scheduling applications, especially in environments needing dynamic and adaptable scheduling strategies. This work also lays groundwork for future explorations into the robustness of sorting and immune approaches in other combinatorial optimization contexts.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4598,7 +5428,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2025-08-19 22:28:41</t>
+          <t>2025-08-20 02:08:07</t>
         </is>
       </c>
     </row>
@@ -4615,12 +5445,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DeepMAG integrates deep reinforcement learning (DRL) with multi-agent reinforcement learning (MARL) by associating a different agent to each machine and job, allowing agents to exploit DRL to find the best actions for job sequencing and routing. A multi-agent graph is constructed based on the operational relationships among machines and jobs, enabling cooperative actions among agents.</t>
+          <t>DeepMAG integrates deep reinforcement learning with multi-agent reinforcement learning using a multi-agent graph to enable cooperation among agents, assigning one agent to each machine and job. The model employs two Deep Q Networks (DQNs): one for job sequencing through machine-associated agents and another for job routing through job-associated agents. This allows simultaneous decision-making while leveraging cooperative relationships among agents represented in graphs that illustrate operations among jobs and machines.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>To address the limitations of existing approaches in flexible job shop scheduling (FJSS) by integrating deep reinforcement learning (DRL) with multi-agent reinforcement learning (MARL) and enabling cooperation among agents.</t>
+          <t>To address the limitations of current scheduling methods by proposing a new model (DeepMAG) that integrates deep reinforcement learning (DRL) with multi-agent reinforcement learning (MARL), aiming to optimize flexible job shop scheduling (FJSS) with improved cooperation among agents and enhanced decision-making in scheduling.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4630,7 +5460,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>This paper addresses the challenges in flexible job shop scheduling (FJSS) by proposing a novel model called DeepMAG, which integrates deep reinforcement learning (DRL) with multi-agent reinforcement learning (MARL). The problem of FJSS is significant in manufacturing due to its complexity and the need for efficient scheduling of jobs across multiple machines. Traditional methods often fail to effectively manage the large state and action spaces inherent in FJSS, leading to suboptimal scheduling solutions. DeepMAG overcomes these limitations by associating each job and machine with dedicated agents that utilize DRL to determine optimal job sequencing and routing. The model also introduces a multi-agent graph structure that facilitates cooperation among agents, allowing them to share information about their operational relationships and make collective decisions. This cooperative approach enhances the decision-making process, leading to improved scheduling outcomes. The authors conducted extensive experiments using simulation data reflective of real-world manufacturing scenarios, demonstrating that DeepMAG significantly outperforms existing state-of-the-art techniques in terms of scheduling efficiency and effectiveness. The findings suggest that integrating DRL with MARL and fostering agent cooperation can yield substantial improvements in solving complex scheduling problems, with implications for future research and practical applications in industrial settings.</t>
+          <t>The paper presents DeepMAG, an innovative model for flexible job shop scheduling (FJSS) that combines deep reinforcement learning (DRL) and multi-agent reinforcement learning (MARL) to effectively manage complex scheduling tasks in real-world manufacturing environments. Traditional scheduling methods often face severe limitations due to the lack of integration between DRL and MARL, causing inefficiencies in dealing with the large state and action spaces associated with FJSS. DeepMAG addresses these challenges by establishing a cooperative system of agents, each representing a specific job or machine, and integrating their decision-making processes through a multi-agent graph structure that captures the operational relationships between jobs and machines. The architecture leverages distinct Deep Q Networks to optimize job sequencing and routing, allowing agents to collaboratively determine the best actions based on shared information from their graph representation. The experimental validation of DeepMAG, conducted using simulated data reflective of real-world factory settings, demonstrates significant performance improvements over existing state-of-the-art techniques, confirming the effectiveness of the proposed integration of DRL and MARL. Overall, the model contributes to the growing field of advanced manufacturing and scheduling by providing a scalable and efficient solution that adapts dynamically to production demands and operational constraints. Future work will expand upon the foundation laid by DeepMAG to explore adaptations for dynamic FJSS scenarios involving real-time changes such as job insertions and machine failures, enhancing the model’s application robustness in varied manufacturing conditions.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4640,7 +5470,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4662,7 +5492,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4674,17 +5504,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>In actual manufacturing processes, some unexpected disturbances, called as recessive disturbances (e.g., job set-up time variation and arrival time deviation), would gradually make the original production schedule obsolete. It is hard for production managers to perceive their presences. Thus, the impact of recessive disturbances can not be eliminated by rescheduling in time. On account of this, a rescheduling decision mechanism for recessive disturbances in RFID-driven job shops is proposed in this article, and a manifold learning method, which reduces the response time of manufacturing system, is applied in the mechanism to preprocess manufacturing data. The rescheduling decision mechanism is expected to answer the questions of whether to reschedule, when to reschedule, and which rescheduling method to be used. Firstly, RFID devices acquire the actual process completion time of all work in process (WIPs) at every WIP machining process completion time. Secondly, recessive disturbances are quantified to time accumulation error (TAE) which represents the difference between actual process completion time and planned process completion time. Lastly, according to the TAE and production managers’ experience, the rescheduling decision mechanism selects a proper rescheduling method to update or repair the original production schedule. The realization algorithms of rescheduling decision mechanism includes: (1) supervised locally linear embedding. (2) General regression neural network. (3) Least square-support vector Machine. Finally, a numerical experiment is used to demonstrate the implementation procedures of the rescheduling decision mechanism.</t>
+          <t>In actual manufacturing processes, some unexpected disturbances, called as recessive disturbances (e.g., job set-up time variation and arrival time deviation), would gradually make the original production schedule obsolete. It is hard for production managers to perceive their presences. Thus, the impact of recessive disturbances can not be eliminated by rescheduling in time. On account of this, a rescheduling decision mechanism for recessive disturbances in RFID-driven job shops is proposed in this article, and a manifold learning method, which reduces the response time of manufacturing system, is applied in the mechanism to preprocess manufacturing data. The rescheduling decision mechanism is expected to answer the questions of whether to reschedule, when to reschedule, and which rescheduling method to be used. Firstly, RFID devices acquire the actual process completion time of all work in process (WIPs) at every WIP machining process completion time. Secondly, recessive disturbances are quantiﬁed to time accumulation error (TAE) which represents the difference between actual process completion time and planned process completion time. Lastly, according to the TAE and production man- agers’ experience, the rescheduling decision mechanism selects a proper rescheduling method to update or repair the original production schedule. The realization algorithms of rescheduling decision mechanism includes: (1) supervised locally linear embedding. (2) General regression neural net- work. (3) Least square-support vector Machine. Finally, a numerical experiment is used to demonstrate the implemen- tation procedures of the rescheduling decision mechanism.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>A rescheduling decision mechanism based on manifold learning, which includes supervised locally linear embedding (SLLE), general regression neural network (GRNN), and least square-support vector machine (LS-SVM) for selecting rescheduling methods.</t>
+          <t>A rescheduling decision mechanism based on manifold learning is proposed to address recessive disturbances in RFID-driven job shops. The mechanism includes quantifying recessive disturbances into Time Accumulation Error (TAE), and selecting a proper rescheduling method using algorithms such as supervised locally linear embedding (SLLE), General Regression Neural Network (GRNN), and Least Square Support Vector Machine (LS-SVM).</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>To propose a rescheduling decision mechanism for recessive disturbances in RFID-driven job shops, addressing when to reschedule, whether to reschedule, and which rescheduling method to apply.</t>
+          <t>To propose a rescheduling decision mechanism for recessive disturbances in RFID-driven job shops, utilizing a manifold learning approach to enhance the rescheduling process by reducing response time and effectively quantifying disturbances through Time Accumulation Error (TAE).</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4694,7 +5524,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of managing recessive disturbances in RFID-driven job shops, which gradually undermine production schedules without immediate detection. The authors propose a novel rescheduling decision mechanism that leverages manifold learning techniques to preprocess manufacturing data and enhance decision-making efficiency. The mechanism quantifies the impact of disturbances through a metric called time accumulation error (TAE), which reflects the cumulative deviation between actual and planned process completion times. The methodology involves three key algorithms: supervised locally linear embedding (SLLE) for dimensionality reduction of historical RFID data, general regression neural network (GRNN) for mapping high-dimensional data to a lower-dimensional space, and least square-support vector machine (LS-SVM) for classifying and selecting appropriate rescheduling methods based on TAE and managerial experience. The proposed framework aims to dynamically determine the necessity and timing of rescheduling, as well as the most suitable rescheduling strategy, thereby improving responsiveness to disturbances. A numerical experiment validates the effectiveness of the proposed mechanism, demonstrating its potential to enhance production scheduling in dynamic manufacturing environments. The significance of this research lies in its focus on recessive disturbances, which have been largely overlooked in existing literature, and its integration of advanced machine learning techniques to optimize manufacturing processes. Future implications include further refinement of the decision mechanism and exploration of its applicability across various manufacturing contexts.</t>
+          <t>This paper addresses the challenge of rescheduling in job shops due to recessive disturbances such as variations in job set-up times and arrival deviations, which slowly degrade production schedules without immediate recognition. The authors introduce a decision-making mechanism that leverages Radio Frequency Identification (RFID) to gather real-time data about work-in-process (WIPs) and apply manifold learning for effective data processing. The key innovation lies in defining Time Accumulation Error (TAE), which quantifies the cumulative delays caused by these disturbances, thereby providing a quantitative basis for rescheduling decisions. The proposed framework operates through three main algorithms: supervised locally linear embedding (SLLE) helps in dimensionality reduction of large datasets while retaining relevant structural information; GRNN establishes a functional mapping from high-dimensional data to a lower-dimensional space, enabling quicker decision-making; and LS-SVM classifies data to suggest appropriate rescheduling methods. Numerical experiments conducted in a real-world setting validate the efficacy of the proposed mechanism, demonstrating that it outperforms traditional methods in terms of accuracy and response time. The results suggest that this approach can substantially improve the operational efficiency of manufacturing systems in dynamically changing environments. Future implications include refining the decision model to incorporate the significance of various orders and adapting to new data for continuous improvement in decision-making capabilities.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4704,7 +5534,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4721,12 +5551,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>A novel shuffled cellular evolutionary grey wolf optimizer (SCEGWO) is proposed to solve FJSSP-JPC with the objective of minimizing makespan. The SCEGWO algorithm incorporates a discrete variant of GWO for intensification and the cell automata for diversification. The whole population is divided into multiple micro subpopulations to reinforce the exploration capacity by restricting each individual to interacting with its cellular topological neighborhood and conducting an independent search of modified GWO.</t>
+          <t>A novel shuffled cellular evolutionary grey wolf optimizer (SCEGWO) is proposed to solve FJSSP-JPC with the objective of minimizing makespan. Schedule solutions are encoded as elaborately designed triple-vectors involving job sequencing vector (JSV), grouped operation sequencing vector (GOSV), and machine assignment vector (MAV). A job precedence repair mechanism based on binary sort tree is also implemented to ensure that encoded solutions satisfy the job precedence constraints. In SCEGWO, the population interacts within a cellular framework, utilizing a micro discrete variant of grey wolf optimizer that divides the overall population into multiple micro subpopulations with overlapping neighborhoods for optimization.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>To develop an efficient metaheuristic optimization algorithm to tackle the flexible job shop scheduling problem with job precedence constraints (FJSSP-JPC) and minimize the makespan.</t>
+          <t>The main objective of this study is to propose and validate a method for addressing the Flexible Job Shop Scheduling Problem with Job Precedence Constraints (FJSSP-JPC) using a novel shuffled cellular evolutionary grey wolf optimizer (SCEGWO) that minimizes the makespan of production schedules.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4736,7 +5566,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>This paper addresses the flexible job shop scheduling problem with job precedence constraints (FJSSP-JPC), which arises in the production scheduling of complex assembly products composed of multiple and multilevel parts. The traditional flexible job shop scheduling fails to account for hierarchical precedence constraints defined by tree-structure Bills-Of-Materials (BOMs), necessitating the formulation of FJSSP-JPC. The authors propose a novel shuffled cellular evolutionary grey wolf optimizer (SCEGWO) to minimize makespan in this context. The SCEGWO algorithm features a triple-vector encoding scheme that captures job sequencing, grouped operation sequencing, and machine assignment, ensuring compliance with job precedence constraints through a binary sort tree-based repair mechanism. The integration of a discrete variant of the grey wolf optimizer (GWO) and cellular automata (CA) enhances the algorithm's exploration capabilities and prevents premature convergence. The population is structured into micro subpopulations, allowing localized interactions that facilitate knowledge sharing and diversity preservation. Extensive experiments on fifteen different scaled FJSSP-JPC instances validate the effectiveness of SCEGWO, demonstrating significant performance improvements over four competing algorithms. The results are statistically analyzed using the Friedman test and Wilcoxon signed rank test, confirming the robustness of the proposed method. A practical case study on multi-category bicycle production scheduling further illustrates the applicability of the SCEGWO algorithm. This research contributes to the field by providing a sophisticated approach to a complex NP-hard problem, with implications for enhancing production efficiency in modern manufacturing environments.</t>
+          <t>The paper tackles the Flexible Job Shop Scheduling Problem with Job Precedence Constraints (FJSSP-JPC), a complex combinatorial optimization problem that arises in environments demanding customized products and small batch production. The presented solution approach, SCEGWO, integrates a modified grey wolf optimizer suitable for discrete optimization with a cellular automata structure that promotes population diversity by dividing individuals into micro subpopulations. Each solution is encoded using a triple-vector format, capturing job sequencing, grouped operations, and machine assignments, while ensuring compliance with hierarchical job precedence constraints via a binary sort tree mechanism. Experimental results covering fifteen instances show SCEGWO's significant superiority over other recent algorithms, both in terms of solution quality and computational efficiency. Moreover, a case study on a bicycle production scheduling scenario serves to highlight the practical applicability of the proposed method. The SCEGWO algorithm demonstrates a balance between exploration and exploitation, enhanced by strategies that introduce randomness to maintain its search diversity. Future work will likely focus on embedding problem-specific local search strategies to improve the algorithm's exploitation capabilities, as well as exploring deep reinforcement learning techniques for real-time scheduling improvements.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4746,7 +5576,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4763,12 +5593,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>The proposed method is a multi-pheromone ant colony optimization (MACO) algorithm that incorporates five enhancements: a new type of pheromone and greedy heuristic function; three new state transition rule functions; a nimble local search algorithm; a mutation mechanism for avoiding local optima; and a PSO-based algorithm for adaptive parameter tuning.</t>
+          <t>The proposed ACO-based algorithm, MACO, integrates multiple improvements: a new pheromone type, three enhanced state transition rules, a dynamic local search, a mutation mechanism, and an adaptive parameter tuning via a PSO-based method.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>To develop a multi-pheromone ant colony optimization (MACO) algorithm to resolve a multi-objective lot-splitting job shop scheduling problem (MLJSSP) with objectives measured as the weighted sum of makespan, total tardiness, and total lot-splitting cost.</t>
+          <t>To develop an effective multi-pheromone ant colony optimization (MACO) algorithm for solving multi-objective job-shop scheduling problems with equal-size lot-splitting, aiming to minimize makespan, tardiness, and lot-splitting costs.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4778,7 +5608,9 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>This paper addresses the complex problem of multi-objective job-shop scheduling with equal-size lot-splitting, a scenario prevalent in flexible manufacturing systems. The authors propose a novel hybrid algorithm based on Ant Colony Optimization (ACO), termed Multi-Pheromone Ant Colony Optimization (MACO), which integrates several enhancements to improve the algorithm's performance and convergence time. The enhancements include a new pheromone structure, a greedy heuristic function, innovative state transition rules, a nimble local search algorithm, a mutation mechanism to escape local optima, and a Particle Swarm Optimization (PSO)-based parameter tuning method. The research focuses on balancing the trade-offs between lot-splitting costs and makespan, which are critical in real-world applications. The proposed algorithms were rigorously tested using both real-world data from a printing company and simulated datasets, demonstrating their effectiveness through paired-samples t-tests against a mathematical programming model. The results indicate that the MACO algorithm significantly outperforms traditional methods in generating high-quality schedules, thus providing practical implications for manufacturers aiming to optimize their production processes. The study contributes to the field by not only enhancing ACO methodologies but also by addressing the complexities of job-shop scheduling in a multi-objective context, paving the way for future research in hybrid optimization techniques.</t>
+          <t>This paper addresses the complex problem of multi-objective job-shop scheduling with equal-size lot-splitting, which is significant in production environments such as printing. The authors introduce a multi-pheromone ant colony optimization (MACO) algorithm that enhances traditional ACO by addressing its convergence issues and improving solution quality through several innovations. The methodology involves hybridizing global search capabilities of ACO with local search algorithms and incorporating a mutation mechanism to escape local optima. The authors detail five key enhancements to the ACO framework: a new pheromone representation that guides the search process, novel state transition rules that exploit the search space more effectively, and a quick local search mechanism that refines solutions on-the-fly. They also implement a particle swarm optimization approach for adaptive parameter tuning that adjusts the algorithms' parameters dynamically based on current solution performance.
+In their experiments, conducted using real data from a printing company and simulated instances, they aim to optimize a scalar function that combines makespan, tardiness, and lot-splitting costs. The performance of MACO was validated against traditional optimization approaches, including mathematical programming models, showcasing robust performance with statistically significant improvements in solution quality and computational efficiency.
+The results indicate that the MACO algorithm, especially when enhanced with local search and adaptive parameter tuning, significantly outperforms conventional methods. The practical implications are substantial, as the developed algorithms not only lead to better production efficiency but also enhance overall operational workflows in environments where job orders can be split into smaller batches. This study opens avenues for future research, particularly in dynamic scheduling scenarios and exploring further enhancements to the algorithm's framework to accommodate variations in processing times and machine availability.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4788,21 +5620,41 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>An efficient two-stage genetic algorithm for a flexible job-shop scheduling problem with sequence dependent attached/detached setup, machine release date and lag-time</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>In a flexible job-shop scheduling problem (FJSP), an operation can be assigned to one of a set of eligible machines. Therefore, the problem is to simultaneously determine both the assignment of operations to machines and their sequences. Accordingly, the solution encoding of many regular genetic algorithms (RGAs) developed in literature has two parts: one part encodes the assignment decision and the other the sequencing decision. The genetic search determines both the assignment and the sequencing of the operations simultaneously through a random process guided by the principles of natural selection and evolution. In this paper, we develop a two-stage genetic algorithm (2SGA) with the first stage being different from a typical RGA for FJSP found in the literature. The first stage of 2SGA has a solution encoding that only dictates the sequence in which the operations are considered for assignment. Whenever an operation is considered for assignment, the machine that can complete this operation the soonest is selected while taking into account the operations that are already assigned to this machine. The order in which the operations are assigned to machines determines their sequence. The second stage, starting from the solutions of the first stage, follows the common approach of genetic algorithm for FJSP to enable the algorithm to search the entire solution space by including solutions that might have been excluded because of the greedy nature of the first stage. We tested the proposed algorithm by solving many benchmark problems and several other large-size problems of a comprehensive FJSP model with sequence-dependent setup, machine release date, and lag-time. The performance of the proposed two-stage algorithm greatly exceeds that of the common approach of genetic algorithm for FJSP. We also show that further performance improvement of the proposed algorithm can be achieved using high-performance parallel computation. However, the more interesting result we found was that the sequential version of the proposed algorithm (using a single CPU) outperformed a parallel implementation of the regular genetic algorithm that uses many CPUs. We also noted that the superiority of the proposed algorithm over RGA is much greater when solving large-size problems, rendering the proposed algorithm as a viable choice for solving practical problems that are typically encountered in industries.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>The proposed method is a two-stage genetic algorithm (2SGA) for solving flexible job-shop scheduling problems. In the first stage, 2SGA determines a sequence of operations for assignment while selecting machines based on which can complete the operation the soonest. The second stage utilizes a traditional genetic algorithm approach to explore the solution space thoroughly. This dual approach ensures high-quality solutions by first allowing quick greedy assignments followed by a comprehensive search.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>The main objective of this research is to develop an efficient algorithm to solve the flexible job-shop scheduling problem (FJSP) with considerations for sequence-dependent setups, machine release dates, and lag times, enhancing the assignment of operations to machines and sequencing of the operations effectively.</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>['Two-stage genetic algorithm', 'Flexible job shop scheduling', 'Sequence dependent attached/detached setup', 'Lag-time', 'Machine release date', 'Parallel computation']</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>The paper addresses the challenge of flexible job-shop scheduling problems (FJSP), which require simultaneous consideration of operation assignments to machines and their sequence. Traditional methods often struggle with the complex combinatorial nature of these problems,especially when considering sequence-dependent setup times, machine release dates, and other factors. To overcome these limitations, the authors propose a novel two-stage genetic algorithm (2SGA) characterized by an innovative solution encoding method in its first stage, which focuses purely on operational sequencing. This method allows the algorithm to select machines based on the earliest completion times of the operations while considering previously assigned tasks to each machine. The second stage mirrors a typical genetic algorithm approach, enabling comprehensive exploration of the solution space to include options potentially excluded by the greedy strategy of the first stage. The algorithm was rigorously tested against numerous benchmark datasets and various large-scale FJSP scenarios, demonstrating significant performance enhancements over traditional competitive algorithms. Notably, while high-performance parallel implementations offered theoretical advantages, the sequential implementation of the 2SGA was able to outperform them, particularly in larger problem sizes. This finding underscores the importance of efficient initial population generation and the effectiveness of staged greedy selection processes in accelerating convergence toward optimal solutions. Overall, this work contributes to the progression of scheduling methodologies within manufacturing environments, suggesting pathways toward practical implementations in complex industrial contexts.</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>An efficient two-stage genetic algorithm for a flexible job-shop scheduling problem with sequence dependent attached_detached setup, machine release date and lag-time - Anna’s Archive.pdf</t>
@@ -4810,7 +5662,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4827,12 +5679,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A two-stage algorithm based on convolutional neural network (CNN) is proposed. The first stage involves training a prediction model using an improved imperialist competition algorithm (ICA) to generate training data. The second stage uses the trained model to predict the robustness of scheduling. An alternative metric called RMn is developed to evaluate robustness.</t>
+          <t>An effective two-stage algorithm based on convolutional neural network (CNN) is proposed to solve the bi-objective dynamic flexible job shop scheduling problem (DFJSP). The first stage involves training the CNN for predicting scheduling robustness, while the second stage uses this trained model to assess and optimize the robustness of scheduling. An improved imperialist competition algorithm (ICA) is used for generating training data and initial schedules. Finally, non-dominated sorting genetic algorithm II (NSGA-II) is applied to identify solutions that are not dominated by others.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>To solve the bi-objective flexible job shop scheduling problem (FJSP) with machine breakdown, focusing on minimizing maximum completion time and enhancing robustness.</t>
+          <t>To solve the bi-objective dynamic flexible job shop scheduling problem (DFJSP) with consideration for machine breakdown, aiming to minimize the maximum completion time while maximizing robustness of the scheduling against uncertainties such as machine breakdown.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4842,7 +5694,10 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>This paper addresses the complex and uncertain environment of job shop scheduling, particularly focusing on the dynamic flexible job shop scheduling problem (DFJSP) that incorporates machine breakdowns. The authors propose a novel two-stage algorithm leveraging convolutional neural networks (CNN) to enhance scheduling efficiency and robustness. The first stage involves training a predictive model using an improved imperialist competition algorithm (ICA) to generate relevant training data. The second stage utilizes the trained CNN model to predict the robustness of the scheduling solutions. A new robustness metric, RMn, is introduced, which evaluates the impact of float time on scheduling robustness by considering machine breakdowns, workload, and operation float time. The experimental results demonstrate that the proposed two-stage algorithm effectively addresses the DFJSP, yielding solutions that minimize makespan while maintaining high robustness against machine breakdowns. The significance of this research lies in its potential applications in intelligent manufacturing systems, where dynamic scheduling is crucial for operational efficiency. The findings suggest that integrating deep learning techniques into scheduling can lead to more adaptive and resilient manufacturing processes, paving the way for future research to explore further enhancements in scheduling algorithms and robustness measures.</t>
+          <t>This study tackles the flexible job shop scheduling problem (FJSP) with a focus on robustness under machine breakdown conditions, which are prevalent in manufacturing environments. The authors propose a novel two-stage algorithm that leverages convolutional neural networks (CNN) to improve scheduling performance. The first stage involves training the CNN model using data generated by an improved imperialist competition algorithm (ICA) designed to address the scheduling sequence and resource allocation efficiency. This advanced training prepares the model to predict the robustness of various scheduling solutions effectively.
+In the second stage, the algorithm predicts how well each scheduling solution will perform under conditions of machine breakdown, using the robustness measure RMn, which reflects the impact of float time and workload on scheduling uncertainty. This comprehensive methodology not only improves the makespan but also enhances the stability of scheduling outcomes across varied operational scenarios.
+Experimental validation on classic benchmark problems demonstrated that the proposed two-stage approach outperforms traditional optimization strategies by providing quicker and more accurate assessments of schedule robustness. The neural network-based robustness measure RMn was found to be particularly effective, yielding better performance metrics compared to other established robustness measures in scenarios involving machine breakdowns. The findings underscore the practical significance of integrating deep learning techniques into production scheduling systems, enabling flexible adaptations to dynamic conditions, which is increasingly crucial in modern manufacturing environments seeking efficiency amidst uncertainty.
+This approach also points toward future directions in research, suggesting further exploration of how other forms of dynamic disruptions can be managed within scheduling frameworks, potentially employing advanced techniques in artificial intelligence and machine learning.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4852,7 +5707,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4869,22 +5724,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>A novel metaheuristic hybrid Parthenogenetic Algorithm (NMHPGA) combining ethnic selection genetic algorithms and parthenogenetic operators (swap, reverse, insert) to optimize job shop scheduling problems.</t>
+          <t>The proposed method is a Novel Metaheuristic Hybrid Parthenogenetic Algorithm (NMHPGA) that integrates ethnic selection with parthenogenetic operators (swap, reverse, and insert) to enhance optimization in flexible job shop scheduling problems. This method processes both single-machine and multi-machine scenarios, leveraging different selection procedures including stochastic, roulette, sexual, and aging in an ethnic selection framework. The NMHPGA focuses on improving convergence speed and solution quality through this hybrid approach and is validated with extensive computational experiments on established benchmarks and a furnace model.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>To develop an efficient optimization model for flexible job shop scheduling problems using a novel metaheuristic hybrid Parthenogenetic Algorithm (NMHPGA).</t>
+          <t>The primary objective of this research is to develop and test a novel hybrid optimization algorithm (NMHPGA) for job shop scheduling problems that enhances solution quality and convergence speed compared to existing methods. Specifically, it targets the efficient scheduling of single and multi-machine setups with considerations for tardiness, earliness, and due date penalties, showcasing improved performance metrics compared to traditional methods.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['metaheuristic optimization', 'job shop scheduling', 'genetic algorithm', 'single-machine job shop', 'multi-machine job shop']</t>
+          <t>['metaheuristic', 'hybrid parthenogenetic algorithm', 'job shop scheduling', 'optimization', 'genetic algorithm']</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>This paper addresses the challenge of optimizing job shop scheduling problems (JSSP), which are known to be NP-hard and complex due to their combinatorial nature. The authors propose a novel metaheuristic hybrid Parthenogenetic Algorithm (NMHPGA) that integrates principles from genetic algorithms (GA) and ethnic selection methods to enhance the efficiency and convergence speed of solving flexible job shop scheduling issues. The NMHPGA employs a unique combination of parthenogenetic operators—swap, reverse, and insert—alongside ethnic selection techniques that include stochastic, roulette, sexual, and aging selection methods. This hybrid approach allows for the generation of a diverse ethnic population, which is crucial for exploring the solution space effectively. The algorithm is tested on various scheduling scenarios, including single-machine and multi-machine job shops, as well as a furnace model, incorporating penalties for tardiness, earliness, and due dates. The results demonstrate that NMHPGA outperforms traditional selection procedures, achieving superior objective functions and faster convergence rates. The significance of this work lies in its potential applications in manufacturing and production environments, where efficient scheduling can lead to reduced operational costs and improved productivity. Future implications include further refinement of the algorithm and its application to more complex scheduling scenarios, potentially integrating additional constraints and objectives to enhance its applicability in real-world settings.</t>
+          <t>This paper presents a novel approach for solving job shop scheduling problems (JSSP) through the development of a hybrid algorithm named Novel Metaheuristic Hybrid Parthenogenetic Algorithm (NMHPGA). This algorithm aims to tackle the complexity of JSSP, which is classified as NP-hard due to its exponential growth in computation time as the problem size increases. The NMHPGA integrates ethnic selection with parthenogenetic algorithms, utilizing operators like swap, reverse, and insert to enhance genetic representation without traditional crossover processes. This innovative combination enables the algorithm to maintain genetic diversity while improving convergence speed. The performance of NMHPGA is evaluated against standard benchmarks, demonstrating significant improvements in both the quality of solutions and the speed of reaching them. The experiments reveal that NMHPGA not only yields better objective function values but also provides a more reliable convergence rate compared to other hybrid genetic algorithms and standard parthenogenetic approaches. Practical applications include optimizing scheduling in manufacturing environments, specifically for single and multi-machine setups, addressing issues like tardiness and due date penalties. Overall, this work emphasizes the need for efficient algorithmic strategies in handling complex scheduling tasks in modern industrial operations and suggests potential for further enhancements by exploring additional hybridization and selection strategies in future studies.</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4894,7 +5749,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5766,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>The proposed method involves using a simulation model for makespan optimization by applying different Dispatching Rules (DR) for each machine on the shop floor. A learning database is constructed from the collected results to develop an inference model that selects the best DR for new scheduling problems.</t>
+          <t>Simulation model for makespan optimization using different Dispatching Rules for each machine; creation of a learning database to select the best Dispatching Rule for new scheduling problems.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>The objective is to construct and feed a learning base that will be used in a Data Mining process to create an inference model capable of selecting the best Dispatching Rule for any new scheduling problem.</t>
+          <t>To construct a learning base for dispatching rules to optimize makespan in Job Shop Scheduling Problems by using different rules for each machine to enhance scheduling efficiency.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4926,7 +5781,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>The paper addresses the Job Shop Scheduling Problem (JSSP) by proposing a novel approach that utilizes multiple Priority Dispatching Rules (PDR) tailored for each machine on the shop floor. Traditional methods often apply a single dispatching rule across all machines, which can lead to suboptimal scheduling outcomes. This study demonstrates that employing different dispatching rules for each machine can significantly optimize the makespan and improve overall scheduling efficiency. The methodology involves creating a simulation model that tests various dispatching rules, collecting performance data, and constructing a learning database. This database serves as a foundation for developing an inference model that can quickly identify the most effective dispatching rule for new scheduling scenarios. The experimental results validate the hypothesis that a tailored approach to dispatching rules enhances scheduling performance compared to conventional methods. Key findings indicate that the proposed method not only improves makespan but also adapts to the dynamic nature of job shop environments. The practical applications of this research extend to industries where scheduling efficiency is critical, such as manufacturing and logistics. The significance of this work lies in its potential to streamline production processes and reduce operational costs. Future implications suggest further exploration of integrating machine learning techniques to refine the inference model, potentially leading to even more sophisticated scheduling solutions that can adapt in real-time to changing production conditions.</t>
+          <t>The paper addresses the Job Shop Scheduling Problem (JSSP), a well-known NP-Hard optimization issue involving the allocation of jobs on machines with the objective to minimize the makespan, or the total time to complete all jobs. Traditionally, scheduling techniques used uniform Priority Dispatching Rules (PDR), which resulted in suboptimal performance. In response, the authors propose a new approach using multiple PDRs tailored to individual machines on the shop floor. The methodology includes the development of a simulation model whereby different dispatching rules are tested across scenarios with an extensive database for training an inference model that can predict the optimal rule based on specific scheduling conditions. This simulation-based strategy allows for dynamic adaptation of rules, aiming to reduce makespan significantly compared to traditional methods. Experimental results show that utilizing varied dispatching rules for each machine can improve scheduling outcomes, achieving a reduction in makespan in 38% of the tested scenarios and demonstrating a range of improvement of 1% to 8% over the best single rule from previous studies. Performance metrics illustrate the effectiveness of this approach over conventional methods, validating the benefit of a more holistic consideration of dispatching rules tailored to individual machine characteristics. Future work aims to refine this model by integrating it with data mining techniques to enable real-time decision-making, thus further enhancing adaptive responses in dynamic scheduling environments. Furthermore, a goal is set to establish an intelligent decision support system that eliminates the need for repeated simulations by leveraging historical data to guide dispatching rule selection efficiently.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4936,7 +5791,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
@@ -4953,22 +5808,25 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>A modified version of the shifting bottleneck (SB) procedure that incorporates a more general algorithm for one-machine sequencing (OMS) problems, allowing for precedence constraints between jobs.</t>
+          <t>Modified Shifting Bottleneck Procedure (MSB) which incorporates updates to the dependencies between jobs during scheduling.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>To improve the performance of the shifting bottleneck procedure for job-shop scheduling by addressing its drawbacks and ensuring a monotonic decrease of the makespan during optimization.</t>
+          <t>To improve upon the original shifting bottleneck procedure by addressing its drawbacks, specifically around dependency between jobs and optimization cycles.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['job-shop scheduling', 'shifting bottleneck procedure', "Carlier's algorithm", 'makespan', 'optimization']</t>
+          <t>['job-shop scheduling', 'shifting bottleneck', "Carlier's algorithm", 'makespan', 'heuristics']</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>This paper addresses the job-shop scheduling problem, which involves scheduling jobs on machines to minimize the makespan, or the total time required to complete all jobs. The authors propose a modified version of the shifting bottleneck (SB) procedure, originally introduced by Adams et al. in 1988, which is a heuristic method for solving this problem. The standard SB procedure has been shown to outperform other heuristics in terms of both solution quality and computational efficiency. However, it has notable drawbacks, particularly in its reliance on Carlier's algorithm, which treats jobs as independent. This can lead to suboptimal solutions when jobs are dependent on one another. The authors' modification introduces a more general OMS algorithm that accounts for precedence constraints among jobs, thereby improving the solution quality. The modified SB procedure retains the core idea of sequentially optimizing machine schedules but enhances the decision-making process regarding which machine to sequence next by considering job dependencies. The authors validate their approach through computational experiments, demonstrating significant improvements in performance, especially on benchmark problems like the 10-10 and 5-20 instances. The results indicate that the modified procedure consistently yields better makespan results and is less sensitive to the number of local optimization cycles, a parameter that previously caused erratic behavior in the original SB method. This research has practical implications for industries reliant on job-shop scheduling, as it provides a more robust tool for optimizing production schedules. Future work may explore further refinements to the algorithm and its application to more complex scheduling scenarios.</t>
+          <t>In this paper, Dauzere-Peres and Lasserre introduce a modified shifting bottleneck (MSB) procedure aimed at optimizing job-shop scheduling, which is critical in various manufacturing and production environments. The original shifting bottleneck procedure, developed by Adams et al., has shown superior performance in scheduling jobs across multiple machines while minimizing makespan (the total time required to complete a set of tasks). However, this technique harbors certain limitations, particularly regarding its handling of job dependencies and variability in performance tied to the number of optimization cycles employed.
+The authors tackle these issues by extending Carlier's algorithm, which is integral to the original SB method. By modifying this algorithm, the authors allow for precedence relations between jobs, ensuring that the sequencing of tasks respects these dependencies. They show that their modifications help guarantee a monotonic decrease in makespan during re-optimization cycles, thereby addressing the erratic behavior observed in the traditional SB method.
+A series of computational tests were conducted using well-known problem instances (the 10 jobs, 10 machines and 5 jobs, 20 machines problems) to evaluate the effectiveness of the MSB procedure against both the standard SB method and other heuristics. Results indicated that the MSB procedure consistently yielded better or comparable performance across various scenarios, demonstrating robustness against the number of optimization cycles utilized. For instance, the authors report a makespan improvement from 1015 in the standard SB to 950 using their MSB algorithm for the 10x10 problem, corroborated by achieving results closer to optimal solutions in other instances.
+The implications of this research extend to practical applications in scheduling where dependencies are prevalent, making the MSB procedure a valuable addition to operational research methodologies used in job-shop scheduling. The authors suggest avenues for future work that may include further enhancement of the algorithm's efficiency and application to other scheduling contexts.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4978,21 +5836,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:37</t>
+          <t>2025-08-20 02:10:07</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A Pareto based discrete Jaya algorithm for multi-objective flexible job shop scheduling problem</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>In this work, a multi-objective discrete Jaya algorithm (MODJA) is proposed to address the flexible job shop scheduling problem (FJSSP) considering the minimization of makespan, total workload of machines, and workload of critical machine as performance measures. A discrete Jaya algorithm is proposed to handle the problem under consideration. A problem specific neighborhood-based local search technique is integrated into the proposed approach to enhance its exploitation capability. Further, a dynamic mutation operator and a modified crowding distance measure are proposed to enhance the diversity in the search process. Extensive computational experiments are carried out considering 203 instances of FJSSP from literature. The Taguchi method of design is employed to identify the best set of key parameters based on three instances. In the experimentation phase, initially, the contribution of the proposed local search technique and crowding distance measure is investigated. Then, a comparison of MODJA with the weighted sum version of the approach and other multi-objective evolutionary algorithms is performed. Computational results demonstrate the effectiveness of the proposed MODJA in obtaining diverse and improved Pareto-optimal solutions.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Multi-objective discrete Jaya algorithm (MODJA) with a neighborhood-based local search technique, dynamic mutation operator, and modified crowding distance measure.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>To achieve a trade-off between makespan, total workload, and critical workload for the flexible job shop scheduling problem (FJSSP).</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
+          <t>['Multi-objective optimization', 'Flexible job shop scheduling', 'Discrete Jaya algorithm', 'Local search']</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>This paper addresses the Flexible Job Shop Scheduling Problem (FJSSP) using a novel multi-objective discrete Jaya algorithm (MODJA). The core problem involves scheduling multiple jobs on multiple machines with the goal of minimizing makespan, total workload on machines, and workload on the critical machine. The FJSSP is recognized as NP-hard due to its complexity and relevance in real-world manufacturing scenarios. The authors propose several significant enhancements to traditional Jaya algorithm strategies tailored for multi-objective optimization. A primary innovation is the incorporation of a neighborhood-based local search technique that improves the search's exploitation capabilities, aiming to iteratively refine solutions once initial candidates are generated. Additionally, the modifications include developing a dynamic mutation operator and an updated crowding distance measure to maintain diversity among potential solutions and prevent premature convergence. Through extensive testing of 203 instances sourced from existing literature, the authors apply the Taguchi method to tune algorithm parameters effectively. The computational experiments demonstrate that the proposed method significantly outperforms traditional weighted-sum approaches and several other evolutionary algorithms concerning solution diversity and Pareto-optimality. The study validates that the localized search strategies amplify the foundational strengths of MODJA, particularly in diverse scheduling environments. The findings have practical implications for industrial scheduling operations, suggesting that the MODJA could serve as a robust tool for production managers seeking efficient scheduling solutions. The research outlines future avenues, including further refinements to the algorithm and potential adaptations for real-time scheduling adjustments, thus promising greater applicability in dynamic manufacturing settings.</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>A Pareto based discrete Jaya algorithm for multi-objective flexible job shop scheduling problem - Anna’s Archive.pdf</t>
@@ -5000,21 +5878,41 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:39</t>
+          <t>2025-08-20 02:10:50</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>A simheuristic approach for the flexible job shop scheduling problem with stochastic processing times</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>In this work, we address the flexible job shop scheduling problem (FJSSP), a classification of the well-known job shop scheduling problem. We consider stochastic flexible job shop scheduling problem (SFJSSP) with operation processing times represented by random variables following a known probability distribution. To solve this stochastic combinatorial optimization problem, we propose a simulation-optimization approach to minimize the expected makespan. Our approach employs Monte Carlo simulation integrated into a Jaya algorithm framework. Computational results demonstrate the performance of the algorithm at different variability levels through the use of reliability-based methods.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A proposed simulation-optimization approach employing Monte Carlo simulation integrated into a Jaya algorithm framework for solving the stochastic flexible job shop scheduling problem (SFJSSP).</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>To address the stochastic flexible job shop scheduling problem (SFJSSP) and to minimize the expected makespan in the context of uncertainties in production processes.</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>['Flexible job shop scheduling', 'stochastic optimization', 'Jaya algorithm', 'simheuristic approach']</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>This paper focuses on the flexible job shop scheduling problem (FJSSP), an NP-hard problem relevant in various industries like automotive and textiles. Particularly, it examines the stochastic variant (SFJSSP) where operation processing times are uncertain. The study proposes a novel simheuristic approach, integrating Monte Carlo Simulation (MCS) with a Jaya Algorithm (JA), aiming to minimize expected makespan despite inherent uncertainty. The proposed methodology performs incredibly well, especially under varying levels of process time variability, made feasible through simulations that utilize reliability-based metrics such as box plots and survival functions to analyze solution performance. A critical aspect of the work is the algorithm’s adaptability, as it allows for the use of flexible probability distributions such as Weibull and log-normal, thereby accounting for real-world uncertainties more accurately compared to traditional deterministic models. Experimentation involved an extensive set of well-known FJSSP benchmark instances modified to fit the stochastic context, demonstrating how performance metrics reflect the algorithm's efficiency and robustness across different scenarios. The SimJAYA algorithm is noted for its ability to deliver acceptable solutions for larger problem instances under stringent computational timelines. Significant findings include the ability to draw comparative analyses between deterministic and stochastic scenarios, illustrating the impact of variability in processing times on overall schedule performance. The paper concludes by highlighting practical applications in manufacturing and offers suggestions for future research directions that include refining algorithm adaptability in dynamic environments and exploring its applicability across diverse optimization problems beyond scheduling, emphasizing the ongoing need for efficient solutions to complex real-world operational challenges.</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>Caldeira, Rylan H; Gnanavelbabu, A - Anna’s Archive.pdf</t>
@@ -5022,7 +5920,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2025-08-19 22:30:39</t>
+          <t>2025-08-20 02:10:50</t>
         </is>
       </c>
     </row>
